--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
   <si>
     <t>ガントチャート.xlsx</t>
   </si>
@@ -70,7 +70,7 @@
     <t>-定型トリミング</t>
   </si>
   <si>
-    <t>I,K</t>
+    <t>I,M</t>
   </si>
   <si>
     <t>-自由トリミング</t>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>点数入力</t>
+  </si>
+  <si>
+    <t>W,M</t>
   </si>
   <si>
     <t>点数集計</t>
@@ -171,13 +174,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="11"/>
+        <fgColor indexed="10"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="8"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -214,12 +223,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -278,7 +281,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -287,237 +290,332 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
+      <left>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
+      <top>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="10"/>
+      <top>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
-      <bottom style="thin">
-        <color indexed="12"/>
+      <bottom>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="9"/>
       </top>
-      <bottom style="thin">
-        <color indexed="10"/>
+      <bottom>
+        <color indexed="8"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="9"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right>
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
-      <top style="thin">
-        <color indexed="12"/>
+      <top>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </right>
-      <top style="thin">
-        <color indexed="10"/>
+      <top>
+        <color indexed="8"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="19"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="19"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left>
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="19"/>
+      </right>
+      <top style="thin">
+        <color indexed="19"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="19"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
       </left>
       <right style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </left>
       <right style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </right>
       <top style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thick">
-        <color indexed="12"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +625,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -537,40 +635,52 @@
     <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -579,139 +689,175 @@
     <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -732,7 +878,6 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff20124d"/>
       <rgbColor rgb="ffd9d9d9"/>
       <rgbColor rgb="ffcc4125"/>
@@ -742,6 +887,7 @@
       <rgbColor rgb="ff8e7cc3"/>
       <rgbColor rgb="ff93c47d"/>
       <rgbColor rgb="ffc27ba0"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ffefefef"/>
       <rgbColor rgb="ffe6b8af"/>
@@ -2772,1633 +2918,1633 @@
       <c r="AG1" s="6"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
-      <c r="AJ1" s="6"/>
+      <c r="AJ1" s="7"/>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="4"/>
-      <c r="B2" s="7">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9">
         <v>43267</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="6"/>
-      <c r="T2" s="6"/>
-      <c r="U2" s="6"/>
-      <c r="V2" s="6"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="6"/>
-      <c r="Y2" s="6"/>
-      <c r="Z2" s="6"/>
-      <c r="AA2" s="6"/>
-      <c r="AB2" s="6"/>
-      <c r="AC2" s="6"/>
-      <c r="AD2" s="6"/>
-      <c r="AE2" s="6"/>
-      <c r="AF2" s="6"/>
-      <c r="AG2" s="6"/>
-      <c r="AH2" s="6"/>
-      <c r="AI2" s="6"/>
-      <c r="AJ2" s="6"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12"/>
+      <c r="P2" s="12"/>
+      <c r="Q2" s="12"/>
+      <c r="R2" s="12"/>
+      <c r="S2" s="12"/>
+      <c r="T2" s="12"/>
+      <c r="U2" s="12"/>
+      <c r="V2" s="12"/>
+      <c r="W2" s="12"/>
+      <c r="X2" s="12"/>
+      <c r="Y2" s="12"/>
+      <c r="Z2" s="12"/>
+      <c r="AA2" s="12"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="12"/>
+      <c r="AD2" s="12"/>
+      <c r="AE2" s="12"/>
+      <c r="AF2" s="12"/>
+      <c r="AG2" s="12"/>
+      <c r="AH2" s="12"/>
+      <c r="AI2" s="12"/>
+      <c r="AJ2" s="13"/>
     </row>
     <row r="3" ht="34.65" customHeight="1">
-      <c r="A3" s="4"/>
-      <c r="B3" t="s" s="8">
+      <c r="A3" s="8"/>
+      <c r="B3" t="s" s="14">
         <v>2</v>
       </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="6"/>
-      <c r="Y3" s="6"/>
-      <c r="Z3" s="6"/>
-      <c r="AA3" s="6"/>
-      <c r="AB3" s="6"/>
-      <c r="AC3" s="6"/>
-      <c r="AD3" s="6"/>
-      <c r="AE3" s="6"/>
-      <c r="AF3" s="6"/>
-      <c r="AG3" s="6"/>
-      <c r="AH3" s="6"/>
-      <c r="AI3" s="6"/>
-      <c r="AJ3" s="6"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="12"/>
+      <c r="N3" s="12"/>
+      <c r="O3" s="12"/>
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="12"/>
+      <c r="T3" s="12"/>
+      <c r="U3" s="12"/>
+      <c r="V3" s="12"/>
+      <c r="W3" s="12"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="12"/>
+      <c r="AC3" s="12"/>
+      <c r="AD3" s="12"/>
+      <c r="AE3" s="12"/>
+      <c r="AF3" s="12"/>
+      <c r="AG3" s="12"/>
+      <c r="AH3" s="12"/>
+      <c r="AI3" s="12"/>
+      <c r="AJ3" s="13"/>
     </row>
     <row r="4" ht="15.75" customHeight="1">
-      <c r="A4" s="4"/>
-      <c r="B4" s="6"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="6"/>
-      <c r="Y4" s="6"/>
-      <c r="Z4" s="6"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="6"/>
-      <c r="AC4" s="6"/>
-      <c r="AD4" s="6"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="6"/>
-      <c r="AG4" s="6"/>
-      <c r="AH4" s="6"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="6"/>
+      <c r="A4" s="8"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="12"/>
+      <c r="O4" s="12"/>
+      <c r="P4" s="12"/>
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="12"/>
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="12"/>
+      <c r="W4" s="12"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12"/>
+      <c r="AC4" s="12"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
+      <c r="AG4" s="12"/>
+      <c r="AH4" s="12"/>
+      <c r="AI4" s="12"/>
+      <c r="AJ4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="4"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="6"/>
-      <c r="Y5" s="6"/>
-      <c r="Z5" s="6"/>
-      <c r="AA5" s="6"/>
-      <c r="AB5" s="6"/>
-      <c r="AC5" s="6"/>
-      <c r="AD5" s="6"/>
-      <c r="AE5" s="6"/>
-      <c r="AF5" s="6"/>
-      <c r="AG5" s="6"/>
-      <c r="AH5" s="6"/>
-      <c r="AI5" s="6"/>
-      <c r="AJ5" s="6"/>
+      <c r="A5" s="8"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="12"/>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="12"/>
+      <c r="R5" s="12"/>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="12"/>
+      <c r="X5" s="12"/>
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12"/>
+      <c r="AC5" s="12"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AF5" s="12"/>
+      <c r="AG5" s="12"/>
+      <c r="AH5" s="12"/>
+      <c r="AI5" s="12"/>
+      <c r="AJ5" s="13"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="4"/>
+      <c r="A6" s="8"/>
       <c r="B6" s="10"/>
-      <c r="C6" t="s" s="11">
+      <c r="C6" t="s" s="15">
         <v>3</v>
       </c>
-      <c r="D6" s="12"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-      <c r="V6" s="6"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="6"/>
-      <c r="Y6" s="6"/>
-      <c r="Z6" s="6"/>
-      <c r="AA6" s="6"/>
-      <c r="AB6" s="6"/>
-      <c r="AC6" s="6"/>
-      <c r="AD6" s="6"/>
-      <c r="AE6" s="6"/>
-      <c r="AF6" s="6"/>
-      <c r="AG6" s="6"/>
-      <c r="AH6" s="6"/>
-      <c r="AI6" s="6"/>
-      <c r="AJ6" s="6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12"/>
+      <c r="AC6" s="12"/>
+      <c r="AD6" s="12"/>
+      <c r="AE6" s="12"/>
+      <c r="AF6" s="12"/>
+      <c r="AG6" s="12"/>
+      <c r="AH6" s="12"/>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="13"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" t="s" s="11">
+      <c r="A7" s="8"/>
+      <c r="B7" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="11">
+      <c r="C7" t="s" s="15">
         <v>5</v>
       </c>
-      <c r="D7" s="12"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="6"/>
-      <c r="AF7" s="6"/>
-      <c r="AG7" s="6"/>
-      <c r="AH7" s="6"/>
-      <c r="AI7" s="6"/>
-      <c r="AJ7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="12"/>
+      <c r="N7" s="12"/>
+      <c r="O7" s="12"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+      <c r="R7" s="12"/>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="12"/>
+      <c r="X7" s="12"/>
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12"/>
+      <c r="AC7" s="12"/>
+      <c r="AD7" s="12"/>
+      <c r="AE7" s="12"/>
+      <c r="AF7" s="12"/>
+      <c r="AG7" s="12"/>
+      <c r="AH7" s="12"/>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="13"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="13"/>
-      <c r="B8" t="s" s="11">
+      <c r="A8" s="8"/>
+      <c r="B8" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="11">
+      <c r="C8" t="s" s="15">
         <v>7</v>
       </c>
-      <c r="D8" s="12"/>
-      <c r="E8" s="5"/>
-      <c r="F8" t="s" s="3">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" t="s" s="16">
         <v>8</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-      <c r="V8" s="6"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="6"/>
-      <c r="Y8" s="6"/>
-      <c r="Z8" s="6"/>
-      <c r="AA8" s="6"/>
-      <c r="AB8" s="6"/>
-      <c r="AC8" s="6"/>
-      <c r="AD8" s="6"/>
-      <c r="AE8" s="6"/>
-      <c r="AF8" s="6"/>
-      <c r="AG8" s="6"/>
-      <c r="AH8" s="6"/>
-      <c r="AI8" s="6"/>
-      <c r="AJ8" s="6"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="12"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+      <c r="R8" s="12"/>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="12"/>
+      <c r="X8" s="12"/>
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12"/>
+      <c r="AC8" s="12"/>
+      <c r="AD8" s="12"/>
+      <c r="AE8" s="12"/>
+      <c r="AF8" s="12"/>
+      <c r="AG8" s="12"/>
+      <c r="AH8" s="12"/>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="13"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="13"/>
-      <c r="B9" t="s" s="11">
+      <c r="A9" s="8"/>
+      <c r="B9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="C9" t="s" s="11">
+      <c r="C9" t="s" s="15">
         <v>10</v>
       </c>
-      <c r="D9" s="12"/>
-      <c r="E9" s="5"/>
-      <c r="F9" t="s" s="3">
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" t="s" s="16">
         <v>11</v>
       </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-      <c r="V9" s="6"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="6"/>
-      <c r="Y9" s="6"/>
-      <c r="Z9" s="6"/>
-      <c r="AA9" s="6"/>
-      <c r="AB9" s="6"/>
-      <c r="AC9" s="6"/>
-      <c r="AD9" s="6"/>
-      <c r="AE9" s="6"/>
-      <c r="AF9" s="6"/>
-      <c r="AG9" s="6"/>
-      <c r="AH9" s="6"/>
-      <c r="AI9" s="6"/>
-      <c r="AJ9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="12"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="12"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="12"/>
+      <c r="X9" s="12"/>
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12"/>
+      <c r="AC9" s="12"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="12"/>
+      <c r="AF9" s="12"/>
+      <c r="AG9" s="12"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="12"/>
+      <c r="AJ9" s="13"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="4"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="16"/>
-      <c r="X10" s="16"/>
-      <c r="Y10" s="16"/>
-      <c r="Z10" s="16"/>
-      <c r="AA10" s="16"/>
-      <c r="AB10" s="16"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="6"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="18"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="19"/>
+      <c r="E10" s="19"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+      <c r="AJ10" s="21"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19"/>
-      <c r="E11" t="s" s="20">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="25"/>
+      <c r="E11" t="s" s="26">
         <v>12</v>
       </c>
-      <c r="F11" s="21">
+      <c r="F11" s="27">
         <v>7</v>
       </c>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23">
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="29">
         <v>8</v>
       </c>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25">
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="31">
         <v>9</v>
       </c>
-      <c r="P11" s="26"/>
-      <c r="Q11" s="26"/>
-      <c r="R11" s="26"/>
-      <c r="S11" s="27">
+      <c r="P11" s="32"/>
+      <c r="Q11" s="32"/>
+      <c r="R11" s="32"/>
+      <c r="S11" s="33">
         <v>10</v>
       </c>
-      <c r="T11" s="28"/>
-      <c r="U11" s="28"/>
-      <c r="V11" s="28"/>
-      <c r="W11" s="29">
+      <c r="T11" s="34"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="34"/>
+      <c r="W11" s="35">
         <v>11</v>
       </c>
-      <c r="X11" s="30"/>
-      <c r="Y11" s="30"/>
-      <c r="Z11" s="30"/>
-      <c r="AA11" s="30"/>
-      <c r="AB11" s="31">
+      <c r="X11" s="36"/>
+      <c r="Y11" s="36"/>
+      <c r="Z11" s="36"/>
+      <c r="AA11" s="36"/>
+      <c r="AB11" s="37">
         <v>12</v>
       </c>
-      <c r="AC11" s="32"/>
-      <c r="AD11" s="32"/>
-      <c r="AE11" s="32"/>
-      <c r="AF11" s="33">
+      <c r="AC11" s="38"/>
+      <c r="AD11" s="38"/>
+      <c r="AE11" s="38"/>
+      <c r="AF11" s="39">
         <v>1</v>
       </c>
-      <c r="AG11" s="34"/>
-      <c r="AH11" s="34"/>
-      <c r="AI11" s="34"/>
-      <c r="AJ11" s="35"/>
+      <c r="AG11" s="40"/>
+      <c r="AH11" s="40"/>
+      <c r="AI11" s="40"/>
+      <c r="AJ11" s="41"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" t="s" s="36">
+      <c r="A12" s="22"/>
+      <c r="B12" t="s" s="42">
         <v>13</v>
       </c>
-      <c r="C12" t="s" s="36">
+      <c r="C12" t="s" s="43">
         <v>14</v>
       </c>
-      <c r="D12" t="s" s="20">
+      <c r="D12" t="s" s="44">
         <v>15</v>
       </c>
-      <c r="E12" t="s" s="20">
+      <c r="E12" t="s" s="44">
         <v>16</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="45">
         <v>6</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="45">
         <v>13</v>
       </c>
-      <c r="H12" s="37">
+      <c r="H12" s="46">
         <v>20</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="45">
         <v>27</v>
       </c>
-      <c r="J12" s="38">
+      <c r="J12" s="47">
         <v>3</v>
       </c>
-      <c r="K12" s="38">
+      <c r="K12" s="47">
         <v>10</v>
       </c>
-      <c r="L12" s="38">
+      <c r="L12" s="47">
         <v>17</v>
       </c>
-      <c r="M12" s="38">
+      <c r="M12" s="47">
         <v>24</v>
       </c>
-      <c r="N12" s="38">
+      <c r="N12" s="47">
         <v>31</v>
       </c>
-      <c r="O12" s="39">
+      <c r="O12" s="48">
         <v>7</v>
       </c>
-      <c r="P12" s="39">
+      <c r="P12" s="48">
         <v>14</v>
       </c>
-      <c r="Q12" s="25">
+      <c r="Q12" s="49">
         <v>21</v>
       </c>
-      <c r="R12" s="25">
+      <c r="R12" s="49">
         <v>28</v>
       </c>
-      <c r="S12" s="27">
+      <c r="S12" s="50">
         <v>4</v>
       </c>
-      <c r="T12" s="27">
+      <c r="T12" s="50">
         <v>11</v>
       </c>
-      <c r="U12" s="27">
+      <c r="U12" s="50">
         <v>18</v>
       </c>
-      <c r="V12" s="27">
+      <c r="V12" s="50">
         <v>25</v>
       </c>
-      <c r="W12" s="40">
+      <c r="W12" s="51">
         <v>2</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="52">
         <v>9</v>
       </c>
-      <c r="Y12" s="40">
+      <c r="Y12" s="51">
         <v>16</v>
       </c>
-      <c r="Z12" s="29">
+      <c r="Z12" s="52">
         <v>23</v>
       </c>
-      <c r="AA12" s="29">
+      <c r="AA12" s="52">
         <v>30</v>
       </c>
-      <c r="AB12" s="31">
+      <c r="AB12" s="53">
         <v>7</v>
       </c>
-      <c r="AC12" s="31">
+      <c r="AC12" s="53">
         <v>14</v>
       </c>
-      <c r="AD12" s="31">
+      <c r="AD12" s="53">
         <v>21</v>
       </c>
-      <c r="AE12" s="41">
+      <c r="AE12" s="54">
         <v>28</v>
       </c>
-      <c r="AF12" s="42">
+      <c r="AF12" s="55">
         <v>4</v>
       </c>
-      <c r="AG12" s="33">
+      <c r="AG12" s="56">
         <v>11</v>
       </c>
-      <c r="AH12" s="33">
+      <c r="AH12" s="56">
         <v>18</v>
       </c>
-      <c r="AI12" s="33">
+      <c r="AI12" s="56">
         <v>25</v>
       </c>
-      <c r="AJ12" s="35"/>
+      <c r="AJ12" s="57"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="43"/>
-      <c r="B13" t="s" s="44">
+      <c r="A13" s="58"/>
+      <c r="B13" t="s" s="59">
         <v>17</v>
       </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
-      <c r="F13" s="47"/>
-      <c r="G13" s="47"/>
-      <c r="H13" s="47"/>
-      <c r="I13" s="47"/>
-      <c r="J13" s="48"/>
-      <c r="K13" s="48"/>
-      <c r="L13" s="48"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-      <c r="O13" s="49"/>
-      <c r="P13" s="49"/>
-      <c r="Q13" s="49"/>
-      <c r="R13" s="49"/>
-      <c r="S13" s="50"/>
-      <c r="T13" s="50"/>
-      <c r="U13" s="50"/>
-      <c r="V13" s="50"/>
-      <c r="W13" s="51"/>
-      <c r="X13" s="51"/>
-      <c r="Y13" s="51"/>
-      <c r="Z13" s="51"/>
-      <c r="AA13" s="51"/>
-      <c r="AB13" s="52"/>
-      <c r="AC13" s="52"/>
-      <c r="AD13" s="52"/>
-      <c r="AE13" s="52"/>
-      <c r="AF13" s="53"/>
-      <c r="AG13" s="53"/>
-      <c r="AH13" s="53"/>
-      <c r="AI13" s="53"/>
-      <c r="AJ13" s="35"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="62"/>
+      <c r="H13" s="62"/>
+      <c r="I13" s="62"/>
+      <c r="J13" s="63"/>
+      <c r="K13" s="63"/>
+      <c r="L13" s="63"/>
+      <c r="M13" s="63"/>
+      <c r="N13" s="63"/>
+      <c r="O13" s="64"/>
+      <c r="P13" s="64"/>
+      <c r="Q13" s="64"/>
+      <c r="R13" s="64"/>
+      <c r="S13" s="65"/>
+      <c r="T13" s="65"/>
+      <c r="U13" s="65"/>
+      <c r="V13" s="65"/>
+      <c r="W13" s="66"/>
+      <c r="X13" s="66"/>
+      <c r="Y13" s="66"/>
+      <c r="Z13" s="66"/>
+      <c r="AA13" s="66"/>
+      <c r="AB13" s="67"/>
+      <c r="AC13" s="67"/>
+      <c r="AD13" s="67"/>
+      <c r="AE13" s="67"/>
+      <c r="AF13" s="68"/>
+      <c r="AG13" s="68"/>
+      <c r="AH13" s="68"/>
+      <c r="AI13" s="68"/>
+      <c r="AJ13" s="57"/>
     </row>
     <row r="14" ht="15.75" customHeight="1">
-      <c r="A14" s="43"/>
-      <c r="B14" t="s" s="54">
+      <c r="A14" s="58"/>
+      <c r="B14" t="s" s="69">
         <v>18</v>
       </c>
-      <c r="C14" s="45"/>
-      <c r="D14" t="s" s="55">
+      <c r="C14" s="60"/>
+      <c r="D14" t="s" s="70">
         <v>19</v>
       </c>
-      <c r="E14" s="46"/>
-      <c r="F14" s="47"/>
-      <c r="G14" s="47"/>
-      <c r="H14" s="47"/>
-      <c r="I14" s="47"/>
-      <c r="J14" s="48"/>
-      <c r="K14" s="48"/>
-      <c r="L14" s="48"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-      <c r="O14" s="49"/>
-      <c r="P14" s="49"/>
-      <c r="Q14" s="49"/>
-      <c r="R14" s="49"/>
-      <c r="S14" s="50"/>
-      <c r="T14" s="50"/>
-      <c r="U14" s="50"/>
-      <c r="V14" s="50"/>
-      <c r="W14" s="51"/>
-      <c r="X14" s="51"/>
-      <c r="Y14" s="51"/>
-      <c r="Z14" s="51"/>
-      <c r="AA14" s="51"/>
-      <c r="AB14" s="52"/>
-      <c r="AC14" s="52"/>
-      <c r="AD14" s="52"/>
-      <c r="AE14" s="52"/>
-      <c r="AF14" s="53"/>
-      <c r="AG14" s="53"/>
-      <c r="AH14" s="53"/>
-      <c r="AI14" s="53"/>
-      <c r="AJ14" s="35"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="62"/>
+      <c r="H14" s="62"/>
+      <c r="I14" s="62"/>
+      <c r="J14" s="63"/>
+      <c r="K14" s="63"/>
+      <c r="L14" s="63"/>
+      <c r="M14" s="63"/>
+      <c r="N14" s="63"/>
+      <c r="O14" s="64"/>
+      <c r="P14" s="64"/>
+      <c r="Q14" s="64"/>
+      <c r="R14" s="64"/>
+      <c r="S14" s="65"/>
+      <c r="T14" s="65"/>
+      <c r="U14" s="65"/>
+      <c r="V14" s="65"/>
+      <c r="W14" s="66"/>
+      <c r="X14" s="66"/>
+      <c r="Y14" s="66"/>
+      <c r="Z14" s="66"/>
+      <c r="AA14" s="66"/>
+      <c r="AB14" s="67"/>
+      <c r="AC14" s="67"/>
+      <c r="AD14" s="67"/>
+      <c r="AE14" s="67"/>
+      <c r="AF14" s="68"/>
+      <c r="AG14" s="68"/>
+      <c r="AH14" s="68"/>
+      <c r="AI14" s="68"/>
+      <c r="AJ14" s="57"/>
     </row>
     <row r="15" ht="15.75" customHeight="1">
-      <c r="A15" s="43"/>
-      <c r="B15" t="s" s="54">
+      <c r="A15" s="58"/>
+      <c r="B15" t="s" s="69">
         <v>20</v>
       </c>
-      <c r="C15" s="45"/>
-      <c r="D15" t="s" s="55">
+      <c r="C15" s="60"/>
+      <c r="D15" t="s" s="70">
         <v>19</v>
       </c>
-      <c r="E15" s="46"/>
-      <c r="F15" s="47"/>
-      <c r="G15" s="47"/>
-      <c r="H15" s="47"/>
-      <c r="I15" s="47"/>
-      <c r="J15" s="48"/>
-      <c r="K15" s="48"/>
-      <c r="L15" s="48"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-      <c r="O15" s="49"/>
-      <c r="P15" s="49"/>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="S15" s="50"/>
-      <c r="T15" s="50"/>
-      <c r="U15" s="50"/>
-      <c r="V15" s="50"/>
-      <c r="W15" s="51"/>
-      <c r="X15" s="51"/>
-      <c r="Y15" s="51"/>
-      <c r="Z15" s="51"/>
-      <c r="AA15" s="51"/>
-      <c r="AB15" s="52"/>
-      <c r="AC15" s="52"/>
-      <c r="AD15" s="52"/>
-      <c r="AE15" s="52"/>
-      <c r="AF15" s="53"/>
-      <c r="AG15" s="53"/>
-      <c r="AH15" s="53"/>
-      <c r="AI15" s="53"/>
-      <c r="AJ15" s="35"/>
+      <c r="E15" s="61"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="62"/>
+      <c r="H15" s="62"/>
+      <c r="I15" s="62"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="63"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="63"/>
+      <c r="O15" s="64"/>
+      <c r="P15" s="64"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="64"/>
+      <c r="S15" s="65"/>
+      <c r="T15" s="65"/>
+      <c r="U15" s="65"/>
+      <c r="V15" s="65"/>
+      <c r="W15" s="66"/>
+      <c r="X15" s="66"/>
+      <c r="Y15" s="66"/>
+      <c r="Z15" s="66"/>
+      <c r="AA15" s="66"/>
+      <c r="AB15" s="67"/>
+      <c r="AC15" s="67"/>
+      <c r="AD15" s="67"/>
+      <c r="AE15" s="67"/>
+      <c r="AF15" s="68"/>
+      <c r="AG15" s="68"/>
+      <c r="AH15" s="68"/>
+      <c r="AI15" s="68"/>
+      <c r="AJ15" s="57"/>
     </row>
     <row r="16" ht="15.75" customHeight="1">
-      <c r="A16" s="43"/>
-      <c r="B16" t="s" s="54">
+      <c r="A16" s="58"/>
+      <c r="B16" t="s" s="69">
         <v>21</v>
       </c>
-      <c r="C16" s="45"/>
-      <c r="D16" t="s" s="55">
-        <v>10</v>
-      </c>
-      <c r="E16" s="46"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="47"/>
-      <c r="H16" s="47"/>
-      <c r="I16" s="47"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="48"/>
-      <c r="L16" s="48"/>
-      <c r="M16" s="48"/>
-      <c r="N16" s="48"/>
-      <c r="O16" s="49"/>
-      <c r="P16" s="49"/>
-      <c r="Q16" s="49"/>
-      <c r="R16" s="49"/>
-      <c r="S16" s="50"/>
-      <c r="T16" s="50"/>
-      <c r="U16" s="50"/>
-      <c r="V16" s="50"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="51"/>
-      <c r="Z16" s="51"/>
-      <c r="AA16" s="51"/>
-      <c r="AB16" s="52"/>
-      <c r="AC16" s="52"/>
-      <c r="AD16" s="52"/>
-      <c r="AE16" s="52"/>
-      <c r="AF16" s="53"/>
-      <c r="AG16" s="53"/>
-      <c r="AH16" s="53"/>
-      <c r="AI16" s="53"/>
-      <c r="AJ16" s="35"/>
+      <c r="C16" s="60"/>
+      <c r="D16" t="s" s="70">
+        <v>7</v>
+      </c>
+      <c r="E16" s="61"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="63"/>
+      <c r="K16" s="63"/>
+      <c r="L16" s="63"/>
+      <c r="M16" s="63"/>
+      <c r="N16" s="63"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="64"/>
+      <c r="Q16" s="64"/>
+      <c r="R16" s="64"/>
+      <c r="S16" s="65"/>
+      <c r="T16" s="65"/>
+      <c r="U16" s="65"/>
+      <c r="V16" s="65"/>
+      <c r="W16" s="66"/>
+      <c r="X16" s="66"/>
+      <c r="Y16" s="66"/>
+      <c r="Z16" s="66"/>
+      <c r="AA16" s="66"/>
+      <c r="AB16" s="67"/>
+      <c r="AC16" s="67"/>
+      <c r="AD16" s="67"/>
+      <c r="AE16" s="67"/>
+      <c r="AF16" s="68"/>
+      <c r="AG16" s="68"/>
+      <c r="AH16" s="68"/>
+      <c r="AI16" s="68"/>
+      <c r="AJ16" s="57"/>
     </row>
     <row r="17" ht="15.75" customHeight="1">
-      <c r="A17" s="43"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="45"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
-      <c r="G17" s="47"/>
-      <c r="H17" s="47"/>
-      <c r="I17" s="47"/>
-      <c r="J17" s="48"/>
-      <c r="K17" s="48"/>
-      <c r="L17" s="48"/>
-      <c r="M17" s="48"/>
-      <c r="N17" s="48"/>
-      <c r="O17" s="49"/>
-      <c r="P17" s="49"/>
-      <c r="Q17" s="49"/>
-      <c r="R17" s="49"/>
-      <c r="S17" s="50"/>
-      <c r="T17" s="50"/>
-      <c r="U17" s="50"/>
-      <c r="V17" s="50"/>
-      <c r="W17" s="51"/>
-      <c r="X17" s="51"/>
-      <c r="Y17" s="51"/>
-      <c r="Z17" s="51"/>
-      <c r="AA17" s="51"/>
-      <c r="AB17" s="52"/>
-      <c r="AC17" s="52"/>
-      <c r="AD17" s="52"/>
-      <c r="AE17" s="52"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="35"/>
+      <c r="A17" s="58"/>
+      <c r="B17" s="71"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="61"/>
+      <c r="E17" s="61"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="62"/>
+      <c r="H17" s="62"/>
+      <c r="I17" s="62"/>
+      <c r="J17" s="63"/>
+      <c r="K17" s="63"/>
+      <c r="L17" s="63"/>
+      <c r="M17" s="63"/>
+      <c r="N17" s="63"/>
+      <c r="O17" s="64"/>
+      <c r="P17" s="64"/>
+      <c r="Q17" s="64"/>
+      <c r="R17" s="64"/>
+      <c r="S17" s="65"/>
+      <c r="T17" s="65"/>
+      <c r="U17" s="65"/>
+      <c r="V17" s="65"/>
+      <c r="W17" s="66"/>
+      <c r="X17" s="66"/>
+      <c r="Y17" s="66"/>
+      <c r="Z17" s="66"/>
+      <c r="AA17" s="66"/>
+      <c r="AB17" s="67"/>
+      <c r="AC17" s="67"/>
+      <c r="AD17" s="67"/>
+      <c r="AE17" s="67"/>
+      <c r="AF17" s="68"/>
+      <c r="AG17" s="68"/>
+      <c r="AH17" s="68"/>
+      <c r="AI17" s="68"/>
+      <c r="AJ17" s="57"/>
     </row>
     <row r="18" ht="15.75" customHeight="1">
-      <c r="A18" s="43"/>
-      <c r="B18" t="s" s="44">
+      <c r="A18" s="58"/>
+      <c r="B18" t="s" s="59">
         <v>22</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="46"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="48"/>
-      <c r="K18" s="48"/>
-      <c r="L18" s="48"/>
-      <c r="M18" s="48"/>
-      <c r="N18" s="48"/>
-      <c r="O18" s="49"/>
-      <c r="P18" s="49"/>
-      <c r="Q18" s="49"/>
-      <c r="R18" s="49"/>
-      <c r="S18" s="50"/>
-      <c r="T18" s="50"/>
-      <c r="U18" s="50"/>
-      <c r="V18" s="50"/>
-      <c r="W18" s="51"/>
-      <c r="X18" s="51"/>
-      <c r="Y18" s="51"/>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="57"/>
-      <c r="AB18" s="58"/>
-      <c r="AC18" s="52"/>
-      <c r="AD18" s="52"/>
-      <c r="AE18" s="52"/>
-      <c r="AF18" s="53"/>
-      <c r="AG18" s="53"/>
-      <c r="AH18" s="53"/>
-      <c r="AI18" s="53"/>
-      <c r="AJ18" s="35"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="64"/>
+      <c r="P18" s="64"/>
+      <c r="Q18" s="64"/>
+      <c r="R18" s="64"/>
+      <c r="S18" s="65"/>
+      <c r="T18" s="65"/>
+      <c r="U18" s="65"/>
+      <c r="V18" s="65"/>
+      <c r="W18" s="66"/>
+      <c r="X18" s="66"/>
+      <c r="Y18" s="66"/>
+      <c r="Z18" s="72"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="67"/>
+      <c r="AD18" s="67"/>
+      <c r="AE18" s="67"/>
+      <c r="AF18" s="68"/>
+      <c r="AG18" s="68"/>
+      <c r="AH18" s="68"/>
+      <c r="AI18" s="68"/>
+      <c r="AJ18" s="57"/>
     </row>
     <row r="19" ht="15.75" customHeight="1">
-      <c r="A19" s="43"/>
-      <c r="B19" t="s" s="54">
+      <c r="A19" s="58"/>
+      <c r="B19" t="s" s="69">
         <v>23</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" t="s" s="55">
+      <c r="C19" s="60"/>
+      <c r="D19" t="s" s="70">
         <v>19</v>
       </c>
-      <c r="E19" s="46"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="48"/>
-      <c r="K19" s="48"/>
-      <c r="L19" s="48"/>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="49"/>
-      <c r="P19" s="49"/>
-      <c r="Q19" s="49"/>
-      <c r="R19" s="49"/>
-      <c r="S19" s="50"/>
-      <c r="T19" s="50"/>
-      <c r="U19" s="50"/>
-      <c r="V19" s="50"/>
-      <c r="W19" s="51"/>
-      <c r="X19" s="51"/>
-      <c r="Y19" s="51"/>
-      <c r="Z19" s="51"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="52"/>
-      <c r="AC19" s="52"/>
-      <c r="AD19" s="52"/>
-      <c r="AE19" s="52"/>
-      <c r="AF19" s="53"/>
-      <c r="AG19" s="53"/>
-      <c r="AH19" s="53"/>
-      <c r="AI19" s="53"/>
-      <c r="AJ19" s="35"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="64"/>
+      <c r="P19" s="64"/>
+      <c r="Q19" s="64"/>
+      <c r="R19" s="64"/>
+      <c r="S19" s="65"/>
+      <c r="T19" s="65"/>
+      <c r="U19" s="65"/>
+      <c r="V19" s="65"/>
+      <c r="W19" s="66"/>
+      <c r="X19" s="66"/>
+      <c r="Y19" s="66"/>
+      <c r="Z19" s="66"/>
+      <c r="AA19" s="75"/>
+      <c r="AB19" s="67"/>
+      <c r="AC19" s="67"/>
+      <c r="AD19" s="67"/>
+      <c r="AE19" s="67"/>
+      <c r="AF19" s="68"/>
+      <c r="AG19" s="68"/>
+      <c r="AH19" s="68"/>
+      <c r="AI19" s="68"/>
+      <c r="AJ19" s="57"/>
     </row>
     <row r="20" ht="15.75" customHeight="1">
-      <c r="A20" s="43"/>
-      <c r="B20" t="s" s="54">
+      <c r="A20" s="58"/>
+      <c r="B20" t="s" s="69">
         <v>24</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" t="s" s="55">
+      <c r="C20" s="60"/>
+      <c r="D20" t="s" s="70">
         <v>19</v>
       </c>
-      <c r="E20" s="46"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="48"/>
-      <c r="K20" s="48"/>
-      <c r="L20" s="48"/>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="49"/>
-      <c r="P20" s="49"/>
-      <c r="Q20" s="49"/>
-      <c r="R20" s="49"/>
-      <c r="S20" s="50"/>
-      <c r="T20" s="50"/>
-      <c r="U20" s="50"/>
-      <c r="V20" s="50"/>
-      <c r="W20" s="51"/>
-      <c r="X20" s="51"/>
-      <c r="Y20" s="51"/>
-      <c r="Z20" s="51"/>
-      <c r="AA20" s="51"/>
-      <c r="AB20" s="52"/>
-      <c r="AC20" s="52"/>
-      <c r="AD20" s="52"/>
-      <c r="AE20" s="52"/>
-      <c r="AF20" s="53"/>
-      <c r="AG20" s="53"/>
-      <c r="AH20" s="53"/>
-      <c r="AI20" s="53"/>
-      <c r="AJ20" s="35"/>
+      <c r="E20" s="61"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="64"/>
+      <c r="P20" s="64"/>
+      <c r="Q20" s="64"/>
+      <c r="R20" s="64"/>
+      <c r="S20" s="65"/>
+      <c r="T20" s="65"/>
+      <c r="U20" s="65"/>
+      <c r="V20" s="65"/>
+      <c r="W20" s="66"/>
+      <c r="X20" s="66"/>
+      <c r="Y20" s="66"/>
+      <c r="Z20" s="66"/>
+      <c r="AA20" s="66"/>
+      <c r="AB20" s="67"/>
+      <c r="AC20" s="67"/>
+      <c r="AD20" s="67"/>
+      <c r="AE20" s="67"/>
+      <c r="AF20" s="68"/>
+      <c r="AG20" s="68"/>
+      <c r="AH20" s="68"/>
+      <c r="AI20" s="68"/>
+      <c r="AJ20" s="57"/>
     </row>
     <row r="21" ht="15.75" customHeight="1">
-      <c r="A21" s="43"/>
-      <c r="B21" t="s" s="54">
+      <c r="A21" s="58"/>
+      <c r="B21" t="s" s="69">
         <v>25</v>
       </c>
-      <c r="C21" s="45"/>
-      <c r="D21" t="s" s="55">
+      <c r="C21" s="60"/>
+      <c r="D21" t="s" s="70">
         <v>19</v>
       </c>
-      <c r="E21" s="46"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="48"/>
-      <c r="K21" s="48"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="49"/>
-      <c r="P21" s="49"/>
-      <c r="Q21" s="49"/>
-      <c r="R21" s="49"/>
-      <c r="S21" s="50"/>
-      <c r="T21" s="50"/>
-      <c r="U21" s="50"/>
-      <c r="V21" s="50"/>
-      <c r="W21" s="51"/>
-      <c r="X21" s="51"/>
-      <c r="Y21" s="51"/>
-      <c r="Z21" s="51"/>
-      <c r="AA21" s="60"/>
-      <c r="AB21" s="52"/>
-      <c r="AC21" s="52"/>
-      <c r="AD21" s="52"/>
-      <c r="AE21" s="52"/>
-      <c r="AF21" s="53"/>
-      <c r="AG21" s="53"/>
-      <c r="AH21" s="53"/>
-      <c r="AI21" s="53"/>
-      <c r="AJ21" s="35"/>
+      <c r="E21" s="61"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="64"/>
+      <c r="P21" s="64"/>
+      <c r="Q21" s="64"/>
+      <c r="R21" s="64"/>
+      <c r="S21" s="65"/>
+      <c r="T21" s="65"/>
+      <c r="U21" s="65"/>
+      <c r="V21" s="65"/>
+      <c r="W21" s="66"/>
+      <c r="X21" s="66"/>
+      <c r="Y21" s="66"/>
+      <c r="Z21" s="66"/>
+      <c r="AA21" s="76"/>
+      <c r="AB21" s="67"/>
+      <c r="AC21" s="67"/>
+      <c r="AD21" s="67"/>
+      <c r="AE21" s="67"/>
+      <c r="AF21" s="68"/>
+      <c r="AG21" s="68"/>
+      <c r="AH21" s="68"/>
+      <c r="AI21" s="68"/>
+      <c r="AJ21" s="57"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
-      <c r="A22" s="43"/>
-      <c r="B22" t="s" s="44">
+      <c r="A22" s="58"/>
+      <c r="B22" t="s" s="59">
         <v>26</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="46"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="48"/>
-      <c r="K22" s="48"/>
-      <c r="L22" s="48"/>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="49"/>
-      <c r="P22" s="49"/>
-      <c r="Q22" s="49"/>
-      <c r="R22" s="49"/>
-      <c r="S22" s="50"/>
-      <c r="T22" s="50"/>
-      <c r="U22" s="50"/>
-      <c r="V22" s="50"/>
-      <c r="W22" s="51"/>
-      <c r="X22" s="51"/>
-      <c r="Y22" s="51"/>
-      <c r="Z22" s="56"/>
-      <c r="AA22" s="61"/>
-      <c r="AB22" s="58"/>
-      <c r="AC22" s="52"/>
-      <c r="AD22" s="52"/>
-      <c r="AE22" s="52"/>
-      <c r="AF22" s="53"/>
-      <c r="AG22" s="53"/>
-      <c r="AH22" s="53"/>
-      <c r="AI22" s="53"/>
-      <c r="AJ22" s="35"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="61"/>
+      <c r="E22" s="61"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="64"/>
+      <c r="P22" s="64"/>
+      <c r="Q22" s="64"/>
+      <c r="R22" s="64"/>
+      <c r="S22" s="65"/>
+      <c r="T22" s="65"/>
+      <c r="U22" s="65"/>
+      <c r="V22" s="65"/>
+      <c r="W22" s="66"/>
+      <c r="X22" s="66"/>
+      <c r="Y22" s="66"/>
+      <c r="Z22" s="72"/>
+      <c r="AA22" s="77"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="67"/>
+      <c r="AD22" s="67"/>
+      <c r="AE22" s="67"/>
+      <c r="AF22" s="68"/>
+      <c r="AG22" s="68"/>
+      <c r="AH22" s="68"/>
+      <c r="AI22" s="68"/>
+      <c r="AJ22" s="57"/>
     </row>
     <row r="23" ht="15.75" customHeight="1">
-      <c r="A23" s="43"/>
-      <c r="B23" t="s" s="54">
+      <c r="A23" s="58"/>
+      <c r="B23" t="s" s="69">
         <v>23</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" t="s" s="55">
+      <c r="C23" s="60"/>
+      <c r="D23" t="s" s="70">
         <v>19</v>
       </c>
-      <c r="E23" s="46"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="48"/>
-      <c r="K23" s="48"/>
-      <c r="L23" s="48"/>
-      <c r="M23" s="48"/>
-      <c r="N23" s="48"/>
-      <c r="O23" s="49"/>
-      <c r="P23" s="49"/>
-      <c r="Q23" s="49"/>
-      <c r="R23" s="49"/>
-      <c r="S23" s="50"/>
-      <c r="T23" s="50"/>
-      <c r="U23" s="50"/>
-      <c r="V23" s="50"/>
-      <c r="W23" s="51"/>
-      <c r="X23" s="51"/>
-      <c r="Y23" s="51"/>
-      <c r="Z23" s="51"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="52"/>
-      <c r="AC23" s="52"/>
-      <c r="AD23" s="52"/>
-      <c r="AE23" s="52"/>
-      <c r="AF23" s="53"/>
-      <c r="AG23" s="53"/>
-      <c r="AH23" s="53"/>
-      <c r="AI23" s="53"/>
-      <c r="AJ23" s="35"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="64"/>
+      <c r="P23" s="64"/>
+      <c r="Q23" s="64"/>
+      <c r="R23" s="64"/>
+      <c r="S23" s="65"/>
+      <c r="T23" s="65"/>
+      <c r="U23" s="65"/>
+      <c r="V23" s="65"/>
+      <c r="W23" s="66"/>
+      <c r="X23" s="66"/>
+      <c r="Y23" s="66"/>
+      <c r="Z23" s="66"/>
+      <c r="AA23" s="75"/>
+      <c r="AB23" s="67"/>
+      <c r="AC23" s="67"/>
+      <c r="AD23" s="67"/>
+      <c r="AE23" s="67"/>
+      <c r="AF23" s="68"/>
+      <c r="AG23" s="68"/>
+      <c r="AH23" s="68"/>
+      <c r="AI23" s="68"/>
+      <c r="AJ23" s="57"/>
     </row>
     <row r="24" ht="15.75" customHeight="1">
-      <c r="A24" s="43"/>
-      <c r="B24" t="s" s="54">
+      <c r="A24" s="58"/>
+      <c r="B24" t="s" s="69">
         <v>24</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" t="s" s="55">
+      <c r="C24" s="60"/>
+      <c r="D24" t="s" s="70">
         <v>19</v>
       </c>
-      <c r="E24" s="46"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="48"/>
-      <c r="K24" s="48"/>
-      <c r="L24" s="48"/>
-      <c r="M24" s="48"/>
-      <c r="N24" s="48"/>
-      <c r="O24" s="49"/>
-      <c r="P24" s="49"/>
-      <c r="Q24" s="49"/>
-      <c r="R24" s="49"/>
-      <c r="S24" s="50"/>
-      <c r="T24" s="50"/>
-      <c r="U24" s="50"/>
-      <c r="V24" s="50"/>
-      <c r="W24" s="51"/>
-      <c r="X24" s="51"/>
-      <c r="Y24" s="51"/>
-      <c r="Z24" s="51"/>
-      <c r="AA24" s="51"/>
-      <c r="AB24" s="52"/>
-      <c r="AC24" s="52"/>
-      <c r="AD24" s="52"/>
-      <c r="AE24" s="52"/>
-      <c r="AF24" s="53"/>
-      <c r="AG24" s="53"/>
-      <c r="AH24" s="53"/>
-      <c r="AI24" s="53"/>
-      <c r="AJ24" s="35"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="64"/>
+      <c r="P24" s="64"/>
+      <c r="Q24" s="64"/>
+      <c r="R24" s="64"/>
+      <c r="S24" s="65"/>
+      <c r="T24" s="65"/>
+      <c r="U24" s="65"/>
+      <c r="V24" s="65"/>
+      <c r="W24" s="66"/>
+      <c r="X24" s="66"/>
+      <c r="Y24" s="66"/>
+      <c r="Z24" s="66"/>
+      <c r="AA24" s="66"/>
+      <c r="AB24" s="67"/>
+      <c r="AC24" s="67"/>
+      <c r="AD24" s="67"/>
+      <c r="AE24" s="67"/>
+      <c r="AF24" s="68"/>
+      <c r="AG24" s="68"/>
+      <c r="AH24" s="68"/>
+      <c r="AI24" s="68"/>
+      <c r="AJ24" s="57"/>
     </row>
     <row r="25" ht="15.75" customHeight="1">
-      <c r="A25" s="43"/>
-      <c r="B25" t="s" s="54">
+      <c r="A25" s="58"/>
+      <c r="B25" t="s" s="69">
         <v>25</v>
       </c>
-      <c r="C25" s="45"/>
-      <c r="D25" t="s" s="55">
+      <c r="C25" s="60"/>
+      <c r="D25" t="s" s="70">
         <v>19</v>
       </c>
-      <c r="E25" s="46"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="49"/>
-      <c r="P25" s="49"/>
-      <c r="Q25" s="49"/>
-      <c r="R25" s="49"/>
-      <c r="S25" s="50"/>
-      <c r="T25" s="50"/>
-      <c r="U25" s="50"/>
-      <c r="V25" s="50"/>
-      <c r="W25" s="51"/>
-      <c r="X25" s="51"/>
-      <c r="Y25" s="51"/>
-      <c r="Z25" s="51"/>
-      <c r="AA25" s="51"/>
-      <c r="AB25" s="52"/>
-      <c r="AC25" s="52"/>
-      <c r="AD25" s="52"/>
-      <c r="AE25" s="52"/>
-      <c r="AF25" s="53"/>
-      <c r="AG25" s="53"/>
-      <c r="AH25" s="53"/>
-      <c r="AI25" s="53"/>
-      <c r="AJ25" s="35"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="64"/>
+      <c r="P25" s="64"/>
+      <c r="Q25" s="64"/>
+      <c r="R25" s="64"/>
+      <c r="S25" s="65"/>
+      <c r="T25" s="65"/>
+      <c r="U25" s="65"/>
+      <c r="V25" s="65"/>
+      <c r="W25" s="66"/>
+      <c r="X25" s="66"/>
+      <c r="Y25" s="66"/>
+      <c r="Z25" s="66"/>
+      <c r="AA25" s="66"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="68"/>
+      <c r="AG25" s="68"/>
+      <c r="AH25" s="68"/>
+      <c r="AI25" s="68"/>
+      <c r="AJ25" s="57"/>
     </row>
     <row r="26" ht="15.75" customHeight="1">
-      <c r="A26" s="43"/>
-      <c r="B26" s="45"/>
-      <c r="C26" s="45"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="48"/>
-      <c r="K26" s="48"/>
-      <c r="L26" s="48"/>
-      <c r="M26" s="48"/>
-      <c r="N26" s="48"/>
-      <c r="O26" s="49"/>
-      <c r="P26" s="49"/>
-      <c r="Q26" s="49"/>
-      <c r="R26" s="49"/>
-      <c r="S26" s="50"/>
-      <c r="T26" s="50"/>
-      <c r="U26" s="50"/>
-      <c r="V26" s="50"/>
-      <c r="W26" s="51"/>
-      <c r="X26" s="51"/>
-      <c r="Y26" s="51"/>
-      <c r="Z26" s="51"/>
-      <c r="AA26" s="51"/>
-      <c r="AB26" s="52"/>
-      <c r="AC26" s="52"/>
-      <c r="AD26" s="52"/>
-      <c r="AE26" s="52"/>
-      <c r="AF26" s="53"/>
-      <c r="AG26" s="53"/>
-      <c r="AH26" s="53"/>
-      <c r="AI26" s="53"/>
-      <c r="AJ26" s="35"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="71"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="64"/>
+      <c r="P26" s="64"/>
+      <c r="Q26" s="64"/>
+      <c r="R26" s="64"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="65"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="65"/>
+      <c r="W26" s="66"/>
+      <c r="X26" s="66"/>
+      <c r="Y26" s="66"/>
+      <c r="Z26" s="66"/>
+      <c r="AA26" s="66"/>
+      <c r="AB26" s="67"/>
+      <c r="AC26" s="67"/>
+      <c r="AD26" s="67"/>
+      <c r="AE26" s="67"/>
+      <c r="AF26" s="68"/>
+      <c r="AG26" s="68"/>
+      <c r="AH26" s="68"/>
+      <c r="AI26" s="68"/>
+      <c r="AJ26" s="57"/>
     </row>
     <row r="27" ht="15.75" customHeight="1">
-      <c r="A27" s="43"/>
-      <c r="B27" t="s" s="44">
+      <c r="A27" s="58"/>
+      <c r="B27" t="s" s="59">
         <v>27</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="46"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="48"/>
-      <c r="L27" s="48"/>
-      <c r="M27" s="48"/>
-      <c r="N27" s="48"/>
-      <c r="O27" s="49"/>
-      <c r="P27" s="49"/>
-      <c r="Q27" s="49"/>
-      <c r="R27" s="49"/>
-      <c r="S27" s="50"/>
-      <c r="T27" s="50"/>
-      <c r="U27" s="50"/>
-      <c r="V27" s="50"/>
-      <c r="W27" s="51"/>
-      <c r="X27" s="51"/>
-      <c r="Y27" s="51"/>
-      <c r="Z27" s="51"/>
-      <c r="AA27" s="51"/>
-      <c r="AB27" s="52"/>
-      <c r="AC27" s="52"/>
-      <c r="AD27" s="52"/>
-      <c r="AE27" s="52"/>
-      <c r="AF27" s="53"/>
-      <c r="AG27" s="53"/>
-      <c r="AH27" s="53"/>
-      <c r="AI27" s="53"/>
-      <c r="AJ27" s="35"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="64"/>
+      <c r="P27" s="64"/>
+      <c r="Q27" s="64"/>
+      <c r="R27" s="64"/>
+      <c r="S27" s="65"/>
+      <c r="T27" s="65"/>
+      <c r="U27" s="65"/>
+      <c r="V27" s="65"/>
+      <c r="W27" s="66"/>
+      <c r="X27" s="66"/>
+      <c r="Y27" s="66"/>
+      <c r="Z27" s="66"/>
+      <c r="AA27" s="66"/>
+      <c r="AB27" s="67"/>
+      <c r="AC27" s="67"/>
+      <c r="AD27" s="67"/>
+      <c r="AE27" s="67"/>
+      <c r="AF27" s="68"/>
+      <c r="AG27" s="68"/>
+      <c r="AH27" s="68"/>
+      <c r="AI27" s="68"/>
+      <c r="AJ27" s="57"/>
     </row>
     <row r="28" ht="15.75" customHeight="1">
-      <c r="A28" s="43"/>
-      <c r="B28" t="s" s="54">
+      <c r="A28" s="58"/>
+      <c r="B28" t="s" s="69">
         <v>28</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" t="s" s="55">
-        <v>10</v>
-      </c>
-      <c r="E28" s="46"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="48"/>
-      <c r="K28" s="48"/>
-      <c r="L28" s="48"/>
-      <c r="M28" s="48"/>
-      <c r="N28" s="48"/>
-      <c r="O28" s="49"/>
-      <c r="P28" s="49"/>
-      <c r="Q28" s="49"/>
-      <c r="R28" s="49"/>
-      <c r="S28" s="50"/>
-      <c r="T28" s="50"/>
-      <c r="U28" s="50"/>
-      <c r="V28" s="50"/>
-      <c r="W28" s="51"/>
-      <c r="X28" s="51"/>
-      <c r="Y28" s="51"/>
-      <c r="Z28" s="51"/>
-      <c r="AA28" s="51"/>
-      <c r="AB28" s="52"/>
-      <c r="AC28" s="52"/>
-      <c r="AD28" s="52"/>
-      <c r="AE28" s="52"/>
-      <c r="AF28" s="53"/>
-      <c r="AG28" s="53"/>
-      <c r="AH28" s="53"/>
-      <c r="AI28" s="53"/>
-      <c r="AJ28" s="35"/>
+      <c r="C28" s="60"/>
+      <c r="D28" t="s" s="70">
+        <v>7</v>
+      </c>
+      <c r="E28" s="61"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="64"/>
+      <c r="P28" s="64"/>
+      <c r="Q28" s="64"/>
+      <c r="R28" s="64"/>
+      <c r="S28" s="65"/>
+      <c r="T28" s="65"/>
+      <c r="U28" s="65"/>
+      <c r="V28" s="65"/>
+      <c r="W28" s="66"/>
+      <c r="X28" s="66"/>
+      <c r="Y28" s="66"/>
+      <c r="Z28" s="66"/>
+      <c r="AA28" s="66"/>
+      <c r="AB28" s="67"/>
+      <c r="AC28" s="67"/>
+      <c r="AD28" s="67"/>
+      <c r="AE28" s="67"/>
+      <c r="AF28" s="68"/>
+      <c r="AG28" s="68"/>
+      <c r="AH28" s="68"/>
+      <c r="AI28" s="68"/>
+      <c r="AJ28" s="57"/>
     </row>
     <row r="29" ht="15.75" customHeight="1">
-      <c r="A29" s="43"/>
-      <c r="B29" t="s" s="54">
+      <c r="A29" s="58"/>
+      <c r="B29" t="s" s="69">
         <v>29</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" t="s" s="55">
-        <v>10</v>
-      </c>
-      <c r="E29" s="46"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="48"/>
-      <c r="M29" s="48"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="49"/>
-      <c r="P29" s="49"/>
-      <c r="Q29" s="49"/>
-      <c r="R29" s="49"/>
-      <c r="S29" s="50"/>
-      <c r="T29" s="50"/>
-      <c r="U29" s="50"/>
-      <c r="V29" s="50"/>
-      <c r="W29" s="51"/>
-      <c r="X29" s="51"/>
-      <c r="Y29" s="51"/>
-      <c r="Z29" s="51"/>
-      <c r="AA29" s="51"/>
-      <c r="AB29" s="52"/>
-      <c r="AC29" s="52"/>
-      <c r="AD29" s="52"/>
-      <c r="AE29" s="52"/>
-      <c r="AF29" s="53"/>
-      <c r="AG29" s="53"/>
-      <c r="AH29" s="53"/>
-      <c r="AI29" s="53"/>
-      <c r="AJ29" s="35"/>
+      <c r="C29" s="60"/>
+      <c r="D29" t="s" s="70">
+        <v>7</v>
+      </c>
+      <c r="E29" s="61"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="64"/>
+      <c r="P29" s="64"/>
+      <c r="Q29" s="64"/>
+      <c r="R29" s="64"/>
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="66"/>
+      <c r="X29" s="66"/>
+      <c r="Y29" s="66"/>
+      <c r="Z29" s="66"/>
+      <c r="AA29" s="66"/>
+      <c r="AB29" s="67"/>
+      <c r="AC29" s="67"/>
+      <c r="AD29" s="67"/>
+      <c r="AE29" s="67"/>
+      <c r="AF29" s="68"/>
+      <c r="AG29" s="68"/>
+      <c r="AH29" s="68"/>
+      <c r="AI29" s="68"/>
+      <c r="AJ29" s="57"/>
     </row>
     <row r="30" ht="15.75" customHeight="1">
-      <c r="A30" s="43"/>
-      <c r="B30" t="s" s="54">
+      <c r="A30" s="58"/>
+      <c r="B30" t="s" s="69">
         <v>30</v>
       </c>
-      <c r="C30" s="45"/>
-      <c r="D30" t="s" s="55">
-        <v>10</v>
-      </c>
-      <c r="E30" s="46"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="48"/>
-      <c r="K30" s="48"/>
-      <c r="L30" s="48"/>
-      <c r="M30" s="48"/>
-      <c r="N30" s="48"/>
-      <c r="O30" s="49"/>
-      <c r="P30" s="49"/>
-      <c r="Q30" s="49"/>
-      <c r="R30" s="49"/>
-      <c r="S30" s="50"/>
-      <c r="T30" s="50"/>
-      <c r="U30" s="50"/>
-      <c r="V30" s="50"/>
-      <c r="W30" s="51"/>
-      <c r="X30" s="51"/>
-      <c r="Y30" s="51"/>
-      <c r="Z30" s="51"/>
-      <c r="AA30" s="51"/>
-      <c r="AB30" s="52"/>
-      <c r="AC30" s="52"/>
-      <c r="AD30" s="52"/>
-      <c r="AE30" s="52"/>
-      <c r="AF30" s="53"/>
-      <c r="AG30" s="53"/>
-      <c r="AH30" s="53"/>
-      <c r="AI30" s="53"/>
-      <c r="AJ30" s="35"/>
+      <c r="C30" s="60"/>
+      <c r="D30" t="s" s="70">
+        <v>7</v>
+      </c>
+      <c r="E30" s="61"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="64"/>
+      <c r="S30" s="65"/>
+      <c r="T30" s="65"/>
+      <c r="U30" s="65"/>
+      <c r="V30" s="65"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="67"/>
+      <c r="AC30" s="67"/>
+      <c r="AD30" s="67"/>
+      <c r="AE30" s="67"/>
+      <c r="AF30" s="68"/>
+      <c r="AG30" s="68"/>
+      <c r="AH30" s="68"/>
+      <c r="AI30" s="68"/>
+      <c r="AJ30" s="57"/>
     </row>
     <row r="31" ht="15.75" customHeight="1">
-      <c r="A31" s="43"/>
-      <c r="B31" s="45"/>
-      <c r="C31" s="45"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="46"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="48"/>
-      <c r="K31" s="48"/>
-      <c r="L31" s="48"/>
-      <c r="M31" s="48"/>
-      <c r="N31" s="48"/>
-      <c r="O31" s="49"/>
-      <c r="P31" s="49"/>
-      <c r="Q31" s="49"/>
-      <c r="R31" s="49"/>
-      <c r="S31" s="50"/>
-      <c r="T31" s="50"/>
-      <c r="U31" s="50"/>
-      <c r="V31" s="50"/>
-      <c r="W31" s="51"/>
-      <c r="X31" s="51"/>
-      <c r="Y31" s="51"/>
-      <c r="Z31" s="51"/>
-      <c r="AA31" s="51"/>
-      <c r="AB31" s="52"/>
-      <c r="AC31" s="52"/>
-      <c r="AD31" s="52"/>
-      <c r="AE31" s="52"/>
-      <c r="AF31" s="53"/>
-      <c r="AG31" s="53"/>
-      <c r="AH31" s="53"/>
-      <c r="AI31" s="53"/>
-      <c r="AJ31" s="35"/>
+      <c r="A31" s="58"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="64"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+      <c r="S31" s="65"/>
+      <c r="T31" s="65"/>
+      <c r="U31" s="65"/>
+      <c r="V31" s="65"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="67"/>
+      <c r="AC31" s="67"/>
+      <c r="AD31" s="67"/>
+      <c r="AE31" s="67"/>
+      <c r="AF31" s="68"/>
+      <c r="AG31" s="68"/>
+      <c r="AH31" s="68"/>
+      <c r="AI31" s="68"/>
+      <c r="AJ31" s="57"/>
     </row>
     <row r="32" ht="15.75" customHeight="1">
-      <c r="A32" s="43"/>
-      <c r="B32" t="s" s="44">
+      <c r="A32" s="58"/>
+      <c r="B32" t="s" s="59">
         <v>31</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="46"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="48"/>
-      <c r="K32" s="48"/>
-      <c r="L32" s="48"/>
-      <c r="M32" s="48"/>
-      <c r="N32" s="48"/>
-      <c r="O32" s="49"/>
-      <c r="P32" s="49"/>
-      <c r="Q32" s="49"/>
-      <c r="R32" s="49"/>
-      <c r="S32" s="50"/>
-      <c r="T32" s="50"/>
-      <c r="U32" s="50"/>
-      <c r="V32" s="50"/>
-      <c r="W32" s="51"/>
-      <c r="X32" s="51"/>
-      <c r="Y32" s="51"/>
-      <c r="Z32" s="51"/>
-      <c r="AA32" s="51"/>
-      <c r="AB32" s="52"/>
-      <c r="AC32" s="52"/>
-      <c r="AD32" s="52"/>
-      <c r="AE32" s="52"/>
-      <c r="AF32" s="53"/>
-      <c r="AG32" s="53"/>
-      <c r="AH32" s="53"/>
-      <c r="AI32" s="53"/>
-      <c r="AJ32" s="35"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="64"/>
+      <c r="P32" s="64"/>
+      <c r="Q32" s="64"/>
+      <c r="R32" s="64"/>
+      <c r="S32" s="65"/>
+      <c r="T32" s="65"/>
+      <c r="U32" s="65"/>
+      <c r="V32" s="65"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="67"/>
+      <c r="AC32" s="67"/>
+      <c r="AD32" s="67"/>
+      <c r="AE32" s="67"/>
+      <c r="AF32" s="68"/>
+      <c r="AG32" s="68"/>
+      <c r="AH32" s="68"/>
+      <c r="AI32" s="68"/>
+      <c r="AJ32" s="57"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
-      <c r="A33" s="43"/>
-      <c r="B33" t="s" s="54">
+      <c r="A33" s="58"/>
+      <c r="B33" t="s" s="69">
         <v>32</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" t="s" s="55">
-        <v>10</v>
-      </c>
-      <c r="E33" s="46"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="48"/>
-      <c r="K33" s="48"/>
-      <c r="L33" s="48"/>
-      <c r="M33" s="48"/>
-      <c r="N33" s="48"/>
-      <c r="O33" s="49"/>
-      <c r="P33" s="49"/>
-      <c r="Q33" s="49"/>
-      <c r="R33" s="49"/>
-      <c r="S33" s="50"/>
-      <c r="T33" s="50"/>
-      <c r="U33" s="50"/>
-      <c r="V33" s="50"/>
-      <c r="W33" s="51"/>
-      <c r="X33" s="51"/>
-      <c r="Y33" s="51"/>
-      <c r="Z33" s="51"/>
-      <c r="AA33" s="51"/>
-      <c r="AB33" s="52"/>
-      <c r="AC33" s="52"/>
-      <c r="AD33" s="52"/>
-      <c r="AE33" s="52"/>
-      <c r="AF33" s="53"/>
-      <c r="AG33" s="53"/>
-      <c r="AH33" s="53"/>
-      <c r="AI33" s="53"/>
-      <c r="AJ33" s="35"/>
+      <c r="C33" s="60"/>
+      <c r="D33" t="s" s="70">
+        <v>33</v>
+      </c>
+      <c r="E33" s="61"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="64"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+      <c r="S33" s="65"/>
+      <c r="T33" s="65"/>
+      <c r="U33" s="65"/>
+      <c r="V33" s="65"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="67"/>
+      <c r="AC33" s="67"/>
+      <c r="AD33" s="67"/>
+      <c r="AE33" s="67"/>
+      <c r="AF33" s="68"/>
+      <c r="AG33" s="68"/>
+      <c r="AH33" s="68"/>
+      <c r="AI33" s="68"/>
+      <c r="AJ33" s="57"/>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="43"/>
-      <c r="B34" t="s" s="54">
+      <c r="A34" s="58"/>
+      <c r="B34" t="s" s="69">
+        <v>34</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" t="s" s="70">
         <v>33</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" t="s" s="55">
-        <v>10</v>
-      </c>
-      <c r="E34" s="46"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="48"/>
-      <c r="K34" s="48"/>
-      <c r="L34" s="48"/>
-      <c r="M34" s="48"/>
-      <c r="N34" s="48"/>
-      <c r="O34" s="49"/>
-      <c r="P34" s="49"/>
-      <c r="Q34" s="49"/>
-      <c r="R34" s="49"/>
-      <c r="S34" s="50"/>
-      <c r="T34" s="50"/>
-      <c r="U34" s="50"/>
-      <c r="V34" s="50"/>
-      <c r="W34" s="51"/>
-      <c r="X34" s="51"/>
-      <c r="Y34" s="51"/>
-      <c r="Z34" s="51"/>
-      <c r="AA34" s="51"/>
-      <c r="AB34" s="52"/>
-      <c r="AC34" s="52"/>
-      <c r="AD34" s="52"/>
-      <c r="AE34" s="52"/>
-      <c r="AF34" s="53"/>
-      <c r="AG34" s="53"/>
-      <c r="AH34" s="53"/>
-      <c r="AI34" s="53"/>
-      <c r="AJ34" s="35"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="64"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+      <c r="S34" s="65"/>
+      <c r="T34" s="65"/>
+      <c r="U34" s="65"/>
+      <c r="V34" s="65"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="67"/>
+      <c r="AC34" s="67"/>
+      <c r="AD34" s="67"/>
+      <c r="AE34" s="67"/>
+      <c r="AF34" s="68"/>
+      <c r="AG34" s="68"/>
+      <c r="AH34" s="68"/>
+      <c r="AI34" s="68"/>
+      <c r="AJ34" s="57"/>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="43"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="45"/>
-      <c r="D35" s="46"/>
-      <c r="E35" s="46"/>
-      <c r="F35" s="47"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="47"/>
-      <c r="I35" s="47"/>
-      <c r="J35" s="48"/>
-      <c r="K35" s="48"/>
-      <c r="L35" s="48"/>
-      <c r="M35" s="48"/>
-      <c r="N35" s="48"/>
-      <c r="O35" s="49"/>
-      <c r="P35" s="49"/>
-      <c r="Q35" s="49"/>
-      <c r="R35" s="49"/>
-      <c r="S35" s="50"/>
-      <c r="T35" s="50"/>
-      <c r="U35" s="50"/>
-      <c r="V35" s="50"/>
-      <c r="W35" s="51"/>
-      <c r="X35" s="51"/>
-      <c r="Y35" s="51"/>
-      <c r="Z35" s="51"/>
-      <c r="AA35" s="51"/>
-      <c r="AB35" s="52"/>
-      <c r="AC35" s="52"/>
-      <c r="AD35" s="52"/>
-      <c r="AE35" s="52"/>
-      <c r="AF35" s="53"/>
-      <c r="AG35" s="53"/>
-      <c r="AH35" s="53"/>
-      <c r="AI35" s="53"/>
-      <c r="AJ35" s="35"/>
+      <c r="A35" s="58"/>
+      <c r="B35" s="71"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="62"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="64"/>
+      <c r="P35" s="64"/>
+      <c r="Q35" s="64"/>
+      <c r="R35" s="64"/>
+      <c r="S35" s="65"/>
+      <c r="T35" s="65"/>
+      <c r="U35" s="65"/>
+      <c r="V35" s="65"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="67"/>
+      <c r="AC35" s="67"/>
+      <c r="AD35" s="67"/>
+      <c r="AE35" s="67"/>
+      <c r="AF35" s="68"/>
+      <c r="AG35" s="68"/>
+      <c r="AH35" s="68"/>
+      <c r="AI35" s="68"/>
+      <c r="AJ35" s="57"/>
     </row>
     <row r="36" ht="15.75" customHeight="1">
-      <c r="A36" s="43"/>
-      <c r="B36" t="s" s="44">
-        <v>34</v>
-      </c>
-      <c r="C36" s="45"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="46"/>
-      <c r="F36" s="47"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="47"/>
-      <c r="I36" s="47"/>
-      <c r="J36" s="48"/>
-      <c r="K36" s="48"/>
-      <c r="L36" s="48"/>
-      <c r="M36" s="48"/>
-      <c r="N36" s="48"/>
-      <c r="O36" s="49"/>
-      <c r="P36" s="49"/>
-      <c r="Q36" s="49"/>
-      <c r="R36" s="49"/>
-      <c r="S36" s="50"/>
-      <c r="T36" s="50"/>
-      <c r="U36" s="50"/>
-      <c r="V36" s="50"/>
-      <c r="W36" s="51"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="52"/>
-      <c r="AC36" s="52"/>
-      <c r="AD36" s="52"/>
-      <c r="AE36" s="52"/>
-      <c r="AF36" s="53"/>
-      <c r="AG36" s="53"/>
-      <c r="AH36" s="53"/>
-      <c r="AI36" s="53"/>
-      <c r="AJ36" s="35"/>
+      <c r="A36" s="58"/>
+      <c r="B36" t="s" s="59">
+        <v>35</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="62"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="64"/>
+      <c r="P36" s="64"/>
+      <c r="Q36" s="64"/>
+      <c r="R36" s="64"/>
+      <c r="S36" s="65"/>
+      <c r="T36" s="65"/>
+      <c r="U36" s="65"/>
+      <c r="V36" s="65"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="67"/>
+      <c r="AC36" s="67"/>
+      <c r="AD36" s="67"/>
+      <c r="AE36" s="67"/>
+      <c r="AF36" s="68"/>
+      <c r="AG36" s="68"/>
+      <c r="AH36" s="68"/>
+      <c r="AI36" s="68"/>
+      <c r="AJ36" s="57"/>
     </row>
     <row r="37" ht="15.75" customHeight="1">
-      <c r="A37" s="43"/>
-      <c r="B37" t="s" s="54">
-        <v>35</v>
-      </c>
-      <c r="C37" s="45"/>
-      <c r="D37" t="s" s="55">
+      <c r="A37" s="58"/>
+      <c r="B37" t="s" s="69">
         <v>36</v>
       </c>
-      <c r="E37" s="46"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
-      <c r="I37" s="47"/>
-      <c r="J37" s="48"/>
-      <c r="K37" s="48"/>
-      <c r="L37" s="48"/>
-      <c r="M37" s="48"/>
-      <c r="N37" s="48"/>
-      <c r="O37" s="49"/>
-      <c r="P37" s="49"/>
-      <c r="Q37" s="49"/>
-      <c r="R37" s="49"/>
-      <c r="S37" s="50"/>
-      <c r="T37" s="50"/>
-      <c r="U37" s="50"/>
-      <c r="V37" s="50"/>
-      <c r="W37" s="51"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="52"/>
-      <c r="AC37" s="52"/>
-      <c r="AD37" s="52"/>
-      <c r="AE37" s="52"/>
-      <c r="AF37" s="53"/>
-      <c r="AG37" s="53"/>
-      <c r="AH37" s="53"/>
-      <c r="AI37" s="53"/>
-      <c r="AJ37" s="35"/>
+      <c r="C37" s="60"/>
+      <c r="D37" t="s" s="70">
+        <v>37</v>
+      </c>
+      <c r="E37" s="61"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="64"/>
+      <c r="P37" s="64"/>
+      <c r="Q37" s="64"/>
+      <c r="R37" s="64"/>
+      <c r="S37" s="65"/>
+      <c r="T37" s="65"/>
+      <c r="U37" s="65"/>
+      <c r="V37" s="65"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="67"/>
+      <c r="AC37" s="67"/>
+      <c r="AD37" s="67"/>
+      <c r="AE37" s="67"/>
+      <c r="AF37" s="68"/>
+      <c r="AG37" s="68"/>
+      <c r="AH37" s="68"/>
+      <c r="AI37" s="68"/>
+      <c r="AJ37" s="57"/>
     </row>
     <row r="38" ht="15.75" customHeight="1">
-      <c r="A38" s="43"/>
-      <c r="B38" t="s" s="54">
+      <c r="A38" s="58"/>
+      <c r="B38" t="s" s="69">
+        <v>38</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" t="s" s="70">
         <v>37</v>
       </c>
-      <c r="C38" s="45"/>
-      <c r="D38" t="s" s="55">
-        <v>36</v>
-      </c>
-      <c r="E38" s="46"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
-      <c r="I38" s="47"/>
-      <c r="J38" s="48"/>
-      <c r="K38" s="48"/>
-      <c r="L38" s="48"/>
-      <c r="M38" s="48"/>
-      <c r="N38" s="48"/>
-      <c r="O38" s="49"/>
-      <c r="P38" s="49"/>
-      <c r="Q38" s="49"/>
-      <c r="R38" s="49"/>
-      <c r="S38" s="50"/>
-      <c r="T38" s="50"/>
-      <c r="U38" s="50"/>
-      <c r="V38" s="50"/>
-      <c r="W38" s="51"/>
-      <c r="X38" s="51"/>
-      <c r="Y38" s="51"/>
-      <c r="Z38" s="51"/>
-      <c r="AA38" s="51"/>
-      <c r="AB38" s="52"/>
-      <c r="AC38" s="52"/>
-      <c r="AD38" s="52"/>
-      <c r="AE38" s="52"/>
-      <c r="AF38" s="53"/>
-      <c r="AG38" s="53"/>
-      <c r="AH38" s="53"/>
-      <c r="AI38" s="53"/>
-      <c r="AJ38" s="35"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="62"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="Q38" s="64"/>
+      <c r="R38" s="64"/>
+      <c r="S38" s="65"/>
+      <c r="T38" s="65"/>
+      <c r="U38" s="65"/>
+      <c r="V38" s="65"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="67"/>
+      <c r="AC38" s="67"/>
+      <c r="AD38" s="67"/>
+      <c r="AE38" s="67"/>
+      <c r="AF38" s="68"/>
+      <c r="AG38" s="68"/>
+      <c r="AH38" s="68"/>
+      <c r="AI38" s="68"/>
+      <c r="AJ38" s="57"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="43"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="46"/>
-      <c r="F39" s="47"/>
-      <c r="G39" s="47"/>
-      <c r="H39" s="47"/>
-      <c r="I39" s="47"/>
-      <c r="J39" s="48"/>
-      <c r="K39" s="48"/>
-      <c r="L39" s="48"/>
-      <c r="M39" s="48"/>
-      <c r="N39" s="48"/>
-      <c r="O39" s="49"/>
-      <c r="P39" s="49"/>
-      <c r="Q39" s="49"/>
-      <c r="R39" s="49"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="50"/>
-      <c r="W39" s="51"/>
-      <c r="X39" s="51"/>
-      <c r="Y39" s="51"/>
-      <c r="Z39" s="51"/>
-      <c r="AA39" s="51"/>
-      <c r="AB39" s="52"/>
-      <c r="AC39" s="52"/>
-      <c r="AD39" s="52"/>
-      <c r="AE39" s="52"/>
-      <c r="AF39" s="53"/>
-      <c r="AG39" s="53"/>
-      <c r="AH39" s="53"/>
-      <c r="AI39" s="53"/>
-      <c r="AJ39" s="35"/>
+      <c r="A39" s="58"/>
+      <c r="B39" s="71"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="64"/>
+      <c r="P39" s="64"/>
+      <c r="Q39" s="64"/>
+      <c r="R39" s="64"/>
+      <c r="S39" s="65"/>
+      <c r="T39" s="65"/>
+      <c r="U39" s="65"/>
+      <c r="V39" s="65"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="67"/>
+      <c r="AC39" s="67"/>
+      <c r="AD39" s="67"/>
+      <c r="AE39" s="67"/>
+      <c r="AF39" s="68"/>
+      <c r="AG39" s="68"/>
+      <c r="AH39" s="68"/>
+      <c r="AI39" s="68"/>
+      <c r="AJ39" s="57"/>
     </row>
   </sheetData>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>

--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
   <si>
     <t>ガントチャート.xlsx</t>
   </si>
@@ -76,7 +76,13 @@
     <t>-自由トリミング</t>
   </si>
   <si>
+    <t>-GUI</t>
+  </si>
+  <si>
     <t>-特殊機能・その他</t>
+  </si>
+  <si>
+    <t>全員</t>
   </si>
   <si>
     <t>定型トリミング</t>
@@ -124,9 +130,6 @@
     <t>-仕様書</t>
   </si>
   <si>
-    <t>全員</t>
-  </si>
-  <si>
     <t>-マニュアル</t>
   </si>
 </sst>
@@ -165,7 +168,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="20">
+  <fills count="21">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,19 +177,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="11"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="8"/>
-        <bgColor auto="1"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="12"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -223,6 +226,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="18"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="19"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -281,7 +290,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -290,14 +299,14 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="9"/>
@@ -311,8 +320,8 @@
       <right style="thin">
         <color indexed="9"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="9"/>
@@ -323,11 +332,11 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
-      <top>
-        <color indexed="8"/>
+      <top style="thin">
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
         <color indexed="9"/>
@@ -335,8 +344,8 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="9"/>
@@ -368,8 +377,8 @@
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="9"/>
@@ -380,8 +389,8 @@
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
       <right style="thin">
         <color indexed="9"/>
@@ -389,9 +398,7 @@
       <top style="thin">
         <color indexed="9"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -404,218 +411,209 @@
       <top style="thin">
         <color indexed="9"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="9"/>
       </left>
-      <right>
-        <color indexed="8"/>
+      <right style="thin">
+        <color indexed="10"/>
       </right>
       <top style="thin">
         <color indexed="9"/>
       </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
+      <left style="thin">
+        <color indexed="10"/>
       </left>
-      <right>
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom>
-        <color indexed="8"/>
-      </bottom>
+      <right/>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="19"/>
+        <color indexed="10"/>
       </right>
-      <top>
-        <color indexed="8"/>
-      </top>
+      <top/>
       <bottom style="thin">
-        <color indexed="19"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left>
-        <color indexed="8"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="19"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="19"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="19"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thin">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </left>
       <right style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </right>
       <top style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thick">
-        <color indexed="11"/>
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -625,94 +623,88 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="78">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="59" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -749,22 +741,25 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -773,48 +768,48 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="11" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -833,31 +828,37 @@
     <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -878,6 +879,7 @@
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ff20124d"/>
       <rgbColor rgb="ffd9d9d9"/>
       <rgbColor rgb="ffcc4125"/>
@@ -887,7 +889,6 @@
       <rgbColor rgb="ff8e7cc3"/>
       <rgbColor rgb="ff93c47d"/>
       <rgbColor rgb="ffc27ba0"/>
-      <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffcccccc"/>
       <rgbColor rgb="ffefefef"/>
       <rgbColor rgb="ffe6b8af"/>
@@ -915,7 +916,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -924,8 +925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3251200" y="3040578"/>
-          <a:ext cx="5334001" cy="83253"/>
+          <a:off x="3251200" y="3040379"/>
+          <a:ext cx="5334000" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -960,7 +961,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -969,8 +970,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3251200" y="2840553"/>
-          <a:ext cx="5334001" cy="83253"/>
+          <a:off x="3251200" y="2840354"/>
+          <a:ext cx="5334000" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1014,8 +1015,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3251200" y="3240603"/>
-          <a:ext cx="5334001" cy="83253"/>
+          <a:off x="3251200" y="3240404"/>
+          <a:ext cx="5334000" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1050,7 +1051,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146751</xdr:rowOff>
+      <xdr:rowOff>146750</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1059,8 +1060,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3613149" y="1703903"/>
-          <a:ext cx="698501" cy="83253"/>
+          <a:off x="3613150" y="1703704"/>
+          <a:ext cx="698500" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1089,13 +1090,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>65973</xdr:rowOff>
+      <xdr:rowOff>65972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149225</xdr:rowOff>
+      <xdr:rowOff>149224</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1104,8 +1105,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3606800" y="1906401"/>
-          <a:ext cx="698501" cy="83253"/>
+          <a:off x="3606800" y="1906202"/>
+          <a:ext cx="698500" cy="83253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1132,7 +1133,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1149,8 +1150,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4317999" y="5640903"/>
-          <a:ext cx="4629151" cy="83253"/>
+          <a:off x="4317999" y="5640704"/>
+          <a:ext cx="4629151" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1183,7 +1184,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
@@ -1194,8 +1195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7169149" y="5840928"/>
-          <a:ext cx="2482851" cy="83253"/>
+          <a:off x="7169149" y="5840729"/>
+          <a:ext cx="2482851" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1239,8 +1240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7874000" y="6040953"/>
-          <a:ext cx="4629151" cy="83253"/>
+          <a:off x="7874000" y="6040754"/>
+          <a:ext cx="4629150" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1267,13 +1268,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>86763</xdr:colOff>
+      <xdr:colOff>86762</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
@@ -1284,8 +1285,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10449963" y="6040953"/>
-          <a:ext cx="2758038" cy="83253"/>
+          <a:off x="10449962" y="6040754"/>
+          <a:ext cx="2758038" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1314,13 +1315,13 @@
       <xdr:col>16</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>16760</xdr:rowOff>
+      <xdr:rowOff>16759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1329,8 +1330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7175500" y="4657539"/>
-          <a:ext cx="1397001" cy="83252"/>
+          <a:off x="7175500" y="4657339"/>
+          <a:ext cx="1397000" cy="83253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1374,8 +1375,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="4840803"/>
-          <a:ext cx="1778001" cy="83253"/>
+          <a:off x="8229600" y="4840604"/>
+          <a:ext cx="1778000" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1402,13 +1403,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>86763</xdr:colOff>
+      <xdr:colOff>86762</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
@@ -1419,8 +1420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9738763" y="5040828"/>
-          <a:ext cx="2402437" cy="83253"/>
+          <a:off x="9738762" y="5040629"/>
+          <a:ext cx="2402438" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1464,8 +1465,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7175499" y="3840678"/>
-          <a:ext cx="1397001" cy="83253"/>
+          <a:off x="7175500" y="3840479"/>
+          <a:ext cx="1397000" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1509,8 +1510,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="4040703"/>
-          <a:ext cx="1778001" cy="83253"/>
+          <a:off x="8229600" y="4040504"/>
+          <a:ext cx="1778000" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1537,13 +1538,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>86763</xdr:colOff>
+      <xdr:colOff>86762</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
@@ -1554,8 +1555,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9738763" y="4240728"/>
-          <a:ext cx="2402437" cy="83253"/>
+          <a:off x="9738762" y="4240529"/>
+          <a:ext cx="2402438" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1590,7 +1591,7 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1599,8 +1600,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13208000" y="7641153"/>
-          <a:ext cx="711201" cy="83253"/>
+          <a:off x="13208000" y="7640954"/>
+          <a:ext cx="711200" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1635,7 +1636,7 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1644,8 +1645,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13208000" y="7441128"/>
-          <a:ext cx="711201" cy="83253"/>
+          <a:off x="13208000" y="7440929"/>
+          <a:ext cx="711200" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1672,15 +1673,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>86763</xdr:colOff>
+      <xdr:colOff>86762</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1689,8 +1690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10449963" y="6841053"/>
-          <a:ext cx="2758037" cy="83253"/>
+          <a:off x="10449962" y="6840854"/>
+          <a:ext cx="2758038" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1717,15 +1718,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>86763</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>86762</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
+      <xdr:colOff>355599</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1734,8 +1735,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10449963" y="6641028"/>
-          <a:ext cx="2758037" cy="83253"/>
+          <a:off x="10449962" y="6640830"/>
+          <a:ext cx="2758038" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1894,13 +1895,7 @@
           <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
@@ -1999,10 +1994,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2257,13 +2252,7 @@
           <a:prstDash val="solid"/>
           <a:round/>
         </a:ln>
-        <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
-            <a:srgbClr val="000000">
-              <a:alpha val="38000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
+        <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
@@ -2576,10 +2565,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Cambria"/>
-            <a:ea typeface="Cambria"/>
-            <a:cs typeface="Cambria"/>
-            <a:sym typeface="Cambria"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="ヒラギノ角ゴ ProN W3"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -3612,9 +3601,13 @@
     </row>
     <row r="17" ht="15.75" customHeight="1">
       <c r="A17" s="58"/>
-      <c r="B17" s="71"/>
+      <c r="B17" t="s" s="69">
+        <v>22</v>
+      </c>
       <c r="C17" s="60"/>
-      <c r="D17" s="61"/>
+      <c r="D17" t="s" s="70">
+        <v>23</v>
+      </c>
       <c r="E17" s="61"/>
       <c r="F17" s="62"/>
       <c r="G17" s="62"/>
@@ -3651,7 +3644,7 @@
     <row r="18" ht="15.75" customHeight="1">
       <c r="A18" s="58"/>
       <c r="B18" t="s" s="59">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C18" s="60"/>
       <c r="D18" s="61"/>
@@ -3676,9 +3669,9 @@
       <c r="W18" s="66"/>
       <c r="X18" s="66"/>
       <c r="Y18" s="66"/>
-      <c r="Z18" s="72"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="74"/>
+      <c r="Z18" s="71"/>
+      <c r="AA18" s="72"/>
+      <c r="AB18" s="73"/>
       <c r="AC18" s="67"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
@@ -3691,7 +3684,7 @@
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="58"/>
       <c r="B19" t="s" s="69">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C19" s="60"/>
       <c r="D19" t="s" s="70">
@@ -3719,7 +3712,7 @@
       <c r="X19" s="66"/>
       <c r="Y19" s="66"/>
       <c r="Z19" s="66"/>
-      <c r="AA19" s="75"/>
+      <c r="AA19" s="74"/>
       <c r="AB19" s="67"/>
       <c r="AC19" s="67"/>
       <c r="AD19" s="67"/>
@@ -3733,7 +3726,7 @@
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="58"/>
       <c r="B20" t="s" s="69">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C20" s="60"/>
       <c r="D20" t="s" s="70">
@@ -3775,7 +3768,7 @@
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="58"/>
       <c r="B21" t="s" s="69">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C21" s="60"/>
       <c r="D21" t="s" s="70">
@@ -3803,7 +3796,7 @@
       <c r="X21" s="66"/>
       <c r="Y21" s="66"/>
       <c r="Z21" s="66"/>
-      <c r="AA21" s="76"/>
+      <c r="AA21" s="75"/>
       <c r="AB21" s="67"/>
       <c r="AC21" s="67"/>
       <c r="AD21" s="67"/>
@@ -3817,7 +3810,7 @@
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="58"/>
       <c r="B22" t="s" s="59">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C22" s="60"/>
       <c r="D22" s="61"/>
@@ -3842,9 +3835,9 @@
       <c r="W22" s="66"/>
       <c r="X22" s="66"/>
       <c r="Y22" s="66"/>
-      <c r="Z22" s="72"/>
-      <c r="AA22" s="77"/>
-      <c r="AB22" s="74"/>
+      <c r="Z22" s="71"/>
+      <c r="AA22" s="76"/>
+      <c r="AB22" s="73"/>
       <c r="AC22" s="67"/>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
@@ -3857,7 +3850,7 @@
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="58"/>
       <c r="B23" t="s" s="69">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C23" s="60"/>
       <c r="D23" t="s" s="70">
@@ -3885,7 +3878,7 @@
       <c r="X23" s="66"/>
       <c r="Y23" s="66"/>
       <c r="Z23" s="66"/>
-      <c r="AA23" s="75"/>
+      <c r="AA23" s="74"/>
       <c r="AB23" s="67"/>
       <c r="AC23" s="67"/>
       <c r="AD23" s="67"/>
@@ -3899,7 +3892,7 @@
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="58"/>
       <c r="B24" t="s" s="69">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C24" s="60"/>
       <c r="D24" t="s" s="70">
@@ -3941,7 +3934,7 @@
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="58"/>
       <c r="B25" t="s" s="69">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C25" s="60"/>
       <c r="D25" t="s" s="70">
@@ -3982,7 +3975,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="58"/>
-      <c r="B26" s="71"/>
+      <c r="B26" s="77"/>
       <c r="C26" s="60"/>
       <c r="D26" s="61"/>
       <c r="E26" s="61"/>
@@ -4021,7 +4014,7 @@
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="58"/>
       <c r="B27" t="s" s="59">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C27" s="60"/>
       <c r="D27" s="61"/>
@@ -4061,7 +4054,7 @@
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="58"/>
       <c r="B28" t="s" s="69">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C28" s="60"/>
       <c r="D28" t="s" s="70">
@@ -4103,7 +4096,7 @@
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="58"/>
       <c r="B29" t="s" s="69">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C29" s="60"/>
       <c r="D29" t="s" s="70">
@@ -4145,7 +4138,7 @@
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="58"/>
       <c r="B30" t="s" s="69">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C30" s="60"/>
       <c r="D30" t="s" s="70">
@@ -4186,7 +4179,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="58"/>
-      <c r="B31" s="71"/>
+      <c r="B31" s="77"/>
       <c r="C31" s="60"/>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
@@ -4225,7 +4218,7 @@
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="58"/>
       <c r="B32" t="s" s="59">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C32" s="60"/>
       <c r="D32" s="61"/>
@@ -4265,11 +4258,11 @@
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="58"/>
       <c r="B33" t="s" s="69">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C33" s="60"/>
       <c r="D33" t="s" s="70">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E33" s="61"/>
       <c r="F33" s="62"/>
@@ -4307,11 +4300,11 @@
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="58"/>
       <c r="B34" t="s" s="69">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C34" s="60"/>
       <c r="D34" t="s" s="70">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E34" s="61"/>
       <c r="F34" s="62"/>
@@ -4348,7 +4341,7 @@
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="58"/>
-      <c r="B35" s="71"/>
+      <c r="B35" s="77"/>
       <c r="C35" s="60"/>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
@@ -4387,7 +4380,7 @@
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="58"/>
       <c r="B36" t="s" s="59">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C36" s="60"/>
       <c r="D36" s="61"/>
@@ -4427,11 +4420,11 @@
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="58"/>
       <c r="B37" t="s" s="69">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C37" s="60"/>
       <c r="D37" t="s" s="70">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E37" s="61"/>
       <c r="F37" s="62"/>
@@ -4469,11 +4462,11 @@
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="58"/>
       <c r="B38" t="s" s="69">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C38" s="60"/>
       <c r="D38" t="s" s="70">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="E38" s="61"/>
       <c r="F38" s="62"/>
@@ -4509,8 +4502,8 @@
       <c r="AJ38" s="57"/>
     </row>
     <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="58"/>
-      <c r="B39" s="71"/>
+      <c r="A39" s="78"/>
+      <c r="B39" s="77"/>
       <c r="C39" s="60"/>
       <c r="D39" s="61"/>
       <c r="E39" s="61"/>

--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -916,7 +916,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -926,7 +926,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3251200" y="3040379"/>
-          <a:ext cx="5334000" cy="83251"/>
+          <a:ext cx="5334000" cy="83250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -961,7 +961,7 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -971,7 +971,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3251200" y="2840354"/>
-          <a:ext cx="5334000" cy="83251"/>
+          <a:ext cx="5334000" cy="83250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1051,7 +1051,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146750</xdr:rowOff>
+      <xdr:rowOff>146749</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1061,7 +1061,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3613150" y="1703704"/>
-          <a:ext cx="698500" cy="83251"/>
+          <a:ext cx="698500" cy="83250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1090,13 +1090,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>65972</xdr:rowOff>
+      <xdr:rowOff>65971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:rowOff>149223</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1105,7 +1105,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3606800" y="1906202"/>
+          <a:off x="3606800" y="1906201"/>
           <a:ext cx="698500" cy="83253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1133,13 +1133,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>355599</xdr:colOff>
+      <xdr:colOff>355598</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
+      <xdr:colOff>6348</xdr:colOff>
       <xdr:row>27</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
@@ -1150,7 +1150,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4317999" y="5640704"/>
+          <a:off x="4317998" y="5640704"/>
           <a:ext cx="4629151" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1177,8 +1177,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -1195,8 +1195,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7169149" y="5840729"/>
-          <a:ext cx="2482851" cy="83252"/>
+          <a:off x="5740399" y="5840729"/>
+          <a:ext cx="3911601" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1228,8 +1228,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>6350</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
@@ -1241,7 +1241,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7874000" y="6040754"/>
-          <a:ext cx="4629150" cy="83252"/>
+          <a:ext cx="3200400" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1273,8 +1273,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>355599</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>355600</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
@@ -1286,7 +1286,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10449962" y="6040754"/>
-          <a:ext cx="2758038" cy="83252"/>
+          <a:ext cx="624438" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1321,7 +1321,7 @@
       <xdr:col>19</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:rowOff>100010</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1330,8 +1330,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7175500" y="4657339"/>
-          <a:ext cx="1397000" cy="83253"/>
+          <a:off x="7175500" y="4657338"/>
+          <a:ext cx="1397000" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1591,7 +1591,7 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83249</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1601,7 +1601,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13208000" y="7640954"/>
-          <a:ext cx="711200" cy="83252"/>
+          <a:ext cx="711200" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1636,7 +1636,7 @@
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>36</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83249</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1646,7 +1646,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="13208000" y="7440929"/>
-          <a:ext cx="711200" cy="83252"/>
+          <a:ext cx="711200" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1679,9 +1679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>355599</xdr:colOff>
+      <xdr:colOff>355598</xdr:colOff>
       <xdr:row>33</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83249</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1691,7 +1691,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10449962" y="6840854"/>
-          <a:ext cx="2758038" cy="83252"/>
+          <a:ext cx="2758037" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1724,9 +1724,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>355599</xdr:colOff>
+      <xdr:colOff>355598</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1736,7 +1736,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10449962" y="6640830"/>
-          <a:ext cx="2758038" cy="83251"/>
+          <a:ext cx="2758037" cy="83250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>

--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="12690" yWindow="225" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
   <si>
     <t>ガントチャート.xlsx</t>
   </si>
@@ -132,28 +135,139 @@
   <si>
     <t>-マニュアル</t>
   </si>
+  <si>
+    <t>テスト</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>総合テスト</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>ソウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>W</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>改変履歴</t>
+    <rPh sb="0" eb="2">
+      <t>カイヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>リレキ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>改変者</t>
+    <rPh sb="0" eb="2">
+      <t>カイヘン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シャ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <rPh sb="0" eb="2">
+      <t>ナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>初版作成</t>
+    <rPh sb="0" eb="2">
+      <t>ショハン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>プロトタイプ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>提示</t>
+    <rPh sb="0" eb="2">
+      <t>テイジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>全員</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>米華，金子</t>
+    <rPh sb="0" eb="2">
+      <t>コメハナ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カネコ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>テスト，プロトタイプの欄を追加</t>
+    <rPh sb="11" eb="12">
+      <t>ラン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -161,11 +275,32 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="23"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="21">
@@ -290,7 +425,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="40">
     <border>
       <left/>
       <right/>
@@ -617,294 +752,449 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border diagonalDown="1">
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="thin">
+        <color indexed="64"/>
+      </diagonal>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="106">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="79">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="5" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff20124d"/>
-      <rgbColor rgb="ffd9d9d9"/>
-      <rgbColor rgb="ffcc4125"/>
-      <rgbColor rgb="ffffd966"/>
-      <rgbColor rgb="ff76a5af"/>
-      <rgbColor rgb="ff6fa8dc"/>
-      <rgbColor rgb="ff8e7cc3"/>
-      <rgbColor rgb="ff93c47d"/>
-      <rgbColor rgb="ffc27ba0"/>
-      <rgbColor rgb="ffcccccc"/>
-      <rgbColor rgb="ffefefef"/>
-      <rgbColor rgb="ffe6b8af"/>
-      <rgbColor rgb="fffff2cc"/>
-      <rgbColor rgb="ffd0e0e3"/>
-      <rgbColor rgb="ffcfe2f3"/>
-      <rgbColor rgb="ffd9d2e9"/>
-      <rgbColor rgb="ffd9ead3"/>
-      <rgbColor rgb="ffead1dc"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF20124D"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFCC4125"/>
+      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FF76A5AF"/>
+      <rgbColor rgb="FF6FA8DC"/>
+      <rgbColor rgb="FF8E7CC3"/>
+      <rgbColor rgb="FF93C47D"/>
+      <rgbColor rgb="FFC27BA0"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFEFEFEF"/>
+      <rgbColor rgb="FFE6B8AF"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFD0E0E3"/>
+      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FFD9D2E9"/>
+      <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFEAD1DC"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -916,9 +1206,9 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83248</xdr:rowOff>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -926,7 +1216,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3251200" y="3040379"/>
-          <a:ext cx="5334000" cy="83250"/>
+          <a:ext cx="5334000" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -944,7 +1234,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -961,9 +1251,9 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>83248</xdr:rowOff>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -971,7 +1261,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3251200" y="2840354"/>
-          <a:ext cx="5334000" cy="83250"/>
+          <a:ext cx="5334000" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -989,7 +1279,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1008,7 +1298,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1034,7 +1324,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1051,9 +1341,9 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146749</xdr:rowOff>
+      <xdr:rowOff>146750</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1061,7 +1351,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3613150" y="1703704"/>
-          <a:ext cx="698500" cy="83250"/>
+          <a:ext cx="698500" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1079,7 +1369,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1090,22 +1380,22 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>65971</xdr:rowOff>
+      <xdr:rowOff>65972</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149223</xdr:rowOff>
+      <xdr:rowOff>149224</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3606800" y="1906201"/>
+          <a:off x="3606800" y="1906202"/>
           <a:ext cx="698500" cy="83253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1124,7 +1414,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1133,24 +1423,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>355598</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>355599</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>6348</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4317998" y="5640704"/>
+          <a:off x="4317999" y="5640704"/>
           <a:ext cx="4629151" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1169,7 +1459,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1177,26 +1467,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>6349</xdr:colOff>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
       <xdr:colOff>355599</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5740399" y="5840729"/>
-          <a:ext cx="3911601" cy="83252"/>
+          <a:off x="7169149" y="5840729"/>
+          <a:ext cx="2482851" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1214,7 +1504,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1223,25 +1513,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>18</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>38101</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7874000" y="6040754"/>
-          <a:ext cx="3200400" cy="83252"/>
+          <a:off x="6924676" y="6038850"/>
+          <a:ext cx="3181350" cy="95250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1259,7 +1549,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1267,26 +1557,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>86762</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>16759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>355600</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 3"/>
+        <xdr:cNvPr id="11" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10449962" y="6040754"/>
-          <a:ext cx="624438" cy="83252"/>
+          <a:off x="7175500" y="4657339"/>
+          <a:ext cx="1397000" cy="83253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1304,52 +1594,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>16759</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>100010</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp>
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7175500" y="4657338"/>
-          <a:ext cx="1397000" cy="83252"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="4A86E8"/>
-        </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1359,16 +1604,16 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>25</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1394,7 +1639,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1403,25 +1648,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>86762</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1037</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
-      <xdr:colOff>355599</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>82801</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9738762" y="5040629"/>
-          <a:ext cx="2402438" cy="83252"/>
+          <a:off x="8497337" y="5038726"/>
+          <a:ext cx="1903963" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1439,7 +1684,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1449,24 +1694,24 @@
     <xdr:from>
       <xdr:col>16</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7175500" y="3840479"/>
-          <a:ext cx="1397000" cy="83252"/>
+          <a:off x="6308725" y="3838575"/>
+          <a:ext cx="1244600" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1484,7 +1729,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1494,16 +1739,16 @@
     <xdr:from>
       <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1529,7 +1774,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1537,26 +1782,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>86762</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>305837</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>355599</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>92324</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9738762" y="4240529"/>
-          <a:ext cx="2402438" cy="83252"/>
+          <a:off x="8487812" y="4248149"/>
+          <a:ext cx="1875388" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1574,7 +1819,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1582,26 +1827,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>83249</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13208000" y="7640954"/>
-          <a:ext cx="711200" cy="83251"/>
+          <a:off x="11315700" y="8829675"/>
+          <a:ext cx="952500" cy="92775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1619,7 +1864,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1627,26 +1872,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>35</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>83249</xdr:rowOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13208000" y="7440929"/>
-          <a:ext cx="711200" cy="83251"/>
+          <a:off x="11315700" y="9829800"/>
+          <a:ext cx="952500" cy="92775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1664,7 +1909,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1672,26 +1917,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>86762</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10562</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>355598</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>83249</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>82798</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10449962" y="6840854"/>
-          <a:ext cx="2758037" cy="83251"/>
+          <a:off x="8506862" y="6838948"/>
+          <a:ext cx="2199238" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1709,7 +1954,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1717,26 +1962,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>86762</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10562</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>355598</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>83248</xdr:rowOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10449962" y="6640830"/>
-          <a:ext cx="2758037" cy="83250"/>
+          <a:off x="8506862" y="6638925"/>
+          <a:ext cx="2208763" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1754,7 +1999,322 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>102301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2847975" y="3457575"/>
+          <a:ext cx="4714875" cy="83251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4A86E8"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>301035</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>83250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="7639050"/>
+          <a:ext cx="1863135" cy="83250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4A86E8"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>301035</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>83250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="7439025"/>
+          <a:ext cx="1863135" cy="83250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4A86E8"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>301035</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>83251</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9763125" y="7839075"/>
+          <a:ext cx="1863135" cy="83251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4A86E8"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>13289</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>102301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9766889" y="8058150"/>
+          <a:ext cx="1863135" cy="83251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4A86E8"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>92325</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10391774" y="8248650"/>
+          <a:ext cx="1628775" cy="82800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4A86E8"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>12000</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>92324</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10077450" y="9248774"/>
+          <a:ext cx="316800" cy="82800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="4A86E8"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1764,7 +2324,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1966,7 +2526,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1985,7 +2545,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2015,7 +2575,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2041,7 +2601,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2067,7 +2627,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2093,7 +2653,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2119,7 +2679,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2145,7 +2705,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2171,7 +2731,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2197,7 +2757,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2223,7 +2783,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2236,9 +2796,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2255,7 +2821,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2274,7 +2840,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2300,7 +2866,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2326,7 +2892,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2352,7 +2918,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2378,7 +2944,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2404,7 +2970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2430,7 +2996,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2456,7 +3022,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2482,7 +3048,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2508,7 +3074,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2521,9 +3087,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2537,7 +3109,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2556,7 +3128,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2586,7 +3158,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2612,7 +3184,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2638,7 +3210,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2664,7 +3236,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2690,7 +3262,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2716,7 +3288,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2742,7 +3314,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2768,7 +3340,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2794,7 +3366,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2807,71 +3379,51 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AJ39"/>
+  <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.67188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.67188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.67188" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.67188" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.67188" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.67188" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.67188" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.67188" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.67188" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.67188" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.67188" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.67188" style="1" customWidth="1"/>
-    <col min="21" max="21" width="4.67188" style="1" customWidth="1"/>
-    <col min="22" max="22" width="4.67188" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.67188" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4.67188" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.67188" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.67188" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.67188" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.67188" style="1" customWidth="1"/>
-    <col min="29" max="29" width="4.67188" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.67188" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.67188" style="1" customWidth="1"/>
-    <col min="32" max="32" width="4.67188" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.67188" style="1" customWidth="1"/>
-    <col min="34" max="34" width="4.67188" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4.67188" style="1" customWidth="1"/>
-    <col min="36" max="36" width="5.5" style="1" customWidth="1"/>
-    <col min="37" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="1" customWidth="1"/>
+    <col min="6" max="35" width="4.7109375" style="1" customWidth="1"/>
+    <col min="36" max="36" width="5.42578125" style="1" customWidth="1"/>
+    <col min="37" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
@@ -2909,10 +3461,10 @@
       <c r="AI1" s="6"/>
       <c r="AJ1" s="7"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
-        <v>43267</v>
+        <v>43280</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
@@ -2949,9 +3501,9 @@
       <c r="AI2" s="12"/>
       <c r="AJ2" s="13"/>
     </row>
-    <row r="3" ht="34.65" customHeight="1">
+    <row r="3" spans="1:36" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="10"/>
@@ -2989,7 +3541,7 @@
       <c r="AI3" s="12"/>
       <c r="AJ3" s="13"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
@@ -3027,7 +3579,7 @@
       <c r="AI4" s="12"/>
       <c r="AJ4" s="13"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
@@ -3065,10 +3617,10 @@
       <c r="AI5" s="12"/>
       <c r="AJ5" s="13"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
-      <c r="C6" t="s" s="15">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="11"/>
@@ -3105,12 +3657,12 @@
       <c r="AI6" s="12"/>
       <c r="AJ6" s="13"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" t="s" s="15">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="15">
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="11"/>
@@ -3147,17 +3699,17 @@
       <c r="AI7" s="12"/>
       <c r="AJ7" s="13"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" t="s" s="15">
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="15">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" t="s" s="16">
+      <c r="F8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="G8" s="12"/>
@@ -3191,17 +3743,17 @@
       <c r="AI8" s="12"/>
       <c r="AJ8" s="13"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s" s="15">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" t="s" s="16">
+      <c r="F9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="12"/>
@@ -3235,7 +3787,7 @@
       <c r="AI9" s="12"/>
       <c r="AJ9" s="13"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -3273,12 +3825,12 @@
       <c r="AI10" s="20"/>
       <c r="AJ10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" t="s" s="26">
+      <c r="E11" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="27">
@@ -3327,18 +3879,18 @@
       <c r="AI11" s="40"/>
       <c r="AJ11" s="41"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" t="s" s="42">
+      <c r="B12" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s" s="43">
+      <c r="C12" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s" s="44">
+      <c r="D12" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s" s="44">
+      <c r="E12" s="44" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="45">
@@ -3433,9 +3985,9 @@
       </c>
       <c r="AJ12" s="57"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="58"/>
-      <c r="B13" t="s" s="59">
+      <c r="B13" s="59" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="60"/>
@@ -3473,13 +4025,13 @@
       <c r="AI13" s="68"/>
       <c r="AJ13" s="57"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="58"/>
-      <c r="B14" t="s" s="69">
+      <c r="B14" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="60"/>
-      <c r="D14" t="s" s="70">
+      <c r="D14" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="61"/>
@@ -3515,13 +4067,13 @@
       <c r="AI14" s="68"/>
       <c r="AJ14" s="57"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="58"/>
-      <c r="B15" t="s" s="69">
+      <c r="B15" s="69" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="60"/>
-      <c r="D15" t="s" s="70">
+      <c r="D15" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="61"/>
@@ -3557,13 +4109,13 @@
       <c r="AI15" s="68"/>
       <c r="AJ15" s="57"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="58"/>
-      <c r="B16" t="s" s="69">
+      <c r="B16" s="69" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="60"/>
-      <c r="D16" t="s" s="70">
+      <c r="D16" s="70" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="61"/>
@@ -3599,13 +4151,13 @@
       <c r="AI16" s="68"/>
       <c r="AJ16" s="57"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="58"/>
-      <c r="B17" t="s" s="69">
+      <c r="B17" s="69" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="60"/>
-      <c r="D17" t="s" s="70">
+      <c r="D17" s="70" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="61"/>
@@ -3641,13 +4193,11 @@
       <c r="AI17" s="68"/>
       <c r="AJ17" s="57"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="58"/>
-      <c r="B18" t="s" s="59">
-        <v>24</v>
-      </c>
+      <c r="B18" s="69"/>
       <c r="C18" s="60"/>
-      <c r="D18" s="61"/>
+      <c r="D18" s="70"/>
       <c r="E18" s="61"/>
       <c r="F18" s="62"/>
       <c r="G18" s="62"/>
@@ -3669,9 +4219,9 @@
       <c r="W18" s="66"/>
       <c r="X18" s="66"/>
       <c r="Y18" s="66"/>
-      <c r="Z18" s="71"/>
-      <c r="AA18" s="72"/>
-      <c r="AB18" s="73"/>
+      <c r="Z18" s="90"/>
+      <c r="AA18" s="91"/>
+      <c r="AB18" s="92"/>
       <c r="AC18" s="67"/>
       <c r="AD18" s="67"/>
       <c r="AE18" s="67"/>
@@ -3681,15 +4231,13 @@
       <c r="AI18" s="68"/>
       <c r="AJ18" s="57"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A19" s="58"/>
-      <c r="B19" t="s" s="69">
-        <v>25</v>
+      <c r="B19" s="59" t="s">
+        <v>24</v>
       </c>
       <c r="C19" s="60"/>
-      <c r="D19" t="s" s="70">
-        <v>19</v>
-      </c>
+      <c r="D19" s="61"/>
       <c r="E19" s="61"/>
       <c r="F19" s="62"/>
       <c r="G19" s="62"/>
@@ -3711,9 +4259,9 @@
       <c r="W19" s="66"/>
       <c r="X19" s="66"/>
       <c r="Y19" s="66"/>
-      <c r="Z19" s="66"/>
-      <c r="AA19" s="74"/>
-      <c r="AB19" s="67"/>
+      <c r="Z19" s="71"/>
+      <c r="AA19" s="72"/>
+      <c r="AB19" s="73"/>
       <c r="AC19" s="67"/>
       <c r="AD19" s="67"/>
       <c r="AE19" s="67"/>
@@ -3723,13 +4271,13 @@
       <c r="AI19" s="68"/>
       <c r="AJ19" s="57"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A20" s="58"/>
-      <c r="B20" t="s" s="69">
-        <v>26</v>
+      <c r="B20" s="69" t="s">
+        <v>25</v>
       </c>
       <c r="C20" s="60"/>
-      <c r="D20" t="s" s="70">
+      <c r="D20" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="61"/>
@@ -3754,7 +4302,7 @@
       <c r="X20" s="66"/>
       <c r="Y20" s="66"/>
       <c r="Z20" s="66"/>
-      <c r="AA20" s="66"/>
+      <c r="AA20" s="74"/>
       <c r="AB20" s="67"/>
       <c r="AC20" s="67"/>
       <c r="AD20" s="67"/>
@@ -3765,13 +4313,13 @@
       <c r="AI20" s="68"/>
       <c r="AJ20" s="57"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="58"/>
-      <c r="B21" t="s" s="69">
-        <v>27</v>
+      <c r="B21" s="69" t="s">
+        <v>26</v>
       </c>
       <c r="C21" s="60"/>
-      <c r="D21" t="s" s="70">
+      <c r="D21" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="61"/>
@@ -3796,7 +4344,7 @@
       <c r="X21" s="66"/>
       <c r="Y21" s="66"/>
       <c r="Z21" s="66"/>
-      <c r="AA21" s="75"/>
+      <c r="AA21" s="66"/>
       <c r="AB21" s="67"/>
       <c r="AC21" s="67"/>
       <c r="AD21" s="67"/>
@@ -3807,13 +4355,15 @@
       <c r="AI21" s="68"/>
       <c r="AJ21" s="57"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A22" s="58"/>
-      <c r="B22" t="s" s="59">
-        <v>28</v>
+      <c r="B22" s="69" t="s">
+        <v>27</v>
       </c>
       <c r="C22" s="60"/>
-      <c r="D22" s="61"/>
+      <c r="D22" s="70" t="s">
+        <v>19</v>
+      </c>
       <c r="E22" s="61"/>
       <c r="F22" s="62"/>
       <c r="G22" s="62"/>
@@ -3835,9 +4385,9 @@
       <c r="W22" s="66"/>
       <c r="X22" s="66"/>
       <c r="Y22" s="66"/>
-      <c r="Z22" s="71"/>
-      <c r="AA22" s="76"/>
-      <c r="AB22" s="73"/>
+      <c r="Z22" s="66"/>
+      <c r="AA22" s="75"/>
+      <c r="AB22" s="67"/>
       <c r="AC22" s="67"/>
       <c r="AD22" s="67"/>
       <c r="AE22" s="67"/>
@@ -3847,15 +4397,11 @@
       <c r="AI22" s="68"/>
       <c r="AJ22" s="57"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:36" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A23" s="58"/>
-      <c r="B23" t="s" s="69">
-        <v>25</v>
-      </c>
+      <c r="B23" s="69"/>
       <c r="C23" s="60"/>
-      <c r="D23" t="s" s="70">
-        <v>19</v>
-      </c>
+      <c r="D23" s="70"/>
       <c r="E23" s="61"/>
       <c r="F23" s="62"/>
       <c r="G23" s="62"/>
@@ -3877,9 +4423,9 @@
       <c r="W23" s="66"/>
       <c r="X23" s="66"/>
       <c r="Y23" s="66"/>
-      <c r="Z23" s="66"/>
-      <c r="AA23" s="74"/>
-      <c r="AB23" s="67"/>
+      <c r="Z23" s="90"/>
+      <c r="AA23" s="93"/>
+      <c r="AB23" s="92"/>
       <c r="AC23" s="67"/>
       <c r="AD23" s="67"/>
       <c r="AE23" s="67"/>
@@ -3889,15 +4435,13 @@
       <c r="AI23" s="68"/>
       <c r="AJ23" s="57"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:36" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A24" s="58"/>
-      <c r="B24" t="s" s="69">
-        <v>26</v>
+      <c r="B24" s="59" t="s">
+        <v>28</v>
       </c>
       <c r="C24" s="60"/>
-      <c r="D24" t="s" s="70">
-        <v>19</v>
-      </c>
+      <c r="D24" s="61"/>
       <c r="E24" s="61"/>
       <c r="F24" s="62"/>
       <c r="G24" s="62"/>
@@ -3919,9 +4463,9 @@
       <c r="W24" s="66"/>
       <c r="X24" s="66"/>
       <c r="Y24" s="66"/>
-      <c r="Z24" s="66"/>
-      <c r="AA24" s="66"/>
-      <c r="AB24" s="67"/>
+      <c r="Z24" s="71"/>
+      <c r="AA24" s="76"/>
+      <c r="AB24" s="73"/>
       <c r="AC24" s="67"/>
       <c r="AD24" s="67"/>
       <c r="AE24" s="67"/>
@@ -3931,13 +4475,13 @@
       <c r="AI24" s="68"/>
       <c r="AJ24" s="57"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A25" s="58"/>
-      <c r="B25" t="s" s="69">
-        <v>27</v>
+      <c r="B25" s="69" t="s">
+        <v>25</v>
       </c>
       <c r="C25" s="60"/>
-      <c r="D25" t="s" s="70">
+      <c r="D25" s="70" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="61"/>
@@ -3962,7 +4506,7 @@
       <c r="X25" s="66"/>
       <c r="Y25" s="66"/>
       <c r="Z25" s="66"/>
-      <c r="AA25" s="66"/>
+      <c r="AA25" s="74"/>
       <c r="AB25" s="67"/>
       <c r="AC25" s="67"/>
       <c r="AD25" s="67"/>
@@ -3973,11 +4517,15 @@
       <c r="AI25" s="68"/>
       <c r="AJ25" s="57"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="58"/>
-      <c r="B26" s="77"/>
+      <c r="B26" s="69" t="s">
+        <v>26</v>
+      </c>
       <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
+      <c r="D26" s="70" t="s">
+        <v>19</v>
+      </c>
       <c r="E26" s="61"/>
       <c r="F26" s="62"/>
       <c r="G26" s="62"/>
@@ -4011,13 +4559,15 @@
       <c r="AI26" s="68"/>
       <c r="AJ26" s="57"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="58"/>
-      <c r="B27" t="s" s="59">
-        <v>29</v>
+      <c r="B27" s="69" t="s">
+        <v>27</v>
       </c>
       <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
+      <c r="D27" s="70" t="s">
+        <v>19</v>
+      </c>
       <c r="E27" s="61"/>
       <c r="F27" s="62"/>
       <c r="G27" s="62"/>
@@ -4051,15 +4601,11 @@
       <c r="AI27" s="68"/>
       <c r="AJ27" s="57"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="58"/>
-      <c r="B28" t="s" s="69">
-        <v>30</v>
-      </c>
+      <c r="B28" s="77"/>
       <c r="C28" s="60"/>
-      <c r="D28" t="s" s="70">
-        <v>7</v>
-      </c>
+      <c r="D28" s="61"/>
       <c r="E28" s="61"/>
       <c r="F28" s="62"/>
       <c r="G28" s="62"/>
@@ -4093,15 +4639,13 @@
       <c r="AI28" s="68"/>
       <c r="AJ28" s="57"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="58"/>
-      <c r="B29" t="s" s="69">
-        <v>31</v>
+      <c r="B29" s="59" t="s">
+        <v>29</v>
       </c>
       <c r="C29" s="60"/>
-      <c r="D29" t="s" s="70">
-        <v>7</v>
-      </c>
+      <c r="D29" s="61"/>
       <c r="E29" s="61"/>
       <c r="F29" s="62"/>
       <c r="G29" s="62"/>
@@ -4135,13 +4679,13 @@
       <c r="AI29" s="68"/>
       <c r="AJ29" s="57"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="58"/>
-      <c r="B30" t="s" s="69">
-        <v>32</v>
+      <c r="B30" s="69" t="s">
+        <v>30</v>
       </c>
       <c r="C30" s="60"/>
-      <c r="D30" t="s" s="70">
+      <c r="D30" s="70" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="61"/>
@@ -4177,11 +4721,15 @@
       <c r="AI30" s="68"/>
       <c r="AJ30" s="57"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="58"/>
-      <c r="B31" s="77"/>
+      <c r="B31" s="69" t="s">
+        <v>31</v>
+      </c>
       <c r="C31" s="60"/>
-      <c r="D31" s="61"/>
+      <c r="D31" s="70" t="s">
+        <v>7</v>
+      </c>
       <c r="E31" s="61"/>
       <c r="F31" s="62"/>
       <c r="G31" s="62"/>
@@ -4215,13 +4763,15 @@
       <c r="AI31" s="68"/>
       <c r="AJ31" s="57"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="58"/>
-      <c r="B32" t="s" s="59">
-        <v>33</v>
+      <c r="B32" s="69" t="s">
+        <v>32</v>
       </c>
       <c r="C32" s="60"/>
-      <c r="D32" s="61"/>
+      <c r="D32" s="70" t="s">
+        <v>7</v>
+      </c>
       <c r="E32" s="61"/>
       <c r="F32" s="62"/>
       <c r="G32" s="62"/>
@@ -4255,15 +4805,11 @@
       <c r="AI32" s="68"/>
       <c r="AJ32" s="57"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="58"/>
-      <c r="B33" t="s" s="69">
-        <v>34</v>
-      </c>
+      <c r="B33" s="77"/>
       <c r="C33" s="60"/>
-      <c r="D33" t="s" s="70">
-        <v>35</v>
-      </c>
+      <c r="D33" s="61"/>
       <c r="E33" s="61"/>
       <c r="F33" s="62"/>
       <c r="G33" s="62"/>
@@ -4297,15 +4843,13 @@
       <c r="AI33" s="68"/>
       <c r="AJ33" s="57"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="58"/>
-      <c r="B34" t="s" s="69">
-        <v>36</v>
+      <c r="B34" s="59" t="s">
+        <v>33</v>
       </c>
       <c r="C34" s="60"/>
-      <c r="D34" t="s" s="70">
-        <v>35</v>
-      </c>
+      <c r="D34" s="61"/>
       <c r="E34" s="61"/>
       <c r="F34" s="62"/>
       <c r="G34" s="62"/>
@@ -4339,11 +4883,15 @@
       <c r="AI34" s="68"/>
       <c r="AJ34" s="57"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="58"/>
-      <c r="B35" s="77"/>
+      <c r="B35" s="69" t="s">
+        <v>34</v>
+      </c>
       <c r="C35" s="60"/>
-      <c r="D35" s="61"/>
+      <c r="D35" s="70" t="s">
+        <v>35</v>
+      </c>
       <c r="E35" s="61"/>
       <c r="F35" s="62"/>
       <c r="G35" s="62"/>
@@ -4377,13 +4925,15 @@
       <c r="AI35" s="68"/>
       <c r="AJ35" s="57"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="58"/>
-      <c r="B36" t="s" s="59">
-        <v>37</v>
+      <c r="B36" s="69" t="s">
+        <v>36</v>
       </c>
       <c r="C36" s="60"/>
-      <c r="D36" s="61"/>
+      <c r="D36" s="70" t="s">
+        <v>35</v>
+      </c>
       <c r="E36" s="61"/>
       <c r="F36" s="62"/>
       <c r="G36" s="62"/>
@@ -4417,15 +4967,11 @@
       <c r="AI36" s="68"/>
       <c r="AJ36" s="57"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="58"/>
-      <c r="B37" t="s" s="69">
-        <v>38</v>
-      </c>
+      <c r="B37" s="77"/>
       <c r="C37" s="60"/>
-      <c r="D37" t="s" s="70">
-        <v>23</v>
-      </c>
+      <c r="D37" s="61"/>
       <c r="E37" s="61"/>
       <c r="F37" s="62"/>
       <c r="G37" s="62"/>
@@ -4459,15 +5005,13 @@
       <c r="AI37" s="68"/>
       <c r="AJ37" s="57"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="58"/>
-      <c r="B38" t="s" s="69">
-        <v>39</v>
+      <c r="B38" s="79" t="s">
+        <v>40</v>
       </c>
       <c r="C38" s="60"/>
-      <c r="D38" t="s" s="70">
-        <v>23</v>
-      </c>
+      <c r="D38" s="61"/>
       <c r="E38" s="61"/>
       <c r="F38" s="62"/>
       <c r="G38" s="62"/>
@@ -4501,11 +5045,15 @@
       <c r="AI38" s="68"/>
       <c r="AJ38" s="57"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="A39" s="78"/>
-      <c r="B39" s="77"/>
+    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="58"/>
+      <c r="B39" s="69" t="s">
+        <v>18</v>
+      </c>
       <c r="C39" s="60"/>
-      <c r="D39" s="61"/>
+      <c r="D39" s="70" t="s">
+        <v>19</v>
+      </c>
       <c r="E39" s="61"/>
       <c r="F39" s="62"/>
       <c r="G39" s="62"/>
@@ -4539,12 +5087,719 @@
       <c r="AI39" s="68"/>
       <c r="AJ39" s="57"/>
     </row>
+    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="58"/>
+      <c r="B40" s="69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C40" s="60"/>
+      <c r="D40" s="70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E40" s="61"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="64"/>
+      <c r="P40" s="64"/>
+      <c r="Q40" s="64"/>
+      <c r="R40" s="64"/>
+      <c r="S40" s="65"/>
+      <c r="T40" s="65"/>
+      <c r="U40" s="65"/>
+      <c r="V40" s="65"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="67"/>
+      <c r="AC40" s="67"/>
+      <c r="AD40" s="67"/>
+      <c r="AE40" s="67"/>
+      <c r="AF40" s="68"/>
+      <c r="AG40" s="68"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="57"/>
+    </row>
+    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="58"/>
+      <c r="B41" s="69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="60"/>
+      <c r="D41" s="81" t="s">
+        <v>42</v>
+      </c>
+      <c r="E41" s="61"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="64"/>
+      <c r="P41" s="64"/>
+      <c r="Q41" s="64"/>
+      <c r="R41" s="64"/>
+      <c r="S41" s="65"/>
+      <c r="T41" s="65"/>
+      <c r="U41" s="65"/>
+      <c r="V41" s="65"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="67"/>
+      <c r="AC41" s="67"/>
+      <c r="AD41" s="67"/>
+      <c r="AE41" s="67"/>
+      <c r="AF41" s="68"/>
+      <c r="AG41" s="68"/>
+      <c r="AH41" s="68"/>
+      <c r="AI41" s="68"/>
+      <c r="AJ41" s="57"/>
+    </row>
+    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="58"/>
+      <c r="B42" s="69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C42" s="60"/>
+      <c r="D42" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="E42" s="61"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="62"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="62"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="64"/>
+      <c r="P42" s="64"/>
+      <c r="Q42" s="64"/>
+      <c r="R42" s="64"/>
+      <c r="S42" s="65"/>
+      <c r="T42" s="65"/>
+      <c r="U42" s="65"/>
+      <c r="V42" s="65"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="67"/>
+      <c r="AC42" s="67"/>
+      <c r="AD42" s="67"/>
+      <c r="AE42" s="67"/>
+      <c r="AF42" s="68"/>
+      <c r="AG42" s="68"/>
+      <c r="AH42" s="68"/>
+      <c r="AI42" s="68"/>
+      <c r="AJ42" s="57"/>
+    </row>
+    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="58"/>
+      <c r="B43" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="60"/>
+      <c r="D43" s="82" t="s">
+        <v>43</v>
+      </c>
+      <c r="E43" s="61"/>
+      <c r="F43" s="62"/>
+      <c r="G43" s="62"/>
+      <c r="H43" s="62"/>
+      <c r="I43" s="62"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="64"/>
+      <c r="P43" s="64"/>
+      <c r="Q43" s="64"/>
+      <c r="R43" s="64"/>
+      <c r="S43" s="65"/>
+      <c r="T43" s="65"/>
+      <c r="U43" s="65"/>
+      <c r="V43" s="65"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="67"/>
+      <c r="AC43" s="67"/>
+      <c r="AD43" s="67"/>
+      <c r="AE43" s="67"/>
+      <c r="AF43" s="68"/>
+      <c r="AG43" s="68"/>
+      <c r="AH43" s="68"/>
+      <c r="AI43" s="68"/>
+      <c r="AJ43" s="57"/>
+    </row>
+    <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="58"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="60"/>
+      <c r="D44" s="82"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="62"/>
+      <c r="G44" s="62"/>
+      <c r="H44" s="62"/>
+      <c r="I44" s="62"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="64"/>
+      <c r="P44" s="64"/>
+      <c r="Q44" s="64"/>
+      <c r="R44" s="64"/>
+      <c r="S44" s="65"/>
+      <c r="T44" s="65"/>
+      <c r="U44" s="65"/>
+      <c r="V44" s="65"/>
+      <c r="W44" s="66"/>
+      <c r="X44" s="66"/>
+      <c r="Y44" s="66"/>
+      <c r="Z44" s="66"/>
+      <c r="AA44" s="66"/>
+      <c r="AB44" s="67"/>
+      <c r="AC44" s="67"/>
+      <c r="AD44" s="67"/>
+      <c r="AE44" s="67"/>
+      <c r="AF44" s="68"/>
+      <c r="AG44" s="68"/>
+      <c r="AH44" s="68"/>
+      <c r="AI44" s="68"/>
+      <c r="AJ44" s="57"/>
+    </row>
+    <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="58"/>
+      <c r="B45" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" s="60"/>
+      <c r="D45" s="82"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="62"/>
+      <c r="G45" s="62"/>
+      <c r="H45" s="62"/>
+      <c r="I45" s="62"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="64"/>
+      <c r="P45" s="64"/>
+      <c r="Q45" s="64"/>
+      <c r="R45" s="64"/>
+      <c r="S45" s="65"/>
+      <c r="T45" s="65"/>
+      <c r="U45" s="65"/>
+      <c r="V45" s="65"/>
+      <c r="W45" s="66"/>
+      <c r="X45" s="66"/>
+      <c r="Y45" s="66"/>
+      <c r="Z45" s="66"/>
+      <c r="AA45" s="66"/>
+      <c r="AB45" s="67"/>
+      <c r="AC45" s="67"/>
+      <c r="AD45" s="67"/>
+      <c r="AE45" s="67"/>
+      <c r="AF45" s="68"/>
+      <c r="AG45" s="68"/>
+      <c r="AH45" s="68"/>
+      <c r="AI45" s="68"/>
+      <c r="AJ45" s="57"/>
+    </row>
+    <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="58"/>
+      <c r="B46" s="94" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="60"/>
+      <c r="D46" s="82" t="s">
+        <v>51</v>
+      </c>
+      <c r="E46" s="61"/>
+      <c r="F46" s="62"/>
+      <c r="G46" s="62"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="64"/>
+      <c r="P46" s="64"/>
+      <c r="Q46" s="64"/>
+      <c r="R46" s="64"/>
+      <c r="S46" s="65"/>
+      <c r="T46" s="65"/>
+      <c r="U46" s="65"/>
+      <c r="V46" s="65"/>
+      <c r="W46" s="66"/>
+      <c r="X46" s="66"/>
+      <c r="Y46" s="66"/>
+      <c r="Z46" s="66"/>
+      <c r="AA46" s="66"/>
+      <c r="AB46" s="67"/>
+      <c r="AC46" s="67"/>
+      <c r="AD46" s="67"/>
+      <c r="AE46" s="67"/>
+      <c r="AF46" s="68"/>
+      <c r="AG46" s="68"/>
+      <c r="AH46" s="68"/>
+      <c r="AI46" s="68"/>
+      <c r="AJ46" s="57"/>
+    </row>
+    <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="58"/>
+      <c r="B47" s="69"/>
+      <c r="C47" s="60"/>
+      <c r="D47" s="61"/>
+      <c r="E47" s="61"/>
+      <c r="F47" s="62"/>
+      <c r="G47" s="62"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="64"/>
+      <c r="P47" s="64"/>
+      <c r="Q47" s="64"/>
+      <c r="R47" s="64"/>
+      <c r="S47" s="65"/>
+      <c r="T47" s="65"/>
+      <c r="U47" s="65"/>
+      <c r="V47" s="65"/>
+      <c r="W47" s="66"/>
+      <c r="X47" s="66"/>
+      <c r="Y47" s="66"/>
+      <c r="Z47" s="66"/>
+      <c r="AA47" s="66"/>
+      <c r="AB47" s="67"/>
+      <c r="AC47" s="67"/>
+      <c r="AD47" s="67"/>
+      <c r="AE47" s="67"/>
+      <c r="AF47" s="68"/>
+      <c r="AG47" s="68"/>
+      <c r="AH47" s="68"/>
+      <c r="AI47" s="68"/>
+      <c r="AJ47" s="57"/>
+    </row>
+    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="58"/>
+      <c r="B48" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="C48" s="60"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="62"/>
+      <c r="G48" s="62"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="64"/>
+      <c r="P48" s="64"/>
+      <c r="Q48" s="64"/>
+      <c r="R48" s="64"/>
+      <c r="S48" s="65"/>
+      <c r="T48" s="65"/>
+      <c r="U48" s="65"/>
+      <c r="V48" s="65"/>
+      <c r="W48" s="66"/>
+      <c r="X48" s="66"/>
+      <c r="Y48" s="66"/>
+      <c r="Z48" s="66"/>
+      <c r="AA48" s="66"/>
+      <c r="AB48" s="67"/>
+      <c r="AC48" s="67"/>
+      <c r="AD48" s="67"/>
+      <c r="AE48" s="67"/>
+      <c r="AF48" s="68"/>
+      <c r="AG48" s="68"/>
+      <c r="AH48" s="68"/>
+      <c r="AI48" s="68"/>
+      <c r="AJ48" s="57"/>
+    </row>
+    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="58"/>
+      <c r="B49" s="69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="60"/>
+      <c r="D49" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E49" s="61"/>
+      <c r="F49" s="62"/>
+      <c r="G49" s="62"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="64"/>
+      <c r="P49" s="64"/>
+      <c r="Q49" s="64"/>
+      <c r="R49" s="64"/>
+      <c r="S49" s="65"/>
+      <c r="T49" s="65"/>
+      <c r="U49" s="65"/>
+      <c r="V49" s="65"/>
+      <c r="W49" s="66"/>
+      <c r="X49" s="66"/>
+      <c r="Y49" s="66"/>
+      <c r="Z49" s="66"/>
+      <c r="AA49" s="66"/>
+      <c r="AB49" s="67"/>
+      <c r="AC49" s="67"/>
+      <c r="AD49" s="67"/>
+      <c r="AE49" s="67"/>
+      <c r="AF49" s="68"/>
+      <c r="AG49" s="68"/>
+      <c r="AH49" s="68"/>
+      <c r="AI49" s="68"/>
+      <c r="AJ49" s="57"/>
+    </row>
+    <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="58"/>
+      <c r="B50" s="69" t="s">
+        <v>39</v>
+      </c>
+      <c r="C50" s="60"/>
+      <c r="D50" s="70" t="s">
+        <v>23</v>
+      </c>
+      <c r="E50" s="61"/>
+      <c r="F50" s="62"/>
+      <c r="G50" s="62"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="64"/>
+      <c r="P50" s="64"/>
+      <c r="Q50" s="64"/>
+      <c r="R50" s="64"/>
+      <c r="S50" s="65"/>
+      <c r="T50" s="65"/>
+      <c r="U50" s="65"/>
+      <c r="V50" s="65"/>
+      <c r="W50" s="66"/>
+      <c r="X50" s="66"/>
+      <c r="Y50" s="66"/>
+      <c r="Z50" s="66"/>
+      <c r="AA50" s="66"/>
+      <c r="AB50" s="67"/>
+      <c r="AC50" s="67"/>
+      <c r="AD50" s="67"/>
+      <c r="AE50" s="67"/>
+      <c r="AF50" s="68"/>
+      <c r="AG50" s="68"/>
+      <c r="AH50" s="68"/>
+      <c r="AI50" s="68"/>
+      <c r="AJ50" s="57"/>
+    </row>
+    <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="58"/>
+      <c r="B51" s="77"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="64"/>
+      <c r="P51" s="64"/>
+      <c r="Q51" s="64"/>
+      <c r="R51" s="64"/>
+      <c r="S51" s="65"/>
+      <c r="T51" s="65"/>
+      <c r="U51" s="65"/>
+      <c r="V51" s="65"/>
+      <c r="W51" s="66"/>
+      <c r="X51" s="66"/>
+      <c r="Y51" s="66"/>
+      <c r="Z51" s="66"/>
+      <c r="AA51" s="66"/>
+      <c r="AB51" s="67"/>
+      <c r="AC51" s="67"/>
+      <c r="AD51" s="67"/>
+      <c r="AE51" s="67"/>
+      <c r="AF51" s="68"/>
+      <c r="AG51" s="68"/>
+      <c r="AH51" s="68"/>
+      <c r="AI51" s="68"/>
+      <c r="AJ51" s="57"/>
+    </row>
+    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="58"/>
+    </row>
+    <row r="53" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="58"/>
+      <c r="B53" s="83" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="78"/>
+      <c r="B54" s="84" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="84" t="s">
+        <v>46</v>
+      </c>
+      <c r="D54" s="96" t="s">
+        <v>47</v>
+      </c>
+      <c r="E54" s="97"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="97"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="97"/>
+      <c r="Q54" s="97"/>
+      <c r="R54" s="97"/>
+      <c r="S54" s="97"/>
+      <c r="T54" s="97"/>
+      <c r="U54" s="97"/>
+      <c r="V54" s="98"/>
+    </row>
+    <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="87">
+        <v>43267</v>
+      </c>
+      <c r="C55" s="88"/>
+      <c r="D55" s="99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E55" s="100"/>
+      <c r="F55" s="100"/>
+      <c r="G55" s="100"/>
+      <c r="H55" s="100"/>
+      <c r="I55" s="100"/>
+      <c r="J55" s="100"/>
+      <c r="K55" s="100"/>
+      <c r="L55" s="100"/>
+      <c r="M55" s="100"/>
+      <c r="N55" s="100"/>
+      <c r="O55" s="100"/>
+      <c r="P55" s="100"/>
+      <c r="Q55" s="100"/>
+      <c r="R55" s="100"/>
+      <c r="S55" s="100"/>
+      <c r="T55" s="100"/>
+      <c r="U55" s="100"/>
+      <c r="V55" s="101"/>
+    </row>
+    <row r="56" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="87">
+        <v>43280</v>
+      </c>
+      <c r="C56" s="89" t="s">
+        <v>52</v>
+      </c>
+      <c r="D56" s="99" t="s">
+        <v>53</v>
+      </c>
+      <c r="E56" s="100"/>
+      <c r="F56" s="100"/>
+      <c r="G56" s="100"/>
+      <c r="H56" s="100"/>
+      <c r="I56" s="100"/>
+      <c r="J56" s="100"/>
+      <c r="K56" s="100"/>
+      <c r="L56" s="100"/>
+      <c r="M56" s="100"/>
+      <c r="N56" s="100"/>
+      <c r="O56" s="100"/>
+      <c r="P56" s="100"/>
+      <c r="Q56" s="100"/>
+      <c r="R56" s="100"/>
+      <c r="S56" s="100"/>
+      <c r="T56" s="100"/>
+      <c r="U56" s="100"/>
+      <c r="V56" s="101"/>
+    </row>
+    <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="85"/>
+      <c r="C57" s="85"/>
+      <c r="D57" s="102"/>
+      <c r="E57" s="100"/>
+      <c r="F57" s="100"/>
+      <c r="G57" s="100"/>
+      <c r="H57" s="100"/>
+      <c r="I57" s="100"/>
+      <c r="J57" s="100"/>
+      <c r="K57" s="100"/>
+      <c r="L57" s="100"/>
+      <c r="M57" s="100"/>
+      <c r="N57" s="100"/>
+      <c r="O57" s="100"/>
+      <c r="P57" s="100"/>
+      <c r="Q57" s="100"/>
+      <c r="R57" s="100"/>
+      <c r="S57" s="100"/>
+      <c r="T57" s="100"/>
+      <c r="U57" s="100"/>
+      <c r="V57" s="101"/>
+    </row>
+    <row r="58" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="85"/>
+      <c r="C58" s="85"/>
+      <c r="D58" s="102"/>
+      <c r="E58" s="100"/>
+      <c r="F58" s="100"/>
+      <c r="G58" s="100"/>
+      <c r="H58" s="100"/>
+      <c r="I58" s="100"/>
+      <c r="J58" s="100"/>
+      <c r="K58" s="100"/>
+      <c r="L58" s="100"/>
+      <c r="M58" s="100"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="100"/>
+      <c r="P58" s="100"/>
+      <c r="Q58" s="100"/>
+      <c r="R58" s="100"/>
+      <c r="S58" s="100"/>
+      <c r="T58" s="100"/>
+      <c r="U58" s="100"/>
+      <c r="V58" s="101"/>
+    </row>
+    <row r="59" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="85"/>
+      <c r="C59" s="85"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="100"/>
+      <c r="F59" s="100"/>
+      <c r="G59" s="100"/>
+      <c r="H59" s="100"/>
+      <c r="I59" s="100"/>
+      <c r="J59" s="100"/>
+      <c r="K59" s="100"/>
+      <c r="L59" s="100"/>
+      <c r="M59" s="100"/>
+      <c r="N59" s="100"/>
+      <c r="O59" s="100"/>
+      <c r="P59" s="100"/>
+      <c r="Q59" s="100"/>
+      <c r="R59" s="100"/>
+      <c r="S59" s="100"/>
+      <c r="T59" s="100"/>
+      <c r="U59" s="100"/>
+      <c r="V59" s="101"/>
+    </row>
+    <row r="60" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="86"/>
+      <c r="C60" s="86"/>
+      <c r="D60" s="103"/>
+      <c r="E60" s="104"/>
+      <c r="F60" s="104"/>
+      <c r="G60" s="104"/>
+      <c r="H60" s="104"/>
+      <c r="I60" s="104"/>
+      <c r="J60" s="104"/>
+      <c r="K60" s="104"/>
+      <c r="L60" s="104"/>
+      <c r="M60" s="104"/>
+      <c r="N60" s="104"/>
+      <c r="O60" s="104"/>
+      <c r="P60" s="104"/>
+      <c r="Q60" s="104"/>
+      <c r="R60" s="104"/>
+      <c r="S60" s="104"/>
+      <c r="T60" s="104"/>
+      <c r="U60" s="104"/>
+      <c r="V60" s="105"/>
+    </row>
+    <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D61" s="95"/>
+      <c r="E61" s="95"/>
+      <c r="F61" s="95"/>
+      <c r="G61" s="95"/>
+      <c r="H61" s="95"/>
+      <c r="I61" s="95"/>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95"/>
+      <c r="L61" s="95"/>
+      <c r="M61" s="95"/>
+      <c r="N61" s="95"/>
+      <c r="O61" s="95"/>
+      <c r="P61" s="95"/>
+      <c r="Q61" s="95"/>
+      <c r="R61" s="95"/>
+      <c r="S61" s="95"/>
+      <c r="T61" s="95"/>
+      <c r="U61" s="95"/>
+      <c r="V61" s="95"/>
+    </row>
   </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="D61:V61"/>
+    <mergeCell ref="D54:V54"/>
+    <mergeCell ref="D55:V55"/>
+    <mergeCell ref="D56:V56"/>
+    <mergeCell ref="D57:V57"/>
+    <mergeCell ref="D58:V58"/>
+    <mergeCell ref="D59:V59"/>
+    <mergeCell ref="D60:V60"/>
+  </mergeCells>
+  <phoneticPr fontId="4"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1,20 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="12690" yWindow="225" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
   <si>
     <t>ガントチャート.xlsx</t>
   </si>
@@ -127,6 +124,33 @@
     <t>点数集計</t>
   </si>
   <si>
+    <t>テスト</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>総合テスト</t>
+    </r>
+  </si>
+  <si>
+    <t>プロトタイプ</t>
+  </si>
+  <si>
+    <t>提示</t>
+  </si>
+  <si>
     <t>書類</t>
   </si>
   <si>
@@ -136,138 +160,48 @@
     <t>-マニュアル</t>
   </si>
   <si>
-    <t>テスト</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>総合テスト</t>
-    </r>
-    <rPh sb="1" eb="3">
-      <t>ソウゴウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>全員</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
+    <t>改変履歴</t>
   </si>
   <si>
     <t>日付</t>
-    <rPh sb="0" eb="2">
-      <t>ヒヅケ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>改変履歴</t>
-    <rPh sb="0" eb="2">
-      <t>カイヘン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>リレキ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>改変者</t>
-    <rPh sb="0" eb="2">
-      <t>カイヘン</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>シャ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>内容</t>
-    <rPh sb="0" eb="2">
-      <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>初版作成</t>
-    <rPh sb="0" eb="2">
-      <t>ショハン</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>サクセイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>プロトタイプ</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>提示</t>
-    <rPh sb="0" eb="2">
-      <t>テイジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>全員</t>
-    <rPh sb="0" eb="2">
-      <t>ゼンイン</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>米華，金子</t>
-    <rPh sb="0" eb="2">
-      <t>コメハナ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カネコ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>テスト，プロトタイプの欄を追加</t>
-    <rPh sb="11" eb="12">
-      <t>ラン</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ツイカ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -275,35 +209,19 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="23"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -424,8 +342,32 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="30"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="31"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="32"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="40">
+  <borders count="51">
     <border>
       <left/>
       <right/>
@@ -655,6 +597,30 @@
       <left style="thin">
         <color indexed="12"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="12"/>
+      </left>
       <right style="thick">
         <color indexed="12"/>
       </right>
@@ -727,6 +693,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thick">
         <color indexed="12"/>
       </left>
@@ -742,219 +719,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="10"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border diagonalDown="1">
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal style="thin">
-        <color indexed="64"/>
-      </diagonal>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="12"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="12"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="12"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -965,258 +729,755 @@
     </border>
     <border>
       <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color indexed="12"/>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="9"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="106">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="12" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="5" fillId="13" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="126">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF20124D"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FFCC4125"/>
-      <rgbColor rgb="FFFFD966"/>
-      <rgbColor rgb="FF76A5AF"/>
-      <rgbColor rgb="FF6FA8DC"/>
-      <rgbColor rgb="FF8E7CC3"/>
-      <rgbColor rgb="FF93C47D"/>
-      <rgbColor rgb="FFC27BA0"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FFEFEFEF"/>
-      <rgbColor rgb="FFE6B8AF"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFCFE2F3"/>
-      <rgbColor rgb="FFD9D2E9"/>
-      <rgbColor rgb="FFD9EAD3"/>
-      <rgbColor rgb="FFEAD1DC"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff20124d"/>
+      <rgbColor rgb="ffd9d9d9"/>
+      <rgbColor rgb="fff79646"/>
+      <rgbColor rgb="ff3c899e"/>
+      <rgbColor rgb="ffcc4125"/>
+      <rgbColor rgb="ffffd966"/>
+      <rgbColor rgb="ff76a5af"/>
+      <rgbColor rgb="ff6fa8dc"/>
+      <rgbColor rgb="ff8e7cc3"/>
+      <rgbColor rgb="ff93c47d"/>
+      <rgbColor rgb="ffc27ba0"/>
+      <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="ffefefef"/>
+      <rgbColor rgb="fffbcaa2"/>
+      <rgbColor rgb="ffa5d5e2"/>
+      <rgbColor rgb="ffe6b8af"/>
+      <rgbColor rgb="fffff2cc"/>
+      <rgbColor rgb="ffd0e0e3"/>
+      <rgbColor rgb="ffcfe2f3"/>
+      <rgbColor rgb="ffd9d2e9"/>
+      <rgbColor rgb="ffd9ead3"/>
+      <rgbColor rgb="ffead1dc"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>2</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3251200" y="3040379"/>
-          <a:ext cx="5334000" cy="83251"/>
+          <a:off x="3327400" y="3041017"/>
+          <a:ext cx="8534400" cy="83247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,7 +1495,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1248,20 +1509,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3251200" y="2840354"/>
-          <a:ext cx="5334000" cy="83251"/>
+          <a:off x="3327400" y="2840989"/>
+          <a:ext cx="8534400" cy="83253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1279,7 +1540,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1293,20 +1554,20 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>83246</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3251200" y="3240404"/>
-          <a:ext cx="5334000" cy="83252"/>
+          <a:off x="3327400" y="3241039"/>
+          <a:ext cx="8534400" cy="83248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1324,7 +1585,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1332,26 +1593,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>6350</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>63500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>349250</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>146750</xdr:rowOff>
+      <xdr:rowOff>146748</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3613150" y="1703704"/>
-          <a:ext cx="698500" cy="83251"/>
+          <a:off x="6889750" y="1704339"/>
+          <a:ext cx="698500" cy="83250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1369,7 +1630,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1377,25 +1638,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>65972</xdr:rowOff>
+      <xdr:rowOff>65971</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149224</xdr:rowOff>
+      <xdr:rowOff>149223</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3606800" y="1906202"/>
+          <a:off x="6883400" y="1906836"/>
           <a:ext cx="698500" cy="83253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1414,7 +1675,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1422,25 +1683,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>355599</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355598</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>6349</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>6348</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4317999" y="5640704"/>
+          <a:off x="7594598" y="6041390"/>
           <a:ext cx="4629151" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1459,7 +1720,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1467,25 +1728,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>6349</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>355599</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7169149" y="5840729"/>
+          <a:off x="10445749" y="6241415"/>
           <a:ext cx="2482851" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1504,7 +1765,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1512,26 +1773,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>38101</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6924676" y="6038850"/>
-          <a:ext cx="3181350" cy="95250"/>
+          <a:off x="11150600" y="6441440"/>
+          <a:ext cx="3594101" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1549,7 +1810,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1557,26 +1818,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>16759</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:rowOff>100010</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 3"/>
+        <xdr:cNvPr id="10" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7175500" y="4657339"/>
-          <a:ext cx="1397000" cy="83253"/>
+          <a:off x="10452100" y="5058024"/>
+          <a:ext cx="1397000" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1594,7 +1855,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1602,25 +1863,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 3"/>
+        <xdr:cNvPr id="11" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="4840604"/>
+          <a:off x="11506200" y="5241290"/>
           <a:ext cx="1778000" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1639,7 +1900,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1647,26 +1908,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>1037</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>82801</xdr:rowOff>
+      <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Shape 3"/>
+        <xdr:cNvPr id="12" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8497337" y="5038726"/>
-          <a:ext cx="1903963" cy="82800"/>
+          <a:off x="12929637" y="5441316"/>
+          <a:ext cx="2151613" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1684,7 +1945,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1692,26 +1953,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Shape 3"/>
+        <xdr:cNvPr id="13" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6308725" y="3838575"/>
-          <a:ext cx="1244600" cy="83251"/>
+          <a:off x="10452100" y="4041140"/>
+          <a:ext cx="1409700" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1729,7 +1990,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1737,25 +1998,25 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Shape 3"/>
+        <xdr:cNvPr id="14" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8229600" y="4040504"/>
+          <a:off x="11506200" y="4241165"/>
           <a:ext cx="1778000" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1774,7 +2035,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1782,26 +2043,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>305837</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:rowOff>9523</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>92324</xdr:rowOff>
+      <xdr:rowOff>92322</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Shape 3"/>
+        <xdr:cNvPr id="15" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8487812" y="4248149"/>
-          <a:ext cx="1875388" cy="82800"/>
+          <a:off x="12878837" y="4450713"/>
+          <a:ext cx="2123038" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1819,7 +2080,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1827,26 +2088,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>48</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Shape 3"/>
+        <xdr:cNvPr id="16" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11315700" y="8829675"/>
-          <a:ext cx="952500" cy="92775"/>
+          <a:off x="16078200" y="10032365"/>
+          <a:ext cx="1117600" cy="92775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1864,7 +2125,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1872,26 +2133,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
+      <xdr:col>40</xdr:col>
       <xdr:colOff>304800</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>190500</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Shape 3"/>
+        <xdr:cNvPr id="17" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11315700" y="9829800"/>
-          <a:ext cx="952500" cy="92775"/>
+          <a:off x="16078200" y="9832340"/>
+          <a:ext cx="1117600" cy="92775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1909,7 +2170,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1917,26 +2178,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>10562</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>200023</xdr:rowOff>
+      <xdr:rowOff>200022</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>82798</xdr:rowOff>
+      <xdr:rowOff>82797</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Shape 3"/>
+        <xdr:cNvPr id="18" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8506862" y="6838948"/>
-          <a:ext cx="2199238" cy="82800"/>
+          <a:off x="12939162" y="7241537"/>
+          <a:ext cx="2488163" cy="82801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1954,7 +2215,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1962,26 +2223,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
+      <xdr:col>32</xdr:col>
       <xdr:colOff>10562</xdr:colOff>
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19049</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82799</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Shape 3"/>
+        <xdr:cNvPr id="19" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8506862" y="6638925"/>
-          <a:ext cx="2208763" cy="82800"/>
+          <a:off x="12939162" y="7041515"/>
+          <a:ext cx="2497688" cy="82801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1999,7 +2260,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2010,23 +2271,23 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19054</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>102301</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Shape 3"/>
+        <xdr:cNvPr id="20" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2847975" y="3457575"/>
-          <a:ext cx="4714875" cy="83251"/>
+          <a:off x="3336925" y="3460119"/>
+          <a:ext cx="8534400" cy="83248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2044,7 +2305,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2052,26 +2313,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>301035</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>301033</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Shape 3"/>
+        <xdr:cNvPr id="21" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9763125" y="7639050"/>
-          <a:ext cx="1863135" cy="83250"/>
+          <a:off x="14360525" y="8041640"/>
+          <a:ext cx="2069509" cy="83250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2089,7 +2350,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2097,26 +2358,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>301035</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>301033</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Shape 3"/>
+        <xdr:cNvPr id="22" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9763125" y="7439025"/>
-          <a:ext cx="1863135" cy="83250"/>
+          <a:off x="14360525" y="7841615"/>
+          <a:ext cx="2069509" cy="83250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2134,7 +2395,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2142,26 +2403,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>301035</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>301033</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Shape 3"/>
+        <xdr:cNvPr id="23" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9763125" y="7839075"/>
-          <a:ext cx="1863135" cy="83251"/>
+          <a:off x="14360525" y="8241665"/>
+          <a:ext cx="2069509" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2179,7 +2440,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2187,26 +2448,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>27</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>13289</xdr:colOff>
       <xdr:row>41</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
+      <xdr:col>41</xdr:col>
+      <xdr:colOff>304798</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>102301</xdr:rowOff>
+      <xdr:rowOff>102300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Shape 3"/>
+        <xdr:cNvPr id="24" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9766889" y="8058150"/>
-          <a:ext cx="1863135" cy="83251"/>
+          <a:off x="14364289" y="8460740"/>
+          <a:ext cx="2069510" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2224,7 +2485,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2232,26 +2493,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>9523</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>66674</xdr:colOff>
+      <xdr:col>43</xdr:col>
+      <xdr:colOff>66672</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>92325</xdr:rowOff>
+      <xdr:rowOff>92324</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Shape 3"/>
+        <xdr:cNvPr id="25" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10391774" y="8248650"/>
-          <a:ext cx="1628775" cy="82800"/>
+          <a:off x="15071723" y="8651240"/>
+          <a:ext cx="1835150" cy="82801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2269,7 +2530,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2277,26 +2538,26 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>28</xdr:col>
+      <xdr:col>37</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>45</xdr:row>
       <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>12000</xdr:colOff>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>11999</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>92324</xdr:rowOff>
+      <xdr:rowOff>92323</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Shape 3"/>
+        <xdr:cNvPr id="26" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10077450" y="9248774"/>
-          <a:ext cx="316800" cy="82800"/>
+          <a:off x="14716125" y="9251314"/>
+          <a:ext cx="358075" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2314,7 +2575,187 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>116773</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>200022</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="2957763"/>
+          <a:ext cx="3200400" cy="83250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>183261</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="3141027"/>
+          <a:ext cx="3200400" cy="83250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>116776</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3327400" y="3357815"/>
+          <a:ext cx="3200400" cy="83250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>116775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3336925" y="3557840"/>
+          <a:ext cx="3200400" cy="83250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2324,7 +2765,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2526,7 +2967,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2545,7 +2986,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2575,7 +3016,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2601,7 +3042,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2627,7 +3068,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2653,7 +3094,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2679,7 +3120,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2705,7 +3146,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2731,7 +3172,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2757,7 +3198,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2783,7 +3224,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2796,15 +3237,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2821,7 +3256,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2840,7 +3275,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2866,7 +3301,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2892,7 +3327,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2918,7 +3353,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2944,7 +3379,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2970,7 +3405,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2996,7 +3431,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3022,7 +3457,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3048,7 +3483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3074,7 +3509,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3087,15 +3522,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3109,7 +3538,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3128,7 +3557,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3158,7 +3587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3184,7 +3613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3210,7 +3639,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3236,7 +3665,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3262,7 +3691,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3288,7 +3717,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3314,7 +3743,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3340,7 +3769,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3366,7 +3795,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3379,51 +3808,80 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV61"/>
+  <dimension ref="A1:AS61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" customWidth="1"/>
-    <col min="6" max="35" width="4.7109375" style="1" customWidth="1"/>
-    <col min="36" max="36" width="5.42578125" style="1" customWidth="1"/>
-    <col min="37" max="256" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.67188" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.67188" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.67188" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.67188" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.67188" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.67188" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.67188" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.67188" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.67188" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.67188" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.67188" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.67188" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.67188" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.67188" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.67188" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.67188" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.67188" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.67188" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4.67188" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.67188" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.67188" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.67188" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.67188" style="1" customWidth="1"/>
+    <col min="29" max="29" width="4.67188" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.67188" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.67188" style="1" customWidth="1"/>
+    <col min="32" max="32" width="4.67188" style="1" customWidth="1"/>
+    <col min="33" max="33" width="4.67188" style="1" customWidth="1"/>
+    <col min="34" max="34" width="4.67188" style="1" customWidth="1"/>
+    <col min="35" max="35" width="4.67188" style="1" customWidth="1"/>
+    <col min="36" max="36" width="4.67188" style="1" customWidth="1"/>
+    <col min="37" max="37" width="4.67188" style="1" customWidth="1"/>
+    <col min="38" max="38" width="4.67188" style="1" customWidth="1"/>
+    <col min="39" max="39" width="4.67188" style="1" customWidth="1"/>
+    <col min="40" max="40" width="4.67188" style="1" customWidth="1"/>
+    <col min="41" max="41" width="4.67188" style="1" customWidth="1"/>
+    <col min="42" max="42" width="4.67188" style="1" customWidth="1"/>
+    <col min="43" max="43" width="4.67188" style="1" customWidth="1"/>
+    <col min="44" max="44" width="4.67188" style="1" customWidth="1"/>
+    <col min="45" max="45" width="5.5" style="1" customWidth="1"/>
+    <col min="46" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" t="s" s="3">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
@@ -3459,9 +3917,18 @@
       <c r="AG1" s="6"/>
       <c r="AH1" s="6"/>
       <c r="AI1" s="6"/>
-      <c r="AJ1" s="7"/>
+      <c r="AJ1" s="6"/>
+      <c r="AK1" s="6"/>
+      <c r="AL1" s="6"/>
+      <c r="AM1" s="6"/>
+      <c r="AN1" s="6"/>
+      <c r="AO1" s="6"/>
+      <c r="AP1" s="6"/>
+      <c r="AQ1" s="6"/>
+      <c r="AR1" s="6"/>
+      <c r="AS1" s="7"/>
     </row>
-    <row r="2" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>43280</v>
@@ -3499,11 +3966,20 @@
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12"/>
-      <c r="AJ2" s="13"/>
+      <c r="AJ2" s="12"/>
+      <c r="AK2" s="12"/>
+      <c r="AL2" s="12"/>
+      <c r="AM2" s="12"/>
+      <c r="AN2" s="12"/>
+      <c r="AO2" s="12"/>
+      <c r="AP2" s="12"/>
+      <c r="AQ2" s="12"/>
+      <c r="AR2" s="12"/>
+      <c r="AS2" s="13"/>
     </row>
-    <row r="3" spans="1:36" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" ht="34.7" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="14" t="s">
+      <c r="B3" t="s" s="14">
         <v>2</v>
       </c>
       <c r="C3" s="10"/>
@@ -3539,9 +4015,18 @@
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
       <c r="AI3" s="12"/>
-      <c r="AJ3" s="13"/>
+      <c r="AJ3" s="12"/>
+      <c r="AK3" s="12"/>
+      <c r="AL3" s="12"/>
+      <c r="AM3" s="12"/>
+      <c r="AN3" s="12"/>
+      <c r="AO3" s="12"/>
+      <c r="AP3" s="12"/>
+      <c r="AQ3" s="12"/>
+      <c r="AR3" s="12"/>
+      <c r="AS3" s="13"/>
     </row>
-    <row r="4" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
@@ -3577,9 +4062,18 @@
       <c r="AG4" s="12"/>
       <c r="AH4" s="12"/>
       <c r="AI4" s="12"/>
-      <c r="AJ4" s="13"/>
+      <c r="AJ4" s="12"/>
+      <c r="AK4" s="12"/>
+      <c r="AL4" s="12"/>
+      <c r="AM4" s="12"/>
+      <c r="AN4" s="12"/>
+      <c r="AO4" s="12"/>
+      <c r="AP4" s="12"/>
+      <c r="AQ4" s="12"/>
+      <c r="AR4" s="12"/>
+      <c r="AS4" s="13"/>
     </row>
-    <row r="5" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
@@ -3615,12 +4109,21 @@
       <c r="AG5" s="12"/>
       <c r="AH5" s="12"/>
       <c r="AI5" s="12"/>
-      <c r="AJ5" s="13"/>
+      <c r="AJ5" s="12"/>
+      <c r="AK5" s="12"/>
+      <c r="AL5" s="12"/>
+      <c r="AM5" s="12"/>
+      <c r="AN5" s="12"/>
+      <c r="AO5" s="12"/>
+      <c r="AP5" s="12"/>
+      <c r="AQ5" s="12"/>
+      <c r="AR5" s="12"/>
+      <c r="AS5" s="13"/>
     </row>
-    <row r="6" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="15" t="s">
+      <c r="C6" t="s" s="15">
         <v>3</v>
       </c>
       <c r="D6" s="11"/>
@@ -3655,14 +4158,23 @@
       <c r="AG6" s="12"/>
       <c r="AH6" s="12"/>
       <c r="AI6" s="12"/>
-      <c r="AJ6" s="13"/>
+      <c r="AJ6" s="12"/>
+      <c r="AK6" s="12"/>
+      <c r="AL6" s="12"/>
+      <c r="AM6" s="12"/>
+      <c r="AN6" s="12"/>
+      <c r="AO6" s="12"/>
+      <c r="AP6" s="12"/>
+      <c r="AQ6" s="12"/>
+      <c r="AR6" s="12"/>
+      <c r="AS6" s="13"/>
     </row>
-    <row r="7" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="15" t="s">
+      <c r="B7" t="s" s="15">
         <v>4</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" t="s" s="15">
         <v>5</v>
       </c>
       <c r="D7" s="11"/>
@@ -3697,21 +4209,28 @@
       <c r="AG7" s="12"/>
       <c r="AH7" s="12"/>
       <c r="AI7" s="12"/>
-      <c r="AJ7" s="13"/>
+      <c r="AJ7" s="12"/>
+      <c r="AK7" s="12"/>
+      <c r="AL7" s="12"/>
+      <c r="AM7" s="12"/>
+      <c r="AN7" s="12"/>
+      <c r="AO7" s="12"/>
+      <c r="AP7" s="12"/>
+      <c r="AQ7" s="12"/>
+      <c r="AR7" s="12"/>
+      <c r="AS7" s="13"/>
     </row>
-    <row r="8" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="15" t="s">
+      <c r="B8" t="s" s="15">
         <v>6</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" t="s" s="15">
         <v>7</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
-      <c r="F8" s="16" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="12"/>
       <c r="G8" s="12"/>
       <c r="H8" s="12"/>
       <c r="I8" s="12"/>
@@ -3720,7 +4239,9 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="O8" t="s" s="16">
+        <v>8</v>
+      </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
@@ -3741,21 +4262,28 @@
       <c r="AG8" s="12"/>
       <c r="AH8" s="12"/>
       <c r="AI8" s="12"/>
-      <c r="AJ8" s="13"/>
+      <c r="AJ8" s="12"/>
+      <c r="AK8" s="12"/>
+      <c r="AL8" s="12"/>
+      <c r="AM8" s="12"/>
+      <c r="AN8" s="12"/>
+      <c r="AO8" s="12"/>
+      <c r="AP8" s="12"/>
+      <c r="AQ8" s="12"/>
+      <c r="AR8" s="12"/>
+      <c r="AS8" s="13"/>
     </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="15" t="s">
+      <c r="B9" t="s" s="15">
         <v>9</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" t="s" s="15">
         <v>10</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
-      <c r="F9" s="16" t="s">
-        <v>11</v>
-      </c>
+      <c r="F9" s="12"/>
       <c r="G9" s="12"/>
       <c r="H9" s="12"/>
       <c r="I9" s="12"/>
@@ -3764,7 +4292,9 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
+      <c r="O9" t="s" s="16">
+        <v>11</v>
+      </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
@@ -3785,9 +4315,18 @@
       <c r="AG9" s="12"/>
       <c r="AH9" s="12"/>
       <c r="AI9" s="12"/>
-      <c r="AJ9" s="13"/>
+      <c r="AJ9" s="12"/>
+      <c r="AK9" s="12"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="12"/>
+      <c r="AN9" s="12"/>
+      <c r="AO9" s="12"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="12"/>
+      <c r="AR9" s="12"/>
+      <c r="AS9" s="13"/>
     </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -3823,1983 +4362,2662 @@
       <c r="AG10" s="20"/>
       <c r="AH10" s="20"/>
       <c r="AI10" s="20"/>
-      <c r="AJ10" s="21"/>
+      <c r="AJ10" s="20"/>
+      <c r="AK10" s="20"/>
+      <c r="AL10" s="20"/>
+      <c r="AM10" s="20"/>
+      <c r="AN10" s="20"/>
+      <c r="AO10" s="20"/>
+      <c r="AP10" s="20"/>
+      <c r="AQ10" s="20"/>
+      <c r="AR10" s="20"/>
+      <c r="AS10" s="21"/>
     </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="26" t="s">
+      <c r="E11" t="s" s="26">
         <v>12</v>
       </c>
       <c r="F11" s="27">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="G11" s="28"/>
       <c r="H11" s="28"/>
       <c r="I11" s="28"/>
       <c r="J11" s="29">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K11" s="30"/>
       <c r="L11" s="30"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
       <c r="O11" s="31">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="P11" s="32"/>
       <c r="Q11" s="32"/>
       <c r="R11" s="32"/>
       <c r="S11" s="33">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="T11" s="34"/>
       <c r="U11" s="34"/>
       <c r="V11" s="34"/>
-      <c r="W11" s="35">
-        <v>11</v>
-      </c>
-      <c r="X11" s="36"/>
+      <c r="W11" s="34"/>
+      <c r="X11" s="35">
+        <v>9</v>
+      </c>
       <c r="Y11" s="36"/>
       <c r="Z11" s="36"/>
       <c r="AA11" s="36"/>
       <c r="AB11" s="37">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AC11" s="38"/>
       <c r="AD11" s="38"/>
       <c r="AE11" s="38"/>
       <c r="AF11" s="39">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AG11" s="40"/>
       <c r="AH11" s="40"/>
       <c r="AI11" s="40"/>
-      <c r="AJ11" s="41"/>
+      <c r="AJ11" s="40"/>
+      <c r="AK11" s="41">
+        <v>12</v>
+      </c>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="43">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="44"/>
+      <c r="AQ11" s="44"/>
+      <c r="AR11" s="44"/>
+      <c r="AS11" s="45"/>
     </row>
-    <row r="12" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="42" t="s">
+      <c r="B12" t="s" s="46">
         <v>13</v>
       </c>
-      <c r="C12" s="43" t="s">
+      <c r="C12" t="s" s="47">
         <v>14</v>
       </c>
-      <c r="D12" s="44" t="s">
+      <c r="D12" t="s" s="48">
         <v>15</v>
       </c>
-      <c r="E12" s="44" t="s">
+      <c r="E12" t="s" s="48">
         <v>16</v>
       </c>
-      <c r="F12" s="45">
+      <c r="F12" s="49">
+        <v>4</v>
+      </c>
+      <c r="G12" s="49">
+        <v>11</v>
+      </c>
+      <c r="H12" s="49">
+        <v>18</v>
+      </c>
+      <c r="I12" s="49">
+        <v>25</v>
+      </c>
+      <c r="J12" s="50">
+        <v>1</v>
+      </c>
+      <c r="K12" s="51">
+        <v>8</v>
+      </c>
+      <c r="L12" s="51">
+        <v>15</v>
+      </c>
+      <c r="M12" s="51">
+        <v>22</v>
+      </c>
+      <c r="N12" s="51">
+        <v>29</v>
+      </c>
+      <c r="O12" s="52">
         <v>6</v>
       </c>
-      <c r="G12" s="45">
+      <c r="P12" s="52">
         <v>13</v>
       </c>
-      <c r="H12" s="46">
+      <c r="Q12" s="53">
         <v>20</v>
       </c>
-      <c r="I12" s="45">
+      <c r="R12" s="52">
         <v>27</v>
       </c>
-      <c r="J12" s="47">
+      <c r="S12" s="54">
         <v>3</v>
       </c>
-      <c r="K12" s="47">
+      <c r="T12" s="54">
         <v>10</v>
       </c>
-      <c r="L12" s="47">
+      <c r="U12" s="54">
         <v>17</v>
       </c>
-      <c r="M12" s="47">
+      <c r="V12" s="54">
         <v>24</v>
       </c>
-      <c r="N12" s="47">
+      <c r="W12" s="54">
         <v>31</v>
       </c>
-      <c r="O12" s="48">
+      <c r="X12" s="55">
         <v>7</v>
       </c>
-      <c r="P12" s="48">
+      <c r="Y12" s="55">
         <v>14</v>
       </c>
-      <c r="Q12" s="49">
+      <c r="Z12" s="56">
         <v>21</v>
       </c>
-      <c r="R12" s="49">
+      <c r="AA12" s="56">
         <v>28</v>
       </c>
-      <c r="S12" s="50">
+      <c r="AB12" s="57">
         <v>4</v>
       </c>
-      <c r="T12" s="50">
+      <c r="AC12" s="57">
         <v>11</v>
       </c>
-      <c r="U12" s="50">
+      <c r="AD12" s="57">
         <v>18</v>
       </c>
-      <c r="V12" s="50">
+      <c r="AE12" s="57">
         <v>25</v>
       </c>
-      <c r="W12" s="51">
+      <c r="AF12" s="58">
         <v>2</v>
       </c>
-      <c r="X12" s="52">
+      <c r="AG12" s="59">
         <v>9</v>
       </c>
-      <c r="Y12" s="51">
+      <c r="AH12" s="58">
         <v>16</v>
       </c>
-      <c r="Z12" s="52">
+      <c r="AI12" s="59">
         <v>23</v>
       </c>
-      <c r="AA12" s="52">
+      <c r="AJ12" s="59">
         <v>30</v>
       </c>
-      <c r="AB12" s="53">
+      <c r="AK12" s="60">
         <v>7</v>
       </c>
-      <c r="AC12" s="53">
+      <c r="AL12" s="60">
         <v>14</v>
       </c>
-      <c r="AD12" s="53">
+      <c r="AM12" s="60">
         <v>21</v>
       </c>
-      <c r="AE12" s="54">
+      <c r="AN12" s="61">
         <v>28</v>
       </c>
-      <c r="AF12" s="55">
+      <c r="AO12" s="62">
         <v>4</v>
       </c>
-      <c r="AG12" s="56">
+      <c r="AP12" s="63">
         <v>11</v>
       </c>
-      <c r="AH12" s="56">
+      <c r="AQ12" s="63">
         <v>18</v>
       </c>
-      <c r="AI12" s="56">
+      <c r="AR12" s="63">
         <v>25</v>
       </c>
-      <c r="AJ12" s="57"/>
+      <c r="AS12" s="64"/>
     </row>
-    <row r="13" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="58"/>
-      <c r="B13" s="59" t="s">
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="65"/>
+      <c r="B13" t="s" s="66">
         <v>17</v>
       </c>
-      <c r="C13" s="60"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="62"/>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-      <c r="L13" s="63"/>
-      <c r="M13" s="63"/>
-      <c r="N13" s="63"/>
-      <c r="O13" s="64"/>
-      <c r="P13" s="64"/>
-      <c r="Q13" s="64"/>
-      <c r="R13" s="64"/>
-      <c r="S13" s="65"/>
-      <c r="T13" s="65"/>
-      <c r="U13" s="65"/>
-      <c r="V13" s="65"/>
-      <c r="W13" s="66"/>
-      <c r="X13" s="66"/>
-      <c r="Y13" s="66"/>
-      <c r="Z13" s="66"/>
-      <c r="AA13" s="66"/>
-      <c r="AB13" s="67"/>
-      <c r="AC13" s="67"/>
-      <c r="AD13" s="67"/>
-      <c r="AE13" s="67"/>
-      <c r="AF13" s="68"/>
-      <c r="AG13" s="68"/>
-      <c r="AH13" s="68"/>
-      <c r="AI13" s="68"/>
-      <c r="AJ13" s="57"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="69"/>
+      <c r="G13" s="69"/>
+      <c r="H13" s="69"/>
+      <c r="I13" s="69"/>
+      <c r="J13" s="70"/>
+      <c r="K13" s="70"/>
+      <c r="L13" s="70"/>
+      <c r="M13" s="70"/>
+      <c r="N13" s="70"/>
+      <c r="O13" s="71"/>
+      <c r="P13" s="71"/>
+      <c r="Q13" s="71"/>
+      <c r="R13" s="71"/>
+      <c r="S13" s="72"/>
+      <c r="T13" s="72"/>
+      <c r="U13" s="72"/>
+      <c r="V13" s="72"/>
+      <c r="W13" s="72"/>
+      <c r="X13" s="73"/>
+      <c r="Y13" s="73"/>
+      <c r="Z13" s="73"/>
+      <c r="AA13" s="73"/>
+      <c r="AB13" s="74"/>
+      <c r="AC13" s="74"/>
+      <c r="AD13" s="74"/>
+      <c r="AE13" s="74"/>
+      <c r="AF13" s="75"/>
+      <c r="AG13" s="75"/>
+      <c r="AH13" s="75"/>
+      <c r="AI13" s="75"/>
+      <c r="AJ13" s="75"/>
+      <c r="AK13" s="76"/>
+      <c r="AL13" s="76"/>
+      <c r="AM13" s="76"/>
+      <c r="AN13" s="76"/>
+      <c r="AO13" s="77"/>
+      <c r="AP13" s="77"/>
+      <c r="AQ13" s="77"/>
+      <c r="AR13" s="77"/>
+      <c r="AS13" s="64"/>
     </row>
-    <row r="14" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="58"/>
-      <c r="B14" s="69" t="s">
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="65"/>
+      <c r="B14" t="s" s="78">
         <v>18</v>
       </c>
-      <c r="C14" s="60"/>
-      <c r="D14" s="70" t="s">
+      <c r="C14" s="67"/>
+      <c r="D14" t="s" s="79">
         <v>19</v>
       </c>
-      <c r="E14" s="61"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="62"/>
-      <c r="J14" s="63"/>
-      <c r="K14" s="63"/>
-      <c r="L14" s="63"/>
-      <c r="M14" s="63"/>
-      <c r="N14" s="63"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="64"/>
-      <c r="R14" s="64"/>
-      <c r="S14" s="65"/>
-      <c r="T14" s="65"/>
-      <c r="U14" s="65"/>
-      <c r="V14" s="65"/>
-      <c r="W14" s="66"/>
-      <c r="X14" s="66"/>
-      <c r="Y14" s="66"/>
-      <c r="Z14" s="66"/>
-      <c r="AA14" s="66"/>
-      <c r="AB14" s="67"/>
-      <c r="AC14" s="67"/>
-      <c r="AD14" s="67"/>
-      <c r="AE14" s="67"/>
-      <c r="AF14" s="68"/>
-      <c r="AG14" s="68"/>
-      <c r="AH14" s="68"/>
-      <c r="AI14" s="68"/>
-      <c r="AJ14" s="57"/>
+      <c r="E14" s="68"/>
+      <c r="F14" s="69"/>
+      <c r="G14" s="69"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+      <c r="L14" s="70"/>
+      <c r="M14" s="70"/>
+      <c r="N14" s="70"/>
+      <c r="O14" s="71"/>
+      <c r="P14" s="71"/>
+      <c r="Q14" s="71"/>
+      <c r="R14" s="71"/>
+      <c r="S14" s="72"/>
+      <c r="T14" s="72"/>
+      <c r="U14" s="72"/>
+      <c r="V14" s="72"/>
+      <c r="W14" s="72"/>
+      <c r="X14" s="73"/>
+      <c r="Y14" s="73"/>
+      <c r="Z14" s="73"/>
+      <c r="AA14" s="73"/>
+      <c r="AB14" s="74"/>
+      <c r="AC14" s="74"/>
+      <c r="AD14" s="74"/>
+      <c r="AE14" s="74"/>
+      <c r="AF14" s="75"/>
+      <c r="AG14" s="75"/>
+      <c r="AH14" s="75"/>
+      <c r="AI14" s="75"/>
+      <c r="AJ14" s="75"/>
+      <c r="AK14" s="76"/>
+      <c r="AL14" s="76"/>
+      <c r="AM14" s="76"/>
+      <c r="AN14" s="76"/>
+      <c r="AO14" s="77"/>
+      <c r="AP14" s="77"/>
+      <c r="AQ14" s="77"/>
+      <c r="AR14" s="77"/>
+      <c r="AS14" s="64"/>
     </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="58"/>
-      <c r="B15" s="69" t="s">
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="65"/>
+      <c r="B15" t="s" s="78">
         <v>20</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="70" t="s">
+      <c r="C15" s="67"/>
+      <c r="D15" t="s" s="79">
         <v>19</v>
       </c>
-      <c r="E15" s="61"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="62"/>
-      <c r="J15" s="63"/>
-      <c r="K15" s="63"/>
-      <c r="L15" s="63"/>
-      <c r="M15" s="63"/>
-      <c r="N15" s="63"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="64"/>
-      <c r="S15" s="65"/>
-      <c r="T15" s="65"/>
-      <c r="U15" s="65"/>
-      <c r="V15" s="65"/>
-      <c r="W15" s="66"/>
-      <c r="X15" s="66"/>
-      <c r="Y15" s="66"/>
-      <c r="Z15" s="66"/>
-      <c r="AA15" s="66"/>
-      <c r="AB15" s="67"/>
-      <c r="AC15" s="67"/>
-      <c r="AD15" s="67"/>
-      <c r="AE15" s="67"/>
-      <c r="AF15" s="68"/>
-      <c r="AG15" s="68"/>
-      <c r="AH15" s="68"/>
-      <c r="AI15" s="68"/>
-      <c r="AJ15" s="57"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="69"/>
+      <c r="G15" s="69"/>
+      <c r="H15" s="69"/>
+      <c r="I15" s="69"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+      <c r="M15" s="70"/>
+      <c r="N15" s="70"/>
+      <c r="O15" s="71"/>
+      <c r="P15" s="71"/>
+      <c r="Q15" s="71"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
+      <c r="U15" s="72"/>
+      <c r="V15" s="72"/>
+      <c r="W15" s="72"/>
+      <c r="X15" s="73"/>
+      <c r="Y15" s="73"/>
+      <c r="Z15" s="73"/>
+      <c r="AA15" s="73"/>
+      <c r="AB15" s="74"/>
+      <c r="AC15" s="74"/>
+      <c r="AD15" s="74"/>
+      <c r="AE15" s="74"/>
+      <c r="AF15" s="75"/>
+      <c r="AG15" s="75"/>
+      <c r="AH15" s="75"/>
+      <c r="AI15" s="75"/>
+      <c r="AJ15" s="75"/>
+      <c r="AK15" s="76"/>
+      <c r="AL15" s="76"/>
+      <c r="AM15" s="76"/>
+      <c r="AN15" s="76"/>
+      <c r="AO15" s="77"/>
+      <c r="AP15" s="77"/>
+      <c r="AQ15" s="77"/>
+      <c r="AR15" s="77"/>
+      <c r="AS15" s="64"/>
     </row>
-    <row r="16" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="58"/>
-      <c r="B16" s="69" t="s">
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="65"/>
+      <c r="B16" t="s" s="78">
         <v>21</v>
       </c>
-      <c r="C16" s="60"/>
-      <c r="D16" s="70" t="s">
+      <c r="C16" s="67"/>
+      <c r="D16" t="s" s="79">
         <v>7</v>
       </c>
-      <c r="E16" s="61"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="62"/>
-      <c r="J16" s="63"/>
-      <c r="K16" s="63"/>
-      <c r="L16" s="63"/>
-      <c r="M16" s="63"/>
-      <c r="N16" s="63"/>
-      <c r="O16" s="64"/>
-      <c r="P16" s="64"/>
-      <c r="Q16" s="64"/>
-      <c r="R16" s="64"/>
-      <c r="S16" s="65"/>
-      <c r="T16" s="65"/>
-      <c r="U16" s="65"/>
-      <c r="V16" s="65"/>
-      <c r="W16" s="66"/>
-      <c r="X16" s="66"/>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
-      <c r="AA16" s="66"/>
-      <c r="AB16" s="67"/>
-      <c r="AC16" s="67"/>
-      <c r="AD16" s="67"/>
-      <c r="AE16" s="67"/>
-      <c r="AF16" s="68"/>
-      <c r="AG16" s="68"/>
-      <c r="AH16" s="68"/>
-      <c r="AI16" s="68"/>
-      <c r="AJ16" s="57"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="69"/>
+      <c r="G16" s="69"/>
+      <c r="H16" s="69"/>
+      <c r="I16" s="69"/>
+      <c r="J16" s="70"/>
+      <c r="K16" s="70"/>
+      <c r="L16" s="70"/>
+      <c r="M16" s="70"/>
+      <c r="N16" s="70"/>
+      <c r="O16" s="71"/>
+      <c r="P16" s="71"/>
+      <c r="Q16" s="71"/>
+      <c r="R16" s="71"/>
+      <c r="S16" s="72"/>
+      <c r="T16" s="72"/>
+      <c r="U16" s="72"/>
+      <c r="V16" s="72"/>
+      <c r="W16" s="72"/>
+      <c r="X16" s="73"/>
+      <c r="Y16" s="73"/>
+      <c r="Z16" s="73"/>
+      <c r="AA16" s="73"/>
+      <c r="AB16" s="74"/>
+      <c r="AC16" s="74"/>
+      <c r="AD16" s="74"/>
+      <c r="AE16" s="74"/>
+      <c r="AF16" s="75"/>
+      <c r="AG16" s="75"/>
+      <c r="AH16" s="75"/>
+      <c r="AI16" s="75"/>
+      <c r="AJ16" s="75"/>
+      <c r="AK16" s="76"/>
+      <c r="AL16" s="76"/>
+      <c r="AM16" s="76"/>
+      <c r="AN16" s="76"/>
+      <c r="AO16" s="77"/>
+      <c r="AP16" s="77"/>
+      <c r="AQ16" s="77"/>
+      <c r="AR16" s="77"/>
+      <c r="AS16" s="64"/>
     </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="58"/>
-      <c r="B17" s="69" t="s">
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="65"/>
+      <c r="B17" t="s" s="78">
         <v>22</v>
       </c>
-      <c r="C17" s="60"/>
-      <c r="D17" s="70" t="s">
+      <c r="C17" s="67"/>
+      <c r="D17" t="s" s="79">
         <v>23</v>
       </c>
-      <c r="E17" s="61"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="62"/>
-      <c r="J17" s="63"/>
-      <c r="K17" s="63"/>
-      <c r="L17" s="63"/>
-      <c r="M17" s="63"/>
-      <c r="N17" s="63"/>
-      <c r="O17" s="64"/>
-      <c r="P17" s="64"/>
-      <c r="Q17" s="64"/>
-      <c r="R17" s="64"/>
-      <c r="S17" s="65"/>
-      <c r="T17" s="65"/>
-      <c r="U17" s="65"/>
-      <c r="V17" s="65"/>
-      <c r="W17" s="66"/>
-      <c r="X17" s="66"/>
-      <c r="Y17" s="66"/>
-      <c r="Z17" s="66"/>
-      <c r="AA17" s="66"/>
-      <c r="AB17" s="67"/>
-      <c r="AC17" s="67"/>
-      <c r="AD17" s="67"/>
-      <c r="AE17" s="67"/>
-      <c r="AF17" s="68"/>
-      <c r="AG17" s="68"/>
-      <c r="AH17" s="68"/>
-      <c r="AI17" s="68"/>
-      <c r="AJ17" s="57"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="69"/>
+      <c r="G17" s="69"/>
+      <c r="H17" s="69"/>
+      <c r="I17" s="69"/>
+      <c r="J17" s="70"/>
+      <c r="K17" s="70"/>
+      <c r="L17" s="70"/>
+      <c r="M17" s="70"/>
+      <c r="N17" s="70"/>
+      <c r="O17" s="71"/>
+      <c r="P17" s="71"/>
+      <c r="Q17" s="71"/>
+      <c r="R17" s="71"/>
+      <c r="S17" s="72"/>
+      <c r="T17" s="72"/>
+      <c r="U17" s="72"/>
+      <c r="V17" s="72"/>
+      <c r="W17" s="72"/>
+      <c r="X17" s="73"/>
+      <c r="Y17" s="73"/>
+      <c r="Z17" s="73"/>
+      <c r="AA17" s="73"/>
+      <c r="AB17" s="74"/>
+      <c r="AC17" s="74"/>
+      <c r="AD17" s="74"/>
+      <c r="AE17" s="74"/>
+      <c r="AF17" s="75"/>
+      <c r="AG17" s="75"/>
+      <c r="AH17" s="75"/>
+      <c r="AI17" s="75"/>
+      <c r="AJ17" s="75"/>
+      <c r="AK17" s="76"/>
+      <c r="AL17" s="76"/>
+      <c r="AM17" s="76"/>
+      <c r="AN17" s="76"/>
+      <c r="AO17" s="77"/>
+      <c r="AP17" s="77"/>
+      <c r="AQ17" s="77"/>
+      <c r="AR17" s="77"/>
+      <c r="AS17" s="64"/>
     </row>
-    <row r="18" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="58"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="70"/>
-      <c r="E18" s="61"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="63"/>
-      <c r="K18" s="63"/>
-      <c r="L18" s="63"/>
-      <c r="M18" s="63"/>
-      <c r="N18" s="63"/>
-      <c r="O18" s="64"/>
-      <c r="P18" s="64"/>
-      <c r="Q18" s="64"/>
-      <c r="R18" s="64"/>
-      <c r="S18" s="65"/>
-      <c r="T18" s="65"/>
-      <c r="U18" s="65"/>
-      <c r="V18" s="65"/>
-      <c r="W18" s="66"/>
-      <c r="X18" s="66"/>
-      <c r="Y18" s="66"/>
-      <c r="Z18" s="90"/>
-      <c r="AA18" s="91"/>
-      <c r="AB18" s="92"/>
-      <c r="AC18" s="67"/>
-      <c r="AD18" s="67"/>
-      <c r="AE18" s="67"/>
-      <c r="AF18" s="68"/>
-      <c r="AG18" s="68"/>
-      <c r="AH18" s="68"/>
-      <c r="AI18" s="68"/>
-      <c r="AJ18" s="57"/>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="65"/>
+      <c r="B18" s="80"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="69"/>
+      <c r="G18" s="69"/>
+      <c r="H18" s="69"/>
+      <c r="I18" s="69"/>
+      <c r="J18" s="70"/>
+      <c r="K18" s="70"/>
+      <c r="L18" s="70"/>
+      <c r="M18" s="70"/>
+      <c r="N18" s="70"/>
+      <c r="O18" s="71"/>
+      <c r="P18" s="71"/>
+      <c r="Q18" s="71"/>
+      <c r="R18" s="71"/>
+      <c r="S18" s="72"/>
+      <c r="T18" s="72"/>
+      <c r="U18" s="72"/>
+      <c r="V18" s="72"/>
+      <c r="W18" s="72"/>
+      <c r="X18" s="73"/>
+      <c r="Y18" s="73"/>
+      <c r="Z18" s="73"/>
+      <c r="AA18" s="73"/>
+      <c r="AB18" s="74"/>
+      <c r="AC18" s="74"/>
+      <c r="AD18" s="74"/>
+      <c r="AE18" s="74"/>
+      <c r="AF18" s="75"/>
+      <c r="AG18" s="75"/>
+      <c r="AH18" s="75"/>
+      <c r="AI18" s="81"/>
+      <c r="AJ18" s="82"/>
+      <c r="AK18" s="83"/>
+      <c r="AL18" s="76"/>
+      <c r="AM18" s="76"/>
+      <c r="AN18" s="76"/>
+      <c r="AO18" s="77"/>
+      <c r="AP18" s="77"/>
+      <c r="AQ18" s="77"/>
+      <c r="AR18" s="77"/>
+      <c r="AS18" s="64"/>
     </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="59" t="s">
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="65"/>
+      <c r="B19" t="s" s="66">
         <v>24</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63"/>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
-      <c r="O19" s="64"/>
-      <c r="P19" s="64"/>
-      <c r="Q19" s="64"/>
-      <c r="R19" s="64"/>
-      <c r="S19" s="65"/>
-      <c r="T19" s="65"/>
-      <c r="U19" s="65"/>
-      <c r="V19" s="65"/>
-      <c r="W19" s="66"/>
-      <c r="X19" s="66"/>
-      <c r="Y19" s="66"/>
-      <c r="Z19" s="71"/>
-      <c r="AA19" s="72"/>
-      <c r="AB19" s="73"/>
-      <c r="AC19" s="67"/>
-      <c r="AD19" s="67"/>
-      <c r="AE19" s="67"/>
-      <c r="AF19" s="68"/>
-      <c r="AG19" s="68"/>
-      <c r="AH19" s="68"/>
-      <c r="AI19" s="68"/>
-      <c r="AJ19" s="57"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="68"/>
+      <c r="E19" s="68"/>
+      <c r="F19" s="69"/>
+      <c r="G19" s="69"/>
+      <c r="H19" s="69"/>
+      <c r="I19" s="69"/>
+      <c r="J19" s="70"/>
+      <c r="K19" s="70"/>
+      <c r="L19" s="70"/>
+      <c r="M19" s="70"/>
+      <c r="N19" s="70"/>
+      <c r="O19" s="71"/>
+      <c r="P19" s="71"/>
+      <c r="Q19" s="71"/>
+      <c r="R19" s="71"/>
+      <c r="S19" s="72"/>
+      <c r="T19" s="72"/>
+      <c r="U19" s="72"/>
+      <c r="V19" s="72"/>
+      <c r="W19" s="72"/>
+      <c r="X19" s="73"/>
+      <c r="Y19" s="73"/>
+      <c r="Z19" s="73"/>
+      <c r="AA19" s="73"/>
+      <c r="AB19" s="74"/>
+      <c r="AC19" s="74"/>
+      <c r="AD19" s="74"/>
+      <c r="AE19" s="74"/>
+      <c r="AF19" s="75"/>
+      <c r="AG19" s="75"/>
+      <c r="AH19" s="75"/>
+      <c r="AI19" s="84"/>
+      <c r="AJ19" s="85"/>
+      <c r="AK19" s="86"/>
+      <c r="AL19" s="76"/>
+      <c r="AM19" s="76"/>
+      <c r="AN19" s="76"/>
+      <c r="AO19" s="77"/>
+      <c r="AP19" s="77"/>
+      <c r="AQ19" s="77"/>
+      <c r="AR19" s="77"/>
+      <c r="AS19" s="64"/>
     </row>
-    <row r="20" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="58"/>
-      <c r="B20" s="69" t="s">
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="65"/>
+      <c r="B20" t="s" s="78">
         <v>25</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="70" t="s">
+      <c r="C20" s="67"/>
+      <c r="D20" t="s" s="79">
         <v>19</v>
       </c>
-      <c r="E20" s="61"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="63"/>
-      <c r="K20" s="63"/>
-      <c r="L20" s="63"/>
-      <c r="M20" s="63"/>
-      <c r="N20" s="63"/>
-      <c r="O20" s="64"/>
-      <c r="P20" s="64"/>
-      <c r="Q20" s="64"/>
-      <c r="R20" s="64"/>
-      <c r="S20" s="65"/>
-      <c r="T20" s="65"/>
-      <c r="U20" s="65"/>
-      <c r="V20" s="65"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66"/>
-      <c r="Y20" s="66"/>
-      <c r="Z20" s="66"/>
-      <c r="AA20" s="74"/>
-      <c r="AB20" s="67"/>
-      <c r="AC20" s="67"/>
-      <c r="AD20" s="67"/>
-      <c r="AE20" s="67"/>
-      <c r="AF20" s="68"/>
-      <c r="AG20" s="68"/>
-      <c r="AH20" s="68"/>
-      <c r="AI20" s="68"/>
-      <c r="AJ20" s="57"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="69"/>
+      <c r="G20" s="69"/>
+      <c r="H20" s="69"/>
+      <c r="I20" s="69"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
+      <c r="L20" s="70"/>
+      <c r="M20" s="70"/>
+      <c r="N20" s="70"/>
+      <c r="O20" s="71"/>
+      <c r="P20" s="71"/>
+      <c r="Q20" s="71"/>
+      <c r="R20" s="71"/>
+      <c r="S20" s="72"/>
+      <c r="T20" s="72"/>
+      <c r="U20" s="72"/>
+      <c r="V20" s="72"/>
+      <c r="W20" s="72"/>
+      <c r="X20" s="73"/>
+      <c r="Y20" s="73"/>
+      <c r="Z20" s="73"/>
+      <c r="AA20" s="73"/>
+      <c r="AB20" s="74"/>
+      <c r="AC20" s="74"/>
+      <c r="AD20" s="74"/>
+      <c r="AE20" s="74"/>
+      <c r="AF20" s="75"/>
+      <c r="AG20" s="75"/>
+      <c r="AH20" s="75"/>
+      <c r="AI20" s="75"/>
+      <c r="AJ20" s="87"/>
+      <c r="AK20" s="76"/>
+      <c r="AL20" s="76"/>
+      <c r="AM20" s="76"/>
+      <c r="AN20" s="76"/>
+      <c r="AO20" s="77"/>
+      <c r="AP20" s="77"/>
+      <c r="AQ20" s="77"/>
+      <c r="AR20" s="77"/>
+      <c r="AS20" s="64"/>
     </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="58"/>
-      <c r="B21" s="69" t="s">
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="65"/>
+      <c r="B21" t="s" s="78">
         <v>26</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="70" t="s">
+      <c r="C21" s="67"/>
+      <c r="D21" t="s" s="79">
         <v>19</v>
       </c>
-      <c r="E21" s="61"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="63"/>
-      <c r="K21" s="63"/>
-      <c r="L21" s="63"/>
-      <c r="M21" s="63"/>
-      <c r="N21" s="63"/>
-      <c r="O21" s="64"/>
-      <c r="P21" s="64"/>
-      <c r="Q21" s="64"/>
-      <c r="R21" s="64"/>
-      <c r="S21" s="65"/>
-      <c r="T21" s="65"/>
-      <c r="U21" s="65"/>
-      <c r="V21" s="65"/>
-      <c r="W21" s="66"/>
-      <c r="X21" s="66"/>
-      <c r="Y21" s="66"/>
-      <c r="Z21" s="66"/>
-      <c r="AA21" s="66"/>
-      <c r="AB21" s="67"/>
-      <c r="AC21" s="67"/>
-      <c r="AD21" s="67"/>
-      <c r="AE21" s="67"/>
-      <c r="AF21" s="68"/>
-      <c r="AG21" s="68"/>
-      <c r="AH21" s="68"/>
-      <c r="AI21" s="68"/>
-      <c r="AJ21" s="57"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="69"/>
+      <c r="G21" s="69"/>
+      <c r="H21" s="69"/>
+      <c r="I21" s="69"/>
+      <c r="J21" s="70"/>
+      <c r="K21" s="70"/>
+      <c r="L21" s="70"/>
+      <c r="M21" s="70"/>
+      <c r="N21" s="70"/>
+      <c r="O21" s="71"/>
+      <c r="P21" s="71"/>
+      <c r="Q21" s="71"/>
+      <c r="R21" s="71"/>
+      <c r="S21" s="72"/>
+      <c r="T21" s="72"/>
+      <c r="U21" s="72"/>
+      <c r="V21" s="72"/>
+      <c r="W21" s="72"/>
+      <c r="X21" s="73"/>
+      <c r="Y21" s="73"/>
+      <c r="Z21" s="73"/>
+      <c r="AA21" s="73"/>
+      <c r="AB21" s="74"/>
+      <c r="AC21" s="74"/>
+      <c r="AD21" s="74"/>
+      <c r="AE21" s="74"/>
+      <c r="AF21" s="75"/>
+      <c r="AG21" s="75"/>
+      <c r="AH21" s="75"/>
+      <c r="AI21" s="75"/>
+      <c r="AJ21" s="75"/>
+      <c r="AK21" s="76"/>
+      <c r="AL21" s="76"/>
+      <c r="AM21" s="76"/>
+      <c r="AN21" s="76"/>
+      <c r="AO21" s="77"/>
+      <c r="AP21" s="77"/>
+      <c r="AQ21" s="77"/>
+      <c r="AR21" s="77"/>
+      <c r="AS21" s="64"/>
     </row>
-    <row r="22" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58"/>
-      <c r="B22" s="69" t="s">
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="65"/>
+      <c r="B22" t="s" s="78">
         <v>27</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="70" t="s">
+      <c r="C22" s="67"/>
+      <c r="D22" t="s" s="79">
         <v>19</v>
       </c>
-      <c r="E22" s="61"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="63"/>
-      <c r="N22" s="63"/>
-      <c r="O22" s="64"/>
-      <c r="P22" s="64"/>
-      <c r="Q22" s="64"/>
-      <c r="R22" s="64"/>
-      <c r="S22" s="65"/>
-      <c r="T22" s="65"/>
-      <c r="U22" s="65"/>
-      <c r="V22" s="65"/>
-      <c r="W22" s="66"/>
-      <c r="X22" s="66"/>
-      <c r="Y22" s="66"/>
-      <c r="Z22" s="66"/>
-      <c r="AA22" s="75"/>
-      <c r="AB22" s="67"/>
-      <c r="AC22" s="67"/>
-      <c r="AD22" s="67"/>
-      <c r="AE22" s="67"/>
-      <c r="AF22" s="68"/>
-      <c r="AG22" s="68"/>
-      <c r="AH22" s="68"/>
-      <c r="AI22" s="68"/>
-      <c r="AJ22" s="57"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="69"/>
+      <c r="G22" s="69"/>
+      <c r="H22" s="69"/>
+      <c r="I22" s="69"/>
+      <c r="J22" s="70"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
+      <c r="M22" s="70"/>
+      <c r="N22" s="70"/>
+      <c r="O22" s="71"/>
+      <c r="P22" s="71"/>
+      <c r="Q22" s="71"/>
+      <c r="R22" s="71"/>
+      <c r="S22" s="72"/>
+      <c r="T22" s="72"/>
+      <c r="U22" s="72"/>
+      <c r="V22" s="72"/>
+      <c r="W22" s="72"/>
+      <c r="X22" s="73"/>
+      <c r="Y22" s="73"/>
+      <c r="Z22" s="73"/>
+      <c r="AA22" s="73"/>
+      <c r="AB22" s="74"/>
+      <c r="AC22" s="74"/>
+      <c r="AD22" s="74"/>
+      <c r="AE22" s="74"/>
+      <c r="AF22" s="75"/>
+      <c r="AG22" s="75"/>
+      <c r="AH22" s="75"/>
+      <c r="AI22" s="75"/>
+      <c r="AJ22" s="88"/>
+      <c r="AK22" s="76"/>
+      <c r="AL22" s="76"/>
+      <c r="AM22" s="76"/>
+      <c r="AN22" s="76"/>
+      <c r="AO22" s="77"/>
+      <c r="AP22" s="77"/>
+      <c r="AQ22" s="77"/>
+      <c r="AR22" s="77"/>
+      <c r="AS22" s="64"/>
     </row>
-    <row r="23" spans="1:36" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="58"/>
-      <c r="B23" s="69"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
-      <c r="O23" s="64"/>
-      <c r="P23" s="64"/>
-      <c r="Q23" s="64"/>
-      <c r="R23" s="64"/>
-      <c r="S23" s="65"/>
-      <c r="T23" s="65"/>
-      <c r="U23" s="65"/>
-      <c r="V23" s="65"/>
-      <c r="W23" s="66"/>
-      <c r="X23" s="66"/>
-      <c r="Y23" s="66"/>
-      <c r="Z23" s="90"/>
-      <c r="AA23" s="93"/>
-      <c r="AB23" s="92"/>
-      <c r="AC23" s="67"/>
-      <c r="AD23" s="67"/>
-      <c r="AE23" s="67"/>
-      <c r="AF23" s="68"/>
-      <c r="AG23" s="68"/>
-      <c r="AH23" s="68"/>
-      <c r="AI23" s="68"/>
-      <c r="AJ23" s="57"/>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="65"/>
+      <c r="B23" s="80"/>
+      <c r="C23" s="67"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="69"/>
+      <c r="G23" s="69"/>
+      <c r="H23" s="69"/>
+      <c r="I23" s="69"/>
+      <c r="J23" s="70"/>
+      <c r="K23" s="70"/>
+      <c r="L23" s="70"/>
+      <c r="M23" s="70"/>
+      <c r="N23" s="70"/>
+      <c r="O23" s="71"/>
+      <c r="P23" s="71"/>
+      <c r="Q23" s="71"/>
+      <c r="R23" s="71"/>
+      <c r="S23" s="72"/>
+      <c r="T23" s="72"/>
+      <c r="U23" s="72"/>
+      <c r="V23" s="72"/>
+      <c r="W23" s="72"/>
+      <c r="X23" s="73"/>
+      <c r="Y23" s="73"/>
+      <c r="Z23" s="73"/>
+      <c r="AA23" s="73"/>
+      <c r="AB23" s="74"/>
+      <c r="AC23" s="74"/>
+      <c r="AD23" s="74"/>
+      <c r="AE23" s="74"/>
+      <c r="AF23" s="75"/>
+      <c r="AG23" s="75"/>
+      <c r="AH23" s="75"/>
+      <c r="AI23" s="81"/>
+      <c r="AJ23" s="89"/>
+      <c r="AK23" s="83"/>
+      <c r="AL23" s="76"/>
+      <c r="AM23" s="76"/>
+      <c r="AN23" s="76"/>
+      <c r="AO23" s="77"/>
+      <c r="AP23" s="77"/>
+      <c r="AQ23" s="77"/>
+      <c r="AR23" s="77"/>
+      <c r="AS23" s="64"/>
     </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="58"/>
-      <c r="B24" s="59" t="s">
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="65"/>
+      <c r="B24" t="s" s="66">
         <v>28</v>
       </c>
-      <c r="C24" s="60"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="63"/>
-      <c r="N24" s="63"/>
-      <c r="O24" s="64"/>
-      <c r="P24" s="64"/>
-      <c r="Q24" s="64"/>
-      <c r="R24" s="64"/>
-      <c r="S24" s="65"/>
-      <c r="T24" s="65"/>
-      <c r="U24" s="65"/>
-      <c r="V24" s="65"/>
-      <c r="W24" s="66"/>
-      <c r="X24" s="66"/>
-      <c r="Y24" s="66"/>
-      <c r="Z24" s="71"/>
-      <c r="AA24" s="76"/>
-      <c r="AB24" s="73"/>
-      <c r="AC24" s="67"/>
-      <c r="AD24" s="67"/>
-      <c r="AE24" s="67"/>
-      <c r="AF24" s="68"/>
-      <c r="AG24" s="68"/>
-      <c r="AH24" s="68"/>
-      <c r="AI24" s="68"/>
-      <c r="AJ24" s="57"/>
+      <c r="C24" s="67"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="69"/>
+      <c r="I24" s="69"/>
+      <c r="J24" s="70"/>
+      <c r="K24" s="70"/>
+      <c r="L24" s="70"/>
+      <c r="M24" s="70"/>
+      <c r="N24" s="70"/>
+      <c r="O24" s="71"/>
+      <c r="P24" s="71"/>
+      <c r="Q24" s="71"/>
+      <c r="R24" s="71"/>
+      <c r="S24" s="72"/>
+      <c r="T24" s="72"/>
+      <c r="U24" s="72"/>
+      <c r="V24" s="72"/>
+      <c r="W24" s="72"/>
+      <c r="X24" s="73"/>
+      <c r="Y24" s="73"/>
+      <c r="Z24" s="73"/>
+      <c r="AA24" s="73"/>
+      <c r="AB24" s="74"/>
+      <c r="AC24" s="74"/>
+      <c r="AD24" s="74"/>
+      <c r="AE24" s="74"/>
+      <c r="AF24" s="75"/>
+      <c r="AG24" s="75"/>
+      <c r="AH24" s="75"/>
+      <c r="AI24" s="84"/>
+      <c r="AJ24" s="90"/>
+      <c r="AK24" s="86"/>
+      <c r="AL24" s="76"/>
+      <c r="AM24" s="76"/>
+      <c r="AN24" s="76"/>
+      <c r="AO24" s="77"/>
+      <c r="AP24" s="77"/>
+      <c r="AQ24" s="77"/>
+      <c r="AR24" s="77"/>
+      <c r="AS24" s="64"/>
     </row>
-    <row r="25" spans="1:36" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="58"/>
-      <c r="B25" s="69" t="s">
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="65"/>
+      <c r="B25" t="s" s="78">
         <v>25</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="70" t="s">
+      <c r="C25" s="67"/>
+      <c r="D25" t="s" s="79">
         <v>19</v>
       </c>
-      <c r="E25" s="61"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="63"/>
-      <c r="K25" s="63"/>
-      <c r="L25" s="63"/>
-      <c r="M25" s="63"/>
-      <c r="N25" s="63"/>
-      <c r="O25" s="64"/>
-      <c r="P25" s="64"/>
-      <c r="Q25" s="64"/>
-      <c r="R25" s="64"/>
-      <c r="S25" s="65"/>
-      <c r="T25" s="65"/>
-      <c r="U25" s="65"/>
-      <c r="V25" s="65"/>
-      <c r="W25" s="66"/>
-      <c r="X25" s="66"/>
-      <c r="Y25" s="66"/>
-      <c r="Z25" s="66"/>
-      <c r="AA25" s="74"/>
-      <c r="AB25" s="67"/>
-      <c r="AC25" s="67"/>
-      <c r="AD25" s="67"/>
-      <c r="AE25" s="67"/>
-      <c r="AF25" s="68"/>
-      <c r="AG25" s="68"/>
-      <c r="AH25" s="68"/>
-      <c r="AI25" s="68"/>
-      <c r="AJ25" s="57"/>
+      <c r="E25" s="68"/>
+      <c r="F25" s="69"/>
+      <c r="G25" s="69"/>
+      <c r="H25" s="69"/>
+      <c r="I25" s="69"/>
+      <c r="J25" s="70"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
+      <c r="M25" s="70"/>
+      <c r="N25" s="70"/>
+      <c r="O25" s="71"/>
+      <c r="P25" s="71"/>
+      <c r="Q25" s="71"/>
+      <c r="R25" s="71"/>
+      <c r="S25" s="72"/>
+      <c r="T25" s="72"/>
+      <c r="U25" s="72"/>
+      <c r="V25" s="72"/>
+      <c r="W25" s="72"/>
+      <c r="X25" s="73"/>
+      <c r="Y25" s="73"/>
+      <c r="Z25" s="73"/>
+      <c r="AA25" s="73"/>
+      <c r="AB25" s="74"/>
+      <c r="AC25" s="74"/>
+      <c r="AD25" s="74"/>
+      <c r="AE25" s="74"/>
+      <c r="AF25" s="75"/>
+      <c r="AG25" s="75"/>
+      <c r="AH25" s="75"/>
+      <c r="AI25" s="75"/>
+      <c r="AJ25" s="87"/>
+      <c r="AK25" s="76"/>
+      <c r="AL25" s="76"/>
+      <c r="AM25" s="76"/>
+      <c r="AN25" s="76"/>
+      <c r="AO25" s="77"/>
+      <c r="AP25" s="77"/>
+      <c r="AQ25" s="77"/>
+      <c r="AR25" s="77"/>
+      <c r="AS25" s="64"/>
     </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="58"/>
-      <c r="B26" s="69" t="s">
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="65"/>
+      <c r="B26" t="s" s="78">
         <v>26</v>
       </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="70" t="s">
+      <c r="C26" s="67"/>
+      <c r="D26" t="s" s="79">
         <v>19</v>
       </c>
-      <c r="E26" s="61"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="63"/>
-      <c r="K26" s="63"/>
-      <c r="L26" s="63"/>
-      <c r="M26" s="63"/>
-      <c r="N26" s="63"/>
-      <c r="O26" s="64"/>
-      <c r="P26" s="64"/>
-      <c r="Q26" s="64"/>
-      <c r="R26" s="64"/>
-      <c r="S26" s="65"/>
-      <c r="T26" s="65"/>
-      <c r="U26" s="65"/>
-      <c r="V26" s="65"/>
-      <c r="W26" s="66"/>
-      <c r="X26" s="66"/>
-      <c r="Y26" s="66"/>
-      <c r="Z26" s="66"/>
-      <c r="AA26" s="66"/>
-      <c r="AB26" s="67"/>
-      <c r="AC26" s="67"/>
-      <c r="AD26" s="67"/>
-      <c r="AE26" s="67"/>
-      <c r="AF26" s="68"/>
-      <c r="AG26" s="68"/>
-      <c r="AH26" s="68"/>
-      <c r="AI26" s="68"/>
-      <c r="AJ26" s="57"/>
+      <c r="E26" s="68"/>
+      <c r="F26" s="69"/>
+      <c r="G26" s="69"/>
+      <c r="H26" s="69"/>
+      <c r="I26" s="69"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+      <c r="L26" s="70"/>
+      <c r="M26" s="70"/>
+      <c r="N26" s="70"/>
+      <c r="O26" s="71"/>
+      <c r="P26" s="71"/>
+      <c r="Q26" s="71"/>
+      <c r="R26" s="71"/>
+      <c r="S26" s="72"/>
+      <c r="T26" s="72"/>
+      <c r="U26" s="72"/>
+      <c r="V26" s="72"/>
+      <c r="W26" s="72"/>
+      <c r="X26" s="73"/>
+      <c r="Y26" s="73"/>
+      <c r="Z26" s="73"/>
+      <c r="AA26" s="73"/>
+      <c r="AB26" s="74"/>
+      <c r="AC26" s="74"/>
+      <c r="AD26" s="74"/>
+      <c r="AE26" s="74"/>
+      <c r="AF26" s="75"/>
+      <c r="AG26" s="75"/>
+      <c r="AH26" s="75"/>
+      <c r="AI26" s="75"/>
+      <c r="AJ26" s="75"/>
+      <c r="AK26" s="76"/>
+      <c r="AL26" s="76"/>
+      <c r="AM26" s="76"/>
+      <c r="AN26" s="76"/>
+      <c r="AO26" s="77"/>
+      <c r="AP26" s="77"/>
+      <c r="AQ26" s="77"/>
+      <c r="AR26" s="77"/>
+      <c r="AS26" s="64"/>
     </row>
-    <row r="27" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="58"/>
-      <c r="B27" s="69" t="s">
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="65"/>
+      <c r="B27" t="s" s="78">
         <v>27</v>
       </c>
-      <c r="C27" s="60"/>
-      <c r="D27" s="70" t="s">
+      <c r="C27" s="67"/>
+      <c r="D27" t="s" s="79">
         <v>19</v>
       </c>
-      <c r="E27" s="61"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="63"/>
-      <c r="K27" s="63"/>
-      <c r="L27" s="63"/>
-      <c r="M27" s="63"/>
-      <c r="N27" s="63"/>
-      <c r="O27" s="64"/>
-      <c r="P27" s="64"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="64"/>
-      <c r="S27" s="65"/>
-      <c r="T27" s="65"/>
-      <c r="U27" s="65"/>
-      <c r="V27" s="65"/>
-      <c r="W27" s="66"/>
-      <c r="X27" s="66"/>
-      <c r="Y27" s="66"/>
-      <c r="Z27" s="66"/>
-      <c r="AA27" s="66"/>
-      <c r="AB27" s="67"/>
-      <c r="AC27" s="67"/>
-      <c r="AD27" s="67"/>
-      <c r="AE27" s="67"/>
-      <c r="AF27" s="68"/>
-      <c r="AG27" s="68"/>
-      <c r="AH27" s="68"/>
-      <c r="AI27" s="68"/>
-      <c r="AJ27" s="57"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="G27" s="69"/>
+      <c r="H27" s="69"/>
+      <c r="I27" s="69"/>
+      <c r="J27" s="70"/>
+      <c r="K27" s="70"/>
+      <c r="L27" s="70"/>
+      <c r="M27" s="70"/>
+      <c r="N27" s="70"/>
+      <c r="O27" s="71"/>
+      <c r="P27" s="71"/>
+      <c r="Q27" s="71"/>
+      <c r="R27" s="71"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="72"/>
+      <c r="U27" s="72"/>
+      <c r="V27" s="72"/>
+      <c r="W27" s="72"/>
+      <c r="X27" s="73"/>
+      <c r="Y27" s="73"/>
+      <c r="Z27" s="73"/>
+      <c r="AA27" s="73"/>
+      <c r="AB27" s="74"/>
+      <c r="AC27" s="74"/>
+      <c r="AD27" s="74"/>
+      <c r="AE27" s="74"/>
+      <c r="AF27" s="75"/>
+      <c r="AG27" s="75"/>
+      <c r="AH27" s="75"/>
+      <c r="AI27" s="75"/>
+      <c r="AJ27" s="75"/>
+      <c r="AK27" s="76"/>
+      <c r="AL27" s="76"/>
+      <c r="AM27" s="76"/>
+      <c r="AN27" s="76"/>
+      <c r="AO27" s="77"/>
+      <c r="AP27" s="77"/>
+      <c r="AQ27" s="77"/>
+      <c r="AR27" s="77"/>
+      <c r="AS27" s="64"/>
     </row>
-    <row r="28" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="58"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="63"/>
-      <c r="K28" s="63"/>
-      <c r="L28" s="63"/>
-      <c r="M28" s="63"/>
-      <c r="N28" s="63"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
-      <c r="S28" s="65"/>
-      <c r="T28" s="65"/>
-      <c r="U28" s="65"/>
-      <c r="V28" s="65"/>
-      <c r="W28" s="66"/>
-      <c r="X28" s="66"/>
-      <c r="Y28" s="66"/>
-      <c r="Z28" s="66"/>
-      <c r="AA28" s="66"/>
-      <c r="AB28" s="67"/>
-      <c r="AC28" s="67"/>
-      <c r="AD28" s="67"/>
-      <c r="AE28" s="67"/>
-      <c r="AF28" s="68"/>
-      <c r="AG28" s="68"/>
-      <c r="AH28" s="68"/>
-      <c r="AI28" s="68"/>
-      <c r="AJ28" s="57"/>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="65"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="67"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="69"/>
+      <c r="G28" s="69"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="69"/>
+      <c r="J28" s="70"/>
+      <c r="K28" s="70"/>
+      <c r="L28" s="70"/>
+      <c r="M28" s="70"/>
+      <c r="N28" s="70"/>
+      <c r="O28" s="71"/>
+      <c r="P28" s="71"/>
+      <c r="Q28" s="71"/>
+      <c r="R28" s="71"/>
+      <c r="S28" s="72"/>
+      <c r="T28" s="72"/>
+      <c r="U28" s="72"/>
+      <c r="V28" s="72"/>
+      <c r="W28" s="72"/>
+      <c r="X28" s="73"/>
+      <c r="Y28" s="73"/>
+      <c r="Z28" s="73"/>
+      <c r="AA28" s="73"/>
+      <c r="AB28" s="74"/>
+      <c r="AC28" s="74"/>
+      <c r="AD28" s="74"/>
+      <c r="AE28" s="74"/>
+      <c r="AF28" s="75"/>
+      <c r="AG28" s="75"/>
+      <c r="AH28" s="75"/>
+      <c r="AI28" s="75"/>
+      <c r="AJ28" s="75"/>
+      <c r="AK28" s="76"/>
+      <c r="AL28" s="76"/>
+      <c r="AM28" s="76"/>
+      <c r="AN28" s="76"/>
+      <c r="AO28" s="77"/>
+      <c r="AP28" s="77"/>
+      <c r="AQ28" s="77"/>
+      <c r="AR28" s="77"/>
+      <c r="AS28" s="64"/>
     </row>
-    <row r="29" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="58"/>
-      <c r="B29" s="59" t="s">
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="65"/>
+      <c r="B29" t="s" s="66">
         <v>29</v>
       </c>
-      <c r="C29" s="60"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="63"/>
-      <c r="K29" s="63"/>
-      <c r="L29" s="63"/>
-      <c r="M29" s="63"/>
-      <c r="N29" s="63"/>
-      <c r="O29" s="64"/>
-      <c r="P29" s="64"/>
-      <c r="Q29" s="64"/>
-      <c r="R29" s="64"/>
-      <c r="S29" s="65"/>
-      <c r="T29" s="65"/>
-      <c r="U29" s="65"/>
-      <c r="V29" s="65"/>
-      <c r="W29" s="66"/>
-      <c r="X29" s="66"/>
-      <c r="Y29" s="66"/>
-      <c r="Z29" s="66"/>
-      <c r="AA29" s="66"/>
-      <c r="AB29" s="67"/>
-      <c r="AC29" s="67"/>
-      <c r="AD29" s="67"/>
-      <c r="AE29" s="67"/>
-      <c r="AF29" s="68"/>
-      <c r="AG29" s="68"/>
-      <c r="AH29" s="68"/>
-      <c r="AI29" s="68"/>
-      <c r="AJ29" s="57"/>
+      <c r="C29" s="67"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="69"/>
+      <c r="G29" s="69"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="69"/>
+      <c r="J29" s="70"/>
+      <c r="K29" s="70"/>
+      <c r="L29" s="70"/>
+      <c r="M29" s="70"/>
+      <c r="N29" s="70"/>
+      <c r="O29" s="71"/>
+      <c r="P29" s="71"/>
+      <c r="Q29" s="71"/>
+      <c r="R29" s="71"/>
+      <c r="S29" s="72"/>
+      <c r="T29" s="72"/>
+      <c r="U29" s="72"/>
+      <c r="V29" s="72"/>
+      <c r="W29" s="72"/>
+      <c r="X29" s="73"/>
+      <c r="Y29" s="73"/>
+      <c r="Z29" s="73"/>
+      <c r="AA29" s="73"/>
+      <c r="AB29" s="74"/>
+      <c r="AC29" s="74"/>
+      <c r="AD29" s="74"/>
+      <c r="AE29" s="74"/>
+      <c r="AF29" s="75"/>
+      <c r="AG29" s="75"/>
+      <c r="AH29" s="75"/>
+      <c r="AI29" s="75"/>
+      <c r="AJ29" s="75"/>
+      <c r="AK29" s="76"/>
+      <c r="AL29" s="76"/>
+      <c r="AM29" s="76"/>
+      <c r="AN29" s="76"/>
+      <c r="AO29" s="77"/>
+      <c r="AP29" s="77"/>
+      <c r="AQ29" s="77"/>
+      <c r="AR29" s="77"/>
+      <c r="AS29" s="64"/>
     </row>
-    <row r="30" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="58"/>
-      <c r="B30" s="69" t="s">
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="65"/>
+      <c r="B30" t="s" s="78">
         <v>30</v>
       </c>
-      <c r="C30" s="60"/>
-      <c r="D30" s="70" t="s">
+      <c r="C30" s="67"/>
+      <c r="D30" t="s" s="79">
         <v>7</v>
       </c>
-      <c r="E30" s="61"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="63"/>
-      <c r="K30" s="63"/>
-      <c r="L30" s="63"/>
-      <c r="M30" s="63"/>
-      <c r="N30" s="63"/>
-      <c r="O30" s="64"/>
-      <c r="P30" s="64"/>
-      <c r="Q30" s="64"/>
-      <c r="R30" s="64"/>
-      <c r="S30" s="65"/>
-      <c r="T30" s="65"/>
-      <c r="U30" s="65"/>
-      <c r="V30" s="65"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="67"/>
-      <c r="AC30" s="67"/>
-      <c r="AD30" s="67"/>
-      <c r="AE30" s="67"/>
-      <c r="AF30" s="68"/>
-      <c r="AG30" s="68"/>
-      <c r="AH30" s="68"/>
-      <c r="AI30" s="68"/>
-      <c r="AJ30" s="57"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="69"/>
+      <c r="G30" s="69"/>
+      <c r="H30" s="69"/>
+      <c r="I30" s="69"/>
+      <c r="J30" s="70"/>
+      <c r="K30" s="70"/>
+      <c r="L30" s="70"/>
+      <c r="M30" s="70"/>
+      <c r="N30" s="70"/>
+      <c r="O30" s="71"/>
+      <c r="P30" s="71"/>
+      <c r="Q30" s="71"/>
+      <c r="R30" s="71"/>
+      <c r="S30" s="72"/>
+      <c r="T30" s="72"/>
+      <c r="U30" s="72"/>
+      <c r="V30" s="72"/>
+      <c r="W30" s="72"/>
+      <c r="X30" s="73"/>
+      <c r="Y30" s="73"/>
+      <c r="Z30" s="73"/>
+      <c r="AA30" s="73"/>
+      <c r="AB30" s="74"/>
+      <c r="AC30" s="74"/>
+      <c r="AD30" s="74"/>
+      <c r="AE30" s="74"/>
+      <c r="AF30" s="75"/>
+      <c r="AG30" s="75"/>
+      <c r="AH30" s="75"/>
+      <c r="AI30" s="75"/>
+      <c r="AJ30" s="75"/>
+      <c r="AK30" s="76"/>
+      <c r="AL30" s="76"/>
+      <c r="AM30" s="76"/>
+      <c r="AN30" s="76"/>
+      <c r="AO30" s="77"/>
+      <c r="AP30" s="77"/>
+      <c r="AQ30" s="77"/>
+      <c r="AR30" s="77"/>
+      <c r="AS30" s="64"/>
     </row>
-    <row r="31" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="58"/>
-      <c r="B31" s="69" t="s">
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="65"/>
+      <c r="B31" t="s" s="78">
         <v>31</v>
       </c>
-      <c r="C31" s="60"/>
-      <c r="D31" s="70" t="s">
+      <c r="C31" s="67"/>
+      <c r="D31" t="s" s="79">
         <v>7</v>
       </c>
-      <c r="E31" s="61"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="63"/>
-      <c r="K31" s="63"/>
-      <c r="L31" s="63"/>
-      <c r="M31" s="63"/>
-      <c r="N31" s="63"/>
-      <c r="O31" s="64"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-      <c r="S31" s="65"/>
-      <c r="T31" s="65"/>
-      <c r="U31" s="65"/>
-      <c r="V31" s="65"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="67"/>
-      <c r="AC31" s="67"/>
-      <c r="AD31" s="67"/>
-      <c r="AE31" s="67"/>
-      <c r="AF31" s="68"/>
-      <c r="AG31" s="68"/>
-      <c r="AH31" s="68"/>
-      <c r="AI31" s="68"/>
-      <c r="AJ31" s="57"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="70"/>
+      <c r="K31" s="70"/>
+      <c r="L31" s="70"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="70"/>
+      <c r="O31" s="71"/>
+      <c r="P31" s="71"/>
+      <c r="Q31" s="71"/>
+      <c r="R31" s="71"/>
+      <c r="S31" s="72"/>
+      <c r="T31" s="72"/>
+      <c r="U31" s="72"/>
+      <c r="V31" s="72"/>
+      <c r="W31" s="72"/>
+      <c r="X31" s="73"/>
+      <c r="Y31" s="73"/>
+      <c r="Z31" s="73"/>
+      <c r="AA31" s="73"/>
+      <c r="AB31" s="74"/>
+      <c r="AC31" s="74"/>
+      <c r="AD31" s="74"/>
+      <c r="AE31" s="74"/>
+      <c r="AF31" s="75"/>
+      <c r="AG31" s="75"/>
+      <c r="AH31" s="75"/>
+      <c r="AI31" s="75"/>
+      <c r="AJ31" s="75"/>
+      <c r="AK31" s="76"/>
+      <c r="AL31" s="76"/>
+      <c r="AM31" s="76"/>
+      <c r="AN31" s="76"/>
+      <c r="AO31" s="77"/>
+      <c r="AP31" s="77"/>
+      <c r="AQ31" s="77"/>
+      <c r="AR31" s="77"/>
+      <c r="AS31" s="64"/>
     </row>
-    <row r="32" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="58"/>
-      <c r="B32" s="69" t="s">
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="65"/>
+      <c r="B32" t="s" s="78">
         <v>32</v>
       </c>
-      <c r="C32" s="60"/>
-      <c r="D32" s="70" t="s">
+      <c r="C32" s="67"/>
+      <c r="D32" t="s" s="79">
         <v>7</v>
       </c>
-      <c r="E32" s="61"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="63"/>
-      <c r="K32" s="63"/>
-      <c r="L32" s="63"/>
-      <c r="M32" s="63"/>
-      <c r="N32" s="63"/>
-      <c r="O32" s="64"/>
-      <c r="P32" s="64"/>
-      <c r="Q32" s="64"/>
-      <c r="R32" s="64"/>
-      <c r="S32" s="65"/>
-      <c r="T32" s="65"/>
-      <c r="U32" s="65"/>
-      <c r="V32" s="65"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="67"/>
-      <c r="AC32" s="67"/>
-      <c r="AD32" s="67"/>
-      <c r="AE32" s="67"/>
-      <c r="AF32" s="68"/>
-      <c r="AG32" s="68"/>
-      <c r="AH32" s="68"/>
-      <c r="AI32" s="68"/>
-      <c r="AJ32" s="57"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="70"/>
+      <c r="K32" s="70"/>
+      <c r="L32" s="70"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="70"/>
+      <c r="O32" s="71"/>
+      <c r="P32" s="71"/>
+      <c r="Q32" s="71"/>
+      <c r="R32" s="71"/>
+      <c r="S32" s="72"/>
+      <c r="T32" s="72"/>
+      <c r="U32" s="72"/>
+      <c r="V32" s="72"/>
+      <c r="W32" s="72"/>
+      <c r="X32" s="73"/>
+      <c r="Y32" s="73"/>
+      <c r="Z32" s="73"/>
+      <c r="AA32" s="73"/>
+      <c r="AB32" s="74"/>
+      <c r="AC32" s="74"/>
+      <c r="AD32" s="74"/>
+      <c r="AE32" s="74"/>
+      <c r="AF32" s="75"/>
+      <c r="AG32" s="75"/>
+      <c r="AH32" s="75"/>
+      <c r="AI32" s="75"/>
+      <c r="AJ32" s="75"/>
+      <c r="AK32" s="76"/>
+      <c r="AL32" s="76"/>
+      <c r="AM32" s="76"/>
+      <c r="AN32" s="76"/>
+      <c r="AO32" s="77"/>
+      <c r="AP32" s="77"/>
+      <c r="AQ32" s="77"/>
+      <c r="AR32" s="77"/>
+      <c r="AS32" s="64"/>
     </row>
-    <row r="33" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="58"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="63"/>
-      <c r="K33" s="63"/>
-      <c r="L33" s="63"/>
-      <c r="M33" s="63"/>
-      <c r="N33" s="63"/>
-      <c r="O33" s="64"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-      <c r="S33" s="65"/>
-      <c r="T33" s="65"/>
-      <c r="U33" s="65"/>
-      <c r="V33" s="65"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="67"/>
-      <c r="AC33" s="67"/>
-      <c r="AD33" s="67"/>
-      <c r="AE33" s="67"/>
-      <c r="AF33" s="68"/>
-      <c r="AG33" s="68"/>
-      <c r="AH33" s="68"/>
-      <c r="AI33" s="68"/>
-      <c r="AJ33" s="57"/>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="65"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="67"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="69"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="69"/>
+      <c r="J33" s="70"/>
+      <c r="K33" s="70"/>
+      <c r="L33" s="70"/>
+      <c r="M33" s="70"/>
+      <c r="N33" s="70"/>
+      <c r="O33" s="71"/>
+      <c r="P33" s="71"/>
+      <c r="Q33" s="71"/>
+      <c r="R33" s="71"/>
+      <c r="S33" s="72"/>
+      <c r="T33" s="72"/>
+      <c r="U33" s="72"/>
+      <c r="V33" s="72"/>
+      <c r="W33" s="72"/>
+      <c r="X33" s="73"/>
+      <c r="Y33" s="73"/>
+      <c r="Z33" s="73"/>
+      <c r="AA33" s="73"/>
+      <c r="AB33" s="74"/>
+      <c r="AC33" s="74"/>
+      <c r="AD33" s="74"/>
+      <c r="AE33" s="74"/>
+      <c r="AF33" s="75"/>
+      <c r="AG33" s="75"/>
+      <c r="AH33" s="75"/>
+      <c r="AI33" s="75"/>
+      <c r="AJ33" s="75"/>
+      <c r="AK33" s="76"/>
+      <c r="AL33" s="76"/>
+      <c r="AM33" s="76"/>
+      <c r="AN33" s="76"/>
+      <c r="AO33" s="77"/>
+      <c r="AP33" s="77"/>
+      <c r="AQ33" s="77"/>
+      <c r="AR33" s="77"/>
+      <c r="AS33" s="64"/>
     </row>
-    <row r="34" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="58"/>
-      <c r="B34" s="59" t="s">
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="65"/>
+      <c r="B34" t="s" s="66">
         <v>33</v>
       </c>
-      <c r="C34" s="60"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
-      <c r="K34" s="63"/>
-      <c r="L34" s="63"/>
-      <c r="M34" s="63"/>
-      <c r="N34" s="63"/>
-      <c r="O34" s="64"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-      <c r="S34" s="65"/>
-      <c r="T34" s="65"/>
-      <c r="U34" s="65"/>
-      <c r="V34" s="65"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="67"/>
-      <c r="AC34" s="67"/>
-      <c r="AD34" s="67"/>
-      <c r="AE34" s="67"/>
-      <c r="AF34" s="68"/>
-      <c r="AG34" s="68"/>
-      <c r="AH34" s="68"/>
-      <c r="AI34" s="68"/>
-      <c r="AJ34" s="57"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="70"/>
+      <c r="K34" s="70"/>
+      <c r="L34" s="70"/>
+      <c r="M34" s="70"/>
+      <c r="N34" s="70"/>
+      <c r="O34" s="71"/>
+      <c r="P34" s="71"/>
+      <c r="Q34" s="71"/>
+      <c r="R34" s="71"/>
+      <c r="S34" s="72"/>
+      <c r="T34" s="72"/>
+      <c r="U34" s="72"/>
+      <c r="V34" s="72"/>
+      <c r="W34" s="72"/>
+      <c r="X34" s="73"/>
+      <c r="Y34" s="73"/>
+      <c r="Z34" s="73"/>
+      <c r="AA34" s="73"/>
+      <c r="AB34" s="74"/>
+      <c r="AC34" s="74"/>
+      <c r="AD34" s="74"/>
+      <c r="AE34" s="74"/>
+      <c r="AF34" s="75"/>
+      <c r="AG34" s="75"/>
+      <c r="AH34" s="75"/>
+      <c r="AI34" s="75"/>
+      <c r="AJ34" s="75"/>
+      <c r="AK34" s="76"/>
+      <c r="AL34" s="76"/>
+      <c r="AM34" s="76"/>
+      <c r="AN34" s="76"/>
+      <c r="AO34" s="77"/>
+      <c r="AP34" s="77"/>
+      <c r="AQ34" s="77"/>
+      <c r="AR34" s="77"/>
+      <c r="AS34" s="64"/>
     </row>
-    <row r="35" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="58"/>
-      <c r="B35" s="69" t="s">
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="65"/>
+      <c r="B35" t="s" s="78">
         <v>34</v>
       </c>
-      <c r="C35" s="60"/>
-      <c r="D35" s="70" t="s">
+      <c r="C35" s="67"/>
+      <c r="D35" t="s" s="79">
         <v>35</v>
       </c>
-      <c r="E35" s="61"/>
-      <c r="F35" s="62"/>
-      <c r="G35" s="62"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
-      <c r="J35" s="63"/>
-      <c r="K35" s="63"/>
-      <c r="L35" s="63"/>
-      <c r="M35" s="63"/>
-      <c r="N35" s="63"/>
-      <c r="O35" s="64"/>
-      <c r="P35" s="64"/>
-      <c r="Q35" s="64"/>
-      <c r="R35" s="64"/>
-      <c r="S35" s="65"/>
-      <c r="T35" s="65"/>
-      <c r="U35" s="65"/>
-      <c r="V35" s="65"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="67"/>
-      <c r="AC35" s="67"/>
-      <c r="AD35" s="67"/>
-      <c r="AE35" s="67"/>
-      <c r="AF35" s="68"/>
-      <c r="AG35" s="68"/>
-      <c r="AH35" s="68"/>
-      <c r="AI35" s="68"/>
-      <c r="AJ35" s="57"/>
+      <c r="E35" s="68"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="70"/>
+      <c r="K35" s="70"/>
+      <c r="L35" s="70"/>
+      <c r="M35" s="70"/>
+      <c r="N35" s="70"/>
+      <c r="O35" s="71"/>
+      <c r="P35" s="71"/>
+      <c r="Q35" s="71"/>
+      <c r="R35" s="71"/>
+      <c r="S35" s="72"/>
+      <c r="T35" s="72"/>
+      <c r="U35" s="72"/>
+      <c r="V35" s="72"/>
+      <c r="W35" s="72"/>
+      <c r="X35" s="73"/>
+      <c r="Y35" s="73"/>
+      <c r="Z35" s="73"/>
+      <c r="AA35" s="73"/>
+      <c r="AB35" s="74"/>
+      <c r="AC35" s="74"/>
+      <c r="AD35" s="74"/>
+      <c r="AE35" s="74"/>
+      <c r="AF35" s="75"/>
+      <c r="AG35" s="75"/>
+      <c r="AH35" s="75"/>
+      <c r="AI35" s="75"/>
+      <c r="AJ35" s="75"/>
+      <c r="AK35" s="76"/>
+      <c r="AL35" s="76"/>
+      <c r="AM35" s="76"/>
+      <c r="AN35" s="76"/>
+      <c r="AO35" s="77"/>
+      <c r="AP35" s="77"/>
+      <c r="AQ35" s="77"/>
+      <c r="AR35" s="77"/>
+      <c r="AS35" s="64"/>
     </row>
-    <row r="36" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="58"/>
-      <c r="B36" s="69" t="s">
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="65"/>
+      <c r="B36" t="s" s="78">
         <v>36</v>
       </c>
-      <c r="C36" s="60"/>
-      <c r="D36" s="70" t="s">
+      <c r="C36" s="67"/>
+      <c r="D36" t="s" s="79">
         <v>35</v>
       </c>
-      <c r="E36" s="61"/>
-      <c r="F36" s="62"/>
-      <c r="G36" s="62"/>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
-      <c r="J36" s="63"/>
-      <c r="K36" s="63"/>
-      <c r="L36" s="63"/>
-      <c r="M36" s="63"/>
-      <c r="N36" s="63"/>
-      <c r="O36" s="64"/>
-      <c r="P36" s="64"/>
-      <c r="Q36" s="64"/>
-      <c r="R36" s="64"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="67"/>
-      <c r="AC36" s="67"/>
-      <c r="AD36" s="67"/>
-      <c r="AE36" s="67"/>
-      <c r="AF36" s="68"/>
-      <c r="AG36" s="68"/>
-      <c r="AH36" s="68"/>
-      <c r="AI36" s="68"/>
-      <c r="AJ36" s="57"/>
+      <c r="E36" s="68"/>
+      <c r="F36" s="69"/>
+      <c r="G36" s="69"/>
+      <c r="H36" s="69"/>
+      <c r="I36" s="69"/>
+      <c r="J36" s="70"/>
+      <c r="K36" s="70"/>
+      <c r="L36" s="70"/>
+      <c r="M36" s="70"/>
+      <c r="N36" s="70"/>
+      <c r="O36" s="71"/>
+      <c r="P36" s="71"/>
+      <c r="Q36" s="71"/>
+      <c r="R36" s="71"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="73"/>
+      <c r="Y36" s="73"/>
+      <c r="Z36" s="73"/>
+      <c r="AA36" s="73"/>
+      <c r="AB36" s="74"/>
+      <c r="AC36" s="74"/>
+      <c r="AD36" s="74"/>
+      <c r="AE36" s="74"/>
+      <c r="AF36" s="75"/>
+      <c r="AG36" s="75"/>
+      <c r="AH36" s="75"/>
+      <c r="AI36" s="75"/>
+      <c r="AJ36" s="75"/>
+      <c r="AK36" s="76"/>
+      <c r="AL36" s="76"/>
+      <c r="AM36" s="76"/>
+      <c r="AN36" s="76"/>
+      <c r="AO36" s="77"/>
+      <c r="AP36" s="77"/>
+      <c r="AQ36" s="77"/>
+      <c r="AR36" s="77"/>
+      <c r="AS36" s="64"/>
     </row>
-    <row r="37" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="58"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="62"/>
-      <c r="G37" s="62"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
-      <c r="J37" s="63"/>
-      <c r="K37" s="63"/>
-      <c r="L37" s="63"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="64"/>
-      <c r="P37" s="64"/>
-      <c r="Q37" s="64"/>
-      <c r="R37" s="64"/>
-      <c r="S37" s="65"/>
-      <c r="T37" s="65"/>
-      <c r="U37" s="65"/>
-      <c r="V37" s="65"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="67"/>
-      <c r="AC37" s="67"/>
-      <c r="AD37" s="67"/>
-      <c r="AE37" s="67"/>
-      <c r="AF37" s="68"/>
-      <c r="AG37" s="68"/>
-      <c r="AH37" s="68"/>
-      <c r="AI37" s="68"/>
-      <c r="AJ37" s="57"/>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="65"/>
+      <c r="B37" s="80"/>
+      <c r="C37" s="67"/>
+      <c r="D37" s="68"/>
+      <c r="E37" s="68"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="69"/>
+      <c r="H37" s="69"/>
+      <c r="I37" s="69"/>
+      <c r="J37" s="70"/>
+      <c r="K37" s="70"/>
+      <c r="L37" s="70"/>
+      <c r="M37" s="70"/>
+      <c r="N37" s="70"/>
+      <c r="O37" s="71"/>
+      <c r="P37" s="71"/>
+      <c r="Q37" s="71"/>
+      <c r="R37" s="71"/>
+      <c r="S37" s="72"/>
+      <c r="T37" s="72"/>
+      <c r="U37" s="72"/>
+      <c r="V37" s="72"/>
+      <c r="W37" s="72"/>
+      <c r="X37" s="73"/>
+      <c r="Y37" s="73"/>
+      <c r="Z37" s="73"/>
+      <c r="AA37" s="73"/>
+      <c r="AB37" s="74"/>
+      <c r="AC37" s="74"/>
+      <c r="AD37" s="74"/>
+      <c r="AE37" s="74"/>
+      <c r="AF37" s="75"/>
+      <c r="AG37" s="75"/>
+      <c r="AH37" s="75"/>
+      <c r="AI37" s="75"/>
+      <c r="AJ37" s="75"/>
+      <c r="AK37" s="76"/>
+      <c r="AL37" s="76"/>
+      <c r="AM37" s="76"/>
+      <c r="AN37" s="76"/>
+      <c r="AO37" s="77"/>
+      <c r="AP37" s="77"/>
+      <c r="AQ37" s="77"/>
+      <c r="AR37" s="77"/>
+      <c r="AS37" s="64"/>
     </row>
-    <row r="38" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="58"/>
-      <c r="B38" s="79" t="s">
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="65"/>
+      <c r="B38" t="s" s="91">
+        <v>37</v>
+      </c>
+      <c r="C38" s="67"/>
+      <c r="D38" s="68"/>
+      <c r="E38" s="68"/>
+      <c r="F38" s="69"/>
+      <c r="G38" s="69"/>
+      <c r="H38" s="69"/>
+      <c r="I38" s="69"/>
+      <c r="J38" s="70"/>
+      <c r="K38" s="70"/>
+      <c r="L38" s="70"/>
+      <c r="M38" s="70"/>
+      <c r="N38" s="70"/>
+      <c r="O38" s="71"/>
+      <c r="P38" s="71"/>
+      <c r="Q38" s="71"/>
+      <c r="R38" s="71"/>
+      <c r="S38" s="72"/>
+      <c r="T38" s="72"/>
+      <c r="U38" s="72"/>
+      <c r="V38" s="72"/>
+      <c r="W38" s="72"/>
+      <c r="X38" s="73"/>
+      <c r="Y38" s="73"/>
+      <c r="Z38" s="73"/>
+      <c r="AA38" s="73"/>
+      <c r="AB38" s="74"/>
+      <c r="AC38" s="74"/>
+      <c r="AD38" s="74"/>
+      <c r="AE38" s="74"/>
+      <c r="AF38" s="75"/>
+      <c r="AG38" s="75"/>
+      <c r="AH38" s="75"/>
+      <c r="AI38" s="75"/>
+      <c r="AJ38" s="75"/>
+      <c r="AK38" s="76"/>
+      <c r="AL38" s="76"/>
+      <c r="AM38" s="76"/>
+      <c r="AN38" s="76"/>
+      <c r="AO38" s="77"/>
+      <c r="AP38" s="77"/>
+      <c r="AQ38" s="77"/>
+      <c r="AR38" s="77"/>
+      <c r="AS38" s="64"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="65"/>
+      <c r="B39" t="s" s="78">
+        <v>18</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="E39" s="68"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
+      <c r="J39" s="70"/>
+      <c r="K39" s="70"/>
+      <c r="L39" s="70"/>
+      <c r="M39" s="70"/>
+      <c r="N39" s="70"/>
+      <c r="O39" s="71"/>
+      <c r="P39" s="71"/>
+      <c r="Q39" s="71"/>
+      <c r="R39" s="71"/>
+      <c r="S39" s="72"/>
+      <c r="T39" s="72"/>
+      <c r="U39" s="72"/>
+      <c r="V39" s="72"/>
+      <c r="W39" s="72"/>
+      <c r="X39" s="73"/>
+      <c r="Y39" s="73"/>
+      <c r="Z39" s="73"/>
+      <c r="AA39" s="73"/>
+      <c r="AB39" s="74"/>
+      <c r="AC39" s="74"/>
+      <c r="AD39" s="74"/>
+      <c r="AE39" s="74"/>
+      <c r="AF39" s="75"/>
+      <c r="AG39" s="75"/>
+      <c r="AH39" s="75"/>
+      <c r="AI39" s="75"/>
+      <c r="AJ39" s="75"/>
+      <c r="AK39" s="76"/>
+      <c r="AL39" s="76"/>
+      <c r="AM39" s="76"/>
+      <c r="AN39" s="76"/>
+      <c r="AO39" s="77"/>
+      <c r="AP39" s="77"/>
+      <c r="AQ39" s="77"/>
+      <c r="AR39" s="77"/>
+      <c r="AS39" s="64"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="65"/>
+      <c r="B40" t="s" s="78">
+        <v>20</v>
+      </c>
+      <c r="C40" s="67"/>
+      <c r="D40" t="s" s="79">
+        <v>19</v>
+      </c>
+      <c r="E40" s="68"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
+      <c r="J40" s="70"/>
+      <c r="K40" s="70"/>
+      <c r="L40" s="70"/>
+      <c r="M40" s="70"/>
+      <c r="N40" s="70"/>
+      <c r="O40" s="71"/>
+      <c r="P40" s="71"/>
+      <c r="Q40" s="71"/>
+      <c r="R40" s="71"/>
+      <c r="S40" s="72"/>
+      <c r="T40" s="72"/>
+      <c r="U40" s="72"/>
+      <c r="V40" s="72"/>
+      <c r="W40" s="72"/>
+      <c r="X40" s="73"/>
+      <c r="Y40" s="73"/>
+      <c r="Z40" s="73"/>
+      <c r="AA40" s="73"/>
+      <c r="AB40" s="74"/>
+      <c r="AC40" s="74"/>
+      <c r="AD40" s="74"/>
+      <c r="AE40" s="74"/>
+      <c r="AF40" s="75"/>
+      <c r="AG40" s="75"/>
+      <c r="AH40" s="75"/>
+      <c r="AI40" s="75"/>
+      <c r="AJ40" s="75"/>
+      <c r="AK40" s="76"/>
+      <c r="AL40" s="76"/>
+      <c r="AM40" s="76"/>
+      <c r="AN40" s="76"/>
+      <c r="AO40" s="77"/>
+      <c r="AP40" s="77"/>
+      <c r="AQ40" s="77"/>
+      <c r="AR40" s="77"/>
+      <c r="AS40" s="64"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="65"/>
+      <c r="B41" t="s" s="78">
+        <v>21</v>
+      </c>
+      <c r="C41" s="67"/>
+      <c r="D41" t="s" s="79">
+        <v>7</v>
+      </c>
+      <c r="E41" s="68"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="70"/>
+      <c r="K41" s="70"/>
+      <c r="L41" s="70"/>
+      <c r="M41" s="70"/>
+      <c r="N41" s="70"/>
+      <c r="O41" s="71"/>
+      <c r="P41" s="71"/>
+      <c r="Q41" s="71"/>
+      <c r="R41" s="71"/>
+      <c r="S41" s="72"/>
+      <c r="T41" s="72"/>
+      <c r="U41" s="72"/>
+      <c r="V41" s="72"/>
+      <c r="W41" s="72"/>
+      <c r="X41" s="73"/>
+      <c r="Y41" s="73"/>
+      <c r="Z41" s="73"/>
+      <c r="AA41" s="73"/>
+      <c r="AB41" s="74"/>
+      <c r="AC41" s="74"/>
+      <c r="AD41" s="74"/>
+      <c r="AE41" s="74"/>
+      <c r="AF41" s="75"/>
+      <c r="AG41" s="75"/>
+      <c r="AH41" s="75"/>
+      <c r="AI41" s="75"/>
+      <c r="AJ41" s="75"/>
+      <c r="AK41" s="76"/>
+      <c r="AL41" s="76"/>
+      <c r="AM41" s="76"/>
+      <c r="AN41" s="76"/>
+      <c r="AO41" s="77"/>
+      <c r="AP41" s="77"/>
+      <c r="AQ41" s="77"/>
+      <c r="AR41" s="77"/>
+      <c r="AS41" s="64"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="65"/>
+      <c r="B42" t="s" s="78">
+        <v>22</v>
+      </c>
+      <c r="C42" s="67"/>
+      <c r="D42" t="s" s="79">
+        <v>35</v>
+      </c>
+      <c r="E42" s="68"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="70"/>
+      <c r="K42" s="70"/>
+      <c r="L42" s="70"/>
+      <c r="M42" s="70"/>
+      <c r="N42" s="70"/>
+      <c r="O42" s="71"/>
+      <c r="P42" s="71"/>
+      <c r="Q42" s="71"/>
+      <c r="R42" s="71"/>
+      <c r="S42" s="72"/>
+      <c r="T42" s="72"/>
+      <c r="U42" s="72"/>
+      <c r="V42" s="72"/>
+      <c r="W42" s="72"/>
+      <c r="X42" s="73"/>
+      <c r="Y42" s="73"/>
+      <c r="Z42" s="73"/>
+      <c r="AA42" s="73"/>
+      <c r="AB42" s="74"/>
+      <c r="AC42" s="74"/>
+      <c r="AD42" s="74"/>
+      <c r="AE42" s="74"/>
+      <c r="AF42" s="75"/>
+      <c r="AG42" s="75"/>
+      <c r="AH42" s="75"/>
+      <c r="AI42" s="75"/>
+      <c r="AJ42" s="75"/>
+      <c r="AK42" s="76"/>
+      <c r="AL42" s="76"/>
+      <c r="AM42" s="76"/>
+      <c r="AN42" s="76"/>
+      <c r="AO42" s="77"/>
+      <c r="AP42" s="77"/>
+      <c r="AQ42" s="77"/>
+      <c r="AR42" s="77"/>
+      <c r="AS42" s="64"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="65"/>
+      <c r="B43" t="s" s="78">
+        <v>38</v>
+      </c>
+      <c r="C43" s="67"/>
+      <c r="D43" t="s" s="92">
+        <v>23</v>
+      </c>
+      <c r="E43" s="68"/>
+      <c r="F43" s="69"/>
+      <c r="G43" s="69"/>
+      <c r="H43" s="69"/>
+      <c r="I43" s="69"/>
+      <c r="J43" s="70"/>
+      <c r="K43" s="70"/>
+      <c r="L43" s="70"/>
+      <c r="M43" s="70"/>
+      <c r="N43" s="70"/>
+      <c r="O43" s="71"/>
+      <c r="P43" s="71"/>
+      <c r="Q43" s="71"/>
+      <c r="R43" s="71"/>
+      <c r="S43" s="72"/>
+      <c r="T43" s="72"/>
+      <c r="U43" s="72"/>
+      <c r="V43" s="72"/>
+      <c r="W43" s="72"/>
+      <c r="X43" s="73"/>
+      <c r="Y43" s="73"/>
+      <c r="Z43" s="73"/>
+      <c r="AA43" s="73"/>
+      <c r="AB43" s="74"/>
+      <c r="AC43" s="74"/>
+      <c r="AD43" s="74"/>
+      <c r="AE43" s="74"/>
+      <c r="AF43" s="75"/>
+      <c r="AG43" s="75"/>
+      <c r="AH43" s="75"/>
+      <c r="AI43" s="75"/>
+      <c r="AJ43" s="75"/>
+      <c r="AK43" s="76"/>
+      <c r="AL43" s="76"/>
+      <c r="AM43" s="76"/>
+      <c r="AN43" s="76"/>
+      <c r="AO43" s="77"/>
+      <c r="AP43" s="77"/>
+      <c r="AQ43" s="77"/>
+      <c r="AR43" s="77"/>
+      <c r="AS43" s="64"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="65"/>
+      <c r="B44" s="80"/>
+      <c r="C44" s="67"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="68"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="70"/>
+      <c r="K44" s="70"/>
+      <c r="L44" s="70"/>
+      <c r="M44" s="70"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="71"/>
+      <c r="P44" s="71"/>
+      <c r="Q44" s="71"/>
+      <c r="R44" s="71"/>
+      <c r="S44" s="72"/>
+      <c r="T44" s="72"/>
+      <c r="U44" s="72"/>
+      <c r="V44" s="72"/>
+      <c r="W44" s="72"/>
+      <c r="X44" s="73"/>
+      <c r="Y44" s="73"/>
+      <c r="Z44" s="73"/>
+      <c r="AA44" s="73"/>
+      <c r="AB44" s="74"/>
+      <c r="AC44" s="74"/>
+      <c r="AD44" s="74"/>
+      <c r="AE44" s="74"/>
+      <c r="AF44" s="75"/>
+      <c r="AG44" s="75"/>
+      <c r="AH44" s="75"/>
+      <c r="AI44" s="75"/>
+      <c r="AJ44" s="75"/>
+      <c r="AK44" s="76"/>
+      <c r="AL44" s="76"/>
+      <c r="AM44" s="76"/>
+      <c r="AN44" s="76"/>
+      <c r="AO44" s="77"/>
+      <c r="AP44" s="77"/>
+      <c r="AQ44" s="77"/>
+      <c r="AR44" s="77"/>
+      <c r="AS44" s="64"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="65"/>
+      <c r="B45" t="s" s="91">
+        <v>39</v>
+      </c>
+      <c r="C45" s="67"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="68"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="69"/>
+      <c r="H45" s="69"/>
+      <c r="I45" s="69"/>
+      <c r="J45" s="70"/>
+      <c r="K45" s="70"/>
+      <c r="L45" s="70"/>
+      <c r="M45" s="70"/>
+      <c r="N45" s="70"/>
+      <c r="O45" s="71"/>
+      <c r="P45" s="71"/>
+      <c r="Q45" s="71"/>
+      <c r="R45" s="71"/>
+      <c r="S45" s="72"/>
+      <c r="T45" s="72"/>
+      <c r="U45" s="72"/>
+      <c r="V45" s="72"/>
+      <c r="W45" s="72"/>
+      <c r="X45" s="73"/>
+      <c r="Y45" s="73"/>
+      <c r="Z45" s="73"/>
+      <c r="AA45" s="73"/>
+      <c r="AB45" s="74"/>
+      <c r="AC45" s="74"/>
+      <c r="AD45" s="74"/>
+      <c r="AE45" s="74"/>
+      <c r="AF45" s="75"/>
+      <c r="AG45" s="75"/>
+      <c r="AH45" s="75"/>
+      <c r="AI45" s="75"/>
+      <c r="AJ45" s="75"/>
+      <c r="AK45" s="76"/>
+      <c r="AL45" s="76"/>
+      <c r="AM45" s="76"/>
+      <c r="AN45" s="76"/>
+      <c r="AO45" s="77"/>
+      <c r="AP45" s="77"/>
+      <c r="AQ45" s="77"/>
+      <c r="AR45" s="77"/>
+      <c r="AS45" s="64"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="65"/>
+      <c r="B46" t="s" s="94">
         <v>40</v>
       </c>
-      <c r="C38" s="60"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="62"/>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
-      <c r="J38" s="63"/>
-      <c r="K38" s="63"/>
-      <c r="L38" s="63"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="64"/>
-      <c r="P38" s="64"/>
-      <c r="Q38" s="64"/>
-      <c r="R38" s="64"/>
-      <c r="S38" s="65"/>
-      <c r="T38" s="65"/>
-      <c r="U38" s="65"/>
-      <c r="V38" s="65"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="67"/>
-      <c r="AC38" s="67"/>
-      <c r="AD38" s="67"/>
-      <c r="AE38" s="67"/>
-      <c r="AF38" s="68"/>
-      <c r="AG38" s="68"/>
-      <c r="AH38" s="68"/>
-      <c r="AI38" s="68"/>
-      <c r="AJ38" s="57"/>
+      <c r="C46" s="67"/>
+      <c r="D46" t="s" s="92">
+        <v>23</v>
+      </c>
+      <c r="E46" s="68"/>
+      <c r="F46" s="69"/>
+      <c r="G46" s="69"/>
+      <c r="H46" s="69"/>
+      <c r="I46" s="69"/>
+      <c r="J46" s="70"/>
+      <c r="K46" s="70"/>
+      <c r="L46" s="70"/>
+      <c r="M46" s="70"/>
+      <c r="N46" s="70"/>
+      <c r="O46" s="71"/>
+      <c r="P46" s="71"/>
+      <c r="Q46" s="71"/>
+      <c r="R46" s="71"/>
+      <c r="S46" s="72"/>
+      <c r="T46" s="72"/>
+      <c r="U46" s="72"/>
+      <c r="V46" s="72"/>
+      <c r="W46" s="72"/>
+      <c r="X46" s="73"/>
+      <c r="Y46" s="73"/>
+      <c r="Z46" s="73"/>
+      <c r="AA46" s="73"/>
+      <c r="AB46" s="74"/>
+      <c r="AC46" s="74"/>
+      <c r="AD46" s="74"/>
+      <c r="AE46" s="74"/>
+      <c r="AF46" s="75"/>
+      <c r="AG46" s="75"/>
+      <c r="AH46" s="75"/>
+      <c r="AI46" s="75"/>
+      <c r="AJ46" s="75"/>
+      <c r="AK46" s="76"/>
+      <c r="AL46" s="76"/>
+      <c r="AM46" s="76"/>
+      <c r="AN46" s="76"/>
+      <c r="AO46" s="77"/>
+      <c r="AP46" s="77"/>
+      <c r="AQ46" s="77"/>
+      <c r="AR46" s="77"/>
+      <c r="AS46" s="64"/>
     </row>
-    <row r="39" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="58"/>
-      <c r="B39" s="69" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="60"/>
-      <c r="D39" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E39" s="61"/>
-      <c r="F39" s="62"/>
-      <c r="G39" s="62"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="64"/>
-      <c r="P39" s="64"/>
-      <c r="Q39" s="64"/>
-      <c r="R39" s="64"/>
-      <c r="S39" s="65"/>
-      <c r="T39" s="65"/>
-      <c r="U39" s="65"/>
-      <c r="V39" s="65"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="67"/>
-      <c r="AC39" s="67"/>
-      <c r="AD39" s="67"/>
-      <c r="AE39" s="67"/>
-      <c r="AF39" s="68"/>
-      <c r="AG39" s="68"/>
-      <c r="AH39" s="68"/>
-      <c r="AI39" s="68"/>
-      <c r="AJ39" s="57"/>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="65"/>
+      <c r="B47" s="80"/>
+      <c r="C47" s="67"/>
+      <c r="D47" s="68"/>
+      <c r="E47" s="68"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="69"/>
+      <c r="H47" s="69"/>
+      <c r="I47" s="69"/>
+      <c r="J47" s="70"/>
+      <c r="K47" s="70"/>
+      <c r="L47" s="70"/>
+      <c r="M47" s="70"/>
+      <c r="N47" s="70"/>
+      <c r="O47" s="71"/>
+      <c r="P47" s="71"/>
+      <c r="Q47" s="71"/>
+      <c r="R47" s="71"/>
+      <c r="S47" s="72"/>
+      <c r="T47" s="72"/>
+      <c r="U47" s="72"/>
+      <c r="V47" s="72"/>
+      <c r="W47" s="72"/>
+      <c r="X47" s="73"/>
+      <c r="Y47" s="73"/>
+      <c r="Z47" s="73"/>
+      <c r="AA47" s="73"/>
+      <c r="AB47" s="74"/>
+      <c r="AC47" s="74"/>
+      <c r="AD47" s="74"/>
+      <c r="AE47" s="74"/>
+      <c r="AF47" s="75"/>
+      <c r="AG47" s="75"/>
+      <c r="AH47" s="75"/>
+      <c r="AI47" s="75"/>
+      <c r="AJ47" s="75"/>
+      <c r="AK47" s="76"/>
+      <c r="AL47" s="76"/>
+      <c r="AM47" s="76"/>
+      <c r="AN47" s="76"/>
+      <c r="AO47" s="77"/>
+      <c r="AP47" s="77"/>
+      <c r="AQ47" s="77"/>
+      <c r="AR47" s="77"/>
+      <c r="AS47" s="64"/>
     </row>
-    <row r="40" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="58"/>
-      <c r="B40" s="69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="60"/>
-      <c r="D40" s="70" t="s">
-        <v>19</v>
-      </c>
-      <c r="E40" s="61"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
-      <c r="J40" s="63"/>
-      <c r="K40" s="63"/>
-      <c r="L40" s="63"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="64"/>
-      <c r="P40" s="64"/>
-      <c r="Q40" s="64"/>
-      <c r="R40" s="64"/>
-      <c r="S40" s="65"/>
-      <c r="T40" s="65"/>
-      <c r="U40" s="65"/>
-      <c r="V40" s="65"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="67"/>
-      <c r="AC40" s="67"/>
-      <c r="AD40" s="67"/>
-      <c r="AE40" s="67"/>
-      <c r="AF40" s="68"/>
-      <c r="AG40" s="68"/>
-      <c r="AH40" s="68"/>
-      <c r="AI40" s="68"/>
-      <c r="AJ40" s="57"/>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="65"/>
+      <c r="B48" t="s" s="66">
+        <v>41</v>
+      </c>
+      <c r="C48" s="67"/>
+      <c r="D48" s="68"/>
+      <c r="E48" s="68"/>
+      <c r="F48" s="69"/>
+      <c r="G48" s="69"/>
+      <c r="H48" s="69"/>
+      <c r="I48" s="69"/>
+      <c r="J48" s="70"/>
+      <c r="K48" s="70"/>
+      <c r="L48" s="70"/>
+      <c r="M48" s="70"/>
+      <c r="N48" s="70"/>
+      <c r="O48" s="71"/>
+      <c r="P48" s="71"/>
+      <c r="Q48" s="71"/>
+      <c r="R48" s="71"/>
+      <c r="S48" s="72"/>
+      <c r="T48" s="72"/>
+      <c r="U48" s="72"/>
+      <c r="V48" s="72"/>
+      <c r="W48" s="72"/>
+      <c r="X48" s="73"/>
+      <c r="Y48" s="73"/>
+      <c r="Z48" s="73"/>
+      <c r="AA48" s="73"/>
+      <c r="AB48" s="74"/>
+      <c r="AC48" s="74"/>
+      <c r="AD48" s="74"/>
+      <c r="AE48" s="74"/>
+      <c r="AF48" s="75"/>
+      <c r="AG48" s="75"/>
+      <c r="AH48" s="75"/>
+      <c r="AI48" s="75"/>
+      <c r="AJ48" s="75"/>
+      <c r="AK48" s="76"/>
+      <c r="AL48" s="76"/>
+      <c r="AM48" s="76"/>
+      <c r="AN48" s="76"/>
+      <c r="AO48" s="77"/>
+      <c r="AP48" s="77"/>
+      <c r="AQ48" s="77"/>
+      <c r="AR48" s="77"/>
+      <c r="AS48" s="64"/>
     </row>
-    <row r="41" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="58"/>
-      <c r="B41" s="69" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41" s="60"/>
-      <c r="D41" s="81" t="s">
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="65"/>
+      <c r="B49" t="s" s="78">
         <v>42</v>
       </c>
-      <c r="E41" s="61"/>
-      <c r="F41" s="62"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
-      <c r="J41" s="63"/>
-      <c r="K41" s="63"/>
-      <c r="L41" s="63"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="64"/>
-      <c r="P41" s="64"/>
-      <c r="Q41" s="64"/>
-      <c r="R41" s="64"/>
-      <c r="S41" s="65"/>
-      <c r="T41" s="65"/>
-      <c r="U41" s="65"/>
-      <c r="V41" s="65"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="67"/>
-      <c r="AC41" s="67"/>
-      <c r="AD41" s="67"/>
-      <c r="AE41" s="67"/>
-      <c r="AF41" s="68"/>
-      <c r="AG41" s="68"/>
-      <c r="AH41" s="68"/>
-      <c r="AI41" s="68"/>
-      <c r="AJ41" s="57"/>
+      <c r="C49" s="67"/>
+      <c r="D49" t="s" s="79">
+        <v>23</v>
+      </c>
+      <c r="E49" s="68"/>
+      <c r="F49" s="69"/>
+      <c r="G49" s="69"/>
+      <c r="H49" s="69"/>
+      <c r="I49" s="69"/>
+      <c r="J49" s="70"/>
+      <c r="K49" s="70"/>
+      <c r="L49" s="70"/>
+      <c r="M49" s="70"/>
+      <c r="N49" s="70"/>
+      <c r="O49" s="71"/>
+      <c r="P49" s="71"/>
+      <c r="Q49" s="71"/>
+      <c r="R49" s="71"/>
+      <c r="S49" s="72"/>
+      <c r="T49" s="72"/>
+      <c r="U49" s="72"/>
+      <c r="V49" s="72"/>
+      <c r="W49" s="72"/>
+      <c r="X49" s="73"/>
+      <c r="Y49" s="73"/>
+      <c r="Z49" s="73"/>
+      <c r="AA49" s="73"/>
+      <c r="AB49" s="74"/>
+      <c r="AC49" s="74"/>
+      <c r="AD49" s="74"/>
+      <c r="AE49" s="74"/>
+      <c r="AF49" s="75"/>
+      <c r="AG49" s="75"/>
+      <c r="AH49" s="75"/>
+      <c r="AI49" s="75"/>
+      <c r="AJ49" s="75"/>
+      <c r="AK49" s="76"/>
+      <c r="AL49" s="76"/>
+      <c r="AM49" s="76"/>
+      <c r="AN49" s="76"/>
+      <c r="AO49" s="77"/>
+      <c r="AP49" s="77"/>
+      <c r="AQ49" s="77"/>
+      <c r="AR49" s="77"/>
+      <c r="AS49" s="64"/>
     </row>
-    <row r="42" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="58"/>
-      <c r="B42" s="69" t="s">
-        <v>22</v>
-      </c>
-      <c r="C42" s="60"/>
-      <c r="D42" s="70" t="s">
-        <v>35</v>
-      </c>
-      <c r="E42" s="61"/>
-      <c r="F42" s="62"/>
-      <c r="G42" s="62"/>
-      <c r="H42" s="62"/>
-      <c r="I42" s="62"/>
-      <c r="J42" s="63"/>
-      <c r="K42" s="63"/>
-      <c r="L42" s="63"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="64"/>
-      <c r="P42" s="64"/>
-      <c r="Q42" s="64"/>
-      <c r="R42" s="64"/>
-      <c r="S42" s="65"/>
-      <c r="T42" s="65"/>
-      <c r="U42" s="65"/>
-      <c r="V42" s="65"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="67"/>
-      <c r="AC42" s="67"/>
-      <c r="AD42" s="67"/>
-      <c r="AE42" s="67"/>
-      <c r="AF42" s="68"/>
-      <c r="AG42" s="68"/>
-      <c r="AH42" s="68"/>
-      <c r="AI42" s="68"/>
-      <c r="AJ42" s="57"/>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="65"/>
+      <c r="B50" t="s" s="78">
+        <v>43</v>
+      </c>
+      <c r="C50" s="67"/>
+      <c r="D50" t="s" s="79">
+        <v>23</v>
+      </c>
+      <c r="E50" s="68"/>
+      <c r="F50" s="69"/>
+      <c r="G50" s="69"/>
+      <c r="H50" s="69"/>
+      <c r="I50" s="69"/>
+      <c r="J50" s="70"/>
+      <c r="K50" s="70"/>
+      <c r="L50" s="70"/>
+      <c r="M50" s="70"/>
+      <c r="N50" s="70"/>
+      <c r="O50" s="71"/>
+      <c r="P50" s="71"/>
+      <c r="Q50" s="71"/>
+      <c r="R50" s="71"/>
+      <c r="S50" s="72"/>
+      <c r="T50" s="72"/>
+      <c r="U50" s="72"/>
+      <c r="V50" s="72"/>
+      <c r="W50" s="72"/>
+      <c r="X50" s="73"/>
+      <c r="Y50" s="73"/>
+      <c r="Z50" s="73"/>
+      <c r="AA50" s="73"/>
+      <c r="AB50" s="74"/>
+      <c r="AC50" s="74"/>
+      <c r="AD50" s="74"/>
+      <c r="AE50" s="74"/>
+      <c r="AF50" s="75"/>
+      <c r="AG50" s="75"/>
+      <c r="AH50" s="75"/>
+      <c r="AI50" s="75"/>
+      <c r="AJ50" s="75"/>
+      <c r="AK50" s="76"/>
+      <c r="AL50" s="76"/>
+      <c r="AM50" s="76"/>
+      <c r="AN50" s="76"/>
+      <c r="AO50" s="77"/>
+      <c r="AP50" s="77"/>
+      <c r="AQ50" s="77"/>
+      <c r="AR50" s="77"/>
+      <c r="AS50" s="64"/>
     </row>
-    <row r="43" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="58"/>
-      <c r="B43" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="E43" s="61"/>
-      <c r="F43" s="62"/>
-      <c r="G43" s="62"/>
-      <c r="H43" s="62"/>
-      <c r="I43" s="62"/>
-      <c r="J43" s="63"/>
-      <c r="K43" s="63"/>
-      <c r="L43" s="63"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="64"/>
-      <c r="P43" s="64"/>
-      <c r="Q43" s="64"/>
-      <c r="R43" s="64"/>
-      <c r="S43" s="65"/>
-      <c r="T43" s="65"/>
-      <c r="U43" s="65"/>
-      <c r="V43" s="65"/>
-      <c r="W43" s="66"/>
-      <c r="X43" s="66"/>
-      <c r="Y43" s="66"/>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="66"/>
-      <c r="AB43" s="67"/>
-      <c r="AC43" s="67"/>
-      <c r="AD43" s="67"/>
-      <c r="AE43" s="67"/>
-      <c r="AF43" s="68"/>
-      <c r="AG43" s="68"/>
-      <c r="AH43" s="68"/>
-      <c r="AI43" s="68"/>
-      <c r="AJ43" s="57"/>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="65"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="67"/>
+      <c r="D51" s="68"/>
+      <c r="E51" s="68"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="69"/>
+      <c r="H51" s="69"/>
+      <c r="I51" s="69"/>
+      <c r="J51" s="70"/>
+      <c r="K51" s="70"/>
+      <c r="L51" s="70"/>
+      <c r="M51" s="70"/>
+      <c r="N51" s="70"/>
+      <c r="O51" s="71"/>
+      <c r="P51" s="71"/>
+      <c r="Q51" s="71"/>
+      <c r="R51" s="71"/>
+      <c r="S51" s="72"/>
+      <c r="T51" s="72"/>
+      <c r="U51" s="72"/>
+      <c r="V51" s="72"/>
+      <c r="W51" s="72"/>
+      <c r="X51" s="73"/>
+      <c r="Y51" s="73"/>
+      <c r="Z51" s="73"/>
+      <c r="AA51" s="73"/>
+      <c r="AB51" s="74"/>
+      <c r="AC51" s="74"/>
+      <c r="AD51" s="74"/>
+      <c r="AE51" s="74"/>
+      <c r="AF51" s="75"/>
+      <c r="AG51" s="75"/>
+      <c r="AH51" s="75"/>
+      <c r="AI51" s="75"/>
+      <c r="AJ51" s="75"/>
+      <c r="AK51" s="76"/>
+      <c r="AL51" s="76"/>
+      <c r="AM51" s="76"/>
+      <c r="AN51" s="76"/>
+      <c r="AO51" s="77"/>
+      <c r="AP51" s="77"/>
+      <c r="AQ51" s="77"/>
+      <c r="AR51" s="77"/>
+      <c r="AS51" s="64"/>
     </row>
-    <row r="44" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="58"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="62"/>
-      <c r="G44" s="62"/>
-      <c r="H44" s="62"/>
-      <c r="I44" s="62"/>
-      <c r="J44" s="63"/>
-      <c r="K44" s="63"/>
-      <c r="L44" s="63"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="64"/>
-      <c r="P44" s="64"/>
-      <c r="Q44" s="64"/>
-      <c r="R44" s="64"/>
-      <c r="S44" s="65"/>
-      <c r="T44" s="65"/>
-      <c r="U44" s="65"/>
-      <c r="V44" s="65"/>
-      <c r="W44" s="66"/>
-      <c r="X44" s="66"/>
-      <c r="Y44" s="66"/>
-      <c r="Z44" s="66"/>
-      <c r="AA44" s="66"/>
-      <c r="AB44" s="67"/>
-      <c r="AC44" s="67"/>
-      <c r="AD44" s="67"/>
-      <c r="AE44" s="67"/>
-      <c r="AF44" s="68"/>
-      <c r="AG44" s="68"/>
-      <c r="AH44" s="68"/>
-      <c r="AI44" s="68"/>
-      <c r="AJ44" s="57"/>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="65"/>
+      <c r="B52" s="95"/>
+      <c r="C52" s="95"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="95"/>
+      <c r="F52" s="95"/>
+      <c r="G52" s="95"/>
+      <c r="H52" s="95"/>
+      <c r="I52" s="95"/>
+      <c r="J52" s="95"/>
+      <c r="K52" s="95"/>
+      <c r="L52" s="95"/>
+      <c r="M52" s="95"/>
+      <c r="N52" s="95"/>
+      <c r="O52" s="95"/>
+      <c r="P52" s="95"/>
+      <c r="Q52" s="95"/>
+      <c r="R52" s="95"/>
+      <c r="S52" s="95"/>
+      <c r="T52" s="95"/>
+      <c r="U52" s="95"/>
+      <c r="V52" s="95"/>
+      <c r="W52" s="95"/>
+      <c r="X52" s="95"/>
+      <c r="Y52" s="95"/>
+      <c r="Z52" s="95"/>
+      <c r="AA52" s="95"/>
+      <c r="AB52" s="95"/>
+      <c r="AC52" s="95"/>
+      <c r="AD52" s="95"/>
+      <c r="AE52" s="95"/>
+      <c r="AF52" s="95"/>
+      <c r="AG52" s="95"/>
+      <c r="AH52" s="95"/>
+      <c r="AI52" s="95"/>
+      <c r="AJ52" s="95"/>
+      <c r="AK52" s="95"/>
+      <c r="AL52" s="95"/>
+      <c r="AM52" s="95"/>
+      <c r="AN52" s="95"/>
+      <c r="AO52" s="95"/>
+      <c r="AP52" s="95"/>
+      <c r="AQ52" s="95"/>
+      <c r="AR52" s="95"/>
+      <c r="AS52" s="96"/>
     </row>
-    <row r="45" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="58"/>
-      <c r="B45" s="79" t="s">
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="65"/>
+      <c r="B53" t="s" s="97">
+        <v>44</v>
+      </c>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="98"/>
+      <c r="F53" s="98"/>
+      <c r="G53" s="98"/>
+      <c r="H53" s="98"/>
+      <c r="I53" s="98"/>
+      <c r="J53" s="98"/>
+      <c r="K53" s="98"/>
+      <c r="L53" s="98"/>
+      <c r="M53" s="98"/>
+      <c r="N53" s="98"/>
+      <c r="O53" s="98"/>
+      <c r="P53" s="98"/>
+      <c r="Q53" s="98"/>
+      <c r="R53" s="98"/>
+      <c r="S53" s="98"/>
+      <c r="T53" s="98"/>
+      <c r="U53" s="98"/>
+      <c r="V53" s="98"/>
+      <c r="W53" s="98"/>
+      <c r="X53" s="98"/>
+      <c r="Y53" s="98"/>
+      <c r="Z53" s="98"/>
+      <c r="AA53" s="98"/>
+      <c r="AB53" s="98"/>
+      <c r="AC53" s="98"/>
+      <c r="AD53" s="98"/>
+      <c r="AE53" s="98"/>
+      <c r="AF53" s="99"/>
+      <c r="AG53" s="99"/>
+      <c r="AH53" s="99"/>
+      <c r="AI53" s="99"/>
+      <c r="AJ53" s="99"/>
+      <c r="AK53" s="99"/>
+      <c r="AL53" s="99"/>
+      <c r="AM53" s="99"/>
+      <c r="AN53" s="99"/>
+      <c r="AO53" s="99"/>
+      <c r="AP53" s="99"/>
+      <c r="AQ53" s="99"/>
+      <c r="AR53" s="99"/>
+      <c r="AS53" s="100"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="101"/>
+      <c r="B54" t="s" s="102">
+        <v>45</v>
+      </c>
+      <c r="C54" t="s" s="102">
+        <v>46</v>
+      </c>
+      <c r="D54" t="s" s="103">
+        <v>47</v>
+      </c>
+      <c r="E54" s="104"/>
+      <c r="F54" s="105"/>
+      <c r="G54" s="105"/>
+      <c r="H54" s="105"/>
+      <c r="I54" s="105"/>
+      <c r="J54" s="105"/>
+      <c r="K54" s="105"/>
+      <c r="L54" s="105"/>
+      <c r="M54" s="105"/>
+      <c r="N54" s="105"/>
+      <c r="O54" s="105"/>
+      <c r="P54" s="104"/>
+      <c r="Q54" s="104"/>
+      <c r="R54" s="104"/>
+      <c r="S54" s="104"/>
+      <c r="T54" s="104"/>
+      <c r="U54" s="104"/>
+      <c r="V54" s="104"/>
+      <c r="W54" s="104"/>
+      <c r="X54" s="104"/>
+      <c r="Y54" s="104"/>
+      <c r="Z54" s="104"/>
+      <c r="AA54" s="104"/>
+      <c r="AB54" s="104"/>
+      <c r="AC54" s="104"/>
+      <c r="AD54" s="104"/>
+      <c r="AE54" s="106"/>
+      <c r="AF54" s="107"/>
+      <c r="AG54" s="99"/>
+      <c r="AH54" s="99"/>
+      <c r="AI54" s="99"/>
+      <c r="AJ54" s="99"/>
+      <c r="AK54" s="99"/>
+      <c r="AL54" s="99"/>
+      <c r="AM54" s="99"/>
+      <c r="AN54" s="99"/>
+      <c r="AO54" s="99"/>
+      <c r="AP54" s="99"/>
+      <c r="AQ54" s="99"/>
+      <c r="AR54" s="99"/>
+      <c r="AS54" s="100"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="108"/>
+      <c r="B55" s="109">
+        <v>43267</v>
+      </c>
+      <c r="C55" s="110"/>
+      <c r="D55" t="s" s="111">
+        <v>48</v>
+      </c>
+      <c r="E55" s="112"/>
+      <c r="F55" s="112"/>
+      <c r="G55" s="112"/>
+      <c r="H55" s="112"/>
+      <c r="I55" s="112"/>
+      <c r="J55" s="112"/>
+      <c r="K55" s="112"/>
+      <c r="L55" s="112"/>
+      <c r="M55" s="112"/>
+      <c r="N55" s="112"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="112"/>
+      <c r="Q55" s="112"/>
+      <c r="R55" s="112"/>
+      <c r="S55" s="112"/>
+      <c r="T55" s="112"/>
+      <c r="U55" s="112"/>
+      <c r="V55" s="112"/>
+      <c r="W55" s="112"/>
+      <c r="X55" s="112"/>
+      <c r="Y55" s="112"/>
+      <c r="Z55" s="112"/>
+      <c r="AA55" s="112"/>
+      <c r="AB55" s="112"/>
+      <c r="AC55" s="112"/>
+      <c r="AD55" s="112"/>
+      <c r="AE55" s="113"/>
+      <c r="AF55" s="107"/>
+      <c r="AG55" s="99"/>
+      <c r="AH55" s="99"/>
+      <c r="AI55" s="99"/>
+      <c r="AJ55" s="99"/>
+      <c r="AK55" s="99"/>
+      <c r="AL55" s="99"/>
+      <c r="AM55" s="99"/>
+      <c r="AN55" s="99"/>
+      <c r="AO55" s="99"/>
+      <c r="AP55" s="99"/>
+      <c r="AQ55" s="99"/>
+      <c r="AR55" s="99"/>
+      <c r="AS55" s="100"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="114"/>
+      <c r="B56" s="109">
+        <v>43280</v>
+      </c>
+      <c r="C56" t="s" s="115">
         <v>49</v>
       </c>
-      <c r="C45" s="60"/>
-      <c r="D45" s="82"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="62"/>
-      <c r="G45" s="62"/>
-      <c r="H45" s="62"/>
-      <c r="I45" s="62"/>
-      <c r="J45" s="63"/>
-      <c r="K45" s="63"/>
-      <c r="L45" s="63"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="64"/>
-      <c r="P45" s="64"/>
-      <c r="Q45" s="64"/>
-      <c r="R45" s="64"/>
-      <c r="S45" s="65"/>
-      <c r="T45" s="65"/>
-      <c r="U45" s="65"/>
-      <c r="V45" s="65"/>
-      <c r="W45" s="66"/>
-      <c r="X45" s="66"/>
-      <c r="Y45" s="66"/>
-      <c r="Z45" s="66"/>
-      <c r="AA45" s="66"/>
-      <c r="AB45" s="67"/>
-      <c r="AC45" s="67"/>
-      <c r="AD45" s="67"/>
-      <c r="AE45" s="67"/>
-      <c r="AF45" s="68"/>
-      <c r="AG45" s="68"/>
-      <c r="AH45" s="68"/>
-      <c r="AI45" s="68"/>
-      <c r="AJ45" s="57"/>
+      <c r="D56" t="s" s="111">
+        <v>50</v>
+      </c>
+      <c r="E56" s="112"/>
+      <c r="F56" s="112"/>
+      <c r="G56" s="112"/>
+      <c r="H56" s="112"/>
+      <c r="I56" s="112"/>
+      <c r="J56" s="112"/>
+      <c r="K56" s="112"/>
+      <c r="L56" s="112"/>
+      <c r="M56" s="112"/>
+      <c r="N56" s="112"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+      <c r="Q56" s="112"/>
+      <c r="R56" s="112"/>
+      <c r="S56" s="112"/>
+      <c r="T56" s="112"/>
+      <c r="U56" s="112"/>
+      <c r="V56" s="112"/>
+      <c r="W56" s="112"/>
+      <c r="X56" s="112"/>
+      <c r="Y56" s="112"/>
+      <c r="Z56" s="112"/>
+      <c r="AA56" s="112"/>
+      <c r="AB56" s="112"/>
+      <c r="AC56" s="112"/>
+      <c r="AD56" s="112"/>
+      <c r="AE56" s="113"/>
+      <c r="AF56" s="107"/>
+      <c r="AG56" s="99"/>
+      <c r="AH56" s="99"/>
+      <c r="AI56" s="99"/>
+      <c r="AJ56" s="99"/>
+      <c r="AK56" s="99"/>
+      <c r="AL56" s="99"/>
+      <c r="AM56" s="99"/>
+      <c r="AN56" s="99"/>
+      <c r="AO56" s="99"/>
+      <c r="AP56" s="99"/>
+      <c r="AQ56" s="99"/>
+      <c r="AR56" s="99"/>
+      <c r="AS56" s="100"/>
     </row>
-    <row r="46" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="58"/>
-      <c r="B46" s="94" t="s">
-        <v>50</v>
-      </c>
-      <c r="C46" s="60"/>
-      <c r="D46" s="82" t="s">
-        <v>51</v>
-      </c>
-      <c r="E46" s="61"/>
-      <c r="F46" s="62"/>
-      <c r="G46" s="62"/>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
-      <c r="J46" s="63"/>
-      <c r="K46" s="63"/>
-      <c r="L46" s="63"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="64"/>
-      <c r="P46" s="64"/>
-      <c r="Q46" s="64"/>
-      <c r="R46" s="64"/>
-      <c r="S46" s="65"/>
-      <c r="T46" s="65"/>
-      <c r="U46" s="65"/>
-      <c r="V46" s="65"/>
-      <c r="W46" s="66"/>
-      <c r="X46" s="66"/>
-      <c r="Y46" s="66"/>
-      <c r="Z46" s="66"/>
-      <c r="AA46" s="66"/>
-      <c r="AB46" s="67"/>
-      <c r="AC46" s="67"/>
-      <c r="AD46" s="67"/>
-      <c r="AE46" s="67"/>
-      <c r="AF46" s="68"/>
-      <c r="AG46" s="68"/>
-      <c r="AH46" s="68"/>
-      <c r="AI46" s="68"/>
-      <c r="AJ46" s="57"/>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="114"/>
+      <c r="B57" s="110"/>
+      <c r="C57" s="110"/>
+      <c r="D57" s="116"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="112"/>
+      <c r="K57" s="112"/>
+      <c r="L57" s="112"/>
+      <c r="M57" s="112"/>
+      <c r="N57" s="112"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="112"/>
+      <c r="Q57" s="112"/>
+      <c r="R57" s="112"/>
+      <c r="S57" s="112"/>
+      <c r="T57" s="112"/>
+      <c r="U57" s="112"/>
+      <c r="V57" s="112"/>
+      <c r="W57" s="112"/>
+      <c r="X57" s="112"/>
+      <c r="Y57" s="112"/>
+      <c r="Z57" s="112"/>
+      <c r="AA57" s="112"/>
+      <c r="AB57" s="112"/>
+      <c r="AC57" s="112"/>
+      <c r="AD57" s="112"/>
+      <c r="AE57" s="113"/>
+      <c r="AF57" s="107"/>
+      <c r="AG57" s="99"/>
+      <c r="AH57" s="99"/>
+      <c r="AI57" s="99"/>
+      <c r="AJ57" s="99"/>
+      <c r="AK57" s="99"/>
+      <c r="AL57" s="99"/>
+      <c r="AM57" s="99"/>
+      <c r="AN57" s="99"/>
+      <c r="AO57" s="99"/>
+      <c r="AP57" s="99"/>
+      <c r="AQ57" s="99"/>
+      <c r="AR57" s="99"/>
+      <c r="AS57" s="100"/>
     </row>
-    <row r="47" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="58"/>
-      <c r="B47" s="69"/>
-      <c r="C47" s="60"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="61"/>
-      <c r="F47" s="62"/>
-      <c r="G47" s="62"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
-      <c r="J47" s="63"/>
-      <c r="K47" s="63"/>
-      <c r="L47" s="63"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="64"/>
-      <c r="P47" s="64"/>
-      <c r="Q47" s="64"/>
-      <c r="R47" s="64"/>
-      <c r="S47" s="65"/>
-      <c r="T47" s="65"/>
-      <c r="U47" s="65"/>
-      <c r="V47" s="65"/>
-      <c r="W47" s="66"/>
-      <c r="X47" s="66"/>
-      <c r="Y47" s="66"/>
-      <c r="Z47" s="66"/>
-      <c r="AA47" s="66"/>
-      <c r="AB47" s="67"/>
-      <c r="AC47" s="67"/>
-      <c r="AD47" s="67"/>
-      <c r="AE47" s="67"/>
-      <c r="AF47" s="68"/>
-      <c r="AG47" s="68"/>
-      <c r="AH47" s="68"/>
-      <c r="AI47" s="68"/>
-      <c r="AJ47" s="57"/>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="114"/>
+      <c r="B58" s="110"/>
+      <c r="C58" s="110"/>
+      <c r="D58" s="116"/>
+      <c r="E58" s="112"/>
+      <c r="F58" s="112"/>
+      <c r="G58" s="112"/>
+      <c r="H58" s="112"/>
+      <c r="I58" s="112"/>
+      <c r="J58" s="112"/>
+      <c r="K58" s="112"/>
+      <c r="L58" s="112"/>
+      <c r="M58" s="112"/>
+      <c r="N58" s="112"/>
+      <c r="O58" s="112"/>
+      <c r="P58" s="112"/>
+      <c r="Q58" s="112"/>
+      <c r="R58" s="112"/>
+      <c r="S58" s="112"/>
+      <c r="T58" s="112"/>
+      <c r="U58" s="112"/>
+      <c r="V58" s="112"/>
+      <c r="W58" s="112"/>
+      <c r="X58" s="112"/>
+      <c r="Y58" s="112"/>
+      <c r="Z58" s="112"/>
+      <c r="AA58" s="112"/>
+      <c r="AB58" s="112"/>
+      <c r="AC58" s="112"/>
+      <c r="AD58" s="112"/>
+      <c r="AE58" s="113"/>
+      <c r="AF58" s="107"/>
+      <c r="AG58" s="99"/>
+      <c r="AH58" s="99"/>
+      <c r="AI58" s="99"/>
+      <c r="AJ58" s="99"/>
+      <c r="AK58" s="99"/>
+      <c r="AL58" s="99"/>
+      <c r="AM58" s="99"/>
+      <c r="AN58" s="99"/>
+      <c r="AO58" s="99"/>
+      <c r="AP58" s="99"/>
+      <c r="AQ58" s="99"/>
+      <c r="AR58" s="99"/>
+      <c r="AS58" s="100"/>
     </row>
-    <row r="48" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="58"/>
-      <c r="B48" s="59" t="s">
-        <v>37</v>
-      </c>
-      <c r="C48" s="60"/>
-      <c r="D48" s="61"/>
-      <c r="E48" s="61"/>
-      <c r="F48" s="62"/>
-      <c r="G48" s="62"/>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
-      <c r="J48" s="63"/>
-      <c r="K48" s="63"/>
-      <c r="L48" s="63"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="64"/>
-      <c r="P48" s="64"/>
-      <c r="Q48" s="64"/>
-      <c r="R48" s="64"/>
-      <c r="S48" s="65"/>
-      <c r="T48" s="65"/>
-      <c r="U48" s="65"/>
-      <c r="V48" s="65"/>
-      <c r="W48" s="66"/>
-      <c r="X48" s="66"/>
-      <c r="Y48" s="66"/>
-      <c r="Z48" s="66"/>
-      <c r="AA48" s="66"/>
-      <c r="AB48" s="67"/>
-      <c r="AC48" s="67"/>
-      <c r="AD48" s="67"/>
-      <c r="AE48" s="67"/>
-      <c r="AF48" s="68"/>
-      <c r="AG48" s="68"/>
-      <c r="AH48" s="68"/>
-      <c r="AI48" s="68"/>
-      <c r="AJ48" s="57"/>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="114"/>
+      <c r="B59" s="110"/>
+      <c r="C59" s="110"/>
+      <c r="D59" s="116"/>
+      <c r="E59" s="112"/>
+      <c r="F59" s="112"/>
+      <c r="G59" s="112"/>
+      <c r="H59" s="112"/>
+      <c r="I59" s="112"/>
+      <c r="J59" s="112"/>
+      <c r="K59" s="112"/>
+      <c r="L59" s="112"/>
+      <c r="M59" s="112"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="112"/>
+      <c r="Q59" s="112"/>
+      <c r="R59" s="112"/>
+      <c r="S59" s="112"/>
+      <c r="T59" s="112"/>
+      <c r="U59" s="112"/>
+      <c r="V59" s="112"/>
+      <c r="W59" s="112"/>
+      <c r="X59" s="112"/>
+      <c r="Y59" s="112"/>
+      <c r="Z59" s="112"/>
+      <c r="AA59" s="112"/>
+      <c r="AB59" s="112"/>
+      <c r="AC59" s="112"/>
+      <c r="AD59" s="112"/>
+      <c r="AE59" s="113"/>
+      <c r="AF59" s="107"/>
+      <c r="AG59" s="99"/>
+      <c r="AH59" s="99"/>
+      <c r="AI59" s="99"/>
+      <c r="AJ59" s="99"/>
+      <c r="AK59" s="99"/>
+      <c r="AL59" s="99"/>
+      <c r="AM59" s="99"/>
+      <c r="AN59" s="99"/>
+      <c r="AO59" s="99"/>
+      <c r="AP59" s="99"/>
+      <c r="AQ59" s="99"/>
+      <c r="AR59" s="99"/>
+      <c r="AS59" s="100"/>
     </row>
-    <row r="49" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="58"/>
-      <c r="B49" s="69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="E49" s="61"/>
-      <c r="F49" s="62"/>
-      <c r="G49" s="62"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
-      <c r="J49" s="63"/>
-      <c r="K49" s="63"/>
-      <c r="L49" s="63"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="64"/>
-      <c r="P49" s="64"/>
-      <c r="Q49" s="64"/>
-      <c r="R49" s="64"/>
-      <c r="S49" s="65"/>
-      <c r="T49" s="65"/>
-      <c r="U49" s="65"/>
-      <c r="V49" s="65"/>
-      <c r="W49" s="66"/>
-      <c r="X49" s="66"/>
-      <c r="Y49" s="66"/>
-      <c r="Z49" s="66"/>
-      <c r="AA49" s="66"/>
-      <c r="AB49" s="67"/>
-      <c r="AC49" s="67"/>
-      <c r="AD49" s="67"/>
-      <c r="AE49" s="67"/>
-      <c r="AF49" s="68"/>
-      <c r="AG49" s="68"/>
-      <c r="AH49" s="68"/>
-      <c r="AI49" s="68"/>
-      <c r="AJ49" s="57"/>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="114"/>
+      <c r="B60" s="117"/>
+      <c r="C60" s="117"/>
+      <c r="D60" s="118"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="119"/>
+      <c r="H60" s="119"/>
+      <c r="I60" s="119"/>
+      <c r="J60" s="119"/>
+      <c r="K60" s="119"/>
+      <c r="L60" s="119"/>
+      <c r="M60" s="119"/>
+      <c r="N60" s="119"/>
+      <c r="O60" s="119"/>
+      <c r="P60" s="119"/>
+      <c r="Q60" s="119"/>
+      <c r="R60" s="119"/>
+      <c r="S60" s="119"/>
+      <c r="T60" s="119"/>
+      <c r="U60" s="119"/>
+      <c r="V60" s="119"/>
+      <c r="W60" s="119"/>
+      <c r="X60" s="119"/>
+      <c r="Y60" s="119"/>
+      <c r="Z60" s="119"/>
+      <c r="AA60" s="119"/>
+      <c r="AB60" s="119"/>
+      <c r="AC60" s="119"/>
+      <c r="AD60" s="119"/>
+      <c r="AE60" s="120"/>
+      <c r="AF60" s="107"/>
+      <c r="AG60" s="99"/>
+      <c r="AH60" s="99"/>
+      <c r="AI60" s="99"/>
+      <c r="AJ60" s="99"/>
+      <c r="AK60" s="99"/>
+      <c r="AL60" s="99"/>
+      <c r="AM60" s="99"/>
+      <c r="AN60" s="99"/>
+      <c r="AO60" s="99"/>
+      <c r="AP60" s="99"/>
+      <c r="AQ60" s="99"/>
+      <c r="AR60" s="99"/>
+      <c r="AS60" s="100"/>
     </row>
-    <row r="50" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="58"/>
-      <c r="B50" s="69" t="s">
-        <v>39</v>
-      </c>
-      <c r="C50" s="60"/>
-      <c r="D50" s="70" t="s">
-        <v>23</v>
-      </c>
-      <c r="E50" s="61"/>
-      <c r="F50" s="62"/>
-      <c r="G50" s="62"/>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
-      <c r="J50" s="63"/>
-      <c r="K50" s="63"/>
-      <c r="L50" s="63"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="64"/>
-      <c r="P50" s="64"/>
-      <c r="Q50" s="64"/>
-      <c r="R50" s="64"/>
-      <c r="S50" s="65"/>
-      <c r="T50" s="65"/>
-      <c r="U50" s="65"/>
-      <c r="V50" s="65"/>
-      <c r="W50" s="66"/>
-      <c r="X50" s="66"/>
-      <c r="Y50" s="66"/>
-      <c r="Z50" s="66"/>
-      <c r="AA50" s="66"/>
-      <c r="AB50" s="67"/>
-      <c r="AC50" s="67"/>
-      <c r="AD50" s="67"/>
-      <c r="AE50" s="67"/>
-      <c r="AF50" s="68"/>
-      <c r="AG50" s="68"/>
-      <c r="AH50" s="68"/>
-      <c r="AI50" s="68"/>
-      <c r="AJ50" s="57"/>
-    </row>
-    <row r="51" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="58"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="60"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
-      <c r="J51" s="63"/>
-      <c r="K51" s="63"/>
-      <c r="L51" s="63"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="64"/>
-      <c r="P51" s="64"/>
-      <c r="Q51" s="64"/>
-      <c r="R51" s="64"/>
-      <c r="S51" s="65"/>
-      <c r="T51" s="65"/>
-      <c r="U51" s="65"/>
-      <c r="V51" s="65"/>
-      <c r="W51" s="66"/>
-      <c r="X51" s="66"/>
-      <c r="Y51" s="66"/>
-      <c r="Z51" s="66"/>
-      <c r="AA51" s="66"/>
-      <c r="AB51" s="67"/>
-      <c r="AC51" s="67"/>
-      <c r="AD51" s="67"/>
-      <c r="AE51" s="67"/>
-      <c r="AF51" s="68"/>
-      <c r="AG51" s="68"/>
-      <c r="AH51" s="68"/>
-      <c r="AI51" s="68"/>
-      <c r="AJ51" s="57"/>
-    </row>
-    <row r="52" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="58"/>
-    </row>
-    <row r="53" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="58"/>
-      <c r="B53" s="83" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="54" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="78"/>
-      <c r="B54" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="84" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54" s="96" t="s">
-        <v>47</v>
-      </c>
-      <c r="E54" s="97"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="97"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="97"/>
-      <c r="Q54" s="97"/>
-      <c r="R54" s="97"/>
-      <c r="S54" s="97"/>
-      <c r="T54" s="97"/>
-      <c r="U54" s="97"/>
-      <c r="V54" s="98"/>
-    </row>
-    <row r="55" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="87">
-        <v>43267</v>
-      </c>
-      <c r="C55" s="88"/>
-      <c r="D55" s="99" t="s">
-        <v>48</v>
-      </c>
-      <c r="E55" s="100"/>
-      <c r="F55" s="100"/>
-      <c r="G55" s="100"/>
-      <c r="H55" s="100"/>
-      <c r="I55" s="100"/>
-      <c r="J55" s="100"/>
-      <c r="K55" s="100"/>
-      <c r="L55" s="100"/>
-      <c r="M55" s="100"/>
-      <c r="N55" s="100"/>
-      <c r="O55" s="100"/>
-      <c r="P55" s="100"/>
-      <c r="Q55" s="100"/>
-      <c r="R55" s="100"/>
-      <c r="S55" s="100"/>
-      <c r="T55" s="100"/>
-      <c r="U55" s="100"/>
-      <c r="V55" s="101"/>
-    </row>
-    <row r="56" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="87">
-        <v>43280</v>
-      </c>
-      <c r="C56" s="89" t="s">
-        <v>52</v>
-      </c>
-      <c r="D56" s="99" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="100"/>
-      <c r="F56" s="100"/>
-      <c r="G56" s="100"/>
-      <c r="H56" s="100"/>
-      <c r="I56" s="100"/>
-      <c r="J56" s="100"/>
-      <c r="K56" s="100"/>
-      <c r="L56" s="100"/>
-      <c r="M56" s="100"/>
-      <c r="N56" s="100"/>
-      <c r="O56" s="100"/>
-      <c r="P56" s="100"/>
-      <c r="Q56" s="100"/>
-      <c r="R56" s="100"/>
-      <c r="S56" s="100"/>
-      <c r="T56" s="100"/>
-      <c r="U56" s="100"/>
-      <c r="V56" s="101"/>
-    </row>
-    <row r="57" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="85"/>
-      <c r="C57" s="85"/>
-      <c r="D57" s="102"/>
-      <c r="E57" s="100"/>
-      <c r="F57" s="100"/>
-      <c r="G57" s="100"/>
-      <c r="H57" s="100"/>
-      <c r="I57" s="100"/>
-      <c r="J57" s="100"/>
-      <c r="K57" s="100"/>
-      <c r="L57" s="100"/>
-      <c r="M57" s="100"/>
-      <c r="N57" s="100"/>
-      <c r="O57" s="100"/>
-      <c r="P57" s="100"/>
-      <c r="Q57" s="100"/>
-      <c r="R57" s="100"/>
-      <c r="S57" s="100"/>
-      <c r="T57" s="100"/>
-      <c r="U57" s="100"/>
-      <c r="V57" s="101"/>
-    </row>
-    <row r="58" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="85"/>
-      <c r="C58" s="85"/>
-      <c r="D58" s="102"/>
-      <c r="E58" s="100"/>
-      <c r="F58" s="100"/>
-      <c r="G58" s="100"/>
-      <c r="H58" s="100"/>
-      <c r="I58" s="100"/>
-      <c r="J58" s="100"/>
-      <c r="K58" s="100"/>
-      <c r="L58" s="100"/>
-      <c r="M58" s="100"/>
-      <c r="N58" s="100"/>
-      <c r="O58" s="100"/>
-      <c r="P58" s="100"/>
-      <c r="Q58" s="100"/>
-      <c r="R58" s="100"/>
-      <c r="S58" s="100"/>
-      <c r="T58" s="100"/>
-      <c r="U58" s="100"/>
-      <c r="V58" s="101"/>
-    </row>
-    <row r="59" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="85"/>
-      <c r="C59" s="85"/>
-      <c r="D59" s="102"/>
-      <c r="E59" s="100"/>
-      <c r="F59" s="100"/>
-      <c r="G59" s="100"/>
-      <c r="H59" s="100"/>
-      <c r="I59" s="100"/>
-      <c r="J59" s="100"/>
-      <c r="K59" s="100"/>
-      <c r="L59" s="100"/>
-      <c r="M59" s="100"/>
-      <c r="N59" s="100"/>
-      <c r="O59" s="100"/>
-      <c r="P59" s="100"/>
-      <c r="Q59" s="100"/>
-      <c r="R59" s="100"/>
-      <c r="S59" s="100"/>
-      <c r="T59" s="100"/>
-      <c r="U59" s="100"/>
-      <c r="V59" s="101"/>
-    </row>
-    <row r="60" spans="1:36" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B60" s="86"/>
-      <c r="C60" s="86"/>
-      <c r="D60" s="103"/>
-      <c r="E60" s="104"/>
-      <c r="F60" s="104"/>
-      <c r="G60" s="104"/>
-      <c r="H60" s="104"/>
-      <c r="I60" s="104"/>
-      <c r="J60" s="104"/>
-      <c r="K60" s="104"/>
-      <c r="L60" s="104"/>
-      <c r="M60" s="104"/>
-      <c r="N60" s="104"/>
-      <c r="O60" s="104"/>
-      <c r="P60" s="104"/>
-      <c r="Q60" s="104"/>
-      <c r="R60" s="104"/>
-      <c r="S60" s="104"/>
-      <c r="T60" s="104"/>
-      <c r="U60" s="104"/>
-      <c r="V60" s="105"/>
-    </row>
-    <row r="61" spans="1:36" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D61" s="95"/>
-      <c r="E61" s="95"/>
-      <c r="F61" s="95"/>
-      <c r="G61" s="95"/>
-      <c r="H61" s="95"/>
-      <c r="I61" s="95"/>
-      <c r="J61" s="95"/>
-      <c r="K61" s="95"/>
-      <c r="L61" s="95"/>
-      <c r="M61" s="95"/>
-      <c r="N61" s="95"/>
-      <c r="O61" s="95"/>
-      <c r="P61" s="95"/>
-      <c r="Q61" s="95"/>
-      <c r="R61" s="95"/>
-      <c r="S61" s="95"/>
-      <c r="T61" s="95"/>
-      <c r="U61" s="95"/>
-      <c r="V61" s="95"/>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="121"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="122"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="122"/>
+      <c r="G61" s="122"/>
+      <c r="H61" s="122"/>
+      <c r="I61" s="122"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="122"/>
+      <c r="M61" s="122"/>
+      <c r="N61" s="122"/>
+      <c r="O61" s="122"/>
+      <c r="P61" s="123"/>
+      <c r="Q61" s="123"/>
+      <c r="R61" s="123"/>
+      <c r="S61" s="123"/>
+      <c r="T61" s="123"/>
+      <c r="U61" s="123"/>
+      <c r="V61" s="123"/>
+      <c r="W61" s="123"/>
+      <c r="X61" s="123"/>
+      <c r="Y61" s="123"/>
+      <c r="Z61" s="123"/>
+      <c r="AA61" s="123"/>
+      <c r="AB61" s="123"/>
+      <c r="AC61" s="123"/>
+      <c r="AD61" s="123"/>
+      <c r="AE61" s="123"/>
+      <c r="AF61" s="124"/>
+      <c r="AG61" s="124"/>
+      <c r="AH61" s="124"/>
+      <c r="AI61" s="124"/>
+      <c r="AJ61" s="124"/>
+      <c r="AK61" s="124"/>
+      <c r="AL61" s="124"/>
+      <c r="AM61" s="124"/>
+      <c r="AN61" s="124"/>
+      <c r="AO61" s="124"/>
+      <c r="AP61" s="124"/>
+      <c r="AQ61" s="124"/>
+      <c r="AR61" s="124"/>
+      <c r="AS61" s="125"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="D61:V61"/>
-    <mergeCell ref="D54:V54"/>
-    <mergeCell ref="D55:V55"/>
-    <mergeCell ref="D56:V56"/>
-    <mergeCell ref="D57:V57"/>
-    <mergeCell ref="D58:V58"/>
-    <mergeCell ref="D59:V59"/>
-    <mergeCell ref="D60:V60"/>
+    <mergeCell ref="D60:AE60"/>
+    <mergeCell ref="D59:AE59"/>
+    <mergeCell ref="D58:AE58"/>
+    <mergeCell ref="D57:AE57"/>
+    <mergeCell ref="D55:AE55"/>
+    <mergeCell ref="D54:AE54"/>
+    <mergeCell ref="D56:AE56"/>
+    <mergeCell ref="D61:AE61"/>
   </mergeCells>
-  <phoneticPr fontId="4"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="51">
-  <si>
-    <t>ガントチャート.xlsx</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
   <si>
     <t>ガントチャート</t>
   </si>
@@ -132,6 +132,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -140,6 +141,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>総合テスト</t>
     </r>
@@ -180,28 +183,39 @@
   <si>
     <t>テスト，プロトタイプの欄を追加</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>ガントチャート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+    <phoneticPr fontId="5"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -209,16 +223,39 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="23"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1025,437 +1062,249 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="128">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="126">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff20124d"/>
-      <rgbColor rgb="ffd9d9d9"/>
-      <rgbColor rgb="fff79646"/>
-      <rgbColor rgb="ff3c899e"/>
-      <rgbColor rgb="ffcc4125"/>
-      <rgbColor rgb="ffffd966"/>
-      <rgbColor rgb="ff76a5af"/>
-      <rgbColor rgb="ff6fa8dc"/>
-      <rgbColor rgb="ff8e7cc3"/>
-      <rgbColor rgb="ff93c47d"/>
-      <rgbColor rgb="ffc27ba0"/>
-      <rgbColor rgb="ffcccccc"/>
-      <rgbColor rgb="ffefefef"/>
-      <rgbColor rgb="fffbcaa2"/>
-      <rgbColor rgb="ffa5d5e2"/>
-      <rgbColor rgb="ffe6b8af"/>
-      <rgbColor rgb="fffff2cc"/>
-      <rgbColor rgb="ffd0e0e3"/>
-      <rgbColor rgb="ffcfe2f3"/>
-      <rgbColor rgb="ffd9d2e9"/>
-      <rgbColor rgb="ffd9ead3"/>
-      <rgbColor rgb="ffead1dc"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF20124D"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFF79646"/>
+      <rgbColor rgb="FF3C899E"/>
+      <rgbColor rgb="FFCC4125"/>
+      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FF76A5AF"/>
+      <rgbColor rgb="FF6FA8DC"/>
+      <rgbColor rgb="FF8E7CC3"/>
+      <rgbColor rgb="FF93C47D"/>
+      <rgbColor rgb="FFC27BA0"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFEFEFEF"/>
+      <rgbColor rgb="FFFBCAA2"/>
+      <rgbColor rgb="FFA5D5E2"/>
+      <rgbColor rgb="FFE6B8AF"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFD0E0E3"/>
+      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FFD9D2E9"/>
+      <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFEAD1DC"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1469,7 +1318,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1495,7 +1344,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1514,7 +1363,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1540,7 +1389,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1559,7 +1408,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>83246</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1585,7 +1434,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1604,7 +1453,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>146748</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1630,7 +1479,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1649,7 +1498,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>149223</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1675,7 +1524,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1694,7 +1543,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1720,7 +1569,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1739,7 +1588,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1765,7 +1614,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1784,7 +1633,7 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1810,7 +1659,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1829,7 +1678,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>100010</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1855,7 +1704,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1874,7 +1723,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1900,7 +1749,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1919,7 +1768,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>82800</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1945,7 +1794,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1964,7 +1813,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1990,7 +1839,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2009,7 +1858,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2035,7 +1884,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2054,7 +1903,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>92322</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2080,7 +1929,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2099,7 +1948,7 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2125,7 +1974,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2144,7 +1993,7 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2170,7 +2019,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2189,7 +2038,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>82797</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2215,7 +2064,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2234,7 +2083,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>82799</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2260,7 +2109,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2279,7 +2128,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>102301</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2305,7 +2154,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2324,7 +2173,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2350,7 +2199,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2369,7 +2218,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2395,7 +2244,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2414,7 +2263,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>83250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2440,7 +2289,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2459,7 +2308,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>102300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2485,7 +2334,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2504,7 +2353,7 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>92324</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2530,7 +2379,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2549,7 +2398,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>92323</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2575,7 +2424,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2594,7 +2443,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>200022</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2620,7 +2469,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2631,23 +2480,23 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>100013</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>183261</xdr:rowOff>
+      <xdr:rowOff>179295</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3327400" y="3141027"/>
-          <a:ext cx="3200400" cy="83250"/>
+          <a:off x="2913529" y="3159219"/>
+          <a:ext cx="7216589" cy="79282"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2665,7 +2514,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2684,7 +2533,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2710,7 +2559,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2729,7 +2578,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -2755,7 +2604,142 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29135</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>11205</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6707841" y="5194207"/>
+          <a:ext cx="3411071" cy="94969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29135</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>95530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6707841" y="5373501"/>
+          <a:ext cx="3411071" cy="94969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>29135</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>106736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>302559</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>201705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6707841" y="5586412"/>
+          <a:ext cx="3411071" cy="94969"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2765,7 +2749,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2967,7 +2951,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2986,7 +2970,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3016,7 +3000,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3042,7 +3026,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3068,7 +3052,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3094,7 +3078,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3120,7 +3104,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3146,7 +3130,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3172,7 +3156,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3198,7 +3182,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3224,7 +3208,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3237,9 +3221,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3256,7 +3246,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3275,7 +3265,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3301,7 +3291,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3327,7 +3317,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3353,7 +3343,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3379,7 +3369,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3405,7 +3395,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3431,7 +3421,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3457,7 +3447,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3483,7 +3473,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3509,7 +3499,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3522,9 +3512,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3538,7 +3534,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3557,7 +3553,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3587,7 +3583,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3613,7 +3609,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3639,7 +3635,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3665,7 +3661,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3691,7 +3687,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3717,7 +3713,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3743,7 +3739,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3769,7 +3765,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3795,7 +3791,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3808,81 +3804,52 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS61"/>
+  <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.67188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.67188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.67188" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.67188" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.67188" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.67188" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.67188" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.67188" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.67188" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.67188" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.67188" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.67188" style="1" customWidth="1"/>
-    <col min="21" max="21" width="4.67188" style="1" customWidth="1"/>
-    <col min="22" max="22" width="4.67188" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.67188" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4.67188" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.67188" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.67188" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.67188" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.67188" style="1" customWidth="1"/>
-    <col min="29" max="29" width="4.67188" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.67188" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.67188" style="1" customWidth="1"/>
-    <col min="32" max="32" width="4.67188" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.67188" style="1" customWidth="1"/>
-    <col min="34" max="34" width="4.67188" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4.67188" style="1" customWidth="1"/>
-    <col min="36" max="36" width="4.67188" style="1" customWidth="1"/>
-    <col min="37" max="37" width="4.67188" style="1" customWidth="1"/>
-    <col min="38" max="38" width="4.67188" style="1" customWidth="1"/>
-    <col min="39" max="39" width="4.67188" style="1" customWidth="1"/>
-    <col min="40" max="40" width="4.67188" style="1" customWidth="1"/>
-    <col min="41" max="41" width="4.67188" style="1" customWidth="1"/>
-    <col min="42" max="42" width="4.67188" style="1" customWidth="1"/>
-    <col min="43" max="43" width="4.67188" style="1" customWidth="1"/>
-    <col min="44" max="44" width="4.67188" style="1" customWidth="1"/>
-    <col min="45" max="45" width="5.5" style="1" customWidth="1"/>
-    <col min="46" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="1" customWidth="1"/>
+    <col min="6" max="44" width="4.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="5.42578125" style="1" customWidth="1"/>
+    <col min="46" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -3928,10 +3895,10 @@
       <c r="AR1" s="6"/>
       <c r="AS1" s="7"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
-        <v>43280</v>
+        <v>43378</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
@@ -3977,10 +3944,10 @@
       <c r="AR2" s="12"/>
       <c r="AS2" s="13"/>
     </row>
-    <row r="3" ht="34.7" customHeight="1">
+    <row r="3" spans="1:45" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" t="s" s="14">
-        <v>2</v>
+      <c r="B3" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -4026,7 +3993,7 @@
       <c r="AR3" s="12"/>
       <c r="AS3" s="13"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
@@ -4073,7 +4040,7 @@
       <c r="AR4" s="12"/>
       <c r="AS4" s="13"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
@@ -4120,11 +4087,11 @@
       <c r="AR5" s="12"/>
       <c r="AS5" s="13"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
-      <c r="C6" t="s" s="15">
-        <v>3</v>
+      <c r="C6" s="15" t="s">
+        <v>2</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -4169,13 +4136,13 @@
       <c r="AR6" s="12"/>
       <c r="AS6" s="13"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" t="s" s="15">
+      <c r="B7" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="15" t="s">
         <v>4</v>
-      </c>
-      <c r="C7" t="s" s="15">
-        <v>5</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -4220,13 +4187,13 @@
       <c r="AR7" s="12"/>
       <c r="AS7" s="13"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" t="s" s="15">
+      <c r="B8" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="15" t="s">
         <v>6</v>
-      </c>
-      <c r="C8" t="s" s="15">
-        <v>7</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4239,8 +4206,8 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" t="s" s="16">
-        <v>8</v>
+      <c r="O8" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -4273,13 +4240,13 @@
       <c r="AR8" s="12"/>
       <c r="AS8" s="13"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="C9" t="s" s="15">
-        <v>10</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -4292,8 +4259,8 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" t="s" s="16">
-        <v>11</v>
+      <c r="O9" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -4326,7 +4293,7 @@
       <c r="AR9" s="12"/>
       <c r="AS9" s="13"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -4373,13 +4340,13 @@
       <c r="AR10" s="20"/>
       <c r="AS10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" t="s" s="26">
-        <v>12</v>
+      <c r="E11" s="26" t="s">
+        <v>11</v>
       </c>
       <c r="F11" s="27">
         <v>5</v>
@@ -4440,19 +4407,19 @@
       <c r="AR11" s="44"/>
       <c r="AS11" s="45"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" t="s" s="46">
+      <c r="B12" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s" s="47">
+      <c r="D12" s="48" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s" s="48">
+      <c r="E12" s="48" t="s">
         <v>15</v>
-      </c>
-      <c r="E12" t="s" s="48">
-        <v>16</v>
       </c>
       <c r="F12" s="49">
         <v>4</v>
@@ -4521,16 +4488,16 @@
         <v>28</v>
       </c>
       <c r="AB12" s="57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AC12" s="57">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD12" s="57">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AE12" s="57">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AF12" s="58">
         <v>2</v>
@@ -4573,10 +4540,10 @@
       </c>
       <c r="AS12" s="64"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="65"/>
-      <c r="B13" t="s" s="66">
-        <v>17</v>
+      <c r="B13" s="66" t="s">
+        <v>16</v>
       </c>
       <c r="C13" s="67"/>
       <c r="D13" s="68"/>
@@ -4622,14 +4589,14 @@
       <c r="AR13" s="77"/>
       <c r="AS13" s="64"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="65"/>
-      <c r="B14" t="s" s="78">
+      <c r="B14" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="79" t="s">
         <v>18</v>
-      </c>
-      <c r="C14" s="67"/>
-      <c r="D14" t="s" s="79">
-        <v>19</v>
       </c>
       <c r="E14" s="68"/>
       <c r="F14" s="69"/>
@@ -4673,14 +4640,16 @@
       <c r="AR14" s="77"/>
       <c r="AS14" s="64"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="65"/>
-      <c r="B15" t="s" s="78">
-        <v>20</v>
-      </c>
-      <c r="C15" s="67"/>
-      <c r="D15" t="s" s="79">
+      <c r="B15" s="78" t="s">
         <v>19</v>
+      </c>
+      <c r="C15" s="127">
+        <v>1</v>
+      </c>
+      <c r="D15" s="79" t="s">
+        <v>18</v>
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="69"/>
@@ -4724,14 +4693,14 @@
       <c r="AR15" s="77"/>
       <c r="AS15" s="64"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="65"/>
-      <c r="B16" t="s" s="78">
-        <v>21</v>
+      <c r="B16" s="78" t="s">
+        <v>20</v>
       </c>
       <c r="C16" s="67"/>
-      <c r="D16" t="s" s="79">
-        <v>7</v>
+      <c r="D16" s="79" t="s">
+        <v>6</v>
       </c>
       <c r="E16" s="68"/>
       <c r="F16" s="69"/>
@@ -4775,14 +4744,14 @@
       <c r="AR16" s="77"/>
       <c r="AS16" s="64"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="65"/>
-      <c r="B17" t="s" s="78">
+      <c r="B17" s="78" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="79" t="s">
         <v>22</v>
-      </c>
-      <c r="C17" s="67"/>
-      <c r="D17" t="s" s="79">
-        <v>23</v>
       </c>
       <c r="E17" s="68"/>
       <c r="F17" s="69"/>
@@ -4826,7 +4795,7 @@
       <c r="AR17" s="77"/>
       <c r="AS17" s="64"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="65"/>
       <c r="B18" s="80"/>
       <c r="C18" s="67"/>
@@ -4873,10 +4842,10 @@
       <c r="AR18" s="77"/>
       <c r="AS18" s="64"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="65"/>
-      <c r="B19" t="s" s="66">
-        <v>24</v>
+      <c r="B19" s="66" t="s">
+        <v>23</v>
       </c>
       <c r="C19" s="67"/>
       <c r="D19" s="68"/>
@@ -4922,14 +4891,14 @@
       <c r="AR19" s="77"/>
       <c r="AS19" s="64"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="65"/>
-      <c r="B20" t="s" s="78">
-        <v>25</v>
+      <c r="B20" s="78" t="s">
+        <v>24</v>
       </c>
       <c r="C20" s="67"/>
-      <c r="D20" t="s" s="79">
-        <v>19</v>
+      <c r="D20" s="79" t="s">
+        <v>18</v>
       </c>
       <c r="E20" s="68"/>
       <c r="F20" s="69"/>
@@ -4973,14 +4942,14 @@
       <c r="AR20" s="77"/>
       <c r="AS20" s="64"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="65"/>
-      <c r="B21" t="s" s="78">
-        <v>26</v>
+      <c r="B21" s="78" t="s">
+        <v>25</v>
       </c>
       <c r="C21" s="67"/>
-      <c r="D21" t="s" s="79">
-        <v>19</v>
+      <c r="D21" s="79" t="s">
+        <v>18</v>
       </c>
       <c r="E21" s="68"/>
       <c r="F21" s="69"/>
@@ -5024,14 +4993,14 @@
       <c r="AR21" s="77"/>
       <c r="AS21" s="64"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="65"/>
-      <c r="B22" t="s" s="78">
-        <v>27</v>
+      <c r="B22" s="78" t="s">
+        <v>26</v>
       </c>
       <c r="C22" s="67"/>
-      <c r="D22" t="s" s="79">
-        <v>19</v>
+      <c r="D22" s="79" t="s">
+        <v>18</v>
       </c>
       <c r="E22" s="68"/>
       <c r="F22" s="69"/>
@@ -5075,7 +5044,7 @@
       <c r="AR22" s="77"/>
       <c r="AS22" s="64"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="65"/>
       <c r="B23" s="80"/>
       <c r="C23" s="67"/>
@@ -5122,10 +5091,10 @@
       <c r="AR23" s="77"/>
       <c r="AS23" s="64"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="65"/>
-      <c r="B24" t="s" s="66">
-        <v>28</v>
+      <c r="B24" s="66" t="s">
+        <v>27</v>
       </c>
       <c r="C24" s="67"/>
       <c r="D24" s="68"/>
@@ -5171,14 +5140,16 @@
       <c r="AR24" s="77"/>
       <c r="AS24" s="64"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="65"/>
-      <c r="B25" t="s" s="78">
-        <v>25</v>
-      </c>
-      <c r="C25" s="67"/>
-      <c r="D25" t="s" s="79">
-        <v>19</v>
+      <c r="B25" s="78" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="127">
+        <v>1</v>
+      </c>
+      <c r="D25" s="79" t="s">
+        <v>18</v>
       </c>
       <c r="E25" s="68"/>
       <c r="F25" s="69"/>
@@ -5222,14 +5193,16 @@
       <c r="AR25" s="77"/>
       <c r="AS25" s="64"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="65"/>
-      <c r="B26" t="s" s="78">
-        <v>26</v>
-      </c>
-      <c r="C26" s="67"/>
-      <c r="D26" t="s" s="79">
-        <v>19</v>
+      <c r="B26" s="78" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="127">
+        <v>1</v>
+      </c>
+      <c r="D26" s="79" t="s">
+        <v>18</v>
       </c>
       <c r="E26" s="68"/>
       <c r="F26" s="69"/>
@@ -5273,14 +5246,16 @@
       <c r="AR26" s="77"/>
       <c r="AS26" s="64"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="65"/>
-      <c r="B27" t="s" s="78">
-        <v>27</v>
-      </c>
-      <c r="C27" s="67"/>
-      <c r="D27" t="s" s="79">
-        <v>19</v>
+      <c r="B27" s="78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="127">
+        <v>1</v>
+      </c>
+      <c r="D27" s="79" t="s">
+        <v>18</v>
       </c>
       <c r="E27" s="68"/>
       <c r="F27" s="69"/>
@@ -5324,7 +5299,7 @@
       <c r="AR27" s="77"/>
       <c r="AS27" s="64"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="65"/>
       <c r="B28" s="80"/>
       <c r="C28" s="67"/>
@@ -5371,10 +5346,10 @@
       <c r="AR28" s="77"/>
       <c r="AS28" s="64"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="65"/>
-      <c r="B29" t="s" s="66">
-        <v>29</v>
+      <c r="B29" s="66" t="s">
+        <v>28</v>
       </c>
       <c r="C29" s="67"/>
       <c r="D29" s="68"/>
@@ -5420,14 +5395,14 @@
       <c r="AR29" s="77"/>
       <c r="AS29" s="64"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="65"/>
-      <c r="B30" t="s" s="78">
-        <v>30</v>
+      <c r="B30" s="78" t="s">
+        <v>29</v>
       </c>
       <c r="C30" s="67"/>
-      <c r="D30" t="s" s="79">
-        <v>7</v>
+      <c r="D30" s="79" t="s">
+        <v>6</v>
       </c>
       <c r="E30" s="68"/>
       <c r="F30" s="69"/>
@@ -5471,14 +5446,14 @@
       <c r="AR30" s="77"/>
       <c r="AS30" s="64"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="65"/>
-      <c r="B31" t="s" s="78">
-        <v>31</v>
+      <c r="B31" s="78" t="s">
+        <v>30</v>
       </c>
       <c r="C31" s="67"/>
-      <c r="D31" t="s" s="79">
-        <v>7</v>
+      <c r="D31" s="79" t="s">
+        <v>6</v>
       </c>
       <c r="E31" s="68"/>
       <c r="F31" s="69"/>
@@ -5522,14 +5497,14 @@
       <c r="AR31" s="77"/>
       <c r="AS31" s="64"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="65"/>
-      <c r="B32" t="s" s="78">
-        <v>32</v>
+      <c r="B32" s="78" t="s">
+        <v>31</v>
       </c>
       <c r="C32" s="67"/>
-      <c r="D32" t="s" s="79">
-        <v>7</v>
+      <c r="D32" s="79" t="s">
+        <v>6</v>
       </c>
       <c r="E32" s="68"/>
       <c r="F32" s="69"/>
@@ -5573,7 +5548,7 @@
       <c r="AR32" s="77"/>
       <c r="AS32" s="64"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="65"/>
       <c r="B33" s="80"/>
       <c r="C33" s="67"/>
@@ -5620,10 +5595,10 @@
       <c r="AR33" s="77"/>
       <c r="AS33" s="64"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="65"/>
-      <c r="B34" t="s" s="66">
-        <v>33</v>
+      <c r="B34" s="66" t="s">
+        <v>32</v>
       </c>
       <c r="C34" s="67"/>
       <c r="D34" s="68"/>
@@ -5669,14 +5644,14 @@
       <c r="AR34" s="77"/>
       <c r="AS34" s="64"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="65"/>
-      <c r="B35" t="s" s="78">
+      <c r="B35" s="78" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="67"/>
+      <c r="D35" s="79" t="s">
         <v>34</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" t="s" s="79">
-        <v>35</v>
       </c>
       <c r="E35" s="68"/>
       <c r="F35" s="69"/>
@@ -5720,14 +5695,14 @@
       <c r="AR35" s="77"/>
       <c r="AS35" s="64"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="65"/>
-      <c r="B36" t="s" s="78">
-        <v>36</v>
+      <c r="B36" s="78" t="s">
+        <v>35</v>
       </c>
       <c r="C36" s="67"/>
-      <c r="D36" t="s" s="79">
-        <v>35</v>
+      <c r="D36" s="79" t="s">
+        <v>34</v>
       </c>
       <c r="E36" s="68"/>
       <c r="F36" s="69"/>
@@ -5771,7 +5746,7 @@
       <c r="AR36" s="77"/>
       <c r="AS36" s="64"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="65"/>
       <c r="B37" s="80"/>
       <c r="C37" s="67"/>
@@ -5818,10 +5793,10 @@
       <c r="AR37" s="77"/>
       <c r="AS37" s="64"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="65"/>
-      <c r="B38" t="s" s="91">
-        <v>37</v>
+      <c r="B38" s="91" t="s">
+        <v>36</v>
       </c>
       <c r="C38" s="67"/>
       <c r="D38" s="68"/>
@@ -5867,14 +5842,14 @@
       <c r="AR38" s="77"/>
       <c r="AS38" s="64"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="65"/>
-      <c r="B39" t="s" s="78">
+      <c r="B39" s="78" t="s">
+        <v>17</v>
+      </c>
+      <c r="C39" s="67"/>
+      <c r="D39" s="79" t="s">
         <v>18</v>
-      </c>
-      <c r="C39" s="67"/>
-      <c r="D39" t="s" s="79">
-        <v>19</v>
       </c>
       <c r="E39" s="68"/>
       <c r="F39" s="69"/>
@@ -5918,14 +5893,14 @@
       <c r="AR39" s="77"/>
       <c r="AS39" s="64"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="65"/>
-      <c r="B40" t="s" s="78">
-        <v>20</v>
+      <c r="B40" s="78" t="s">
+        <v>19</v>
       </c>
       <c r="C40" s="67"/>
-      <c r="D40" t="s" s="79">
-        <v>19</v>
+      <c r="D40" s="79" t="s">
+        <v>18</v>
       </c>
       <c r="E40" s="68"/>
       <c r="F40" s="69"/>
@@ -5969,14 +5944,14 @@
       <c r="AR40" s="77"/>
       <c r="AS40" s="64"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="65"/>
-      <c r="B41" t="s" s="78">
-        <v>21</v>
+      <c r="B41" s="78" t="s">
+        <v>20</v>
       </c>
       <c r="C41" s="67"/>
-      <c r="D41" t="s" s="79">
-        <v>7</v>
+      <c r="D41" s="79" t="s">
+        <v>6</v>
       </c>
       <c r="E41" s="68"/>
       <c r="F41" s="69"/>
@@ -6020,14 +5995,14 @@
       <c r="AR41" s="77"/>
       <c r="AS41" s="64"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="65"/>
-      <c r="B42" t="s" s="78">
-        <v>22</v>
+      <c r="B42" s="78" t="s">
+        <v>21</v>
       </c>
       <c r="C42" s="67"/>
-      <c r="D42" t="s" s="79">
-        <v>35</v>
+      <c r="D42" s="79" t="s">
+        <v>34</v>
       </c>
       <c r="E42" s="68"/>
       <c r="F42" s="69"/>
@@ -6071,14 +6046,14 @@
       <c r="AR42" s="77"/>
       <c r="AS42" s="64"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="65"/>
-      <c r="B43" t="s" s="78">
-        <v>38</v>
+      <c r="B43" s="78" t="s">
+        <v>37</v>
       </c>
       <c r="C43" s="67"/>
-      <c r="D43" t="s" s="92">
-        <v>23</v>
+      <c r="D43" s="92" t="s">
+        <v>22</v>
       </c>
       <c r="E43" s="68"/>
       <c r="F43" s="69"/>
@@ -6122,7 +6097,7 @@
       <c r="AR43" s="77"/>
       <c r="AS43" s="64"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="65"/>
       <c r="B44" s="80"/>
       <c r="C44" s="67"/>
@@ -6169,10 +6144,10 @@
       <c r="AR44" s="77"/>
       <c r="AS44" s="64"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="65"/>
-      <c r="B45" t="s" s="91">
-        <v>39</v>
+      <c r="B45" s="91" t="s">
+        <v>38</v>
       </c>
       <c r="C45" s="67"/>
       <c r="D45" s="93"/>
@@ -6218,14 +6193,14 @@
       <c r="AR45" s="77"/>
       <c r="AS45" s="64"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="65"/>
-      <c r="B46" t="s" s="94">
-        <v>40</v>
+      <c r="B46" s="94" t="s">
+        <v>39</v>
       </c>
       <c r="C46" s="67"/>
-      <c r="D46" t="s" s="92">
-        <v>23</v>
+      <c r="D46" s="92" t="s">
+        <v>22</v>
       </c>
       <c r="E46" s="68"/>
       <c r="F46" s="69"/>
@@ -6269,7 +6244,7 @@
       <c r="AR46" s="77"/>
       <c r="AS46" s="64"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="65"/>
       <c r="B47" s="80"/>
       <c r="C47" s="67"/>
@@ -6316,10 +6291,10 @@
       <c r="AR47" s="77"/>
       <c r="AS47" s="64"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="65"/>
-      <c r="B48" t="s" s="66">
-        <v>41</v>
+      <c r="B48" s="66" t="s">
+        <v>40</v>
       </c>
       <c r="C48" s="67"/>
       <c r="D48" s="68"/>
@@ -6365,14 +6340,14 @@
       <c r="AR48" s="77"/>
       <c r="AS48" s="64"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="65"/>
-      <c r="B49" t="s" s="78">
-        <v>42</v>
+      <c r="B49" s="78" t="s">
+        <v>41</v>
       </c>
       <c r="C49" s="67"/>
-      <c r="D49" t="s" s="79">
-        <v>23</v>
+      <c r="D49" s="79" t="s">
+        <v>22</v>
       </c>
       <c r="E49" s="68"/>
       <c r="F49" s="69"/>
@@ -6416,14 +6391,14 @@
       <c r="AR49" s="77"/>
       <c r="AS49" s="64"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="65"/>
-      <c r="B50" t="s" s="78">
-        <v>43</v>
+      <c r="B50" s="78" t="s">
+        <v>42</v>
       </c>
       <c r="C50" s="67"/>
-      <c r="D50" t="s" s="79">
-        <v>23</v>
+      <c r="D50" s="79" t="s">
+        <v>22</v>
       </c>
       <c r="E50" s="68"/>
       <c r="F50" s="69"/>
@@ -6467,7 +6442,7 @@
       <c r="AR50" s="77"/>
       <c r="AS50" s="64"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="65"/>
       <c r="B51" s="80"/>
       <c r="C51" s="67"/>
@@ -6514,7 +6489,7 @@
       <c r="AR51" s="77"/>
       <c r="AS51" s="64"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="65"/>
       <c r="B52" s="95"/>
       <c r="C52" s="95"/>
@@ -6561,10 +6536,10 @@
       <c r="AR52" s="95"/>
       <c r="AS52" s="96"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="65"/>
-      <c r="B53" t="s" s="97">
-        <v>44</v>
+      <c r="B53" s="97" t="s">
+        <v>43</v>
       </c>
       <c r="C53" s="98"/>
       <c r="D53" s="98"/>
@@ -6610,45 +6585,45 @@
       <c r="AR53" s="99"/>
       <c r="AS53" s="100"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="101"/>
-      <c r="B54" t="s" s="102">
+      <c r="B54" s="102" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="C54" t="s" s="102">
+      <c r="D54" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="D54" t="s" s="103">
-        <v>47</v>
-      </c>
-      <c r="E54" s="104"/>
-      <c r="F54" s="105"/>
-      <c r="G54" s="105"/>
-      <c r="H54" s="105"/>
-      <c r="I54" s="105"/>
-      <c r="J54" s="105"/>
-      <c r="K54" s="105"/>
-      <c r="L54" s="105"/>
-      <c r="M54" s="105"/>
-      <c r="N54" s="105"/>
-      <c r="O54" s="105"/>
-      <c r="P54" s="104"/>
-      <c r="Q54" s="104"/>
-      <c r="R54" s="104"/>
-      <c r="S54" s="104"/>
-      <c r="T54" s="104"/>
-      <c r="U54" s="104"/>
-      <c r="V54" s="104"/>
-      <c r="W54" s="104"/>
-      <c r="X54" s="104"/>
-      <c r="Y54" s="104"/>
-      <c r="Z54" s="104"/>
-      <c r="AA54" s="104"/>
-      <c r="AB54" s="104"/>
-      <c r="AC54" s="104"/>
-      <c r="AD54" s="104"/>
-      <c r="AE54" s="106"/>
-      <c r="AF54" s="107"/>
+      <c r="E54" s="122"/>
+      <c r="F54" s="123"/>
+      <c r="G54" s="123"/>
+      <c r="H54" s="123"/>
+      <c r="I54" s="123"/>
+      <c r="J54" s="123"/>
+      <c r="K54" s="123"/>
+      <c r="L54" s="123"/>
+      <c r="M54" s="123"/>
+      <c r="N54" s="123"/>
+      <c r="O54" s="123"/>
+      <c r="P54" s="122"/>
+      <c r="Q54" s="122"/>
+      <c r="R54" s="122"/>
+      <c r="S54" s="122"/>
+      <c r="T54" s="122"/>
+      <c r="U54" s="122"/>
+      <c r="V54" s="122"/>
+      <c r="W54" s="122"/>
+      <c r="X54" s="122"/>
+      <c r="Y54" s="122"/>
+      <c r="Z54" s="122"/>
+      <c r="AA54" s="122"/>
+      <c r="AB54" s="122"/>
+      <c r="AC54" s="122"/>
+      <c r="AD54" s="122"/>
+      <c r="AE54" s="124"/>
+      <c r="AF54" s="103"/>
       <c r="AG54" s="99"/>
       <c r="AH54" s="99"/>
       <c r="AI54" s="99"/>
@@ -6663,43 +6638,43 @@
       <c r="AR54" s="99"/>
       <c r="AS54" s="100"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="108"/>
-      <c r="B55" s="109">
+    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="104"/>
+      <c r="B55" s="105">
         <v>43267</v>
       </c>
-      <c r="C55" s="110"/>
-      <c r="D55" t="s" s="111">
-        <v>48</v>
-      </c>
-      <c r="E55" s="112"/>
-      <c r="F55" s="112"/>
-      <c r="G55" s="112"/>
-      <c r="H55" s="112"/>
-      <c r="I55" s="112"/>
-      <c r="J55" s="112"/>
-      <c r="K55" s="112"/>
-      <c r="L55" s="112"/>
-      <c r="M55" s="112"/>
-      <c r="N55" s="112"/>
-      <c r="O55" s="112"/>
-      <c r="P55" s="112"/>
-      <c r="Q55" s="112"/>
-      <c r="R55" s="112"/>
-      <c r="S55" s="112"/>
-      <c r="T55" s="112"/>
-      <c r="U55" s="112"/>
-      <c r="V55" s="112"/>
-      <c r="W55" s="112"/>
-      <c r="X55" s="112"/>
-      <c r="Y55" s="112"/>
-      <c r="Z55" s="112"/>
-      <c r="AA55" s="112"/>
-      <c r="AB55" s="112"/>
-      <c r="AC55" s="112"/>
-      <c r="AD55" s="112"/>
-      <c r="AE55" s="113"/>
-      <c r="AF55" s="107"/>
+      <c r="C55" s="106"/>
+      <c r="D55" s="120" t="s">
+        <v>47</v>
+      </c>
+      <c r="E55" s="118"/>
+      <c r="F55" s="118"/>
+      <c r="G55" s="118"/>
+      <c r="H55" s="118"/>
+      <c r="I55" s="118"/>
+      <c r="J55" s="118"/>
+      <c r="K55" s="118"/>
+      <c r="L55" s="118"/>
+      <c r="M55" s="118"/>
+      <c r="N55" s="118"/>
+      <c r="O55" s="118"/>
+      <c r="P55" s="118"/>
+      <c r="Q55" s="118"/>
+      <c r="R55" s="118"/>
+      <c r="S55" s="118"/>
+      <c r="T55" s="118"/>
+      <c r="U55" s="118"/>
+      <c r="V55" s="118"/>
+      <c r="W55" s="118"/>
+      <c r="X55" s="118"/>
+      <c r="Y55" s="118"/>
+      <c r="Z55" s="118"/>
+      <c r="AA55" s="118"/>
+      <c r="AB55" s="118"/>
+      <c r="AC55" s="118"/>
+      <c r="AD55" s="118"/>
+      <c r="AE55" s="119"/>
+      <c r="AF55" s="103"/>
       <c r="AG55" s="99"/>
       <c r="AH55" s="99"/>
       <c r="AI55" s="99"/>
@@ -6714,45 +6689,45 @@
       <c r="AR55" s="99"/>
       <c r="AS55" s="100"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="114"/>
-      <c r="B56" s="109">
+    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="107"/>
+      <c r="B56" s="105">
         <v>43280</v>
       </c>
-      <c r="C56" t="s" s="115">
+      <c r="C56" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="D56" s="120" t="s">
         <v>49</v>
       </c>
-      <c r="D56" t="s" s="111">
-        <v>50</v>
-      </c>
-      <c r="E56" s="112"/>
-      <c r="F56" s="112"/>
-      <c r="G56" s="112"/>
-      <c r="H56" s="112"/>
-      <c r="I56" s="112"/>
-      <c r="J56" s="112"/>
-      <c r="K56" s="112"/>
-      <c r="L56" s="112"/>
-      <c r="M56" s="112"/>
-      <c r="N56" s="112"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="112"/>
-      <c r="Q56" s="112"/>
-      <c r="R56" s="112"/>
-      <c r="S56" s="112"/>
-      <c r="T56" s="112"/>
-      <c r="U56" s="112"/>
-      <c r="V56" s="112"/>
-      <c r="W56" s="112"/>
-      <c r="X56" s="112"/>
-      <c r="Y56" s="112"/>
-      <c r="Z56" s="112"/>
-      <c r="AA56" s="112"/>
-      <c r="AB56" s="112"/>
-      <c r="AC56" s="112"/>
-      <c r="AD56" s="112"/>
-      <c r="AE56" s="113"/>
-      <c r="AF56" s="107"/>
+      <c r="E56" s="118"/>
+      <c r="F56" s="118"/>
+      <c r="G56" s="118"/>
+      <c r="H56" s="118"/>
+      <c r="I56" s="118"/>
+      <c r="J56" s="118"/>
+      <c r="K56" s="118"/>
+      <c r="L56" s="118"/>
+      <c r="M56" s="118"/>
+      <c r="N56" s="118"/>
+      <c r="O56" s="118"/>
+      <c r="P56" s="118"/>
+      <c r="Q56" s="118"/>
+      <c r="R56" s="118"/>
+      <c r="S56" s="118"/>
+      <c r="T56" s="118"/>
+      <c r="U56" s="118"/>
+      <c r="V56" s="118"/>
+      <c r="W56" s="118"/>
+      <c r="X56" s="118"/>
+      <c r="Y56" s="118"/>
+      <c r="Z56" s="118"/>
+      <c r="AA56" s="118"/>
+      <c r="AB56" s="118"/>
+      <c r="AC56" s="118"/>
+      <c r="AD56" s="118"/>
+      <c r="AE56" s="119"/>
+      <c r="AF56" s="103"/>
       <c r="AG56" s="99"/>
       <c r="AH56" s="99"/>
       <c r="AI56" s="99"/>
@@ -6767,39 +6742,39 @@
       <c r="AR56" s="99"/>
       <c r="AS56" s="100"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="114"/>
-      <c r="B57" s="110"/>
-      <c r="C57" s="110"/>
-      <c r="D57" s="116"/>
-      <c r="E57" s="112"/>
-      <c r="F57" s="112"/>
-      <c r="G57" s="112"/>
-      <c r="H57" s="112"/>
-      <c r="I57" s="112"/>
-      <c r="J57" s="112"/>
-      <c r="K57" s="112"/>
-      <c r="L57" s="112"/>
-      <c r="M57" s="112"/>
-      <c r="N57" s="112"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="112"/>
-      <c r="Q57" s="112"/>
-      <c r="R57" s="112"/>
-      <c r="S57" s="112"/>
-      <c r="T57" s="112"/>
-      <c r="U57" s="112"/>
-      <c r="V57" s="112"/>
-      <c r="W57" s="112"/>
-      <c r="X57" s="112"/>
-      <c r="Y57" s="112"/>
-      <c r="Z57" s="112"/>
-      <c r="AA57" s="112"/>
-      <c r="AB57" s="112"/>
-      <c r="AC57" s="112"/>
-      <c r="AD57" s="112"/>
-      <c r="AE57" s="113"/>
-      <c r="AF57" s="107"/>
+    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="107"/>
+      <c r="B57" s="106"/>
+      <c r="C57" s="106"/>
+      <c r="D57" s="117"/>
+      <c r="E57" s="118"/>
+      <c r="F57" s="118"/>
+      <c r="G57" s="118"/>
+      <c r="H57" s="118"/>
+      <c r="I57" s="118"/>
+      <c r="J57" s="118"/>
+      <c r="K57" s="118"/>
+      <c r="L57" s="118"/>
+      <c r="M57" s="118"/>
+      <c r="N57" s="118"/>
+      <c r="O57" s="118"/>
+      <c r="P57" s="118"/>
+      <c r="Q57" s="118"/>
+      <c r="R57" s="118"/>
+      <c r="S57" s="118"/>
+      <c r="T57" s="118"/>
+      <c r="U57" s="118"/>
+      <c r="V57" s="118"/>
+      <c r="W57" s="118"/>
+      <c r="X57" s="118"/>
+      <c r="Y57" s="118"/>
+      <c r="Z57" s="118"/>
+      <c r="AA57" s="118"/>
+      <c r="AB57" s="118"/>
+      <c r="AC57" s="118"/>
+      <c r="AD57" s="118"/>
+      <c r="AE57" s="119"/>
+      <c r="AF57" s="103"/>
       <c r="AG57" s="99"/>
       <c r="AH57" s="99"/>
       <c r="AI57" s="99"/>
@@ -6814,39 +6789,39 @@
       <c r="AR57" s="99"/>
       <c r="AS57" s="100"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="114"/>
-      <c r="B58" s="110"/>
-      <c r="C58" s="110"/>
-      <c r="D58" s="116"/>
-      <c r="E58" s="112"/>
-      <c r="F58" s="112"/>
-      <c r="G58" s="112"/>
-      <c r="H58" s="112"/>
-      <c r="I58" s="112"/>
-      <c r="J58" s="112"/>
-      <c r="K58" s="112"/>
-      <c r="L58" s="112"/>
-      <c r="M58" s="112"/>
-      <c r="N58" s="112"/>
-      <c r="O58" s="112"/>
-      <c r="P58" s="112"/>
-      <c r="Q58" s="112"/>
-      <c r="R58" s="112"/>
-      <c r="S58" s="112"/>
-      <c r="T58" s="112"/>
-      <c r="U58" s="112"/>
-      <c r="V58" s="112"/>
-      <c r="W58" s="112"/>
-      <c r="X58" s="112"/>
-      <c r="Y58" s="112"/>
-      <c r="Z58" s="112"/>
-      <c r="AA58" s="112"/>
-      <c r="AB58" s="112"/>
-      <c r="AC58" s="112"/>
-      <c r="AD58" s="112"/>
-      <c r="AE58" s="113"/>
-      <c r="AF58" s="107"/>
+    <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="107"/>
+      <c r="B58" s="106"/>
+      <c r="C58" s="106"/>
+      <c r="D58" s="117"/>
+      <c r="E58" s="118"/>
+      <c r="F58" s="118"/>
+      <c r="G58" s="118"/>
+      <c r="H58" s="118"/>
+      <c r="I58" s="118"/>
+      <c r="J58" s="118"/>
+      <c r="K58" s="118"/>
+      <c r="L58" s="118"/>
+      <c r="M58" s="118"/>
+      <c r="N58" s="118"/>
+      <c r="O58" s="118"/>
+      <c r="P58" s="118"/>
+      <c r="Q58" s="118"/>
+      <c r="R58" s="118"/>
+      <c r="S58" s="118"/>
+      <c r="T58" s="118"/>
+      <c r="U58" s="118"/>
+      <c r="V58" s="118"/>
+      <c r="W58" s="118"/>
+      <c r="X58" s="118"/>
+      <c r="Y58" s="118"/>
+      <c r="Z58" s="118"/>
+      <c r="AA58" s="118"/>
+      <c r="AB58" s="118"/>
+      <c r="AC58" s="118"/>
+      <c r="AD58" s="118"/>
+      <c r="AE58" s="119"/>
+      <c r="AF58" s="103"/>
       <c r="AG58" s="99"/>
       <c r="AH58" s="99"/>
       <c r="AI58" s="99"/>
@@ -6861,39 +6836,39 @@
       <c r="AR58" s="99"/>
       <c r="AS58" s="100"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="114"/>
-      <c r="B59" s="110"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="116"/>
-      <c r="E59" s="112"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="112"/>
-      <c r="H59" s="112"/>
-      <c r="I59" s="112"/>
-      <c r="J59" s="112"/>
-      <c r="K59" s="112"/>
-      <c r="L59" s="112"/>
-      <c r="M59" s="112"/>
-      <c r="N59" s="112"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="112"/>
-      <c r="Q59" s="112"/>
-      <c r="R59" s="112"/>
-      <c r="S59" s="112"/>
-      <c r="T59" s="112"/>
-      <c r="U59" s="112"/>
-      <c r="V59" s="112"/>
-      <c r="W59" s="112"/>
-      <c r="X59" s="112"/>
-      <c r="Y59" s="112"/>
-      <c r="Z59" s="112"/>
-      <c r="AA59" s="112"/>
-      <c r="AB59" s="112"/>
-      <c r="AC59" s="112"/>
-      <c r="AD59" s="112"/>
-      <c r="AE59" s="113"/>
-      <c r="AF59" s="107"/>
+    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="107"/>
+      <c r="B59" s="106"/>
+      <c r="C59" s="106"/>
+      <c r="D59" s="117"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="118"/>
+      <c r="M59" s="118"/>
+      <c r="N59" s="118"/>
+      <c r="O59" s="118"/>
+      <c r="P59" s="118"/>
+      <c r="Q59" s="118"/>
+      <c r="R59" s="118"/>
+      <c r="S59" s="118"/>
+      <c r="T59" s="118"/>
+      <c r="U59" s="118"/>
+      <c r="V59" s="118"/>
+      <c r="W59" s="118"/>
+      <c r="X59" s="118"/>
+      <c r="Y59" s="118"/>
+      <c r="Z59" s="118"/>
+      <c r="AA59" s="118"/>
+      <c r="AB59" s="118"/>
+      <c r="AC59" s="118"/>
+      <c r="AD59" s="118"/>
+      <c r="AE59" s="119"/>
+      <c r="AF59" s="103"/>
       <c r="AG59" s="99"/>
       <c r="AH59" s="99"/>
       <c r="AI59" s="99"/>
@@ -6908,39 +6883,39 @@
       <c r="AR59" s="99"/>
       <c r="AS59" s="100"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="114"/>
-      <c r="B60" s="117"/>
-      <c r="C60" s="117"/>
-      <c r="D60" s="118"/>
-      <c r="E60" s="119"/>
-      <c r="F60" s="119"/>
-      <c r="G60" s="119"/>
-      <c r="H60" s="119"/>
-      <c r="I60" s="119"/>
-      <c r="J60" s="119"/>
-      <c r="K60" s="119"/>
-      <c r="L60" s="119"/>
-      <c r="M60" s="119"/>
-      <c r="N60" s="119"/>
-      <c r="O60" s="119"/>
-      <c r="P60" s="119"/>
-      <c r="Q60" s="119"/>
-      <c r="R60" s="119"/>
-      <c r="S60" s="119"/>
-      <c r="T60" s="119"/>
-      <c r="U60" s="119"/>
-      <c r="V60" s="119"/>
-      <c r="W60" s="119"/>
-      <c r="X60" s="119"/>
-      <c r="Y60" s="119"/>
-      <c r="Z60" s="119"/>
-      <c r="AA60" s="119"/>
-      <c r="AB60" s="119"/>
-      <c r="AC60" s="119"/>
-      <c r="AD60" s="119"/>
-      <c r="AE60" s="120"/>
-      <c r="AF60" s="107"/>
+    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="107"/>
+      <c r="B60" s="109"/>
+      <c r="C60" s="109"/>
+      <c r="D60" s="114"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="115"/>
+      <c r="H60" s="115"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="115"/>
+      <c r="K60" s="115"/>
+      <c r="L60" s="115"/>
+      <c r="M60" s="115"/>
+      <c r="N60" s="115"/>
+      <c r="O60" s="115"/>
+      <c r="P60" s="115"/>
+      <c r="Q60" s="115"/>
+      <c r="R60" s="115"/>
+      <c r="S60" s="115"/>
+      <c r="T60" s="115"/>
+      <c r="U60" s="115"/>
+      <c r="V60" s="115"/>
+      <c r="W60" s="115"/>
+      <c r="X60" s="115"/>
+      <c r="Y60" s="115"/>
+      <c r="Z60" s="115"/>
+      <c r="AA60" s="115"/>
+      <c r="AB60" s="115"/>
+      <c r="AC60" s="115"/>
+      <c r="AD60" s="115"/>
+      <c r="AE60" s="116"/>
+      <c r="AF60" s="103"/>
       <c r="AG60" s="99"/>
       <c r="AH60" s="99"/>
       <c r="AI60" s="99"/>
@@ -6955,69 +6930,70 @@
       <c r="AR60" s="99"/>
       <c r="AS60" s="100"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="121"/>
-      <c r="B61" s="122"/>
-      <c r="C61" s="122"/>
-      <c r="D61" s="123"/>
-      <c r="E61" s="123"/>
-      <c r="F61" s="122"/>
-      <c r="G61" s="122"/>
-      <c r="H61" s="122"/>
-      <c r="I61" s="122"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="122"/>
-      <c r="M61" s="122"/>
-      <c r="N61" s="122"/>
-      <c r="O61" s="122"/>
-      <c r="P61" s="123"/>
-      <c r="Q61" s="123"/>
-      <c r="R61" s="123"/>
-      <c r="S61" s="123"/>
-      <c r="T61" s="123"/>
-      <c r="U61" s="123"/>
-      <c r="V61" s="123"/>
-      <c r="W61" s="123"/>
-      <c r="X61" s="123"/>
-      <c r="Y61" s="123"/>
-      <c r="Z61" s="123"/>
-      <c r="AA61" s="123"/>
-      <c r="AB61" s="123"/>
-      <c r="AC61" s="123"/>
-      <c r="AD61" s="123"/>
-      <c r="AE61" s="123"/>
-      <c r="AF61" s="124"/>
-      <c r="AG61" s="124"/>
-      <c r="AH61" s="124"/>
-      <c r="AI61" s="124"/>
-      <c r="AJ61" s="124"/>
-      <c r="AK61" s="124"/>
-      <c r="AL61" s="124"/>
-      <c r="AM61" s="124"/>
-      <c r="AN61" s="124"/>
-      <c r="AO61" s="124"/>
-      <c r="AP61" s="124"/>
-      <c r="AQ61" s="124"/>
-      <c r="AR61" s="124"/>
-      <c r="AS61" s="125"/>
+    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="110"/>
+      <c r="B61" s="111"/>
+      <c r="C61" s="111"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="126"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="126"/>
+      <c r="I61" s="126"/>
+      <c r="J61" s="126"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="126"/>
+      <c r="M61" s="126"/>
+      <c r="N61" s="126"/>
+      <c r="O61" s="126"/>
+      <c r="P61" s="125"/>
+      <c r="Q61" s="125"/>
+      <c r="R61" s="125"/>
+      <c r="S61" s="125"/>
+      <c r="T61" s="125"/>
+      <c r="U61" s="125"/>
+      <c r="V61" s="125"/>
+      <c r="W61" s="125"/>
+      <c r="X61" s="125"/>
+      <c r="Y61" s="125"/>
+      <c r="Z61" s="125"/>
+      <c r="AA61" s="125"/>
+      <c r="AB61" s="125"/>
+      <c r="AC61" s="125"/>
+      <c r="AD61" s="125"/>
+      <c r="AE61" s="125"/>
+      <c r="AF61" s="112"/>
+      <c r="AG61" s="112"/>
+      <c r="AH61" s="112"/>
+      <c r="AI61" s="112"/>
+      <c r="AJ61" s="112"/>
+      <c r="AK61" s="112"/>
+      <c r="AL61" s="112"/>
+      <c r="AM61" s="112"/>
+      <c r="AN61" s="112"/>
+      <c r="AO61" s="112"/>
+      <c r="AP61" s="112"/>
+      <c r="AQ61" s="112"/>
+      <c r="AR61" s="112"/>
+      <c r="AS61" s="113"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D54:AE54"/>
+    <mergeCell ref="D56:AE56"/>
+    <mergeCell ref="D61:AE61"/>
     <mergeCell ref="D60:AE60"/>
     <mergeCell ref="D59:AE59"/>
     <mergeCell ref="D58:AE58"/>
     <mergeCell ref="D57:AE57"/>
     <mergeCell ref="D55:AE55"/>
-    <mergeCell ref="D54:AE54"/>
-    <mergeCell ref="D56:AE56"/>
-    <mergeCell ref="D61:AE61"/>
   </mergeCells>
+  <phoneticPr fontId="5"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1199,13 +1199,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1216,11 +1210,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2745,6 +2745,96 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>2242</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>102253</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56029</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6680948" y="6187047"/>
+          <a:ext cx="3505199" cy="77041"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>8967</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>86566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>56028</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9197791" y="6373066"/>
+          <a:ext cx="988355" cy="81522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3828,8 +3918,8 @@
   </sheetPr>
   <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC34" sqref="AC34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4645,7 +4735,7 @@
       <c r="B15" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="127">
+      <c r="C15" s="114">
         <v>1</v>
       </c>
       <c r="D15" s="79" t="s">
@@ -5145,7 +5235,7 @@
       <c r="B25" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="127">
+      <c r="C25" s="114">
         <v>1</v>
       </c>
       <c r="D25" s="79" t="s">
@@ -5198,7 +5288,7 @@
       <c r="B26" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="127">
+      <c r="C26" s="114">
         <v>1</v>
       </c>
       <c r="D26" s="79" t="s">
@@ -5251,7 +5341,7 @@
       <c r="B27" s="78" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="127">
+      <c r="C27" s="114">
         <v>1</v>
       </c>
       <c r="D27" s="79" t="s">
@@ -6593,36 +6683,36 @@
       <c r="C54" s="102" t="s">
         <v>45</v>
       </c>
-      <c r="D54" s="121" t="s">
+      <c r="D54" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="122"/>
-      <c r="F54" s="123"/>
-      <c r="G54" s="123"/>
-      <c r="H54" s="123"/>
-      <c r="I54" s="123"/>
-      <c r="J54" s="123"/>
-      <c r="K54" s="123"/>
-      <c r="L54" s="123"/>
-      <c r="M54" s="123"/>
-      <c r="N54" s="123"/>
-      <c r="O54" s="123"/>
-      <c r="P54" s="122"/>
-      <c r="Q54" s="122"/>
-      <c r="R54" s="122"/>
-      <c r="S54" s="122"/>
-      <c r="T54" s="122"/>
-      <c r="U54" s="122"/>
-      <c r="V54" s="122"/>
-      <c r="W54" s="122"/>
-      <c r="X54" s="122"/>
-      <c r="Y54" s="122"/>
-      <c r="Z54" s="122"/>
-      <c r="AA54" s="122"/>
-      <c r="AB54" s="122"/>
-      <c r="AC54" s="122"/>
-      <c r="AD54" s="122"/>
-      <c r="AE54" s="124"/>
+      <c r="E54" s="116"/>
+      <c r="F54" s="117"/>
+      <c r="G54" s="117"/>
+      <c r="H54" s="117"/>
+      <c r="I54" s="117"/>
+      <c r="J54" s="117"/>
+      <c r="K54" s="117"/>
+      <c r="L54" s="117"/>
+      <c r="M54" s="117"/>
+      <c r="N54" s="117"/>
+      <c r="O54" s="117"/>
+      <c r="P54" s="116"/>
+      <c r="Q54" s="116"/>
+      <c r="R54" s="116"/>
+      <c r="S54" s="116"/>
+      <c r="T54" s="116"/>
+      <c r="U54" s="116"/>
+      <c r="V54" s="116"/>
+      <c r="W54" s="116"/>
+      <c r="X54" s="116"/>
+      <c r="Y54" s="116"/>
+      <c r="Z54" s="116"/>
+      <c r="AA54" s="116"/>
+      <c r="AB54" s="116"/>
+      <c r="AC54" s="116"/>
+      <c r="AD54" s="116"/>
+      <c r="AE54" s="118"/>
       <c r="AF54" s="103"/>
       <c r="AG54" s="99"/>
       <c r="AH54" s="99"/>
@@ -6644,36 +6734,36 @@
         <v>43267</v>
       </c>
       <c r="C55" s="106"/>
-      <c r="D55" s="120" t="s">
+      <c r="D55" s="119" t="s">
         <v>47</v>
       </c>
-      <c r="E55" s="118"/>
-      <c r="F55" s="118"/>
-      <c r="G55" s="118"/>
-      <c r="H55" s="118"/>
-      <c r="I55" s="118"/>
-      <c r="J55" s="118"/>
-      <c r="K55" s="118"/>
-      <c r="L55" s="118"/>
-      <c r="M55" s="118"/>
-      <c r="N55" s="118"/>
-      <c r="O55" s="118"/>
-      <c r="P55" s="118"/>
-      <c r="Q55" s="118"/>
-      <c r="R55" s="118"/>
-      <c r="S55" s="118"/>
-      <c r="T55" s="118"/>
-      <c r="U55" s="118"/>
-      <c r="V55" s="118"/>
-      <c r="W55" s="118"/>
-      <c r="X55" s="118"/>
-      <c r="Y55" s="118"/>
-      <c r="Z55" s="118"/>
-      <c r="AA55" s="118"/>
-      <c r="AB55" s="118"/>
-      <c r="AC55" s="118"/>
-      <c r="AD55" s="118"/>
-      <c r="AE55" s="119"/>
+      <c r="E55" s="120"/>
+      <c r="F55" s="120"/>
+      <c r="G55" s="120"/>
+      <c r="H55" s="120"/>
+      <c r="I55" s="120"/>
+      <c r="J55" s="120"/>
+      <c r="K55" s="120"/>
+      <c r="L55" s="120"/>
+      <c r="M55" s="120"/>
+      <c r="N55" s="120"/>
+      <c r="O55" s="120"/>
+      <c r="P55" s="120"/>
+      <c r="Q55" s="120"/>
+      <c r="R55" s="120"/>
+      <c r="S55" s="120"/>
+      <c r="T55" s="120"/>
+      <c r="U55" s="120"/>
+      <c r="V55" s="120"/>
+      <c r="W55" s="120"/>
+      <c r="X55" s="120"/>
+      <c r="Y55" s="120"/>
+      <c r="Z55" s="120"/>
+      <c r="AA55" s="120"/>
+      <c r="AB55" s="120"/>
+      <c r="AC55" s="120"/>
+      <c r="AD55" s="120"/>
+      <c r="AE55" s="121"/>
       <c r="AF55" s="103"/>
       <c r="AG55" s="99"/>
       <c r="AH55" s="99"/>
@@ -6697,36 +6787,36 @@
       <c r="C56" s="108" t="s">
         <v>48</v>
       </c>
-      <c r="D56" s="120" t="s">
+      <c r="D56" s="119" t="s">
         <v>49</v>
       </c>
-      <c r="E56" s="118"/>
-      <c r="F56" s="118"/>
-      <c r="G56" s="118"/>
-      <c r="H56" s="118"/>
-      <c r="I56" s="118"/>
-      <c r="J56" s="118"/>
-      <c r="K56" s="118"/>
-      <c r="L56" s="118"/>
-      <c r="M56" s="118"/>
-      <c r="N56" s="118"/>
-      <c r="O56" s="118"/>
-      <c r="P56" s="118"/>
-      <c r="Q56" s="118"/>
-      <c r="R56" s="118"/>
-      <c r="S56" s="118"/>
-      <c r="T56" s="118"/>
-      <c r="U56" s="118"/>
-      <c r="V56" s="118"/>
-      <c r="W56" s="118"/>
-      <c r="X56" s="118"/>
-      <c r="Y56" s="118"/>
-      <c r="Z56" s="118"/>
-      <c r="AA56" s="118"/>
-      <c r="AB56" s="118"/>
-      <c r="AC56" s="118"/>
-      <c r="AD56" s="118"/>
-      <c r="AE56" s="119"/>
+      <c r="E56" s="120"/>
+      <c r="F56" s="120"/>
+      <c r="G56" s="120"/>
+      <c r="H56" s="120"/>
+      <c r="I56" s="120"/>
+      <c r="J56" s="120"/>
+      <c r="K56" s="120"/>
+      <c r="L56" s="120"/>
+      <c r="M56" s="120"/>
+      <c r="N56" s="120"/>
+      <c r="O56" s="120"/>
+      <c r="P56" s="120"/>
+      <c r="Q56" s="120"/>
+      <c r="R56" s="120"/>
+      <c r="S56" s="120"/>
+      <c r="T56" s="120"/>
+      <c r="U56" s="120"/>
+      <c r="V56" s="120"/>
+      <c r="W56" s="120"/>
+      <c r="X56" s="120"/>
+      <c r="Y56" s="120"/>
+      <c r="Z56" s="120"/>
+      <c r="AA56" s="120"/>
+      <c r="AB56" s="120"/>
+      <c r="AC56" s="120"/>
+      <c r="AD56" s="120"/>
+      <c r="AE56" s="121"/>
       <c r="AF56" s="103"/>
       <c r="AG56" s="99"/>
       <c r="AH56" s="99"/>
@@ -6746,34 +6836,34 @@
       <c r="A57" s="107"/>
       <c r="B57" s="106"/>
       <c r="C57" s="106"/>
-      <c r="D57" s="117"/>
-      <c r="E57" s="118"/>
-      <c r="F57" s="118"/>
-      <c r="G57" s="118"/>
-      <c r="H57" s="118"/>
-      <c r="I57" s="118"/>
-      <c r="J57" s="118"/>
-      <c r="K57" s="118"/>
-      <c r="L57" s="118"/>
-      <c r="M57" s="118"/>
-      <c r="N57" s="118"/>
-      <c r="O57" s="118"/>
-      <c r="P57" s="118"/>
-      <c r="Q57" s="118"/>
-      <c r="R57" s="118"/>
-      <c r="S57" s="118"/>
-      <c r="T57" s="118"/>
-      <c r="U57" s="118"/>
-      <c r="V57" s="118"/>
-      <c r="W57" s="118"/>
-      <c r="X57" s="118"/>
-      <c r="Y57" s="118"/>
-      <c r="Z57" s="118"/>
-      <c r="AA57" s="118"/>
-      <c r="AB57" s="118"/>
-      <c r="AC57" s="118"/>
-      <c r="AD57" s="118"/>
-      <c r="AE57" s="119"/>
+      <c r="D57" s="127"/>
+      <c r="E57" s="120"/>
+      <c r="F57" s="120"/>
+      <c r="G57" s="120"/>
+      <c r="H57" s="120"/>
+      <c r="I57" s="120"/>
+      <c r="J57" s="120"/>
+      <c r="K57" s="120"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="120"/>
+      <c r="N57" s="120"/>
+      <c r="O57" s="120"/>
+      <c r="P57" s="120"/>
+      <c r="Q57" s="120"/>
+      <c r="R57" s="120"/>
+      <c r="S57" s="120"/>
+      <c r="T57" s="120"/>
+      <c r="U57" s="120"/>
+      <c r="V57" s="120"/>
+      <c r="W57" s="120"/>
+      <c r="X57" s="120"/>
+      <c r="Y57" s="120"/>
+      <c r="Z57" s="120"/>
+      <c r="AA57" s="120"/>
+      <c r="AB57" s="120"/>
+      <c r="AC57" s="120"/>
+      <c r="AD57" s="120"/>
+      <c r="AE57" s="121"/>
       <c r="AF57" s="103"/>
       <c r="AG57" s="99"/>
       <c r="AH57" s="99"/>
@@ -6793,34 +6883,34 @@
       <c r="A58" s="107"/>
       <c r="B58" s="106"/>
       <c r="C58" s="106"/>
-      <c r="D58" s="117"/>
-      <c r="E58" s="118"/>
-      <c r="F58" s="118"/>
-      <c r="G58" s="118"/>
-      <c r="H58" s="118"/>
-      <c r="I58" s="118"/>
-      <c r="J58" s="118"/>
-      <c r="K58" s="118"/>
-      <c r="L58" s="118"/>
-      <c r="M58" s="118"/>
-      <c r="N58" s="118"/>
-      <c r="O58" s="118"/>
-      <c r="P58" s="118"/>
-      <c r="Q58" s="118"/>
-      <c r="R58" s="118"/>
-      <c r="S58" s="118"/>
-      <c r="T58" s="118"/>
-      <c r="U58" s="118"/>
-      <c r="V58" s="118"/>
-      <c r="W58" s="118"/>
-      <c r="X58" s="118"/>
-      <c r="Y58" s="118"/>
-      <c r="Z58" s="118"/>
-      <c r="AA58" s="118"/>
-      <c r="AB58" s="118"/>
-      <c r="AC58" s="118"/>
-      <c r="AD58" s="118"/>
-      <c r="AE58" s="119"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="120"/>
+      <c r="F58" s="120"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="120"/>
+      <c r="I58" s="120"/>
+      <c r="J58" s="120"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="120"/>
+      <c r="N58" s="120"/>
+      <c r="O58" s="120"/>
+      <c r="P58" s="120"/>
+      <c r="Q58" s="120"/>
+      <c r="R58" s="120"/>
+      <c r="S58" s="120"/>
+      <c r="T58" s="120"/>
+      <c r="U58" s="120"/>
+      <c r="V58" s="120"/>
+      <c r="W58" s="120"/>
+      <c r="X58" s="120"/>
+      <c r="Y58" s="120"/>
+      <c r="Z58" s="120"/>
+      <c r="AA58" s="120"/>
+      <c r="AB58" s="120"/>
+      <c r="AC58" s="120"/>
+      <c r="AD58" s="120"/>
+      <c r="AE58" s="121"/>
       <c r="AF58" s="103"/>
       <c r="AG58" s="99"/>
       <c r="AH58" s="99"/>
@@ -6840,34 +6930,34 @@
       <c r="A59" s="107"/>
       <c r="B59" s="106"/>
       <c r="C59" s="106"/>
-      <c r="D59" s="117"/>
-      <c r="E59" s="118"/>
-      <c r="F59" s="118"/>
-      <c r="G59" s="118"/>
-      <c r="H59" s="118"/>
-      <c r="I59" s="118"/>
-      <c r="J59" s="118"/>
-      <c r="K59" s="118"/>
-      <c r="L59" s="118"/>
-      <c r="M59" s="118"/>
-      <c r="N59" s="118"/>
-      <c r="O59" s="118"/>
-      <c r="P59" s="118"/>
-      <c r="Q59" s="118"/>
-      <c r="R59" s="118"/>
-      <c r="S59" s="118"/>
-      <c r="T59" s="118"/>
-      <c r="U59" s="118"/>
-      <c r="V59" s="118"/>
-      <c r="W59" s="118"/>
-      <c r="X59" s="118"/>
-      <c r="Y59" s="118"/>
-      <c r="Z59" s="118"/>
-      <c r="AA59" s="118"/>
-      <c r="AB59" s="118"/>
-      <c r="AC59" s="118"/>
-      <c r="AD59" s="118"/>
-      <c r="AE59" s="119"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="120"/>
+      <c r="F59" s="120"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="120"/>
+      <c r="I59" s="120"/>
+      <c r="J59" s="120"/>
+      <c r="K59" s="120"/>
+      <c r="L59" s="120"/>
+      <c r="M59" s="120"/>
+      <c r="N59" s="120"/>
+      <c r="O59" s="120"/>
+      <c r="P59" s="120"/>
+      <c r="Q59" s="120"/>
+      <c r="R59" s="120"/>
+      <c r="S59" s="120"/>
+      <c r="T59" s="120"/>
+      <c r="U59" s="120"/>
+      <c r="V59" s="120"/>
+      <c r="W59" s="120"/>
+      <c r="X59" s="120"/>
+      <c r="Y59" s="120"/>
+      <c r="Z59" s="120"/>
+      <c r="AA59" s="120"/>
+      <c r="AB59" s="120"/>
+      <c r="AC59" s="120"/>
+      <c r="AD59" s="120"/>
+      <c r="AE59" s="121"/>
       <c r="AF59" s="103"/>
       <c r="AG59" s="99"/>
       <c r="AH59" s="99"/>
@@ -6887,34 +6977,34 @@
       <c r="A60" s="107"/>
       <c r="B60" s="109"/>
       <c r="C60" s="109"/>
-      <c r="D60" s="114"/>
-      <c r="E60" s="115"/>
-      <c r="F60" s="115"/>
-      <c r="G60" s="115"/>
-      <c r="H60" s="115"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="115"/>
-      <c r="K60" s="115"/>
-      <c r="L60" s="115"/>
-      <c r="M60" s="115"/>
-      <c r="N60" s="115"/>
-      <c r="O60" s="115"/>
-      <c r="P60" s="115"/>
-      <c r="Q60" s="115"/>
-      <c r="R60" s="115"/>
-      <c r="S60" s="115"/>
-      <c r="T60" s="115"/>
-      <c r="U60" s="115"/>
-      <c r="V60" s="115"/>
-      <c r="W60" s="115"/>
-      <c r="X60" s="115"/>
-      <c r="Y60" s="115"/>
-      <c r="Z60" s="115"/>
-      <c r="AA60" s="115"/>
-      <c r="AB60" s="115"/>
-      <c r="AC60" s="115"/>
-      <c r="AD60" s="115"/>
-      <c r="AE60" s="116"/>
+      <c r="D60" s="124"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="125"/>
+      <c r="H60" s="125"/>
+      <c r="I60" s="125"/>
+      <c r="J60" s="125"/>
+      <c r="K60" s="125"/>
+      <c r="L60" s="125"/>
+      <c r="M60" s="125"/>
+      <c r="N60" s="125"/>
+      <c r="O60" s="125"/>
+      <c r="P60" s="125"/>
+      <c r="Q60" s="125"/>
+      <c r="R60" s="125"/>
+      <c r="S60" s="125"/>
+      <c r="T60" s="125"/>
+      <c r="U60" s="125"/>
+      <c r="V60" s="125"/>
+      <c r="W60" s="125"/>
+      <c r="X60" s="125"/>
+      <c r="Y60" s="125"/>
+      <c r="Z60" s="125"/>
+      <c r="AA60" s="125"/>
+      <c r="AB60" s="125"/>
+      <c r="AC60" s="125"/>
+      <c r="AD60" s="125"/>
+      <c r="AE60" s="126"/>
       <c r="AF60" s="103"/>
       <c r="AG60" s="99"/>
       <c r="AH60" s="99"/>
@@ -6934,34 +7024,34 @@
       <c r="A61" s="110"/>
       <c r="B61" s="111"/>
       <c r="C61" s="111"/>
-      <c r="D61" s="125"/>
-      <c r="E61" s="125"/>
-      <c r="F61" s="126"/>
-      <c r="G61" s="126"/>
-      <c r="H61" s="126"/>
-      <c r="I61" s="126"/>
-      <c r="J61" s="126"/>
-      <c r="K61" s="126"/>
-      <c r="L61" s="126"/>
-      <c r="M61" s="126"/>
-      <c r="N61" s="126"/>
-      <c r="O61" s="126"/>
-      <c r="P61" s="125"/>
-      <c r="Q61" s="125"/>
-      <c r="R61" s="125"/>
-      <c r="S61" s="125"/>
-      <c r="T61" s="125"/>
-      <c r="U61" s="125"/>
-      <c r="V61" s="125"/>
-      <c r="W61" s="125"/>
-      <c r="X61" s="125"/>
-      <c r="Y61" s="125"/>
-      <c r="Z61" s="125"/>
-      <c r="AA61" s="125"/>
-      <c r="AB61" s="125"/>
-      <c r="AC61" s="125"/>
-      <c r="AD61" s="125"/>
-      <c r="AE61" s="125"/>
+      <c r="D61" s="122"/>
+      <c r="E61" s="122"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="123"/>
+      <c r="L61" s="123"/>
+      <c r="M61" s="123"/>
+      <c r="N61" s="123"/>
+      <c r="O61" s="123"/>
+      <c r="P61" s="122"/>
+      <c r="Q61" s="122"/>
+      <c r="R61" s="122"/>
+      <c r="S61" s="122"/>
+      <c r="T61" s="122"/>
+      <c r="U61" s="122"/>
+      <c r="V61" s="122"/>
+      <c r="W61" s="122"/>
+      <c r="X61" s="122"/>
+      <c r="Y61" s="122"/>
+      <c r="Z61" s="122"/>
+      <c r="AA61" s="122"/>
+      <c r="AB61" s="122"/>
+      <c r="AC61" s="122"/>
+      <c r="AD61" s="122"/>
+      <c r="AE61" s="122"/>
       <c r="AF61" s="112"/>
       <c r="AG61" s="112"/>
       <c r="AH61" s="112"/>

--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1803,15 +1803,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1496</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>302560</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>60839</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1820,8 +1820,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10452100" y="4041140"/>
-          <a:ext cx="1409700" cy="83252"/>
+          <a:off x="9190320" y="4045323"/>
+          <a:ext cx="1242358" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2438,10 +2438,10 @@
       <xdr:rowOff>116773</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>200022</xdr:rowOff>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2450,8 +2450,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3327400" y="2957763"/>
-          <a:ext cx="3200400" cy="83250"/>
+          <a:off x="2913529" y="2974273"/>
+          <a:ext cx="7216589" cy="51315"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2812,6 +2812,51 @@
         <a:xfrm>
           <a:off x="9197791" y="6373066"/>
           <a:ext cx="988355" cy="81522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>3</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>100854</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>33617</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Shape 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9188827" y="4168589"/>
+          <a:ext cx="974908" cy="89646"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3919,7 +3964,7 @@
   <dimension ref="A1:IV61"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC34" sqref="AC34"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4684,7 +4729,9 @@
       <c r="B14" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="67"/>
+      <c r="C14" s="114">
+        <v>0.85</v>
+      </c>
       <c r="D14" s="79" t="s">
         <v>18</v>
       </c>
@@ -4986,7 +5033,9 @@
       <c r="B20" s="78" t="s">
         <v>24</v>
       </c>
-      <c r="C20" s="67"/>
+      <c r="C20" s="114">
+        <v>1</v>
+      </c>
       <c r="D20" s="79" t="s">
         <v>18</v>
       </c>

--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\s145-cheeze\Gantt-chart\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B081DA-CABB-40DB-B8E7-AE58BDF1FFA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -209,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1299,6 +1305,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1320,7 +1329,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 3"/>
+        <xdr:cNvPr id="2" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1365,7 +1380,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3"/>
+        <xdr:cNvPr id="3" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1410,7 +1431,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 3"/>
+        <xdr:cNvPr id="4" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1455,7 +1482,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 3"/>
+        <xdr:cNvPr id="5" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1500,7 +1533,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Shape 3"/>
+        <xdr:cNvPr id="6" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1545,7 +1584,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Shape 3"/>
+        <xdr:cNvPr id="7" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1590,7 +1635,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Shape 3"/>
+        <xdr:cNvPr id="8" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1635,7 +1686,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Shape 3"/>
+        <xdr:cNvPr id="9" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1680,7 +1737,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 3"/>
+        <xdr:cNvPr id="10" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1725,7 +1788,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 3"/>
+        <xdr:cNvPr id="11" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1770,7 +1839,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 3"/>
+        <xdr:cNvPr id="12" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1815,7 +1890,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Shape 3"/>
+        <xdr:cNvPr id="13" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1860,7 +1941,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Shape 3"/>
+        <xdr:cNvPr id="14" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1905,7 +1992,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Shape 3"/>
+        <xdr:cNvPr id="15" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1950,7 +2043,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Shape 3"/>
+        <xdr:cNvPr id="16" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1995,7 +2094,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Shape 3"/>
+        <xdr:cNvPr id="17" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2040,7 +2145,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Shape 3"/>
+        <xdr:cNvPr id="18" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2085,7 +2196,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Shape 3"/>
+        <xdr:cNvPr id="19" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2130,7 +2247,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Shape 3"/>
+        <xdr:cNvPr id="20" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2175,7 +2298,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Shape 3"/>
+        <xdr:cNvPr id="21" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2220,7 +2349,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Shape 3"/>
+        <xdr:cNvPr id="22" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2265,7 +2400,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Shape 3"/>
+        <xdr:cNvPr id="23" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2310,7 +2451,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Shape 3"/>
+        <xdr:cNvPr id="24" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2355,7 +2502,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Shape 3"/>
+        <xdr:cNvPr id="25" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2400,7 +2553,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Shape 3"/>
+        <xdr:cNvPr id="26" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2435,23 +2594,29 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>116773</xdr:rowOff>
+      <xdr:rowOff>94361</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>168088</xdr:rowOff>
+      <xdr:rowOff>177161</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Shape 3"/>
+        <xdr:cNvPr id="27" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913529" y="2974273"/>
-          <a:ext cx="7216589" cy="51315"/>
+          <a:off x="2913529" y="2951861"/>
+          <a:ext cx="7216589" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2486,17 +2651,23 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>179295</xdr:rowOff>
+      <xdr:rowOff>182813</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Shape 3"/>
+        <xdr:cNvPr id="28" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="2913529" y="3159219"/>
-          <a:ext cx="7216589" cy="79282"/>
+          <a:ext cx="7216589" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2535,7 +2706,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Shape 3"/>
+        <xdr:cNvPr id="29" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2580,7 +2757,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Shape 3"/>
+        <xdr:cNvPr id="30" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2620,18 +2803,24 @@
     <xdr:to>
       <xdr:col>27</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>11205</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>200742</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Shape 3"/>
+        <xdr:cNvPr id="31" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6707841" y="5194207"/>
-          <a:ext cx="3411071" cy="94969"/>
+          <a:ext cx="3411071" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2666,17 +2855,23 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:rowOff>178330</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Shape 3"/>
+        <xdr:cNvPr id="32" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6707841" y="5373501"/>
-          <a:ext cx="3411071" cy="94969"/>
+          <a:ext cx="3411071" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2711,17 +2906,23 @@
       <xdr:col>27</xdr:col>
       <xdr:colOff>302559</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>201705</xdr:rowOff>
+      <xdr:rowOff>189536</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Shape 3"/>
+        <xdr:cNvPr id="33" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6707841" y="5586412"/>
-          <a:ext cx="3411071" cy="94969"/>
+          <a:ext cx="3411071" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2760,7 +2961,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Shape 3"/>
+        <xdr:cNvPr id="34" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2805,7 +3012,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Shape 3"/>
+        <xdr:cNvPr id="35" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2850,7 +3063,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Shape 3"/>
+        <xdr:cNvPr id="36" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3957,14 +4176,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4783,7 +5002,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="114">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="D15" s="79" t="s">
         <v>18</v>
@@ -5285,7 +5504,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="114">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D25" s="79" t="s">
         <v>18</v>
@@ -5338,7 +5557,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="114">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="D26" s="79" t="s">
         <v>18</v>
@@ -5391,7 +5610,7 @@
         <v>26</v>
       </c>
       <c r="C27" s="114">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D27" s="79" t="s">
         <v>18</v>

--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\s145-cheeze\Gantt-chart\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B081DA-CABB-40DB-B8E7-AE58BDF1FFA8}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -215,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
@@ -1332,7 +1326,7 @@
         <xdr:cNvPr id="2" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1383,7 +1377,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1434,7 +1428,7 @@
         <xdr:cNvPr id="4" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1485,7 +1479,7 @@
         <xdr:cNvPr id="5" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1530,7 @@
         <xdr:cNvPr id="6" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1587,7 +1581,7 @@
         <xdr:cNvPr id="7" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1638,7 +1632,7 @@
         <xdr:cNvPr id="8" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1683,7 @@
         <xdr:cNvPr id="9" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1740,7 +1734,7 @@
         <xdr:cNvPr id="10" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1778,20 +1772,20 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>11206</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>94457</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1799,8 +1793,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="11506200" y="5241290"/>
-          <a:ext cx="1778000" cy="83252"/>
+          <a:off x="10130118" y="5289177"/>
+          <a:ext cx="1568823" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1842,7 +1836,7 @@
         <xdr:cNvPr id="12" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1893,7 +1887,7 @@
         <xdr:cNvPr id="13" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1944,7 +1938,7 @@
         <xdr:cNvPr id="14" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1995,7 +1989,7 @@
         <xdr:cNvPr id="15" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2046,7 +2040,7 @@
         <xdr:cNvPr id="16" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2091,7 @@
         <xdr:cNvPr id="17" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2148,7 +2142,7 @@
         <xdr:cNvPr id="18" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2199,7 +2193,7 @@
         <xdr:cNvPr id="19" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2250,7 +2244,7 @@
         <xdr:cNvPr id="20" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2301,7 +2295,7 @@
         <xdr:cNvPr id="21" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2352,7 +2346,7 @@
         <xdr:cNvPr id="22" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2403,7 +2397,7 @@
         <xdr:cNvPr id="23" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2454,7 +2448,7 @@
         <xdr:cNvPr id="24" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2505,7 +2499,7 @@
         <xdr:cNvPr id="25" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2556,7 +2550,7 @@
         <xdr:cNvPr id="26" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2607,7 +2601,7 @@
         <xdr:cNvPr id="27" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2645,20 +2639,20 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>100013</xdr:rowOff>
+      <xdr:rowOff>100012</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>182813</xdr:rowOff>
+      <xdr:rowOff>182812</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2666,8 +2660,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913529" y="3159219"/>
-          <a:ext cx="7216589" cy="82800"/>
+          <a:off x="2913529" y="3159218"/>
+          <a:ext cx="7541559" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2709,7 +2703,7 @@
         <xdr:cNvPr id="29" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2760,7 +2754,7 @@
         <xdr:cNvPr id="30" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2798,20 +2792,20 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>29135</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>117942</xdr:rowOff>
+      <xdr:rowOff>106736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>200742</xdr:rowOff>
+      <xdr:rowOff>189536</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2819,8 +2813,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6707841" y="5194207"/>
-          <a:ext cx="3411071" cy="82800"/>
+          <a:off x="6707841" y="5183001"/>
+          <a:ext cx="4710953" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2852,8 +2846,8 @@
       <xdr:rowOff>95530</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>178330</xdr:rowOff>
     </xdr:to>
@@ -2862,7 +2856,7 @@
         <xdr:cNvPr id="32" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2871,7 +2865,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6707841" y="5373501"/>
-          <a:ext cx="3411071" cy="82800"/>
+          <a:ext cx="4710953" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2903,8 +2897,8 @@
       <xdr:rowOff>106736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>302559</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>33618</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>189536</xdr:rowOff>
     </xdr:to>
@@ -2913,7 +2907,7 @@
         <xdr:cNvPr id="33" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2922,7 +2916,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6707841" y="5586412"/>
-          <a:ext cx="3411071" cy="82800"/>
+          <a:ext cx="4710953" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2964,7 +2958,7 @@
         <xdr:cNvPr id="34" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3015,7 +3009,7 @@
         <xdr:cNvPr id="35" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3066,7 +3060,7 @@
         <xdr:cNvPr id="36" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4176,14 +4170,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4252,7 +4246,7 @@
     <row r="2" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
-        <v>43378</v>
+        <v>43412</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11"/>
@@ -5002,7 +4996,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="114">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="D15" s="79" t="s">
         <v>18</v>
@@ -5557,7 +5551,7 @@
         <v>25</v>
       </c>
       <c r="C26" s="114">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="D26" s="79" t="s">
         <v>18</v>

--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1326,7 +1326,7 @@
         <xdr:cNvPr id="2" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1377,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1428,7 +1428,7 @@
         <xdr:cNvPr id="4" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1479,7 +1479,7 @@
         <xdr:cNvPr id="5" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1530,7 +1530,7 @@
         <xdr:cNvPr id="6" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1581,7 +1581,7 @@
         <xdr:cNvPr id="7" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1632,7 +1632,7 @@
         <xdr:cNvPr id="8" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1683,7 +1683,7 @@
         <xdr:cNvPr id="9" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000009000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1734,7 +1734,7 @@
         <xdr:cNvPr id="10" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1785,7 +1785,7 @@
         <xdr:cNvPr id="11" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1836,7 +1836,7 @@
         <xdr:cNvPr id="12" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1887,7 +1887,7 @@
         <xdr:cNvPr id="13" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1938,7 +1938,7 @@
         <xdr:cNvPr id="14" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1989,7 +1989,7 @@
         <xdr:cNvPr id="15" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00000F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2040,7 +2040,7 @@
         <xdr:cNvPr id="16" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000010000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2091,7 +2091,7 @@
         <xdr:cNvPr id="17" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000011000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2142,7 +2142,7 @@
         <xdr:cNvPr id="18" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000012000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2193,7 +2193,7 @@
         <xdr:cNvPr id="19" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000013000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2244,7 +2244,7 @@
         <xdr:cNvPr id="20" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000014000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2295,7 +2295,7 @@
         <xdr:cNvPr id="21" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000015000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2346,7 +2346,7 @@
         <xdr:cNvPr id="22" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000016000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2397,7 +2397,7 @@
         <xdr:cNvPr id="23" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000017000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2448,7 +2448,7 @@
         <xdr:cNvPr id="24" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000018000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2499,7 +2499,7 @@
         <xdr:cNvPr id="25" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000019000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2550,7 @@
         <xdr:cNvPr id="26" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001A000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2601,7 +2601,7 @@
         <xdr:cNvPr id="27" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001B000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2652,7 +2652,7 @@
         <xdr:cNvPr id="28" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001C000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2703,7 +2703,7 @@
         <xdr:cNvPr id="29" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001D000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2754,7 +2754,7 @@
         <xdr:cNvPr id="30" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001E000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2805,7 +2805,7 @@
         <xdr:cNvPr id="31" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-00001F000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2856,7 +2856,7 @@
         <xdr:cNvPr id="32" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000020000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2907,7 +2907,7 @@
         <xdr:cNvPr id="33" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000021000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2958,7 +2958,7 @@
         <xdr:cNvPr id="34" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000022000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2994,13 +2994,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>8967</xdr:colOff>
+      <xdr:colOff>8966</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>86566</xdr:rowOff>
+      <xdr:rowOff>87086</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>56028</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>315685</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
@@ -3009,7 +3009,7 @@
         <xdr:cNvPr id="35" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000023000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3017,8 +3017,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9197791" y="6373066"/>
-          <a:ext cx="988355" cy="81522"/>
+          <a:off x="9240052" y="6368143"/>
+          <a:ext cx="2200833" cy="81002"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3060,7 +3060,7 @@
         <xdr:cNvPr id="36" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000024000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3070,6 +3070,57 @@
         <a:xfrm>
           <a:off x="9188827" y="4168589"/>
           <a:ext cx="974908" cy="89646"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>313768</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>81643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Shape 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9860539" y="6564086"/>
+          <a:ext cx="1580348" cy="70757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4176,8 +4227,8 @@
   </sheetPr>
   <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S36" sqref="S36"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AF33" sqref="AF33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1,20 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="シート1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+      </rPr>
+      <t>ガントチャート</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color indexed="9"/>
+        <rFont val="Arial"/>
+      </rPr>
+      <t>.xlsx</t>
+    </r>
+  </si>
   <si>
     <t>ガントチャート</t>
   </si>
@@ -91,13 +106,16 @@
     <t>-画像取り込み</t>
   </si>
   <si>
-    <t>-座標の取得</t>
+    <t>-型を取得</t>
   </si>
   <si>
     <t>-トリミング&amp;出力</t>
   </si>
   <si>
     <t>自由トリミング</t>
+  </si>
+  <si>
+    <t>-座標の取得</t>
   </si>
   <si>
     <t>GUI</t>
@@ -132,7 +150,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
-        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -141,8 +158,6 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
       </rPr>
       <t>総合テスト</t>
     </r>
@@ -184,38 +199,31 @@
     <t>テスト，プロトタイプの欄を追加</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-      </rPr>
-      <t>ガントチャート</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color indexed="9"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>.xlsx</t>
-    </r>
-    <phoneticPr fontId="5"/>
+    <t>座標を取得ではなく，四角の型を取得してトリミング</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="60" formatCode="yy/m/d"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="ヒラギノ角ゴ ProN W3"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -223,39 +231,21 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="9"/>
+      <name val="ＭＳ Ｐゴシック"/>
     </font>
     <font>
       <sz val="23"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="6"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="9"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1062,279 +1052,443 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="128">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+  <cellXfs count="121">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFAAAAAA"/>
-      <rgbColor rgb="FF20124D"/>
-      <rgbColor rgb="FFD9D9D9"/>
-      <rgbColor rgb="FFF79646"/>
-      <rgbColor rgb="FF3C899E"/>
-      <rgbColor rgb="FFCC4125"/>
-      <rgbColor rgb="FFFFD966"/>
-      <rgbColor rgb="FF76A5AF"/>
-      <rgbColor rgb="FF6FA8DC"/>
-      <rgbColor rgb="FF8E7CC3"/>
-      <rgbColor rgb="FF93C47D"/>
-      <rgbColor rgb="FFC27BA0"/>
-      <rgbColor rgb="FFCCCCCC"/>
-      <rgbColor rgb="FFEFEFEF"/>
-      <rgbColor rgb="FFFBCAA2"/>
-      <rgbColor rgb="FFA5D5E2"/>
-      <rgbColor rgb="FFE6B8AF"/>
-      <rgbColor rgb="FFFFF2CC"/>
-      <rgbColor rgb="FFD0E0E3"/>
-      <rgbColor rgb="FFCFE2F3"/>
-      <rgbColor rgb="FFD9D2E9"/>
-      <rgbColor rgb="FFD9EAD3"/>
-      <rgbColor rgb="FFEAD1DC"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff20124d"/>
+      <rgbColor rgb="ffd9d9d9"/>
+      <rgbColor rgb="fff79646"/>
+      <rgbColor rgb="ff3c899e"/>
+      <rgbColor rgb="ffcc4125"/>
+      <rgbColor rgb="ffffd966"/>
+      <rgbColor rgb="ff76a5af"/>
+      <rgbColor rgb="ff6fa8dc"/>
+      <rgbColor rgb="ff8e7cc3"/>
+      <rgbColor rgb="ff93c47d"/>
+      <rgbColor rgb="ffc27ba0"/>
+      <rgbColor rgb="ffcccccc"/>
+      <rgbColor rgb="ffefefef"/>
+      <rgbColor rgb="fffbcaa2"/>
+      <rgbColor rgb="ffa5d5e2"/>
+      <rgbColor rgb="ffe6b8af"/>
+      <rgbColor rgb="fffff2cc"/>
+      <rgbColor rgb="ffd0e0e3"/>
+      <rgbColor rgb="ffcfe2f3"/>
+      <rgbColor rgb="ffd9d2e9"/>
+      <rgbColor rgb="ffd9ead3"/>
+      <rgbColor rgb="ffead1dc"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>2</xdr:rowOff>
+      <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>83248</xdr:rowOff>
+      <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Shape 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3327400" y="3041017"/>
+          <a:off x="3327400" y="3041016"/>
           <a:ext cx="8534400" cy="83247"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1353,7 +1507,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1370,23 +1524,17 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>83251</xdr:rowOff>
+      <xdr:rowOff>83249</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3327400" y="2840989"/>
-          <a:ext cx="8534400" cy="83253"/>
+          <a:ext cx="8534400" cy="83251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1404,7 +1552,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1421,23 +1569,17 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>83246</xdr:rowOff>
+      <xdr:rowOff>83244</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Shape 4"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3327400" y="3241039"/>
-          <a:ext cx="8534400" cy="83248"/>
+          <a:ext cx="8534400" cy="83246"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1455,7 +1597,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1474,21 +1616,15 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>146748</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="5" name="Shape 5"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6889750" y="1704339"/>
-          <a:ext cx="698500" cy="83250"/>
+          <a:ext cx="698500" cy="83249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1506,7 +1642,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1517,28 +1653,22 @@
       <xdr:col>15</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>65971</xdr:rowOff>
+      <xdr:rowOff>65970</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>342900</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>149223</xdr:rowOff>
+      <xdr:rowOff>149222</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="6" name="Shape 6"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6883400" y="1906836"/>
+          <a:off x="6883400" y="1906835"/>
           <a:ext cx="698500" cy="83253"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1557,7 +1687,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1566,30 +1696,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>355598</xdr:colOff>
+      <xdr:colOff>355597</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>30</xdr:col>
-      <xdr:colOff>6348</xdr:colOff>
+      <xdr:colOff>6347</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="7" name="Shape 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7594598" y="6041390"/>
+          <a:off x="7594597" y="6041390"/>
           <a:ext cx="4629151" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1608,7 +1732,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1627,15 +1751,9 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="8" name="Shape 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1659,7 +1777,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1678,21 +1796,15 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="9" name="Shape 9"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="11150600" y="6441440"/>
-          <a:ext cx="3594101" cy="95251"/>
+          <a:ext cx="3594100" cy="95251"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1710,7 +1822,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1729,15 +1841,9 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>100010</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="10" name="Shape 10"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1761,7 +1867,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1772,29 +1878,23 @@
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>11206</xdr:rowOff>
+      <xdr:rowOff>11205</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>33</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>94457</xdr:rowOff>
+      <xdr:rowOff>94456</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="11" name="Shape 11"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10130118" y="5289177"/>
-          <a:ext cx="1568823" cy="83251"/>
+          <a:off x="11506200" y="5252496"/>
+          <a:ext cx="1778000" cy="83252"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1812,7 +1912,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1827,25 +1927,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>19048</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>82800</xdr:rowOff>
+      <xdr:rowOff>82799</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="12" name="Shape 12"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12929637" y="5441316"/>
-          <a:ext cx="2151613" cy="82800"/>
+          <a:ext cx="2151612" cy="82799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1863,7 +1957,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1878,25 +1972,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>302560</xdr:colOff>
+      <xdr:colOff>302559</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>60839</xdr:rowOff>
+      <xdr:rowOff>60838</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="13" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="13" name="Shape 13"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9190320" y="4045323"/>
-          <a:ext cx="1242358" cy="83251"/>
+          <a:off x="10440896" y="4020409"/>
+          <a:ext cx="1367864" cy="81570"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1914,7 +2002,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1933,15 +2021,9 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="14" name="Shape 14"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1965,7 +2047,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1980,25 +2062,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>37</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
+      <xdr:colOff>295273</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>92322</xdr:rowOff>
+      <xdr:rowOff>92321</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="15" name="Shape 15"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12878837" y="4450713"/>
-          <a:ext cx="2123038" cy="82800"/>
+          <a:ext cx="2123037" cy="82799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2016,7 +2092,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2033,23 +2109,17 @@
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>49</xdr:row>
-      <xdr:rowOff>83248</xdr:rowOff>
+      <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="16" name="Shape 16"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16078200" y="10032365"/>
-          <a:ext cx="1117600" cy="92775"/>
+          <a:ext cx="1117600" cy="92773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2067,7 +2137,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2084,23 +2154,17 @@
       <xdr:col>44</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>48</xdr:row>
-      <xdr:rowOff>83248</xdr:rowOff>
+      <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="17" name="Shape 17"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="16078200" y="9832340"/>
-          <a:ext cx="1117600" cy="92775"/>
+          <a:ext cx="1117600" cy="92773"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2118,7 +2182,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2129,29 +2193,23 @@
       <xdr:col>32</xdr:col>
       <xdr:colOff>10562</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>200022</xdr:rowOff>
+      <xdr:rowOff>200021</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>9524</xdr:colOff>
+      <xdr:colOff>9523</xdr:colOff>
       <xdr:row>35</xdr:row>
-      <xdr:rowOff>82797</xdr:rowOff>
+      <xdr:rowOff>82796</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="18" name="Shape 18"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12939162" y="7241537"/>
-          <a:ext cx="2488163" cy="82801"/>
+          <a:ext cx="2488162" cy="82801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2169,7 +2227,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2184,25 +2242,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>39</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
+      <xdr:colOff>19048</xdr:colOff>
       <xdr:row>34</xdr:row>
-      <xdr:rowOff>82799</xdr:rowOff>
+      <xdr:rowOff>82798</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="19" name="Shape 19"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="12939162" y="7041515"/>
-          <a:ext cx="2497688" cy="82801"/>
+          <a:ext cx="2497687" cy="82799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2220,7 +2272,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2231,23 +2283,17 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>19054</xdr:rowOff>
+      <xdr:rowOff>19053</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>102301</xdr:rowOff>
+      <xdr:rowOff>102300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="20" name="Shape 20"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2271,7 +2317,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2286,25 +2332,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>301033</xdr:colOff>
+      <xdr:colOff>301032</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>83248</xdr:rowOff>
+      <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="21" name="Shape 21"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14360525" y="8041640"/>
-          <a:ext cx="2069509" cy="83250"/>
+          <a:ext cx="2069508" cy="83248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2322,7 +2362,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2337,25 +2377,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>301033</xdr:colOff>
+      <xdr:colOff>301032</xdr:colOff>
       <xdr:row>38</xdr:row>
-      <xdr:rowOff>83248</xdr:rowOff>
+      <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="22" name="Shape 22"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14360525" y="7841615"/>
-          <a:ext cx="2069509" cy="83250"/>
+          <a:ext cx="2069508" cy="83248"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2373,7 +2407,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2388,25 +2422,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>41</xdr:col>
-      <xdr:colOff>301033</xdr:colOff>
+      <xdr:colOff>301032</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>83250</xdr:rowOff>
+      <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="23" name="Shape 23"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14360525" y="8241665"/>
-          <a:ext cx="2069509" cy="83251"/>
+          <a:ext cx="2069508" cy="83250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2424,7 +2452,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2441,23 +2469,17 @@
       <xdr:col>41</xdr:col>
       <xdr:colOff>304798</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>102300</xdr:rowOff>
+      <xdr:rowOff>102298</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="24" name="Shape 24"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14364289" y="8460740"/>
-          <a:ext cx="2069510" cy="83251"/>
+          <a:ext cx="2069510" cy="83250"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2475,7 +2497,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2490,25 +2512,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>43</xdr:col>
-      <xdr:colOff>66672</xdr:colOff>
+      <xdr:colOff>66671</xdr:colOff>
       <xdr:row>42</xdr:row>
-      <xdr:rowOff>92324</xdr:rowOff>
+      <xdr:rowOff>92323</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="25" name="Shape 25"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="15071723" y="8651240"/>
-          <a:ext cx="1835150" cy="82801"/>
+          <a:ext cx="1835149" cy="82799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2526,7 +2542,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2541,25 +2557,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>38</xdr:col>
-      <xdr:colOff>11999</xdr:colOff>
+      <xdr:colOff>11998</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>92323</xdr:rowOff>
+      <xdr:rowOff>92322</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="26" name="Shape 26"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="14716125" y="9251314"/>
-          <a:ext cx="358075" cy="82800"/>
+          <a:ext cx="358074" cy="82799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2577,7 +2587,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2588,29 +2598,23 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>94361</xdr:rowOff>
+      <xdr:rowOff>94360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>177161</xdr:rowOff>
+      <xdr:rowOff>177160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="27" name="Shape 27"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913529" y="2951861"/>
-          <a:ext cx="7216589" cy="82800"/>
+          <a:off x="3327400" y="2935350"/>
+          <a:ext cx="8178800" cy="82801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2628,7 +2632,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2639,29 +2643,23 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>100012</xdr:rowOff>
+      <xdr:rowOff>100011</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>29</xdr:col>
       <xdr:colOff>11206</xdr:colOff>
       <xdr:row>14</xdr:row>
-      <xdr:rowOff>182812</xdr:rowOff>
+      <xdr:rowOff>182810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="28" name="Shape 28"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2913529" y="3159218"/>
-          <a:ext cx="7541559" cy="82800"/>
+          <a:off x="3327400" y="3141026"/>
+          <a:ext cx="8545607" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2679,7 +2677,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2698,15 +2696,9 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="29" name="Shape 29"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2730,7 +2722,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2747,23 +2739,17 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>200024</xdr:rowOff>
+      <xdr:rowOff>200023</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="30" name="Shape 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
           <a:off x="3336925" y="3557840"/>
-          <a:ext cx="3200400" cy="83250"/>
+          <a:ext cx="3200400" cy="83249"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2781,7 +2767,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2790,31 +2776,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>29135</xdr:colOff>
+      <xdr:colOff>29134</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>106736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:colOff>33617</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>189536</xdr:rowOff>
+      <xdr:rowOff>189535</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="31" name="Shape 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6707841" y="5183001"/>
-          <a:ext cx="4710953" cy="82800"/>
+          <a:off x="7623734" y="5148001"/>
+          <a:ext cx="5338484" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2832,7 +2812,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2841,31 +2821,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>29135</xdr:colOff>
+      <xdr:colOff>29134</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>95530</xdr:rowOff>
+      <xdr:rowOff>95529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:colOff>33617</xdr:colOff>
       <xdr:row>25</xdr:row>
-      <xdr:rowOff>178330</xdr:rowOff>
+      <xdr:rowOff>178328</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="32" name="Shape 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6707841" y="5373501"/>
-          <a:ext cx="4710953" cy="82800"/>
+          <a:off x="7623734" y="5336819"/>
+          <a:ext cx="5338484" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2883,7 +2857,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2892,31 +2866,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>29135</xdr:colOff>
+      <xdr:colOff>29134</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>106736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>33618</xdr:colOff>
+      <xdr:colOff>33617</xdr:colOff>
       <xdr:row>26</xdr:row>
-      <xdr:rowOff>189536</xdr:rowOff>
+      <xdr:rowOff>189535</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="33" name="Shape 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6707841" y="5586412"/>
-          <a:ext cx="4710953" cy="82800"/>
+          <a:off x="7623734" y="5548051"/>
+          <a:ext cx="5338484" cy="82800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2934,7 +2902,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2943,31 +2911,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>2242</xdr:colOff>
+      <xdr:colOff>2241</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>102253</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
-      <xdr:colOff>56029</xdr:colOff>
+      <xdr:colOff>56028</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="34" name="Shape 34"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6680948" y="6187047"/>
-          <a:ext cx="3505199" cy="77041"/>
+          <a:off x="7596841" y="6143643"/>
+          <a:ext cx="3965388" cy="77042"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2985,7 +2947,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3000,25 +2962,19 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>315685</xdr:colOff>
+      <xdr:colOff>315684</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="35" name="Shape 35"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9240052" y="6368143"/>
-          <a:ext cx="2200833" cy="81002"/>
+          <a:off x="10448366" y="6328501"/>
+          <a:ext cx="2440319" cy="81003"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3036,7 +2992,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3047,29 +3003,23 @@
       <xdr:col>25</xdr:col>
       <xdr:colOff>3</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>100854</xdr:rowOff>
+      <xdr:rowOff>100853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>33617</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="36" name="Shape 36"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9188827" y="4168589"/>
-          <a:ext cx="974908" cy="89646"/>
+          <a:off x="10439403" y="4141994"/>
+          <a:ext cx="1100415" cy="89647"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3087,7 +3037,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3096,31 +3046,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>313768</xdr:colOff>
+      <xdr:colOff>313767</xdr:colOff>
       <xdr:row>31</xdr:row>
       <xdr:rowOff>81643</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>32</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Shape 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="37" name="Shape 37"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9860539" y="6564086"/>
-          <a:ext cx="1580348" cy="70757"/>
+          <a:off x="11108767" y="6523083"/>
+          <a:ext cx="1819834" cy="70757"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3138,7 +3082,97 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:endParaRPr/>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>111942</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="Shape 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11506200" y="4353107"/>
+          <a:ext cx="730250" cy="68915"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>124982</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>33614</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>6526</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Shape 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12217400" y="4566172"/>
+          <a:ext cx="1100415" cy="81570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3148,7 +3182,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3350,7 +3384,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3369,7 +3403,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3399,7 +3433,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3425,7 +3459,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3451,7 +3485,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3477,7 +3511,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3503,7 +3537,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3529,7 +3563,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3555,7 +3589,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3581,7 +3615,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3607,7 +3641,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3620,15 +3654,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3645,7 +3673,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3664,7 +3692,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3690,7 +3718,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3716,7 +3744,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3742,7 +3770,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3768,7 +3796,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3794,7 +3822,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3820,7 +3848,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3846,7 +3874,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3872,7 +3900,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3898,7 +3926,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3911,15 +3939,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3933,7 +3955,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3952,7 +3974,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3982,7 +4004,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4008,7 +4030,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4034,7 +4056,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4060,7 +4082,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4086,7 +4108,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4112,7 +4134,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4138,7 +4160,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4164,7 +4186,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4190,7 +4212,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4203,52 +4225,81 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IV61"/>
+  <dimension ref="A1:AS61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="L16" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="AF33" sqref="AF33"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85156" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85546875" style="1" customWidth="1"/>
-    <col min="6" max="44" width="4.7109375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="5.42578125" style="1" customWidth="1"/>
-    <col min="46" max="256" width="14.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85156" style="1" customWidth="1"/>
+    <col min="6" max="6" width="4.67188" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.67188" style="1" customWidth="1"/>
+    <col min="8" max="8" width="4.67188" style="1" customWidth="1"/>
+    <col min="9" max="9" width="4.67188" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.67188" style="1" customWidth="1"/>
+    <col min="11" max="11" width="4.67188" style="1" customWidth="1"/>
+    <col min="12" max="12" width="4.67188" style="1" customWidth="1"/>
+    <col min="13" max="13" width="4.67188" style="1" customWidth="1"/>
+    <col min="14" max="14" width="4.67188" style="1" customWidth="1"/>
+    <col min="15" max="15" width="4.67188" style="1" customWidth="1"/>
+    <col min="16" max="16" width="4.67188" style="1" customWidth="1"/>
+    <col min="17" max="17" width="4.67188" style="1" customWidth="1"/>
+    <col min="18" max="18" width="4.67188" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.67188" style="1" customWidth="1"/>
+    <col min="20" max="20" width="4.67188" style="1" customWidth="1"/>
+    <col min="21" max="21" width="4.67188" style="1" customWidth="1"/>
+    <col min="22" max="22" width="4.67188" style="1" customWidth="1"/>
+    <col min="23" max="23" width="4.67188" style="1" customWidth="1"/>
+    <col min="24" max="24" width="4.67188" style="1" customWidth="1"/>
+    <col min="25" max="25" width="4.67188" style="1" customWidth="1"/>
+    <col min="26" max="26" width="4.67188" style="1" customWidth="1"/>
+    <col min="27" max="27" width="4.67188" style="1" customWidth="1"/>
+    <col min="28" max="28" width="4.67188" style="1" customWidth="1"/>
+    <col min="29" max="29" width="4.67188" style="1" customWidth="1"/>
+    <col min="30" max="30" width="4.67188" style="1" customWidth="1"/>
+    <col min="31" max="31" width="4.67188" style="1" customWidth="1"/>
+    <col min="32" max="32" width="4.67188" style="1" customWidth="1"/>
+    <col min="33" max="33" width="4.67188" style="1" customWidth="1"/>
+    <col min="34" max="34" width="4.67188" style="1" customWidth="1"/>
+    <col min="35" max="35" width="4.67188" style="1" customWidth="1"/>
+    <col min="36" max="36" width="4.67188" style="1" customWidth="1"/>
+    <col min="37" max="37" width="4.67188" style="1" customWidth="1"/>
+    <col min="38" max="38" width="4.67188" style="1" customWidth="1"/>
+    <col min="39" max="39" width="4.67188" style="1" customWidth="1"/>
+    <col min="40" max="40" width="4.67188" style="1" customWidth="1"/>
+    <col min="41" max="41" width="4.67188" style="1" customWidth="1"/>
+    <col min="42" max="42" width="4.67188" style="1" customWidth="1"/>
+    <col min="43" max="43" width="4.67188" style="1" customWidth="1"/>
+    <col min="44" max="44" width="4.67188" style="1" customWidth="1"/>
+    <col min="45" max="45" width="5.5" style="1" customWidth="1"/>
+    <col min="46" max="256" width="14.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="1" ht="15.75" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
+      </c>
+      <c r="B1" t="s" s="3">
+        <v>1</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="5"/>
@@ -4294,7 +4345,7 @@
       <c r="AR1" s="6"/>
       <c r="AS1" s="7"/>
     </row>
-    <row r="2" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>43412</v>
@@ -4343,10 +4394,10 @@
       <c r="AR2" s="12"/>
       <c r="AS2" s="13"/>
     </row>
-    <row r="3" spans="1:45" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" ht="34.7" customHeight="1">
       <c r="A3" s="8"/>
-      <c r="B3" s="14" t="s">
-        <v>1</v>
+      <c r="B3" t="s" s="14">
+        <v>2</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="11"/>
@@ -4392,7 +4443,7 @@
       <c r="AR3" s="12"/>
       <c r="AS3" s="13"/>
     </row>
-    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
@@ -4439,7 +4490,7 @@
       <c r="AR4" s="12"/>
       <c r="AS4" s="13"/>
     </row>
-    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
@@ -4486,11 +4537,11 @@
       <c r="AR5" s="12"/>
       <c r="AS5" s="13"/>
     </row>
-    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="15" t="s">
-        <v>2</v>
+      <c r="C6" t="s" s="15">
+        <v>3</v>
       </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
@@ -4535,13 +4586,13 @@
       <c r="AR6" s="12"/>
       <c r="AS6" s="13"/>
     </row>
-    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="8"/>
-      <c r="B7" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="15" t="s">
+      <c r="B7" t="s" s="15">
         <v>4</v>
+      </c>
+      <c r="C7" t="s" s="15">
+        <v>5</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
@@ -4586,13 +4637,13 @@
       <c r="AR7" s="12"/>
       <c r="AS7" s="13"/>
     </row>
-    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="8"/>
-      <c r="B8" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="B8" t="s" s="15">
         <v>6</v>
+      </c>
+      <c r="C8" t="s" s="15">
+        <v>7</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="11"/>
@@ -4605,8 +4656,8 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" s="16" t="s">
-        <v>7</v>
+      <c r="O8" t="s" s="16">
+        <v>8</v>
       </c>
       <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
@@ -4639,13 +4690,13 @@
       <c r="AR8" s="12"/>
       <c r="AS8" s="13"/>
     </row>
-    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="8"/>
-      <c r="B9" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="15" t="s">
+      <c r="B9" t="s" s="15">
         <v>9</v>
+      </c>
+      <c r="C9" t="s" s="15">
+        <v>10</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -4658,8 +4709,8 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" s="16" t="s">
-        <v>10</v>
+      <c r="O9" t="s" s="16">
+        <v>11</v>
       </c>
       <c r="P9" s="12"/>
       <c r="Q9" s="12"/>
@@ -4692,7 +4743,7 @@
       <c r="AR9" s="12"/>
       <c r="AS9" s="13"/>
     </row>
-    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -4739,2664 +4790,2673 @@
       <c r="AR10" s="20"/>
       <c r="AS10" s="21"/>
     </row>
-    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" s="26" t="s">
-        <v>11</v>
+      <c r="E11" t="s" s="26">
+        <v>12</v>
       </c>
       <c r="F11" s="27">
         <v>5</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
-      <c r="J11" s="29">
+      <c r="G11" s="27"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="28">
         <v>6</v>
       </c>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="31">
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
+      <c r="O11" s="29">
         <v>7</v>
       </c>
-      <c r="P11" s="32"/>
-      <c r="Q11" s="32"/>
-      <c r="R11" s="32"/>
-      <c r="S11" s="33">
+      <c r="P11" s="29"/>
+      <c r="Q11" s="29"/>
+      <c r="R11" s="29"/>
+      <c r="S11" s="30">
         <v>8</v>
       </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="34"/>
-      <c r="W11" s="34"/>
-      <c r="X11" s="35">
+      <c r="T11" s="30"/>
+      <c r="U11" s="30"/>
+      <c r="V11" s="30"/>
+      <c r="W11" s="30"/>
+      <c r="X11" s="31">
         <v>9</v>
       </c>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="36"/>
-      <c r="AA11" s="36"/>
-      <c r="AB11" s="37">
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31"/>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="32">
         <v>10</v>
       </c>
-      <c r="AC11" s="38"/>
-      <c r="AD11" s="38"/>
-      <c r="AE11" s="38"/>
-      <c r="AF11" s="39">
+      <c r="AC11" s="32"/>
+      <c r="AD11" s="32"/>
+      <c r="AE11" s="32"/>
+      <c r="AF11" s="33">
         <v>11</v>
       </c>
-      <c r="AG11" s="40"/>
-      <c r="AH11" s="40"/>
-      <c r="AI11" s="40"/>
-      <c r="AJ11" s="40"/>
-      <c r="AK11" s="41">
+      <c r="AG11" s="33"/>
+      <c r="AH11" s="33"/>
+      <c r="AI11" s="33"/>
+      <c r="AJ11" s="33"/>
+      <c r="AK11" s="34">
         <v>12</v>
       </c>
-      <c r="AL11" s="42"/>
-      <c r="AM11" s="42"/>
-      <c r="AN11" s="42"/>
-      <c r="AO11" s="43">
+      <c r="AL11" s="34"/>
+      <c r="AM11" s="34"/>
+      <c r="AN11" s="34"/>
+      <c r="AO11" s="35">
         <v>1</v>
       </c>
-      <c r="AP11" s="44"/>
-      <c r="AQ11" s="44"/>
-      <c r="AR11" s="44"/>
-      <c r="AS11" s="45"/>
+      <c r="AP11" s="35"/>
+      <c r="AQ11" s="35"/>
+      <c r="AR11" s="35"/>
+      <c r="AS11" s="36"/>
     </row>
-    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="22"/>
-      <c r="B12" s="46" t="s">
+      <c r="B12" t="s" s="37">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s" s="38">
+        <v>14</v>
+      </c>
+      <c r="D12" t="s" s="39">
+        <v>15</v>
+      </c>
+      <c r="E12" t="s" s="39">
+        <v>16</v>
+      </c>
+      <c r="F12" s="40">
+        <v>4</v>
+      </c>
+      <c r="G12" s="40">
+        <v>11</v>
+      </c>
+      <c r="H12" s="40">
+        <v>18</v>
+      </c>
+      <c r="I12" s="40">
+        <v>25</v>
+      </c>
+      <c r="J12" s="41">
+        <v>1</v>
+      </c>
+      <c r="K12" s="42">
+        <v>8</v>
+      </c>
+      <c r="L12" s="42">
+        <v>15</v>
+      </c>
+      <c r="M12" s="42">
+        <v>22</v>
+      </c>
+      <c r="N12" s="42">
+        <v>29</v>
+      </c>
+      <c r="O12" s="43">
+        <v>6</v>
+      </c>
+      <c r="P12" s="43">
+        <v>13</v>
+      </c>
+      <c r="Q12" s="44">
+        <v>20</v>
+      </c>
+      <c r="R12" s="43">
+        <v>27</v>
+      </c>
+      <c r="S12" s="45">
+        <v>3</v>
+      </c>
+      <c r="T12" s="45">
+        <v>10</v>
+      </c>
+      <c r="U12" s="45">
+        <v>17</v>
+      </c>
+      <c r="V12" s="45">
+        <v>24</v>
+      </c>
+      <c r="W12" s="45">
+        <v>31</v>
+      </c>
+      <c r="X12" s="46">
+        <v>7</v>
+      </c>
+      <c r="Y12" s="46">
+        <v>14</v>
+      </c>
+      <c r="Z12" s="47">
+        <v>21</v>
+      </c>
+      <c r="AA12" s="47">
+        <v>28</v>
+      </c>
+      <c r="AB12" s="48">
+        <v>5</v>
+      </c>
+      <c r="AC12" s="48">
         <v>12</v>
       </c>
-      <c r="C12" s="47" t="s">
-        <v>13</v>
-      </c>
-      <c r="D12" s="48" t="s">
+      <c r="AD12" s="48">
+        <v>19</v>
+      </c>
+      <c r="AE12" s="48">
+        <v>26</v>
+      </c>
+      <c r="AF12" s="49">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="50">
+        <v>9</v>
+      </c>
+      <c r="AH12" s="49">
+        <v>16</v>
+      </c>
+      <c r="AI12" s="50">
+        <v>23</v>
+      </c>
+      <c r="AJ12" s="50">
+        <v>30</v>
+      </c>
+      <c r="AK12" s="51">
+        <v>7</v>
+      </c>
+      <c r="AL12" s="51">
         <v>14</v>
       </c>
-      <c r="E12" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="49">
+      <c r="AM12" s="51">
+        <v>21</v>
+      </c>
+      <c r="AN12" s="52">
+        <v>28</v>
+      </c>
+      <c r="AO12" s="53">
         <v>4</v>
       </c>
-      <c r="G12" s="49">
+      <c r="AP12" s="54">
         <v>11</v>
       </c>
-      <c r="H12" s="49">
+      <c r="AQ12" s="54">
         <v>18</v>
       </c>
-      <c r="I12" s="49">
+      <c r="AR12" s="54">
         <v>25</v>
       </c>
-      <c r="J12" s="50">
+      <c r="AS12" s="55"/>
+    </row>
+    <row r="13" ht="15.75" customHeight="1">
+      <c r="A13" s="56"/>
+      <c r="B13" t="s" s="57">
+        <v>17</v>
+      </c>
+      <c r="C13" s="58"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="60"/>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+      <c r="I13" s="60"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="62"/>
+      <c r="Q13" s="62"/>
+      <c r="R13" s="62"/>
+      <c r="S13" s="63"/>
+      <c r="T13" s="63"/>
+      <c r="U13" s="63"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="63"/>
+      <c r="X13" s="64"/>
+      <c r="Y13" s="64"/>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="64"/>
+      <c r="AB13" s="65"/>
+      <c r="AC13" s="65"/>
+      <c r="AD13" s="65"/>
+      <c r="AE13" s="65"/>
+      <c r="AF13" s="66"/>
+      <c r="AG13" s="66"/>
+      <c r="AH13" s="66"/>
+      <c r="AI13" s="66"/>
+      <c r="AJ13" s="66"/>
+      <c r="AK13" s="67"/>
+      <c r="AL13" s="67"/>
+      <c r="AM13" s="67"/>
+      <c r="AN13" s="67"/>
+      <c r="AO13" s="68"/>
+      <c r="AP13" s="68"/>
+      <c r="AQ13" s="68"/>
+      <c r="AR13" s="68"/>
+      <c r="AS13" s="55"/>
+    </row>
+    <row r="14" ht="15.75" customHeight="1">
+      <c r="A14" s="56"/>
+      <c r="B14" t="s" s="69">
+        <v>18</v>
+      </c>
+      <c r="C14" s="70">
+        <v>0.85</v>
+      </c>
+      <c r="D14" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
+      <c r="G14" s="60"/>
+      <c r="H14" s="60"/>
+      <c r="I14" s="60"/>
+      <c r="J14" s="61"/>
+      <c r="K14" s="61"/>
+      <c r="L14" s="61"/>
+      <c r="M14" s="61"/>
+      <c r="N14" s="61"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+      <c r="R14" s="62"/>
+      <c r="S14" s="63"/>
+      <c r="T14" s="63"/>
+      <c r="U14" s="63"/>
+      <c r="V14" s="63"/>
+      <c r="W14" s="63"/>
+      <c r="X14" s="64"/>
+      <c r="Y14" s="64"/>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="64"/>
+      <c r="AB14" s="65"/>
+      <c r="AC14" s="65"/>
+      <c r="AD14" s="65"/>
+      <c r="AE14" s="65"/>
+      <c r="AF14" s="66"/>
+      <c r="AG14" s="66"/>
+      <c r="AH14" s="66"/>
+      <c r="AI14" s="66"/>
+      <c r="AJ14" s="66"/>
+      <c r="AK14" s="67"/>
+      <c r="AL14" s="67"/>
+      <c r="AM14" s="67"/>
+      <c r="AN14" s="67"/>
+      <c r="AO14" s="68"/>
+      <c r="AP14" s="68"/>
+      <c r="AQ14" s="68"/>
+      <c r="AR14" s="68"/>
+      <c r="AS14" s="55"/>
+    </row>
+    <row r="15" ht="15.75" customHeight="1">
+      <c r="A15" s="56"/>
+      <c r="B15" t="s" s="69">
+        <v>20</v>
+      </c>
+      <c r="C15" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="D15" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E15" s="59"/>
+      <c r="F15" s="60"/>
+      <c r="G15" s="60"/>
+      <c r="H15" s="60"/>
+      <c r="I15" s="60"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="61"/>
+      <c r="M15" s="61"/>
+      <c r="N15" s="61"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="62"/>
+      <c r="R15" s="62"/>
+      <c r="S15" s="63"/>
+      <c r="T15" s="63"/>
+      <c r="U15" s="63"/>
+      <c r="V15" s="63"/>
+      <c r="W15" s="63"/>
+      <c r="X15" s="64"/>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="64"/>
+      <c r="AB15" s="65"/>
+      <c r="AC15" s="65"/>
+      <c r="AD15" s="65"/>
+      <c r="AE15" s="65"/>
+      <c r="AF15" s="66"/>
+      <c r="AG15" s="66"/>
+      <c r="AH15" s="66"/>
+      <c r="AI15" s="66"/>
+      <c r="AJ15" s="66"/>
+      <c r="AK15" s="67"/>
+      <c r="AL15" s="67"/>
+      <c r="AM15" s="67"/>
+      <c r="AN15" s="67"/>
+      <c r="AO15" s="68"/>
+      <c r="AP15" s="68"/>
+      <c r="AQ15" s="68"/>
+      <c r="AR15" s="68"/>
+      <c r="AS15" s="55"/>
+    </row>
+    <row r="16" ht="15.75" customHeight="1">
+      <c r="A16" s="56"/>
+      <c r="B16" t="s" s="69">
+        <v>21</v>
+      </c>
+      <c r="C16" s="58"/>
+      <c r="D16" t="s" s="71">
+        <v>7</v>
+      </c>
+      <c r="E16" s="59"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="60"/>
+      <c r="H16" s="60"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="61"/>
+      <c r="K16" s="61"/>
+      <c r="L16" s="61"/>
+      <c r="M16" s="61"/>
+      <c r="N16" s="61"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="62"/>
+      <c r="Q16" s="62"/>
+      <c r="R16" s="62"/>
+      <c r="S16" s="63"/>
+      <c r="T16" s="63"/>
+      <c r="U16" s="63"/>
+      <c r="V16" s="63"/>
+      <c r="W16" s="63"/>
+      <c r="X16" s="64"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="64"/>
+      <c r="AB16" s="65"/>
+      <c r="AC16" s="65"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="66"/>
+      <c r="AG16" s="66"/>
+      <c r="AH16" s="66"/>
+      <c r="AI16" s="66"/>
+      <c r="AJ16" s="66"/>
+      <c r="AK16" s="67"/>
+      <c r="AL16" s="67"/>
+      <c r="AM16" s="67"/>
+      <c r="AN16" s="67"/>
+      <c r="AO16" s="68"/>
+      <c r="AP16" s="68"/>
+      <c r="AQ16" s="68"/>
+      <c r="AR16" s="68"/>
+      <c r="AS16" s="55"/>
+    </row>
+    <row r="17" ht="15.75" customHeight="1">
+      <c r="A17" s="56"/>
+      <c r="B17" t="s" s="69">
+        <v>22</v>
+      </c>
+      <c r="C17" s="58"/>
+      <c r="D17" t="s" s="71">
+        <v>23</v>
+      </c>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
+      <c r="H17" s="60"/>
+      <c r="I17" s="60"/>
+      <c r="J17" s="61"/>
+      <c r="K17" s="61"/>
+      <c r="L17" s="61"/>
+      <c r="M17" s="61"/>
+      <c r="N17" s="61"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="62"/>
+      <c r="Q17" s="62"/>
+      <c r="R17" s="62"/>
+      <c r="S17" s="63"/>
+      <c r="T17" s="63"/>
+      <c r="U17" s="63"/>
+      <c r="V17" s="63"/>
+      <c r="W17" s="63"/>
+      <c r="X17" s="64"/>
+      <c r="Y17" s="64"/>
+      <c r="Z17" s="64"/>
+      <c r="AA17" s="64"/>
+      <c r="AB17" s="65"/>
+      <c r="AC17" s="65"/>
+      <c r="AD17" s="65"/>
+      <c r="AE17" s="65"/>
+      <c r="AF17" s="66"/>
+      <c r="AG17" s="66"/>
+      <c r="AH17" s="66"/>
+      <c r="AI17" s="66"/>
+      <c r="AJ17" s="66"/>
+      <c r="AK17" s="67"/>
+      <c r="AL17" s="67"/>
+      <c r="AM17" s="67"/>
+      <c r="AN17" s="67"/>
+      <c r="AO17" s="68"/>
+      <c r="AP17" s="68"/>
+      <c r="AQ17" s="68"/>
+      <c r="AR17" s="68"/>
+      <c r="AS17" s="55"/>
+    </row>
+    <row r="18" ht="15.75" customHeight="1">
+      <c r="A18" s="56"/>
+      <c r="B18" s="72"/>
+      <c r="C18" s="58"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
+      <c r="H18" s="60"/>
+      <c r="I18" s="60"/>
+      <c r="J18" s="61"/>
+      <c r="K18" s="61"/>
+      <c r="L18" s="61"/>
+      <c r="M18" s="61"/>
+      <c r="N18" s="61"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="64"/>
+      <c r="Y18" s="64"/>
+      <c r="Z18" s="64"/>
+      <c r="AA18" s="64"/>
+      <c r="AB18" s="65"/>
+      <c r="AC18" s="65"/>
+      <c r="AD18" s="65"/>
+      <c r="AE18" s="65"/>
+      <c r="AF18" s="66"/>
+      <c r="AG18" s="66"/>
+      <c r="AH18" s="66"/>
+      <c r="AI18" s="73"/>
+      <c r="AJ18" s="74"/>
+      <c r="AK18" s="75"/>
+      <c r="AL18" s="67"/>
+      <c r="AM18" s="67"/>
+      <c r="AN18" s="67"/>
+      <c r="AO18" s="68"/>
+      <c r="AP18" s="68"/>
+      <c r="AQ18" s="68"/>
+      <c r="AR18" s="68"/>
+      <c r="AS18" s="55"/>
+    </row>
+    <row r="19" ht="15.75" customHeight="1">
+      <c r="A19" s="56"/>
+      <c r="B19" t="s" s="57">
+        <v>24</v>
+      </c>
+      <c r="C19" s="58"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
+      <c r="H19" s="60"/>
+      <c r="I19" s="60"/>
+      <c r="J19" s="61"/>
+      <c r="K19" s="61"/>
+      <c r="L19" s="61"/>
+      <c r="M19" s="61"/>
+      <c r="N19" s="61"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="64"/>
+      <c r="Y19" s="64"/>
+      <c r="Z19" s="64"/>
+      <c r="AA19" s="64"/>
+      <c r="AB19" s="65"/>
+      <c r="AC19" s="65"/>
+      <c r="AD19" s="65"/>
+      <c r="AE19" s="65"/>
+      <c r="AF19" s="66"/>
+      <c r="AG19" s="66"/>
+      <c r="AH19" s="66"/>
+      <c r="AI19" s="76"/>
+      <c r="AJ19" s="77"/>
+      <c r="AK19" s="78"/>
+      <c r="AL19" s="67"/>
+      <c r="AM19" s="67"/>
+      <c r="AN19" s="67"/>
+      <c r="AO19" s="68"/>
+      <c r="AP19" s="68"/>
+      <c r="AQ19" s="68"/>
+      <c r="AR19" s="68"/>
+      <c r="AS19" s="55"/>
+    </row>
+    <row r="20" ht="15.75" customHeight="1">
+      <c r="A20" s="56"/>
+      <c r="B20" t="s" s="69">
+        <v>25</v>
+      </c>
+      <c r="C20" s="70">
         <v>1</v>
       </c>
-      <c r="K12" s="51">
-        <v>8</v>
-      </c>
-      <c r="L12" s="51">
-        <v>15</v>
-      </c>
-      <c r="M12" s="51">
+      <c r="D20" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
+      <c r="J20" s="61"/>
+      <c r="K20" s="61"/>
+      <c r="L20" s="61"/>
+      <c r="M20" s="61"/>
+      <c r="N20" s="61"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="64"/>
+      <c r="Y20" s="64"/>
+      <c r="Z20" s="64"/>
+      <c r="AA20" s="64"/>
+      <c r="AB20" s="65"/>
+      <c r="AC20" s="65"/>
+      <c r="AD20" s="65"/>
+      <c r="AE20" s="65"/>
+      <c r="AF20" s="66"/>
+      <c r="AG20" s="66"/>
+      <c r="AH20" s="66"/>
+      <c r="AI20" s="66"/>
+      <c r="AJ20" s="79"/>
+      <c r="AK20" s="67"/>
+      <c r="AL20" s="67"/>
+      <c r="AM20" s="67"/>
+      <c r="AN20" s="67"/>
+      <c r="AO20" s="68"/>
+      <c r="AP20" s="68"/>
+      <c r="AQ20" s="68"/>
+      <c r="AR20" s="68"/>
+      <c r="AS20" s="55"/>
+    </row>
+    <row r="21" ht="15.75" customHeight="1">
+      <c r="A21" s="56"/>
+      <c r="B21" t="s" s="69">
+        <v>26</v>
+      </c>
+      <c r="C21" s="70">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E21" s="59"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60"/>
+      <c r="H21" s="60"/>
+      <c r="I21" s="60"/>
+      <c r="J21" s="61"/>
+      <c r="K21" s="61"/>
+      <c r="L21" s="61"/>
+      <c r="M21" s="61"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="64"/>
+      <c r="Y21" s="64"/>
+      <c r="Z21" s="64"/>
+      <c r="AA21" s="64"/>
+      <c r="AB21" s="65"/>
+      <c r="AC21" s="65"/>
+      <c r="AD21" s="65"/>
+      <c r="AE21" s="65"/>
+      <c r="AF21" s="66"/>
+      <c r="AG21" s="66"/>
+      <c r="AH21" s="66"/>
+      <c r="AI21" s="66"/>
+      <c r="AJ21" s="66"/>
+      <c r="AK21" s="67"/>
+      <c r="AL21" s="67"/>
+      <c r="AM21" s="67"/>
+      <c r="AN21" s="67"/>
+      <c r="AO21" s="68"/>
+      <c r="AP21" s="68"/>
+      <c r="AQ21" s="68"/>
+      <c r="AR21" s="68"/>
+      <c r="AS21" s="55"/>
+    </row>
+    <row r="22" ht="15.75" customHeight="1">
+      <c r="A22" s="56"/>
+      <c r="B22" t="s" s="69">
+        <v>27</v>
+      </c>
+      <c r="C22" s="70">
+        <v>0.8</v>
+      </c>
+      <c r="D22" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E22" s="59"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
+      <c r="J22" s="61"/>
+      <c r="K22" s="61"/>
+      <c r="L22" s="61"/>
+      <c r="M22" s="61"/>
+      <c r="N22" s="61"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="64"/>
+      <c r="Y22" s="64"/>
+      <c r="Z22" s="64"/>
+      <c r="AA22" s="64"/>
+      <c r="AB22" s="65"/>
+      <c r="AC22" s="65"/>
+      <c r="AD22" s="65"/>
+      <c r="AE22" s="65"/>
+      <c r="AF22" s="66"/>
+      <c r="AG22" s="66"/>
+      <c r="AH22" s="66"/>
+      <c r="AI22" s="66"/>
+      <c r="AJ22" s="80"/>
+      <c r="AK22" s="67"/>
+      <c r="AL22" s="67"/>
+      <c r="AM22" s="67"/>
+      <c r="AN22" s="67"/>
+      <c r="AO22" s="68"/>
+      <c r="AP22" s="68"/>
+      <c r="AQ22" s="68"/>
+      <c r="AR22" s="68"/>
+      <c r="AS22" s="55"/>
+    </row>
+    <row r="23" ht="15.75" customHeight="1">
+      <c r="A23" s="56"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="60"/>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
+      <c r="I23" s="60"/>
+      <c r="J23" s="61"/>
+      <c r="K23" s="61"/>
+      <c r="L23" s="61"/>
+      <c r="M23" s="61"/>
+      <c r="N23" s="61"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="64"/>
+      <c r="Y23" s="64"/>
+      <c r="Z23" s="64"/>
+      <c r="AA23" s="64"/>
+      <c r="AB23" s="65"/>
+      <c r="AC23" s="65"/>
+      <c r="AD23" s="65"/>
+      <c r="AE23" s="65"/>
+      <c r="AF23" s="66"/>
+      <c r="AG23" s="66"/>
+      <c r="AH23" s="66"/>
+      <c r="AI23" s="73"/>
+      <c r="AJ23" s="81"/>
+      <c r="AK23" s="75"/>
+      <c r="AL23" s="67"/>
+      <c r="AM23" s="67"/>
+      <c r="AN23" s="67"/>
+      <c r="AO23" s="68"/>
+      <c r="AP23" s="68"/>
+      <c r="AQ23" s="68"/>
+      <c r="AR23" s="68"/>
+      <c r="AS23" s="55"/>
+    </row>
+    <row r="24" ht="15.75" customHeight="1">
+      <c r="A24" s="56"/>
+      <c r="B24" t="s" s="57">
+        <v>28</v>
+      </c>
+      <c r="C24" s="58"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="K24" s="61"/>
+      <c r="L24" s="61"/>
+      <c r="M24" s="61"/>
+      <c r="N24" s="61"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="64"/>
+      <c r="Y24" s="64"/>
+      <c r="Z24" s="64"/>
+      <c r="AA24" s="64"/>
+      <c r="AB24" s="65"/>
+      <c r="AC24" s="65"/>
+      <c r="AD24" s="65"/>
+      <c r="AE24" s="65"/>
+      <c r="AF24" s="66"/>
+      <c r="AG24" s="66"/>
+      <c r="AH24" s="66"/>
+      <c r="AI24" s="76"/>
+      <c r="AJ24" s="82"/>
+      <c r="AK24" s="78"/>
+      <c r="AL24" s="67"/>
+      <c r="AM24" s="67"/>
+      <c r="AN24" s="67"/>
+      <c r="AO24" s="68"/>
+      <c r="AP24" s="68"/>
+      <c r="AQ24" s="68"/>
+      <c r="AR24" s="68"/>
+      <c r="AS24" s="55"/>
+    </row>
+    <row r="25" ht="15.75" customHeight="1">
+      <c r="A25" s="56"/>
+      <c r="B25" t="s" s="69">
+        <v>25</v>
+      </c>
+      <c r="C25" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="D25" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="K25" s="61"/>
+      <c r="L25" s="61"/>
+      <c r="M25" s="61"/>
+      <c r="N25" s="61"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="64"/>
+      <c r="Y25" s="64"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="65"/>
+      <c r="AC25" s="65"/>
+      <c r="AD25" s="65"/>
+      <c r="AE25" s="65"/>
+      <c r="AF25" s="66"/>
+      <c r="AG25" s="66"/>
+      <c r="AH25" s="66"/>
+      <c r="AI25" s="66"/>
+      <c r="AJ25" s="79"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="67"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="68"/>
+      <c r="AP25" s="68"/>
+      <c r="AQ25" s="68"/>
+      <c r="AR25" s="68"/>
+      <c r="AS25" s="55"/>
+    </row>
+    <row r="26" ht="15.75" customHeight="1">
+      <c r="A26" s="56"/>
+      <c r="B26" t="s" s="69">
+        <v>29</v>
+      </c>
+      <c r="C26" s="70">
+        <v>0.9</v>
+      </c>
+      <c r="D26" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
+      <c r="K26" s="61"/>
+      <c r="L26" s="61"/>
+      <c r="M26" s="61"/>
+      <c r="N26" s="61"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="64"/>
+      <c r="Y26" s="64"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="65"/>
+      <c r="AC26" s="65"/>
+      <c r="AD26" s="65"/>
+      <c r="AE26" s="65"/>
+      <c r="AF26" s="66"/>
+      <c r="AG26" s="66"/>
+      <c r="AH26" s="66"/>
+      <c r="AI26" s="66"/>
+      <c r="AJ26" s="66"/>
+      <c r="AK26" s="67"/>
+      <c r="AL26" s="67"/>
+      <c r="AM26" s="67"/>
+      <c r="AN26" s="67"/>
+      <c r="AO26" s="68"/>
+      <c r="AP26" s="68"/>
+      <c r="AQ26" s="68"/>
+      <c r="AR26" s="68"/>
+      <c r="AS26" s="55"/>
+    </row>
+    <row r="27" ht="15.75" customHeight="1">
+      <c r="A27" s="56"/>
+      <c r="B27" t="s" s="69">
+        <v>27</v>
+      </c>
+      <c r="C27" s="70">
+        <v>0.95</v>
+      </c>
+      <c r="D27" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
+      <c r="K27" s="61"/>
+      <c r="L27" s="61"/>
+      <c r="M27" s="61"/>
+      <c r="N27" s="61"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="64"/>
+      <c r="Y27" s="64"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="65"/>
+      <c r="AC27" s="65"/>
+      <c r="AD27" s="65"/>
+      <c r="AE27" s="65"/>
+      <c r="AF27" s="66"/>
+      <c r="AG27" s="66"/>
+      <c r="AH27" s="66"/>
+      <c r="AI27" s="66"/>
+      <c r="AJ27" s="66"/>
+      <c r="AK27" s="67"/>
+      <c r="AL27" s="67"/>
+      <c r="AM27" s="67"/>
+      <c r="AN27" s="67"/>
+      <c r="AO27" s="68"/>
+      <c r="AP27" s="68"/>
+      <c r="AQ27" s="68"/>
+      <c r="AR27" s="68"/>
+      <c r="AS27" s="55"/>
+    </row>
+    <row r="28" ht="15.75" customHeight="1">
+      <c r="A28" s="56"/>
+      <c r="B28" s="72"/>
+      <c r="C28" s="58"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="K28" s="61"/>
+      <c r="L28" s="61"/>
+      <c r="M28" s="61"/>
+      <c r="N28" s="61"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="64"/>
+      <c r="Y28" s="64"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="65"/>
+      <c r="AC28" s="65"/>
+      <c r="AD28" s="65"/>
+      <c r="AE28" s="65"/>
+      <c r="AF28" s="66"/>
+      <c r="AG28" s="66"/>
+      <c r="AH28" s="66"/>
+      <c r="AI28" s="66"/>
+      <c r="AJ28" s="66"/>
+      <c r="AK28" s="67"/>
+      <c r="AL28" s="67"/>
+      <c r="AM28" s="67"/>
+      <c r="AN28" s="67"/>
+      <c r="AO28" s="68"/>
+      <c r="AP28" s="68"/>
+      <c r="AQ28" s="68"/>
+      <c r="AR28" s="68"/>
+      <c r="AS28" s="55"/>
+    </row>
+    <row r="29" ht="15.75" customHeight="1">
+      <c r="A29" s="56"/>
+      <c r="B29" t="s" s="57">
+        <v>30</v>
+      </c>
+      <c r="C29" s="58"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="K29" s="61"/>
+      <c r="L29" s="61"/>
+      <c r="M29" s="61"/>
+      <c r="N29" s="61"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="64"/>
+      <c r="Y29" s="64"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="66"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="66"/>
+      <c r="AI29" s="66"/>
+      <c r="AJ29" s="66"/>
+      <c r="AK29" s="67"/>
+      <c r="AL29" s="67"/>
+      <c r="AM29" s="67"/>
+      <c r="AN29" s="67"/>
+      <c r="AO29" s="68"/>
+      <c r="AP29" s="68"/>
+      <c r="AQ29" s="68"/>
+      <c r="AR29" s="68"/>
+      <c r="AS29" s="55"/>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="A30" s="56"/>
+      <c r="B30" t="s" s="69">
+        <v>31</v>
+      </c>
+      <c r="C30" s="58"/>
+      <c r="D30" t="s" s="71">
+        <v>7</v>
+      </c>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="61"/>
+      <c r="K30" s="61"/>
+      <c r="L30" s="61"/>
+      <c r="M30" s="61"/>
+      <c r="N30" s="61"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="64"/>
+      <c r="Y30" s="64"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="65"/>
+      <c r="AC30" s="65"/>
+      <c r="AD30" s="65"/>
+      <c r="AE30" s="65"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="67"/>
+      <c r="AL30" s="67"/>
+      <c r="AM30" s="67"/>
+      <c r="AN30" s="67"/>
+      <c r="AO30" s="68"/>
+      <c r="AP30" s="68"/>
+      <c r="AQ30" s="68"/>
+      <c r="AR30" s="68"/>
+      <c r="AS30" s="55"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="A31" s="56"/>
+      <c r="B31" t="s" s="69">
+        <v>32</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" t="s" s="71">
+        <v>7</v>
+      </c>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
+      <c r="K31" s="61"/>
+      <c r="L31" s="61"/>
+      <c r="M31" s="61"/>
+      <c r="N31" s="61"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="64"/>
+      <c r="Y31" s="64"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="65"/>
+      <c r="AC31" s="65"/>
+      <c r="AD31" s="65"/>
+      <c r="AE31" s="65"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="67"/>
+      <c r="AL31" s="67"/>
+      <c r="AM31" s="67"/>
+      <c r="AN31" s="67"/>
+      <c r="AO31" s="68"/>
+      <c r="AP31" s="68"/>
+      <c r="AQ31" s="68"/>
+      <c r="AR31" s="68"/>
+      <c r="AS31" s="55"/>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="56"/>
+      <c r="B32" t="s" s="69">
+        <v>33</v>
+      </c>
+      <c r="C32" s="58"/>
+      <c r="D32" t="s" s="71">
+        <v>7</v>
+      </c>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="K32" s="61"/>
+      <c r="L32" s="61"/>
+      <c r="M32" s="61"/>
+      <c r="N32" s="61"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="64"/>
+      <c r="Y32" s="64"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="65"/>
+      <c r="AC32" s="65"/>
+      <c r="AD32" s="65"/>
+      <c r="AE32" s="65"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="67"/>
+      <c r="AL32" s="67"/>
+      <c r="AM32" s="67"/>
+      <c r="AN32" s="67"/>
+      <c r="AO32" s="68"/>
+      <c r="AP32" s="68"/>
+      <c r="AQ32" s="68"/>
+      <c r="AR32" s="68"/>
+      <c r="AS32" s="55"/>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="56"/>
+      <c r="B33" s="72"/>
+      <c r="C33" s="58"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
+      <c r="K33" s="61"/>
+      <c r="L33" s="61"/>
+      <c r="M33" s="61"/>
+      <c r="N33" s="61"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="64"/>
+      <c r="Y33" s="64"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="65"/>
+      <c r="AC33" s="65"/>
+      <c r="AD33" s="65"/>
+      <c r="AE33" s="65"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="67"/>
+      <c r="AL33" s="67"/>
+      <c r="AM33" s="67"/>
+      <c r="AN33" s="67"/>
+      <c r="AO33" s="68"/>
+      <c r="AP33" s="68"/>
+      <c r="AQ33" s="68"/>
+      <c r="AR33" s="68"/>
+      <c r="AS33" s="55"/>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="56"/>
+      <c r="B34" t="s" s="57">
+        <v>34</v>
+      </c>
+      <c r="C34" s="58"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
+      <c r="J34" s="61"/>
+      <c r="K34" s="61"/>
+      <c r="L34" s="61"/>
+      <c r="M34" s="61"/>
+      <c r="N34" s="61"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="64"/>
+      <c r="Y34" s="64"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="65"/>
+      <c r="AC34" s="65"/>
+      <c r="AD34" s="65"/>
+      <c r="AE34" s="65"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="67"/>
+      <c r="AL34" s="67"/>
+      <c r="AM34" s="67"/>
+      <c r="AN34" s="67"/>
+      <c r="AO34" s="68"/>
+      <c r="AP34" s="68"/>
+      <c r="AQ34" s="68"/>
+      <c r="AR34" s="68"/>
+      <c r="AS34" s="55"/>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="56"/>
+      <c r="B35" t="s" s="69">
+        <v>35</v>
+      </c>
+      <c r="C35" s="58"/>
+      <c r="D35" t="s" s="71">
+        <v>36</v>
+      </c>
+      <c r="E35" s="59"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="60"/>
+      <c r="J35" s="61"/>
+      <c r="K35" s="61"/>
+      <c r="L35" s="61"/>
+      <c r="M35" s="61"/>
+      <c r="N35" s="61"/>
+      <c r="O35" s="62"/>
+      <c r="P35" s="62"/>
+      <c r="Q35" s="62"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="63"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="64"/>
+      <c r="Y35" s="64"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="65"/>
+      <c r="AC35" s="65"/>
+      <c r="AD35" s="65"/>
+      <c r="AE35" s="65"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="67"/>
+      <c r="AL35" s="67"/>
+      <c r="AM35" s="67"/>
+      <c r="AN35" s="67"/>
+      <c r="AO35" s="68"/>
+      <c r="AP35" s="68"/>
+      <c r="AQ35" s="68"/>
+      <c r="AR35" s="68"/>
+      <c r="AS35" s="55"/>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="56"/>
+      <c r="B36" t="s" s="69">
+        <v>37</v>
+      </c>
+      <c r="C36" s="58"/>
+      <c r="D36" t="s" s="71">
+        <v>36</v>
+      </c>
+      <c r="E36" s="59"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
+      <c r="J36" s="61"/>
+      <c r="K36" s="61"/>
+      <c r="L36" s="61"/>
+      <c r="M36" s="61"/>
+      <c r="N36" s="61"/>
+      <c r="O36" s="62"/>
+      <c r="P36" s="62"/>
+      <c r="Q36" s="62"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="63"/>
+      <c r="T36" s="63"/>
+      <c r="U36" s="63"/>
+      <c r="V36" s="63"/>
+      <c r="W36" s="63"/>
+      <c r="X36" s="64"/>
+      <c r="Y36" s="64"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="65"/>
+      <c r="AC36" s="65"/>
+      <c r="AD36" s="65"/>
+      <c r="AE36" s="65"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="67"/>
+      <c r="AL36" s="67"/>
+      <c r="AM36" s="67"/>
+      <c r="AN36" s="67"/>
+      <c r="AO36" s="68"/>
+      <c r="AP36" s="68"/>
+      <c r="AQ36" s="68"/>
+      <c r="AR36" s="68"/>
+      <c r="AS36" s="55"/>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="56"/>
+      <c r="B37" s="72"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="61"/>
+      <c r="L37" s="61"/>
+      <c r="M37" s="61"/>
+      <c r="N37" s="61"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="62"/>
+      <c r="Q37" s="62"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="63"/>
+      <c r="T37" s="63"/>
+      <c r="U37" s="63"/>
+      <c r="V37" s="63"/>
+      <c r="W37" s="63"/>
+      <c r="X37" s="64"/>
+      <c r="Y37" s="64"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="65"/>
+      <c r="AC37" s="65"/>
+      <c r="AD37" s="65"/>
+      <c r="AE37" s="65"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="67"/>
+      <c r="AL37" s="67"/>
+      <c r="AM37" s="67"/>
+      <c r="AN37" s="67"/>
+      <c r="AO37" s="68"/>
+      <c r="AP37" s="68"/>
+      <c r="AQ37" s="68"/>
+      <c r="AR37" s="68"/>
+      <c r="AS37" s="55"/>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="56"/>
+      <c r="B38" t="s" s="83">
+        <v>38</v>
+      </c>
+      <c r="C38" s="58"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
+      <c r="J38" s="61"/>
+      <c r="K38" s="61"/>
+      <c r="L38" s="61"/>
+      <c r="M38" s="61"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="62"/>
+      <c r="P38" s="62"/>
+      <c r="Q38" s="62"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="63"/>
+      <c r="T38" s="63"/>
+      <c r="U38" s="63"/>
+      <c r="V38" s="63"/>
+      <c r="W38" s="63"/>
+      <c r="X38" s="64"/>
+      <c r="Y38" s="64"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="65"/>
+      <c r="AC38" s="65"/>
+      <c r="AD38" s="65"/>
+      <c r="AE38" s="65"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="67"/>
+      <c r="AL38" s="67"/>
+      <c r="AM38" s="67"/>
+      <c r="AN38" s="67"/>
+      <c r="AO38" s="68"/>
+      <c r="AP38" s="68"/>
+      <c r="AQ38" s="68"/>
+      <c r="AR38" s="68"/>
+      <c r="AS38" s="55"/>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="56"/>
+      <c r="B39" t="s" s="69">
+        <v>18</v>
+      </c>
+      <c r="C39" s="58"/>
+      <c r="D39" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E39" s="59"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="61"/>
+      <c r="K39" s="61"/>
+      <c r="L39" s="61"/>
+      <c r="M39" s="61"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="62"/>
+      <c r="Q39" s="62"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="63"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="64"/>
+      <c r="Y39" s="64"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="65"/>
+      <c r="AC39" s="65"/>
+      <c r="AD39" s="65"/>
+      <c r="AE39" s="65"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="67"/>
+      <c r="AL39" s="67"/>
+      <c r="AM39" s="67"/>
+      <c r="AN39" s="67"/>
+      <c r="AO39" s="68"/>
+      <c r="AP39" s="68"/>
+      <c r="AQ39" s="68"/>
+      <c r="AR39" s="68"/>
+      <c r="AS39" s="55"/>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="56"/>
+      <c r="B40" t="s" s="69">
+        <v>20</v>
+      </c>
+      <c r="C40" s="58"/>
+      <c r="D40" t="s" s="71">
+        <v>19</v>
+      </c>
+      <c r="E40" s="59"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="61"/>
+      <c r="K40" s="61"/>
+      <c r="L40" s="61"/>
+      <c r="M40" s="61"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="62"/>
+      <c r="P40" s="62"/>
+      <c r="Q40" s="62"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="63"/>
+      <c r="T40" s="63"/>
+      <c r="U40" s="63"/>
+      <c r="V40" s="63"/>
+      <c r="W40" s="63"/>
+      <c r="X40" s="64"/>
+      <c r="Y40" s="64"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="65"/>
+      <c r="AC40" s="65"/>
+      <c r="AD40" s="65"/>
+      <c r="AE40" s="65"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="67"/>
+      <c r="AL40" s="67"/>
+      <c r="AM40" s="67"/>
+      <c r="AN40" s="67"/>
+      <c r="AO40" s="68"/>
+      <c r="AP40" s="68"/>
+      <c r="AQ40" s="68"/>
+      <c r="AR40" s="68"/>
+      <c r="AS40" s="55"/>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="56"/>
+      <c r="B41" t="s" s="69">
+        <v>21</v>
+      </c>
+      <c r="C41" s="58"/>
+      <c r="D41" t="s" s="71">
+        <v>7</v>
+      </c>
+      <c r="E41" s="59"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60"/>
+      <c r="H41" s="60"/>
+      <c r="I41" s="60"/>
+      <c r="J41" s="61"/>
+      <c r="K41" s="61"/>
+      <c r="L41" s="61"/>
+      <c r="M41" s="61"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="62"/>
+      <c r="P41" s="62"/>
+      <c r="Q41" s="62"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="63"/>
+      <c r="T41" s="63"/>
+      <c r="U41" s="63"/>
+      <c r="V41" s="63"/>
+      <c r="W41" s="63"/>
+      <c r="X41" s="64"/>
+      <c r="Y41" s="64"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="65"/>
+      <c r="AC41" s="65"/>
+      <c r="AD41" s="65"/>
+      <c r="AE41" s="65"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="67"/>
+      <c r="AL41" s="67"/>
+      <c r="AM41" s="67"/>
+      <c r="AN41" s="67"/>
+      <c r="AO41" s="68"/>
+      <c r="AP41" s="68"/>
+      <c r="AQ41" s="68"/>
+      <c r="AR41" s="68"/>
+      <c r="AS41" s="55"/>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="56"/>
+      <c r="B42" t="s" s="69">
         <v>22</v>
       </c>
-      <c r="N12" s="51">
-        <v>29</v>
-      </c>
-      <c r="O12" s="52">
-        <v>6</v>
-      </c>
-      <c r="P12" s="52">
-        <v>13</v>
-      </c>
-      <c r="Q12" s="53">
-        <v>20</v>
-      </c>
-      <c r="R12" s="52">
-        <v>27</v>
-      </c>
-      <c r="S12" s="54">
-        <v>3</v>
-      </c>
-      <c r="T12" s="54">
-        <v>10</v>
-      </c>
-      <c r="U12" s="54">
-        <v>17</v>
-      </c>
-      <c r="V12" s="54">
-        <v>24</v>
-      </c>
-      <c r="W12" s="54">
-        <v>31</v>
-      </c>
-      <c r="X12" s="55">
-        <v>7</v>
-      </c>
-      <c r="Y12" s="55">
-        <v>14</v>
-      </c>
-      <c r="Z12" s="56">
-        <v>21</v>
-      </c>
-      <c r="AA12" s="56">
-        <v>28</v>
-      </c>
-      <c r="AB12" s="57">
-        <v>5</v>
-      </c>
-      <c r="AC12" s="57">
-        <v>12</v>
-      </c>
-      <c r="AD12" s="57">
-        <v>19</v>
-      </c>
-      <c r="AE12" s="57">
-        <v>26</v>
-      </c>
-      <c r="AF12" s="58">
-        <v>2</v>
-      </c>
-      <c r="AG12" s="59">
-        <v>9</v>
-      </c>
-      <c r="AH12" s="58">
-        <v>16</v>
-      </c>
-      <c r="AI12" s="59">
+      <c r="C42" s="58"/>
+      <c r="D42" t="s" s="71">
+        <v>36</v>
+      </c>
+      <c r="E42" s="59"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60"/>
+      <c r="H42" s="60"/>
+      <c r="I42" s="60"/>
+      <c r="J42" s="61"/>
+      <c r="K42" s="61"/>
+      <c r="L42" s="61"/>
+      <c r="M42" s="61"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="62"/>
+      <c r="P42" s="62"/>
+      <c r="Q42" s="62"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="63"/>
+      <c r="T42" s="63"/>
+      <c r="U42" s="63"/>
+      <c r="V42" s="63"/>
+      <c r="W42" s="63"/>
+      <c r="X42" s="64"/>
+      <c r="Y42" s="64"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="65"/>
+      <c r="AC42" s="65"/>
+      <c r="AD42" s="65"/>
+      <c r="AE42" s="65"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="67"/>
+      <c r="AL42" s="67"/>
+      <c r="AM42" s="67"/>
+      <c r="AN42" s="67"/>
+      <c r="AO42" s="68"/>
+      <c r="AP42" s="68"/>
+      <c r="AQ42" s="68"/>
+      <c r="AR42" s="68"/>
+      <c r="AS42" s="55"/>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="56"/>
+      <c r="B43" t="s" s="69">
+        <v>39</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" t="s" s="84">
         <v>23</v>
       </c>
-      <c r="AJ12" s="59">
-        <v>30</v>
-      </c>
-      <c r="AK12" s="60">
-        <v>7</v>
-      </c>
-      <c r="AL12" s="60">
-        <v>14</v>
-      </c>
-      <c r="AM12" s="60">
-        <v>21</v>
-      </c>
-      <c r="AN12" s="61">
-        <v>28</v>
-      </c>
-      <c r="AO12" s="62">
+      <c r="E43" s="59"/>
+      <c r="F43" s="60"/>
+      <c r="G43" s="60"/>
+      <c r="H43" s="60"/>
+      <c r="I43" s="60"/>
+      <c r="J43" s="61"/>
+      <c r="K43" s="61"/>
+      <c r="L43" s="61"/>
+      <c r="M43" s="61"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="62"/>
+      <c r="Q43" s="62"/>
+      <c r="R43" s="62"/>
+      <c r="S43" s="63"/>
+      <c r="T43" s="63"/>
+      <c r="U43" s="63"/>
+      <c r="V43" s="63"/>
+      <c r="W43" s="63"/>
+      <c r="X43" s="64"/>
+      <c r="Y43" s="64"/>
+      <c r="Z43" s="64"/>
+      <c r="AA43" s="64"/>
+      <c r="AB43" s="65"/>
+      <c r="AC43" s="65"/>
+      <c r="AD43" s="65"/>
+      <c r="AE43" s="65"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="67"/>
+      <c r="AL43" s="67"/>
+      <c r="AM43" s="67"/>
+      <c r="AN43" s="67"/>
+      <c r="AO43" s="68"/>
+      <c r="AP43" s="68"/>
+      <c r="AQ43" s="68"/>
+      <c r="AR43" s="68"/>
+      <c r="AS43" s="55"/>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="56"/>
+      <c r="B44" s="72"/>
+      <c r="C44" s="58"/>
+      <c r="D44" s="85"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="60"/>
+      <c r="H44" s="60"/>
+      <c r="I44" s="60"/>
+      <c r="J44" s="61"/>
+      <c r="K44" s="61"/>
+      <c r="L44" s="61"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="61"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="62"/>
+      <c r="R44" s="62"/>
+      <c r="S44" s="63"/>
+      <c r="T44" s="63"/>
+      <c r="U44" s="63"/>
+      <c r="V44" s="63"/>
+      <c r="W44" s="63"/>
+      <c r="X44" s="64"/>
+      <c r="Y44" s="64"/>
+      <c r="Z44" s="64"/>
+      <c r="AA44" s="64"/>
+      <c r="AB44" s="65"/>
+      <c r="AC44" s="65"/>
+      <c r="AD44" s="65"/>
+      <c r="AE44" s="65"/>
+      <c r="AF44" s="66"/>
+      <c r="AG44" s="66"/>
+      <c r="AH44" s="66"/>
+      <c r="AI44" s="66"/>
+      <c r="AJ44" s="66"/>
+      <c r="AK44" s="67"/>
+      <c r="AL44" s="67"/>
+      <c r="AM44" s="67"/>
+      <c r="AN44" s="67"/>
+      <c r="AO44" s="68"/>
+      <c r="AP44" s="68"/>
+      <c r="AQ44" s="68"/>
+      <c r="AR44" s="68"/>
+      <c r="AS44" s="55"/>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="56"/>
+      <c r="B45" t="s" s="83">
+        <v>40</v>
+      </c>
+      <c r="C45" s="58"/>
+      <c r="D45" s="85"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="60"/>
+      <c r="I45" s="60"/>
+      <c r="J45" s="61"/>
+      <c r="K45" s="61"/>
+      <c r="L45" s="61"/>
+      <c r="M45" s="61"/>
+      <c r="N45" s="61"/>
+      <c r="O45" s="62"/>
+      <c r="P45" s="62"/>
+      <c r="Q45" s="62"/>
+      <c r="R45" s="62"/>
+      <c r="S45" s="63"/>
+      <c r="T45" s="63"/>
+      <c r="U45" s="63"/>
+      <c r="V45" s="63"/>
+      <c r="W45" s="63"/>
+      <c r="X45" s="64"/>
+      <c r="Y45" s="64"/>
+      <c r="Z45" s="64"/>
+      <c r="AA45" s="64"/>
+      <c r="AB45" s="65"/>
+      <c r="AC45" s="65"/>
+      <c r="AD45" s="65"/>
+      <c r="AE45" s="65"/>
+      <c r="AF45" s="66"/>
+      <c r="AG45" s="66"/>
+      <c r="AH45" s="66"/>
+      <c r="AI45" s="66"/>
+      <c r="AJ45" s="66"/>
+      <c r="AK45" s="67"/>
+      <c r="AL45" s="67"/>
+      <c r="AM45" s="67"/>
+      <c r="AN45" s="67"/>
+      <c r="AO45" s="68"/>
+      <c r="AP45" s="68"/>
+      <c r="AQ45" s="68"/>
+      <c r="AR45" s="68"/>
+      <c r="AS45" s="55"/>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="56"/>
+      <c r="B46" t="s" s="86">
+        <v>41</v>
+      </c>
+      <c r="C46" s="58"/>
+      <c r="D46" t="s" s="84">
+        <v>23</v>
+      </c>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
+      <c r="J46" s="61"/>
+      <c r="K46" s="61"/>
+      <c r="L46" s="61"/>
+      <c r="M46" s="61"/>
+      <c r="N46" s="61"/>
+      <c r="O46" s="62"/>
+      <c r="P46" s="62"/>
+      <c r="Q46" s="62"/>
+      <c r="R46" s="62"/>
+      <c r="S46" s="63"/>
+      <c r="T46" s="63"/>
+      <c r="U46" s="63"/>
+      <c r="V46" s="63"/>
+      <c r="W46" s="63"/>
+      <c r="X46" s="64"/>
+      <c r="Y46" s="64"/>
+      <c r="Z46" s="64"/>
+      <c r="AA46" s="64"/>
+      <c r="AB46" s="65"/>
+      <c r="AC46" s="65"/>
+      <c r="AD46" s="65"/>
+      <c r="AE46" s="65"/>
+      <c r="AF46" s="66"/>
+      <c r="AG46" s="66"/>
+      <c r="AH46" s="66"/>
+      <c r="AI46" s="66"/>
+      <c r="AJ46" s="66"/>
+      <c r="AK46" s="67"/>
+      <c r="AL46" s="67"/>
+      <c r="AM46" s="67"/>
+      <c r="AN46" s="67"/>
+      <c r="AO46" s="68"/>
+      <c r="AP46" s="68"/>
+      <c r="AQ46" s="68"/>
+      <c r="AR46" s="68"/>
+      <c r="AS46" s="55"/>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="56"/>
+      <c r="B47" s="72"/>
+      <c r="C47" s="58"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="60"/>
+      <c r="I47" s="60"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="62"/>
+      <c r="P47" s="62"/>
+      <c r="Q47" s="62"/>
+      <c r="R47" s="62"/>
+      <c r="S47" s="63"/>
+      <c r="T47" s="63"/>
+      <c r="U47" s="63"/>
+      <c r="V47" s="63"/>
+      <c r="W47" s="63"/>
+      <c r="X47" s="64"/>
+      <c r="Y47" s="64"/>
+      <c r="Z47" s="64"/>
+      <c r="AA47" s="64"/>
+      <c r="AB47" s="65"/>
+      <c r="AC47" s="65"/>
+      <c r="AD47" s="65"/>
+      <c r="AE47" s="65"/>
+      <c r="AF47" s="66"/>
+      <c r="AG47" s="66"/>
+      <c r="AH47" s="66"/>
+      <c r="AI47" s="66"/>
+      <c r="AJ47" s="66"/>
+      <c r="AK47" s="67"/>
+      <c r="AL47" s="67"/>
+      <c r="AM47" s="67"/>
+      <c r="AN47" s="67"/>
+      <c r="AO47" s="68"/>
+      <c r="AP47" s="68"/>
+      <c r="AQ47" s="68"/>
+      <c r="AR47" s="68"/>
+      <c r="AS47" s="55"/>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="56"/>
+      <c r="B48" t="s" s="57">
+        <v>42</v>
+      </c>
+      <c r="C48" s="58"/>
+      <c r="D48" s="59"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
+      <c r="J48" s="61"/>
+      <c r="K48" s="61"/>
+      <c r="L48" s="61"/>
+      <c r="M48" s="61"/>
+      <c r="N48" s="61"/>
+      <c r="O48" s="62"/>
+      <c r="P48" s="62"/>
+      <c r="Q48" s="62"/>
+      <c r="R48" s="62"/>
+      <c r="S48" s="63"/>
+      <c r="T48" s="63"/>
+      <c r="U48" s="63"/>
+      <c r="V48" s="63"/>
+      <c r="W48" s="63"/>
+      <c r="X48" s="64"/>
+      <c r="Y48" s="64"/>
+      <c r="Z48" s="64"/>
+      <c r="AA48" s="64"/>
+      <c r="AB48" s="65"/>
+      <c r="AC48" s="65"/>
+      <c r="AD48" s="65"/>
+      <c r="AE48" s="65"/>
+      <c r="AF48" s="66"/>
+      <c r="AG48" s="66"/>
+      <c r="AH48" s="66"/>
+      <c r="AI48" s="66"/>
+      <c r="AJ48" s="66"/>
+      <c r="AK48" s="67"/>
+      <c r="AL48" s="67"/>
+      <c r="AM48" s="67"/>
+      <c r="AN48" s="67"/>
+      <c r="AO48" s="68"/>
+      <c r="AP48" s="68"/>
+      <c r="AQ48" s="68"/>
+      <c r="AR48" s="68"/>
+      <c r="AS48" s="55"/>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="56"/>
+      <c r="B49" t="s" s="69">
+        <v>43</v>
+      </c>
+      <c r="C49" s="58"/>
+      <c r="D49" t="s" s="71">
+        <v>23</v>
+      </c>
+      <c r="E49" s="59"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="60"/>
+      <c r="I49" s="60"/>
+      <c r="J49" s="61"/>
+      <c r="K49" s="61"/>
+      <c r="L49" s="61"/>
+      <c r="M49" s="61"/>
+      <c r="N49" s="61"/>
+      <c r="O49" s="62"/>
+      <c r="P49" s="62"/>
+      <c r="Q49" s="62"/>
+      <c r="R49" s="62"/>
+      <c r="S49" s="63"/>
+      <c r="T49" s="63"/>
+      <c r="U49" s="63"/>
+      <c r="V49" s="63"/>
+      <c r="W49" s="63"/>
+      <c r="X49" s="64"/>
+      <c r="Y49" s="64"/>
+      <c r="Z49" s="64"/>
+      <c r="AA49" s="64"/>
+      <c r="AB49" s="65"/>
+      <c r="AC49" s="65"/>
+      <c r="AD49" s="65"/>
+      <c r="AE49" s="65"/>
+      <c r="AF49" s="66"/>
+      <c r="AG49" s="66"/>
+      <c r="AH49" s="66"/>
+      <c r="AI49" s="66"/>
+      <c r="AJ49" s="66"/>
+      <c r="AK49" s="67"/>
+      <c r="AL49" s="67"/>
+      <c r="AM49" s="67"/>
+      <c r="AN49" s="67"/>
+      <c r="AO49" s="68"/>
+      <c r="AP49" s="68"/>
+      <c r="AQ49" s="68"/>
+      <c r="AR49" s="68"/>
+      <c r="AS49" s="55"/>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="56"/>
+      <c r="B50" t="s" s="69">
+        <v>44</v>
+      </c>
+      <c r="C50" s="58"/>
+      <c r="D50" t="s" s="71">
+        <v>23</v>
+      </c>
+      <c r="E50" s="59"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
+      <c r="J50" s="61"/>
+      <c r="K50" s="61"/>
+      <c r="L50" s="61"/>
+      <c r="M50" s="61"/>
+      <c r="N50" s="61"/>
+      <c r="O50" s="62"/>
+      <c r="P50" s="62"/>
+      <c r="Q50" s="62"/>
+      <c r="R50" s="62"/>
+      <c r="S50" s="63"/>
+      <c r="T50" s="63"/>
+      <c r="U50" s="63"/>
+      <c r="V50" s="63"/>
+      <c r="W50" s="63"/>
+      <c r="X50" s="64"/>
+      <c r="Y50" s="64"/>
+      <c r="Z50" s="64"/>
+      <c r="AA50" s="64"/>
+      <c r="AB50" s="65"/>
+      <c r="AC50" s="65"/>
+      <c r="AD50" s="65"/>
+      <c r="AE50" s="65"/>
+      <c r="AF50" s="66"/>
+      <c r="AG50" s="66"/>
+      <c r="AH50" s="66"/>
+      <c r="AI50" s="66"/>
+      <c r="AJ50" s="66"/>
+      <c r="AK50" s="67"/>
+      <c r="AL50" s="67"/>
+      <c r="AM50" s="67"/>
+      <c r="AN50" s="67"/>
+      <c r="AO50" s="68"/>
+      <c r="AP50" s="68"/>
+      <c r="AQ50" s="68"/>
+      <c r="AR50" s="68"/>
+      <c r="AS50" s="55"/>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="56"/>
+      <c r="B51" s="72"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="59"/>
+      <c r="F51" s="60"/>
+      <c r="G51" s="60"/>
+      <c r="H51" s="60"/>
+      <c r="I51" s="60"/>
+      <c r="J51" s="61"/>
+      <c r="K51" s="61"/>
+      <c r="L51" s="61"/>
+      <c r="M51" s="61"/>
+      <c r="N51" s="61"/>
+      <c r="O51" s="62"/>
+      <c r="P51" s="62"/>
+      <c r="Q51" s="62"/>
+      <c r="R51" s="62"/>
+      <c r="S51" s="63"/>
+      <c r="T51" s="63"/>
+      <c r="U51" s="63"/>
+      <c r="V51" s="63"/>
+      <c r="W51" s="63"/>
+      <c r="X51" s="64"/>
+      <c r="Y51" s="64"/>
+      <c r="Z51" s="64"/>
+      <c r="AA51" s="64"/>
+      <c r="AB51" s="65"/>
+      <c r="AC51" s="65"/>
+      <c r="AD51" s="65"/>
+      <c r="AE51" s="65"/>
+      <c r="AF51" s="66"/>
+      <c r="AG51" s="66"/>
+      <c r="AH51" s="66"/>
+      <c r="AI51" s="66"/>
+      <c r="AJ51" s="66"/>
+      <c r="AK51" s="67"/>
+      <c r="AL51" s="67"/>
+      <c r="AM51" s="67"/>
+      <c r="AN51" s="67"/>
+      <c r="AO51" s="68"/>
+      <c r="AP51" s="68"/>
+      <c r="AQ51" s="68"/>
+      <c r="AR51" s="68"/>
+      <c r="AS51" s="55"/>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="56"/>
+      <c r="B52" s="87"/>
+      <c r="C52" s="87"/>
+      <c r="D52" s="87"/>
+      <c r="E52" s="87"/>
+      <c r="F52" s="87"/>
+      <c r="G52" s="87"/>
+      <c r="H52" s="87"/>
+      <c r="I52" s="87"/>
+      <c r="J52" s="87"/>
+      <c r="K52" s="87"/>
+      <c r="L52" s="87"/>
+      <c r="M52" s="87"/>
+      <c r="N52" s="87"/>
+      <c r="O52" s="87"/>
+      <c r="P52" s="87"/>
+      <c r="Q52" s="87"/>
+      <c r="R52" s="87"/>
+      <c r="S52" s="87"/>
+      <c r="T52" s="87"/>
+      <c r="U52" s="87"/>
+      <c r="V52" s="87"/>
+      <c r="W52" s="87"/>
+      <c r="X52" s="87"/>
+      <c r="Y52" s="87"/>
+      <c r="Z52" s="87"/>
+      <c r="AA52" s="87"/>
+      <c r="AB52" s="87"/>
+      <c r="AC52" s="87"/>
+      <c r="AD52" s="87"/>
+      <c r="AE52" s="87"/>
+      <c r="AF52" s="87"/>
+      <c r="AG52" s="87"/>
+      <c r="AH52" s="87"/>
+      <c r="AI52" s="87"/>
+      <c r="AJ52" s="87"/>
+      <c r="AK52" s="87"/>
+      <c r="AL52" s="87"/>
+      <c r="AM52" s="87"/>
+      <c r="AN52" s="87"/>
+      <c r="AO52" s="87"/>
+      <c r="AP52" s="87"/>
+      <c r="AQ52" s="87"/>
+      <c r="AR52" s="87"/>
+      <c r="AS52" s="88"/>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="56"/>
+      <c r="B53" t="s" s="89">
+        <v>45</v>
+      </c>
+      <c r="C53" s="90"/>
+      <c r="D53" s="90"/>
+      <c r="E53" s="90"/>
+      <c r="F53" s="90"/>
+      <c r="G53" s="90"/>
+      <c r="H53" s="90"/>
+      <c r="I53" s="90"/>
+      <c r="J53" s="90"/>
+      <c r="K53" s="90"/>
+      <c r="L53" s="90"/>
+      <c r="M53" s="90"/>
+      <c r="N53" s="90"/>
+      <c r="O53" s="90"/>
+      <c r="P53" s="90"/>
+      <c r="Q53" s="90"/>
+      <c r="R53" s="90"/>
+      <c r="S53" s="90"/>
+      <c r="T53" s="90"/>
+      <c r="U53" s="90"/>
+      <c r="V53" s="90"/>
+      <c r="W53" s="90"/>
+      <c r="X53" s="90"/>
+      <c r="Y53" s="90"/>
+      <c r="Z53" s="90"/>
+      <c r="AA53" s="90"/>
+      <c r="AB53" s="90"/>
+      <c r="AC53" s="90"/>
+      <c r="AD53" s="90"/>
+      <c r="AE53" s="90"/>
+      <c r="AF53" s="91"/>
+      <c r="AG53" s="91"/>
+      <c r="AH53" s="91"/>
+      <c r="AI53" s="91"/>
+      <c r="AJ53" s="91"/>
+      <c r="AK53" s="91"/>
+      <c r="AL53" s="91"/>
+      <c r="AM53" s="91"/>
+      <c r="AN53" s="91"/>
+      <c r="AO53" s="91"/>
+      <c r="AP53" s="91"/>
+      <c r="AQ53" s="91"/>
+      <c r="AR53" s="91"/>
+      <c r="AS53" s="92"/>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="93"/>
+      <c r="B54" t="s" s="94">
+        <v>46</v>
+      </c>
+      <c r="C54" t="s" s="94">
+        <v>47</v>
+      </c>
+      <c r="D54" t="s" s="95">
+        <v>48</v>
+      </c>
+      <c r="E54" s="96"/>
+      <c r="F54" s="97"/>
+      <c r="G54" s="97"/>
+      <c r="H54" s="97"/>
+      <c r="I54" s="97"/>
+      <c r="J54" s="97"/>
+      <c r="K54" s="97"/>
+      <c r="L54" s="97"/>
+      <c r="M54" s="97"/>
+      <c r="N54" s="97"/>
+      <c r="O54" s="97"/>
+      <c r="P54" s="96"/>
+      <c r="Q54" s="96"/>
+      <c r="R54" s="96"/>
+      <c r="S54" s="96"/>
+      <c r="T54" s="96"/>
+      <c r="U54" s="96"/>
+      <c r="V54" s="96"/>
+      <c r="W54" s="96"/>
+      <c r="X54" s="96"/>
+      <c r="Y54" s="96"/>
+      <c r="Z54" s="96"/>
+      <c r="AA54" s="96"/>
+      <c r="AB54" s="96"/>
+      <c r="AC54" s="96"/>
+      <c r="AD54" s="96"/>
+      <c r="AE54" s="98"/>
+      <c r="AF54" s="99"/>
+      <c r="AG54" s="91"/>
+      <c r="AH54" s="91"/>
+      <c r="AI54" s="91"/>
+      <c r="AJ54" s="91"/>
+      <c r="AK54" s="91"/>
+      <c r="AL54" s="91"/>
+      <c r="AM54" s="91"/>
+      <c r="AN54" s="91"/>
+      <c r="AO54" s="91"/>
+      <c r="AP54" s="91"/>
+      <c r="AQ54" s="91"/>
+      <c r="AR54" s="91"/>
+      <c r="AS54" s="92"/>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="100"/>
+      <c r="B55" s="101">
+        <v>43267</v>
+      </c>
+      <c r="C55" s="102"/>
+      <c r="D55" t="s" s="103">
+        <v>49</v>
+      </c>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="104"/>
+      <c r="U55" s="104"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104"/>
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="104"/>
+      <c r="AA55" s="104"/>
+      <c r="AB55" s="104"/>
+      <c r="AC55" s="104"/>
+      <c r="AD55" s="104"/>
+      <c r="AE55" s="105"/>
+      <c r="AF55" s="99"/>
+      <c r="AG55" s="91"/>
+      <c r="AH55" s="91"/>
+      <c r="AI55" s="91"/>
+      <c r="AJ55" s="91"/>
+      <c r="AK55" s="91"/>
+      <c r="AL55" s="91"/>
+      <c r="AM55" s="91"/>
+      <c r="AN55" s="91"/>
+      <c r="AO55" s="91"/>
+      <c r="AP55" s="91"/>
+      <c r="AQ55" s="91"/>
+      <c r="AR55" s="91"/>
+      <c r="AS55" s="92"/>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="106"/>
+      <c r="B56" s="101">
+        <v>43280</v>
+      </c>
+      <c r="C56" t="s" s="107">
+        <v>50</v>
+      </c>
+      <c r="D56" t="s" s="103">
+        <v>51</v>
+      </c>
+      <c r="E56" s="104"/>
+      <c r="F56" s="104"/>
+      <c r="G56" s="104"/>
+      <c r="H56" s="104"/>
+      <c r="I56" s="104"/>
+      <c r="J56" s="104"/>
+      <c r="K56" s="104"/>
+      <c r="L56" s="104"/>
+      <c r="M56" s="104"/>
+      <c r="N56" s="104"/>
+      <c r="O56" s="104"/>
+      <c r="P56" s="104"/>
+      <c r="Q56" s="104"/>
+      <c r="R56" s="104"/>
+      <c r="S56" s="104"/>
+      <c r="T56" s="104"/>
+      <c r="U56" s="104"/>
+      <c r="V56" s="104"/>
+      <c r="W56" s="104"/>
+      <c r="X56" s="104"/>
+      <c r="Y56" s="104"/>
+      <c r="Z56" s="104"/>
+      <c r="AA56" s="104"/>
+      <c r="AB56" s="104"/>
+      <c r="AC56" s="104"/>
+      <c r="AD56" s="104"/>
+      <c r="AE56" s="105"/>
+      <c r="AF56" s="99"/>
+      <c r="AG56" s="91"/>
+      <c r="AH56" s="91"/>
+      <c r="AI56" s="91"/>
+      <c r="AJ56" s="91"/>
+      <c r="AK56" s="91"/>
+      <c r="AL56" s="91"/>
+      <c r="AM56" s="91"/>
+      <c r="AN56" s="91"/>
+      <c r="AO56" s="91"/>
+      <c r="AP56" s="91"/>
+      <c r="AQ56" s="91"/>
+      <c r="AR56" s="91"/>
+      <c r="AS56" s="92"/>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="106"/>
+      <c r="B57" s="108">
+        <v>40804</v>
+      </c>
+      <c r="C57" t="s" s="109">
         <v>4</v>
       </c>
-      <c r="AP12" s="63">
-        <v>11</v>
-      </c>
-      <c r="AQ12" s="63">
-        <v>18</v>
-      </c>
-      <c r="AR12" s="63">
-        <v>25</v>
-      </c>
-      <c r="AS12" s="64"/>
+      <c r="D57" t="s" s="110">
+        <v>52</v>
+      </c>
+      <c r="E57" s="104"/>
+      <c r="F57" s="104"/>
+      <c r="G57" s="104"/>
+      <c r="H57" s="104"/>
+      <c r="I57" s="104"/>
+      <c r="J57" s="104"/>
+      <c r="K57" s="104"/>
+      <c r="L57" s="104"/>
+      <c r="M57" s="104"/>
+      <c r="N57" s="104"/>
+      <c r="O57" s="104"/>
+      <c r="P57" s="104"/>
+      <c r="Q57" s="104"/>
+      <c r="R57" s="104"/>
+      <c r="S57" s="104"/>
+      <c r="T57" s="104"/>
+      <c r="U57" s="104"/>
+      <c r="V57" s="104"/>
+      <c r="W57" s="104"/>
+      <c r="X57" s="104"/>
+      <c r="Y57" s="104"/>
+      <c r="Z57" s="104"/>
+      <c r="AA57" s="104"/>
+      <c r="AB57" s="104"/>
+      <c r="AC57" s="104"/>
+      <c r="AD57" s="104"/>
+      <c r="AE57" s="105"/>
+      <c r="AF57" s="99"/>
+      <c r="AG57" s="91"/>
+      <c r="AH57" s="91"/>
+      <c r="AI57" s="91"/>
+      <c r="AJ57" s="91"/>
+      <c r="AK57" s="91"/>
+      <c r="AL57" s="91"/>
+      <c r="AM57" s="91"/>
+      <c r="AN57" s="91"/>
+      <c r="AO57" s="91"/>
+      <c r="AP57" s="91"/>
+      <c r="AQ57" s="91"/>
+      <c r="AR57" s="91"/>
+      <c r="AS57" s="92"/>
     </row>
-    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="66" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="69"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="69"/>
-      <c r="I13" s="69"/>
-      <c r="J13" s="70"/>
-      <c r="K13" s="70"/>
-      <c r="L13" s="70"/>
-      <c r="M13" s="70"/>
-      <c r="N13" s="70"/>
-      <c r="O13" s="71"/>
-      <c r="P13" s="71"/>
-      <c r="Q13" s="71"/>
-      <c r="R13" s="71"/>
-      <c r="S13" s="72"/>
-      <c r="T13" s="72"/>
-      <c r="U13" s="72"/>
-      <c r="V13" s="72"/>
-      <c r="W13" s="72"/>
-      <c r="X13" s="73"/>
-      <c r="Y13" s="73"/>
-      <c r="Z13" s="73"/>
-      <c r="AA13" s="73"/>
-      <c r="AB13" s="74"/>
-      <c r="AC13" s="74"/>
-      <c r="AD13" s="74"/>
-      <c r="AE13" s="74"/>
-      <c r="AF13" s="75"/>
-      <c r="AG13" s="75"/>
-      <c r="AH13" s="75"/>
-      <c r="AI13" s="75"/>
-      <c r="AJ13" s="75"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="77"/>
-      <c r="AP13" s="77"/>
-      <c r="AQ13" s="77"/>
-      <c r="AR13" s="77"/>
-      <c r="AS13" s="64"/>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="106"/>
+      <c r="B58" s="102"/>
+      <c r="C58" s="102"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="104"/>
+      <c r="F58" s="104"/>
+      <c r="G58" s="104"/>
+      <c r="H58" s="104"/>
+      <c r="I58" s="104"/>
+      <c r="J58" s="104"/>
+      <c r="K58" s="104"/>
+      <c r="L58" s="104"/>
+      <c r="M58" s="104"/>
+      <c r="N58" s="104"/>
+      <c r="O58" s="104"/>
+      <c r="P58" s="104"/>
+      <c r="Q58" s="104"/>
+      <c r="R58" s="104"/>
+      <c r="S58" s="104"/>
+      <c r="T58" s="104"/>
+      <c r="U58" s="104"/>
+      <c r="V58" s="104"/>
+      <c r="W58" s="104"/>
+      <c r="X58" s="104"/>
+      <c r="Y58" s="104"/>
+      <c r="Z58" s="104"/>
+      <c r="AA58" s="104"/>
+      <c r="AB58" s="104"/>
+      <c r="AC58" s="104"/>
+      <c r="AD58" s="104"/>
+      <c r="AE58" s="105"/>
+      <c r="AF58" s="99"/>
+      <c r="AG58" s="91"/>
+      <c r="AH58" s="91"/>
+      <c r="AI58" s="91"/>
+      <c r="AJ58" s="91"/>
+      <c r="AK58" s="91"/>
+      <c r="AL58" s="91"/>
+      <c r="AM58" s="91"/>
+      <c r="AN58" s="91"/>
+      <c r="AO58" s="91"/>
+      <c r="AP58" s="91"/>
+      <c r="AQ58" s="91"/>
+      <c r="AR58" s="91"/>
+      <c r="AS58" s="92"/>
     </row>
-    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="65"/>
-      <c r="B14" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="114">
-        <v>0.85</v>
-      </c>
-      <c r="D14" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E14" s="68"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-      <c r="J14" s="70"/>
-      <c r="K14" s="70"/>
-      <c r="L14" s="70"/>
-      <c r="M14" s="70"/>
-      <c r="N14" s="70"/>
-      <c r="O14" s="71"/>
-      <c r="P14" s="71"/>
-      <c r="Q14" s="71"/>
-      <c r="R14" s="71"/>
-      <c r="S14" s="72"/>
-      <c r="T14" s="72"/>
-      <c r="U14" s="72"/>
-      <c r="V14" s="72"/>
-      <c r="W14" s="72"/>
-      <c r="X14" s="73"/>
-      <c r="Y14" s="73"/>
-      <c r="Z14" s="73"/>
-      <c r="AA14" s="73"/>
-      <c r="AB14" s="74"/>
-      <c r="AC14" s="74"/>
-      <c r="AD14" s="74"/>
-      <c r="AE14" s="74"/>
-      <c r="AF14" s="75"/>
-      <c r="AG14" s="75"/>
-      <c r="AH14" s="75"/>
-      <c r="AI14" s="75"/>
-      <c r="AJ14" s="75"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="77"/>
-      <c r="AP14" s="77"/>
-      <c r="AQ14" s="77"/>
-      <c r="AR14" s="77"/>
-      <c r="AS14" s="64"/>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="106"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="104"/>
+      <c r="F59" s="104"/>
+      <c r="G59" s="104"/>
+      <c r="H59" s="104"/>
+      <c r="I59" s="104"/>
+      <c r="J59" s="104"/>
+      <c r="K59" s="104"/>
+      <c r="L59" s="104"/>
+      <c r="M59" s="104"/>
+      <c r="N59" s="104"/>
+      <c r="O59" s="104"/>
+      <c r="P59" s="104"/>
+      <c r="Q59" s="104"/>
+      <c r="R59" s="104"/>
+      <c r="S59" s="104"/>
+      <c r="T59" s="104"/>
+      <c r="U59" s="104"/>
+      <c r="V59" s="104"/>
+      <c r="W59" s="104"/>
+      <c r="X59" s="104"/>
+      <c r="Y59" s="104"/>
+      <c r="Z59" s="104"/>
+      <c r="AA59" s="104"/>
+      <c r="AB59" s="104"/>
+      <c r="AC59" s="104"/>
+      <c r="AD59" s="104"/>
+      <c r="AE59" s="105"/>
+      <c r="AF59" s="99"/>
+      <c r="AG59" s="91"/>
+      <c r="AH59" s="91"/>
+      <c r="AI59" s="91"/>
+      <c r="AJ59" s="91"/>
+      <c r="AK59" s="91"/>
+      <c r="AL59" s="91"/>
+      <c r="AM59" s="91"/>
+      <c r="AN59" s="91"/>
+      <c r="AO59" s="91"/>
+      <c r="AP59" s="91"/>
+      <c r="AQ59" s="91"/>
+      <c r="AR59" s="91"/>
+      <c r="AS59" s="92"/>
     </row>
-    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="65"/>
-      <c r="B15" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="114">
-        <v>0.95</v>
-      </c>
-      <c r="D15" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E15" s="68"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
-      <c r="H15" s="69"/>
-      <c r="I15" s="69"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="70"/>
-      <c r="L15" s="70"/>
-      <c r="M15" s="70"/>
-      <c r="N15" s="70"/>
-      <c r="O15" s="71"/>
-      <c r="P15" s="71"/>
-      <c r="Q15" s="71"/>
-      <c r="R15" s="71"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
-      <c r="U15" s="72"/>
-      <c r="V15" s="72"/>
-      <c r="W15" s="72"/>
-      <c r="X15" s="73"/>
-      <c r="Y15" s="73"/>
-      <c r="Z15" s="73"/>
-      <c r="AA15" s="73"/>
-      <c r="AB15" s="74"/>
-      <c r="AC15" s="74"/>
-      <c r="AD15" s="74"/>
-      <c r="AE15" s="74"/>
-      <c r="AF15" s="75"/>
-      <c r="AG15" s="75"/>
-      <c r="AH15" s="75"/>
-      <c r="AI15" s="75"/>
-      <c r="AJ15" s="75"/>
-      <c r="AK15" s="76"/>
-      <c r="AL15" s="76"/>
-      <c r="AM15" s="76"/>
-      <c r="AN15" s="76"/>
-      <c r="AO15" s="77"/>
-      <c r="AP15" s="77"/>
-      <c r="AQ15" s="77"/>
-      <c r="AR15" s="77"/>
-      <c r="AS15" s="64"/>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="106"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="113"/>
+      <c r="E60" s="114"/>
+      <c r="F60" s="114"/>
+      <c r="G60" s="114"/>
+      <c r="H60" s="114"/>
+      <c r="I60" s="114"/>
+      <c r="J60" s="114"/>
+      <c r="K60" s="114"/>
+      <c r="L60" s="114"/>
+      <c r="M60" s="114"/>
+      <c r="N60" s="114"/>
+      <c r="O60" s="114"/>
+      <c r="P60" s="114"/>
+      <c r="Q60" s="114"/>
+      <c r="R60" s="114"/>
+      <c r="S60" s="114"/>
+      <c r="T60" s="114"/>
+      <c r="U60" s="114"/>
+      <c r="V60" s="114"/>
+      <c r="W60" s="114"/>
+      <c r="X60" s="114"/>
+      <c r="Y60" s="114"/>
+      <c r="Z60" s="114"/>
+      <c r="AA60" s="114"/>
+      <c r="AB60" s="114"/>
+      <c r="AC60" s="114"/>
+      <c r="AD60" s="114"/>
+      <c r="AE60" s="115"/>
+      <c r="AF60" s="99"/>
+      <c r="AG60" s="91"/>
+      <c r="AH60" s="91"/>
+      <c r="AI60" s="91"/>
+      <c r="AJ60" s="91"/>
+      <c r="AK60" s="91"/>
+      <c r="AL60" s="91"/>
+      <c r="AM60" s="91"/>
+      <c r="AN60" s="91"/>
+      <c r="AO60" s="91"/>
+      <c r="AP60" s="91"/>
+      <c r="AQ60" s="91"/>
+      <c r="AR60" s="91"/>
+      <c r="AS60" s="92"/>
     </row>
-    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="65"/>
-      <c r="B16" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="67"/>
-      <c r="D16" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="68"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
-      <c r="J16" s="70"/>
-      <c r="K16" s="70"/>
-      <c r="L16" s="70"/>
-      <c r="M16" s="70"/>
-      <c r="N16" s="70"/>
-      <c r="O16" s="71"/>
-      <c r="P16" s="71"/>
-      <c r="Q16" s="71"/>
-      <c r="R16" s="71"/>
-      <c r="S16" s="72"/>
-      <c r="T16" s="72"/>
-      <c r="U16" s="72"/>
-      <c r="V16" s="72"/>
-      <c r="W16" s="72"/>
-      <c r="X16" s="73"/>
-      <c r="Y16" s="73"/>
-      <c r="Z16" s="73"/>
-      <c r="AA16" s="73"/>
-      <c r="AB16" s="74"/>
-      <c r="AC16" s="74"/>
-      <c r="AD16" s="74"/>
-      <c r="AE16" s="74"/>
-      <c r="AF16" s="75"/>
-      <c r="AG16" s="75"/>
-      <c r="AH16" s="75"/>
-      <c r="AI16" s="75"/>
-      <c r="AJ16" s="75"/>
-      <c r="AK16" s="76"/>
-      <c r="AL16" s="76"/>
-      <c r="AM16" s="76"/>
-      <c r="AN16" s="76"/>
-      <c r="AO16" s="77"/>
-      <c r="AP16" s="77"/>
-      <c r="AQ16" s="77"/>
-      <c r="AR16" s="77"/>
-      <c r="AS16" s="64"/>
-    </row>
-    <row r="17" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="65"/>
-      <c r="B17" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="68"/>
-      <c r="F17" s="69"/>
-      <c r="G17" s="69"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
-      <c r="J17" s="70"/>
-      <c r="K17" s="70"/>
-      <c r="L17" s="70"/>
-      <c r="M17" s="70"/>
-      <c r="N17" s="70"/>
-      <c r="O17" s="71"/>
-      <c r="P17" s="71"/>
-      <c r="Q17" s="71"/>
-      <c r="R17" s="71"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="73"/>
-      <c r="Y17" s="73"/>
-      <c r="Z17" s="73"/>
-      <c r="AA17" s="73"/>
-      <c r="AB17" s="74"/>
-      <c r="AC17" s="74"/>
-      <c r="AD17" s="74"/>
-      <c r="AE17" s="74"/>
-      <c r="AF17" s="75"/>
-      <c r="AG17" s="75"/>
-      <c r="AH17" s="75"/>
-      <c r="AI17" s="75"/>
-      <c r="AJ17" s="75"/>
-      <c r="AK17" s="76"/>
-      <c r="AL17" s="76"/>
-      <c r="AM17" s="76"/>
-      <c r="AN17" s="76"/>
-      <c r="AO17" s="77"/>
-      <c r="AP17" s="77"/>
-      <c r="AQ17" s="77"/>
-      <c r="AR17" s="77"/>
-      <c r="AS17" s="64"/>
-    </row>
-    <row r="18" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="65"/>
-      <c r="B18" s="80"/>
-      <c r="C18" s="67"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="69"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
-      <c r="J18" s="70"/>
-      <c r="K18" s="70"/>
-      <c r="L18" s="70"/>
-      <c r="M18" s="70"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="71"/>
-      <c r="P18" s="71"/>
-      <c r="Q18" s="71"/>
-      <c r="R18" s="71"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="73"/>
-      <c r="Y18" s="73"/>
-      <c r="Z18" s="73"/>
-      <c r="AA18" s="73"/>
-      <c r="AB18" s="74"/>
-      <c r="AC18" s="74"/>
-      <c r="AD18" s="74"/>
-      <c r="AE18" s="74"/>
-      <c r="AF18" s="75"/>
-      <c r="AG18" s="75"/>
-      <c r="AH18" s="75"/>
-      <c r="AI18" s="81"/>
-      <c r="AJ18" s="82"/>
-      <c r="AK18" s="83"/>
-      <c r="AL18" s="76"/>
-      <c r="AM18" s="76"/>
-      <c r="AN18" s="76"/>
-      <c r="AO18" s="77"/>
-      <c r="AP18" s="77"/>
-      <c r="AQ18" s="77"/>
-      <c r="AR18" s="77"/>
-      <c r="AS18" s="64"/>
-    </row>
-    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="65"/>
-      <c r="B19" s="66" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="68"/>
-      <c r="E19" s="68"/>
-      <c r="F19" s="69"/>
-      <c r="G19" s="69"/>
-      <c r="H19" s="69"/>
-      <c r="I19" s="69"/>
-      <c r="J19" s="70"/>
-      <c r="K19" s="70"/>
-      <c r="L19" s="70"/>
-      <c r="M19" s="70"/>
-      <c r="N19" s="70"/>
-      <c r="O19" s="71"/>
-      <c r="P19" s="71"/>
-      <c r="Q19" s="71"/>
-      <c r="R19" s="71"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="73"/>
-      <c r="Y19" s="73"/>
-      <c r="Z19" s="73"/>
-      <c r="AA19" s="73"/>
-      <c r="AB19" s="74"/>
-      <c r="AC19" s="74"/>
-      <c r="AD19" s="74"/>
-      <c r="AE19" s="74"/>
-      <c r="AF19" s="75"/>
-      <c r="AG19" s="75"/>
-      <c r="AH19" s="75"/>
-      <c r="AI19" s="84"/>
-      <c r="AJ19" s="85"/>
-      <c r="AK19" s="86"/>
-      <c r="AL19" s="76"/>
-      <c r="AM19" s="76"/>
-      <c r="AN19" s="76"/>
-      <c r="AO19" s="77"/>
-      <c r="AP19" s="77"/>
-      <c r="AQ19" s="77"/>
-      <c r="AR19" s="77"/>
-      <c r="AS19" s="64"/>
-    </row>
-    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="65"/>
-      <c r="B20" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="114">
-        <v>1</v>
-      </c>
-      <c r="D20" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="68"/>
-      <c r="F20" s="69"/>
-      <c r="G20" s="69"/>
-      <c r="H20" s="69"/>
-      <c r="I20" s="69"/>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
-      <c r="L20" s="70"/>
-      <c r="M20" s="70"/>
-      <c r="N20" s="70"/>
-      <c r="O20" s="71"/>
-      <c r="P20" s="71"/>
-      <c r="Q20" s="71"/>
-      <c r="R20" s="71"/>
-      <c r="S20" s="72"/>
-      <c r="T20" s="72"/>
-      <c r="U20" s="72"/>
-      <c r="V20" s="72"/>
-      <c r="W20" s="72"/>
-      <c r="X20" s="73"/>
-      <c r="Y20" s="73"/>
-      <c r="Z20" s="73"/>
-      <c r="AA20" s="73"/>
-      <c r="AB20" s="74"/>
-      <c r="AC20" s="74"/>
-      <c r="AD20" s="74"/>
-      <c r="AE20" s="74"/>
-      <c r="AF20" s="75"/>
-      <c r="AG20" s="75"/>
-      <c r="AH20" s="75"/>
-      <c r="AI20" s="75"/>
-      <c r="AJ20" s="87"/>
-      <c r="AK20" s="76"/>
-      <c r="AL20" s="76"/>
-      <c r="AM20" s="76"/>
-      <c r="AN20" s="76"/>
-      <c r="AO20" s="77"/>
-      <c r="AP20" s="77"/>
-      <c r="AQ20" s="77"/>
-      <c r="AR20" s="77"/>
-      <c r="AS20" s="64"/>
-    </row>
-    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="65"/>
-      <c r="B21" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="68"/>
-      <c r="F21" s="69"/>
-      <c r="G21" s="69"/>
-      <c r="H21" s="69"/>
-      <c r="I21" s="69"/>
-      <c r="J21" s="70"/>
-      <c r="K21" s="70"/>
-      <c r="L21" s="70"/>
-      <c r="M21" s="70"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="71"/>
-      <c r="P21" s="71"/>
-      <c r="Q21" s="71"/>
-      <c r="R21" s="71"/>
-      <c r="S21" s="72"/>
-      <c r="T21" s="72"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21" s="72"/>
-      <c r="X21" s="73"/>
-      <c r="Y21" s="73"/>
-      <c r="Z21" s="73"/>
-      <c r="AA21" s="73"/>
-      <c r="AB21" s="74"/>
-      <c r="AC21" s="74"/>
-      <c r="AD21" s="74"/>
-      <c r="AE21" s="74"/>
-      <c r="AF21" s="75"/>
-      <c r="AG21" s="75"/>
-      <c r="AH21" s="75"/>
-      <c r="AI21" s="75"/>
-      <c r="AJ21" s="75"/>
-      <c r="AK21" s="76"/>
-      <c r="AL21" s="76"/>
-      <c r="AM21" s="76"/>
-      <c r="AN21" s="76"/>
-      <c r="AO21" s="77"/>
-      <c r="AP21" s="77"/>
-      <c r="AQ21" s="77"/>
-      <c r="AR21" s="77"/>
-      <c r="AS21" s="64"/>
-    </row>
-    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="65"/>
-      <c r="B22" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="67"/>
-      <c r="D22" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="68"/>
-      <c r="F22" s="69"/>
-      <c r="G22" s="69"/>
-      <c r="H22" s="69"/>
-      <c r="I22" s="69"/>
-      <c r="J22" s="70"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
-      <c r="M22" s="70"/>
-      <c r="N22" s="70"/>
-      <c r="O22" s="71"/>
-      <c r="P22" s="71"/>
-      <c r="Q22" s="71"/>
-      <c r="R22" s="71"/>
-      <c r="S22" s="72"/>
-      <c r="T22" s="72"/>
-      <c r="U22" s="72"/>
-      <c r="V22" s="72"/>
-      <c r="W22" s="72"/>
-      <c r="X22" s="73"/>
-      <c r="Y22" s="73"/>
-      <c r="Z22" s="73"/>
-      <c r="AA22" s="73"/>
-      <c r="AB22" s="74"/>
-      <c r="AC22" s="74"/>
-      <c r="AD22" s="74"/>
-      <c r="AE22" s="74"/>
-      <c r="AF22" s="75"/>
-      <c r="AG22" s="75"/>
-      <c r="AH22" s="75"/>
-      <c r="AI22" s="75"/>
-      <c r="AJ22" s="88"/>
-      <c r="AK22" s="76"/>
-      <c r="AL22" s="76"/>
-      <c r="AM22" s="76"/>
-      <c r="AN22" s="76"/>
-      <c r="AO22" s="77"/>
-      <c r="AP22" s="77"/>
-      <c r="AQ22" s="77"/>
-      <c r="AR22" s="77"/>
-      <c r="AS22" s="64"/>
-    </row>
-    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="65"/>
-      <c r="B23" s="80"/>
-      <c r="C23" s="67"/>
-      <c r="D23" s="68"/>
-      <c r="E23" s="68"/>
-      <c r="F23" s="69"/>
-      <c r="G23" s="69"/>
-      <c r="H23" s="69"/>
-      <c r="I23" s="69"/>
-      <c r="J23" s="70"/>
-      <c r="K23" s="70"/>
-      <c r="L23" s="70"/>
-      <c r="M23" s="70"/>
-      <c r="N23" s="70"/>
-      <c r="O23" s="71"/>
-      <c r="P23" s="71"/>
-      <c r="Q23" s="71"/>
-      <c r="R23" s="71"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="72"/>
-      <c r="U23" s="72"/>
-      <c r="V23" s="72"/>
-      <c r="W23" s="72"/>
-      <c r="X23" s="73"/>
-      <c r="Y23" s="73"/>
-      <c r="Z23" s="73"/>
-      <c r="AA23" s="73"/>
-      <c r="AB23" s="74"/>
-      <c r="AC23" s="74"/>
-      <c r="AD23" s="74"/>
-      <c r="AE23" s="74"/>
-      <c r="AF23" s="75"/>
-      <c r="AG23" s="75"/>
-      <c r="AH23" s="75"/>
-      <c r="AI23" s="81"/>
-      <c r="AJ23" s="89"/>
-      <c r="AK23" s="83"/>
-      <c r="AL23" s="76"/>
-      <c r="AM23" s="76"/>
-      <c r="AN23" s="76"/>
-      <c r="AO23" s="77"/>
-      <c r="AP23" s="77"/>
-      <c r="AQ23" s="77"/>
-      <c r="AR23" s="77"/>
-      <c r="AS23" s="64"/>
-    </row>
-    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="65"/>
-      <c r="B24" s="66" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="67"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-      <c r="H24" s="69"/>
-      <c r="I24" s="69"/>
-      <c r="J24" s="70"/>
-      <c r="K24" s="70"/>
-      <c r="L24" s="70"/>
-      <c r="M24" s="70"/>
-      <c r="N24" s="70"/>
-      <c r="O24" s="71"/>
-      <c r="P24" s="71"/>
-      <c r="Q24" s="71"/>
-      <c r="R24" s="71"/>
-      <c r="S24" s="72"/>
-      <c r="T24" s="72"/>
-      <c r="U24" s="72"/>
-      <c r="V24" s="72"/>
-      <c r="W24" s="72"/>
-      <c r="X24" s="73"/>
-      <c r="Y24" s="73"/>
-      <c r="Z24" s="73"/>
-      <c r="AA24" s="73"/>
-      <c r="AB24" s="74"/>
-      <c r="AC24" s="74"/>
-      <c r="AD24" s="74"/>
-      <c r="AE24" s="74"/>
-      <c r="AF24" s="75"/>
-      <c r="AG24" s="75"/>
-      <c r="AH24" s="75"/>
-      <c r="AI24" s="84"/>
-      <c r="AJ24" s="90"/>
-      <c r="AK24" s="86"/>
-      <c r="AL24" s="76"/>
-      <c r="AM24" s="76"/>
-      <c r="AN24" s="76"/>
-      <c r="AO24" s="77"/>
-      <c r="AP24" s="77"/>
-      <c r="AQ24" s="77"/>
-      <c r="AR24" s="77"/>
-      <c r="AS24" s="64"/>
-    </row>
-    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="65"/>
-      <c r="B25" s="78" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="114">
-        <v>0.95</v>
-      </c>
-      <c r="D25" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25" s="68"/>
-      <c r="F25" s="69"/>
-      <c r="G25" s="69"/>
-      <c r="H25" s="69"/>
-      <c r="I25" s="69"/>
-      <c r="J25" s="70"/>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
-      <c r="M25" s="70"/>
-      <c r="N25" s="70"/>
-      <c r="O25" s="71"/>
-      <c r="P25" s="71"/>
-      <c r="Q25" s="71"/>
-      <c r="R25" s="71"/>
-      <c r="S25" s="72"/>
-      <c r="T25" s="72"/>
-      <c r="U25" s="72"/>
-      <c r="V25" s="72"/>
-      <c r="W25" s="72"/>
-      <c r="X25" s="73"/>
-      <c r="Y25" s="73"/>
-      <c r="Z25" s="73"/>
-      <c r="AA25" s="73"/>
-      <c r="AB25" s="74"/>
-      <c r="AC25" s="74"/>
-      <c r="AD25" s="74"/>
-      <c r="AE25" s="74"/>
-      <c r="AF25" s="75"/>
-      <c r="AG25" s="75"/>
-      <c r="AH25" s="75"/>
-      <c r="AI25" s="75"/>
-      <c r="AJ25" s="87"/>
-      <c r="AK25" s="76"/>
-      <c r="AL25" s="76"/>
-      <c r="AM25" s="76"/>
-      <c r="AN25" s="76"/>
-      <c r="AO25" s="77"/>
-      <c r="AP25" s="77"/>
-      <c r="AQ25" s="77"/>
-      <c r="AR25" s="77"/>
-      <c r="AS25" s="64"/>
-    </row>
-    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="65"/>
-      <c r="B26" s="78" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="114">
-        <v>0.9</v>
-      </c>
-      <c r="D26" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E26" s="68"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-      <c r="J26" s="70"/>
-      <c r="K26" s="70"/>
-      <c r="L26" s="70"/>
-      <c r="M26" s="70"/>
-      <c r="N26" s="70"/>
-      <c r="O26" s="71"/>
-      <c r="P26" s="71"/>
-      <c r="Q26" s="71"/>
-      <c r="R26" s="71"/>
-      <c r="S26" s="72"/>
-      <c r="T26" s="72"/>
-      <c r="U26" s="72"/>
-      <c r="V26" s="72"/>
-      <c r="W26" s="72"/>
-      <c r="X26" s="73"/>
-      <c r="Y26" s="73"/>
-      <c r="Z26" s="73"/>
-      <c r="AA26" s="73"/>
-      <c r="AB26" s="74"/>
-      <c r="AC26" s="74"/>
-      <c r="AD26" s="74"/>
-      <c r="AE26" s="74"/>
-      <c r="AF26" s="75"/>
-      <c r="AG26" s="75"/>
-      <c r="AH26" s="75"/>
-      <c r="AI26" s="75"/>
-      <c r="AJ26" s="75"/>
-      <c r="AK26" s="76"/>
-      <c r="AL26" s="76"/>
-      <c r="AM26" s="76"/>
-      <c r="AN26" s="76"/>
-      <c r="AO26" s="77"/>
-      <c r="AP26" s="77"/>
-      <c r="AQ26" s="77"/>
-      <c r="AR26" s="77"/>
-      <c r="AS26" s="64"/>
-    </row>
-    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="65"/>
-      <c r="B27" s="78" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="114">
-        <v>0.95</v>
-      </c>
-      <c r="D27" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
-      <c r="G27" s="69"/>
-      <c r="H27" s="69"/>
-      <c r="I27" s="69"/>
-      <c r="J27" s="70"/>
-      <c r="K27" s="70"/>
-      <c r="L27" s="70"/>
-      <c r="M27" s="70"/>
-      <c r="N27" s="70"/>
-      <c r="O27" s="71"/>
-      <c r="P27" s="71"/>
-      <c r="Q27" s="71"/>
-      <c r="R27" s="71"/>
-      <c r="S27" s="72"/>
-      <c r="T27" s="72"/>
-      <c r="U27" s="72"/>
-      <c r="V27" s="72"/>
-      <c r="W27" s="72"/>
-      <c r="X27" s="73"/>
-      <c r="Y27" s="73"/>
-      <c r="Z27" s="73"/>
-      <c r="AA27" s="73"/>
-      <c r="AB27" s="74"/>
-      <c r="AC27" s="74"/>
-      <c r="AD27" s="74"/>
-      <c r="AE27" s="74"/>
-      <c r="AF27" s="75"/>
-      <c r="AG27" s="75"/>
-      <c r="AH27" s="75"/>
-      <c r="AI27" s="75"/>
-      <c r="AJ27" s="75"/>
-      <c r="AK27" s="76"/>
-      <c r="AL27" s="76"/>
-      <c r="AM27" s="76"/>
-      <c r="AN27" s="76"/>
-      <c r="AO27" s="77"/>
-      <c r="AP27" s="77"/>
-      <c r="AQ27" s="77"/>
-      <c r="AR27" s="77"/>
-      <c r="AS27" s="64"/>
-    </row>
-    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="65"/>
-      <c r="B28" s="80"/>
-      <c r="C28" s="67"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="69"/>
-      <c r="G28" s="69"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="69"/>
-      <c r="J28" s="70"/>
-      <c r="K28" s="70"/>
-      <c r="L28" s="70"/>
-      <c r="M28" s="70"/>
-      <c r="N28" s="70"/>
-      <c r="O28" s="71"/>
-      <c r="P28" s="71"/>
-      <c r="Q28" s="71"/>
-      <c r="R28" s="71"/>
-      <c r="S28" s="72"/>
-      <c r="T28" s="72"/>
-      <c r="U28" s="72"/>
-      <c r="V28" s="72"/>
-      <c r="W28" s="72"/>
-      <c r="X28" s="73"/>
-      <c r="Y28" s="73"/>
-      <c r="Z28" s="73"/>
-      <c r="AA28" s="73"/>
-      <c r="AB28" s="74"/>
-      <c r="AC28" s="74"/>
-      <c r="AD28" s="74"/>
-      <c r="AE28" s="74"/>
-      <c r="AF28" s="75"/>
-      <c r="AG28" s="75"/>
-      <c r="AH28" s="75"/>
-      <c r="AI28" s="75"/>
-      <c r="AJ28" s="75"/>
-      <c r="AK28" s="76"/>
-      <c r="AL28" s="76"/>
-      <c r="AM28" s="76"/>
-      <c r="AN28" s="76"/>
-      <c r="AO28" s="77"/>
-      <c r="AP28" s="77"/>
-      <c r="AQ28" s="77"/>
-      <c r="AR28" s="77"/>
-      <c r="AS28" s="64"/>
-    </row>
-    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="65"/>
-      <c r="B29" s="66" t="s">
-        <v>28</v>
-      </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="70"/>
-      <c r="K29" s="70"/>
-      <c r="L29" s="70"/>
-      <c r="M29" s="70"/>
-      <c r="N29" s="70"/>
-      <c r="O29" s="71"/>
-      <c r="P29" s="71"/>
-      <c r="Q29" s="71"/>
-      <c r="R29" s="71"/>
-      <c r="S29" s="72"/>
-      <c r="T29" s="72"/>
-      <c r="U29" s="72"/>
-      <c r="V29" s="72"/>
-      <c r="W29" s="72"/>
-      <c r="X29" s="73"/>
-      <c r="Y29" s="73"/>
-      <c r="Z29" s="73"/>
-      <c r="AA29" s="73"/>
-      <c r="AB29" s="74"/>
-      <c r="AC29" s="74"/>
-      <c r="AD29" s="74"/>
-      <c r="AE29" s="74"/>
-      <c r="AF29" s="75"/>
-      <c r="AG29" s="75"/>
-      <c r="AH29" s="75"/>
-      <c r="AI29" s="75"/>
-      <c r="AJ29" s="75"/>
-      <c r="AK29" s="76"/>
-      <c r="AL29" s="76"/>
-      <c r="AM29" s="76"/>
-      <c r="AN29" s="76"/>
-      <c r="AO29" s="77"/>
-      <c r="AP29" s="77"/>
-      <c r="AQ29" s="77"/>
-      <c r="AR29" s="77"/>
-      <c r="AS29" s="64"/>
-    </row>
-    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="65"/>
-      <c r="B30" s="78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" s="67"/>
-      <c r="D30" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="68"/>
-      <c r="F30" s="69"/>
-      <c r="G30" s="69"/>
-      <c r="H30" s="69"/>
-      <c r="I30" s="69"/>
-      <c r="J30" s="70"/>
-      <c r="K30" s="70"/>
-      <c r="L30" s="70"/>
-      <c r="M30" s="70"/>
-      <c r="N30" s="70"/>
-      <c r="O30" s="71"/>
-      <c r="P30" s="71"/>
-      <c r="Q30" s="71"/>
-      <c r="R30" s="71"/>
-      <c r="S30" s="72"/>
-      <c r="T30" s="72"/>
-      <c r="U30" s="72"/>
-      <c r="V30" s="72"/>
-      <c r="W30" s="72"/>
-      <c r="X30" s="73"/>
-      <c r="Y30" s="73"/>
-      <c r="Z30" s="73"/>
-      <c r="AA30" s="73"/>
-      <c r="AB30" s="74"/>
-      <c r="AC30" s="74"/>
-      <c r="AD30" s="74"/>
-      <c r="AE30" s="74"/>
-      <c r="AF30" s="75"/>
-      <c r="AG30" s="75"/>
-      <c r="AH30" s="75"/>
-      <c r="AI30" s="75"/>
-      <c r="AJ30" s="75"/>
-      <c r="AK30" s="76"/>
-      <c r="AL30" s="76"/>
-      <c r="AM30" s="76"/>
-      <c r="AN30" s="76"/>
-      <c r="AO30" s="77"/>
-      <c r="AP30" s="77"/>
-      <c r="AQ30" s="77"/>
-      <c r="AR30" s="77"/>
-      <c r="AS30" s="64"/>
-    </row>
-    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="65"/>
-      <c r="B31" s="78" t="s">
-        <v>30</v>
-      </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="68"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="70"/>
-      <c r="K31" s="70"/>
-      <c r="L31" s="70"/>
-      <c r="M31" s="70"/>
-      <c r="N31" s="70"/>
-      <c r="O31" s="71"/>
-      <c r="P31" s="71"/>
-      <c r="Q31" s="71"/>
-      <c r="R31" s="71"/>
-      <c r="S31" s="72"/>
-      <c r="T31" s="72"/>
-      <c r="U31" s="72"/>
-      <c r="V31" s="72"/>
-      <c r="W31" s="72"/>
-      <c r="X31" s="73"/>
-      <c r="Y31" s="73"/>
-      <c r="Z31" s="73"/>
-      <c r="AA31" s="73"/>
-      <c r="AB31" s="74"/>
-      <c r="AC31" s="74"/>
-      <c r="AD31" s="74"/>
-      <c r="AE31" s="74"/>
-      <c r="AF31" s="75"/>
-      <c r="AG31" s="75"/>
-      <c r="AH31" s="75"/>
-      <c r="AI31" s="75"/>
-      <c r="AJ31" s="75"/>
-      <c r="AK31" s="76"/>
-      <c r="AL31" s="76"/>
-      <c r="AM31" s="76"/>
-      <c r="AN31" s="76"/>
-      <c r="AO31" s="77"/>
-      <c r="AP31" s="77"/>
-      <c r="AQ31" s="77"/>
-      <c r="AR31" s="77"/>
-      <c r="AS31" s="64"/>
-    </row>
-    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
-      <c r="B32" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="C32" s="67"/>
-      <c r="D32" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E32" s="68"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="70"/>
-      <c r="K32" s="70"/>
-      <c r="L32" s="70"/>
-      <c r="M32" s="70"/>
-      <c r="N32" s="70"/>
-      <c r="O32" s="71"/>
-      <c r="P32" s="71"/>
-      <c r="Q32" s="71"/>
-      <c r="R32" s="71"/>
-      <c r="S32" s="72"/>
-      <c r="T32" s="72"/>
-      <c r="U32" s="72"/>
-      <c r="V32" s="72"/>
-      <c r="W32" s="72"/>
-      <c r="X32" s="73"/>
-      <c r="Y32" s="73"/>
-      <c r="Z32" s="73"/>
-      <c r="AA32" s="73"/>
-      <c r="AB32" s="74"/>
-      <c r="AC32" s="74"/>
-      <c r="AD32" s="74"/>
-      <c r="AE32" s="74"/>
-      <c r="AF32" s="75"/>
-      <c r="AG32" s="75"/>
-      <c r="AH32" s="75"/>
-      <c r="AI32" s="75"/>
-      <c r="AJ32" s="75"/>
-      <c r="AK32" s="76"/>
-      <c r="AL32" s="76"/>
-      <c r="AM32" s="76"/>
-      <c r="AN32" s="76"/>
-      <c r="AO32" s="77"/>
-      <c r="AP32" s="77"/>
-      <c r="AQ32" s="77"/>
-      <c r="AR32" s="77"/>
-      <c r="AS32" s="64"/>
-    </row>
-    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="65"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="69"/>
-      <c r="G33" s="69"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="69"/>
-      <c r="J33" s="70"/>
-      <c r="K33" s="70"/>
-      <c r="L33" s="70"/>
-      <c r="M33" s="70"/>
-      <c r="N33" s="70"/>
-      <c r="O33" s="71"/>
-      <c r="P33" s="71"/>
-      <c r="Q33" s="71"/>
-      <c r="R33" s="71"/>
-      <c r="S33" s="72"/>
-      <c r="T33" s="72"/>
-      <c r="U33" s="72"/>
-      <c r="V33" s="72"/>
-      <c r="W33" s="72"/>
-      <c r="X33" s="73"/>
-      <c r="Y33" s="73"/>
-      <c r="Z33" s="73"/>
-      <c r="AA33" s="73"/>
-      <c r="AB33" s="74"/>
-      <c r="AC33" s="74"/>
-      <c r="AD33" s="74"/>
-      <c r="AE33" s="74"/>
-      <c r="AF33" s="75"/>
-      <c r="AG33" s="75"/>
-      <c r="AH33" s="75"/>
-      <c r="AI33" s="75"/>
-      <c r="AJ33" s="75"/>
-      <c r="AK33" s="76"/>
-      <c r="AL33" s="76"/>
-      <c r="AM33" s="76"/>
-      <c r="AN33" s="76"/>
-      <c r="AO33" s="77"/>
-      <c r="AP33" s="77"/>
-      <c r="AQ33" s="77"/>
-      <c r="AR33" s="77"/>
-      <c r="AS33" s="64"/>
-    </row>
-    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="65"/>
-      <c r="B34" s="66" t="s">
-        <v>32</v>
-      </c>
-      <c r="C34" s="67"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="70"/>
-      <c r="K34" s="70"/>
-      <c r="L34" s="70"/>
-      <c r="M34" s="70"/>
-      <c r="N34" s="70"/>
-      <c r="O34" s="71"/>
-      <c r="P34" s="71"/>
-      <c r="Q34" s="71"/>
-      <c r="R34" s="71"/>
-      <c r="S34" s="72"/>
-      <c r="T34" s="72"/>
-      <c r="U34" s="72"/>
-      <c r="V34" s="72"/>
-      <c r="W34" s="72"/>
-      <c r="X34" s="73"/>
-      <c r="Y34" s="73"/>
-      <c r="Z34" s="73"/>
-      <c r="AA34" s="73"/>
-      <c r="AB34" s="74"/>
-      <c r="AC34" s="74"/>
-      <c r="AD34" s="74"/>
-      <c r="AE34" s="74"/>
-      <c r="AF34" s="75"/>
-      <c r="AG34" s="75"/>
-      <c r="AH34" s="75"/>
-      <c r="AI34" s="75"/>
-      <c r="AJ34" s="75"/>
-      <c r="AK34" s="76"/>
-      <c r="AL34" s="76"/>
-      <c r="AM34" s="76"/>
-      <c r="AN34" s="76"/>
-      <c r="AO34" s="77"/>
-      <c r="AP34" s="77"/>
-      <c r="AQ34" s="77"/>
-      <c r="AR34" s="77"/>
-      <c r="AS34" s="64"/>
-    </row>
-    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="65"/>
-      <c r="B35" s="78" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E35" s="68"/>
-      <c r="F35" s="69"/>
-      <c r="G35" s="69"/>
-      <c r="H35" s="69"/>
-      <c r="I35" s="69"/>
-      <c r="J35" s="70"/>
-      <c r="K35" s="70"/>
-      <c r="L35" s="70"/>
-      <c r="M35" s="70"/>
-      <c r="N35" s="70"/>
-      <c r="O35" s="71"/>
-      <c r="P35" s="71"/>
-      <c r="Q35" s="71"/>
-      <c r="R35" s="71"/>
-      <c r="S35" s="72"/>
-      <c r="T35" s="72"/>
-      <c r="U35" s="72"/>
-      <c r="V35" s="72"/>
-      <c r="W35" s="72"/>
-      <c r="X35" s="73"/>
-      <c r="Y35" s="73"/>
-      <c r="Z35" s="73"/>
-      <c r="AA35" s="73"/>
-      <c r="AB35" s="74"/>
-      <c r="AC35" s="74"/>
-      <c r="AD35" s="74"/>
-      <c r="AE35" s="74"/>
-      <c r="AF35" s="75"/>
-      <c r="AG35" s="75"/>
-      <c r="AH35" s="75"/>
-      <c r="AI35" s="75"/>
-      <c r="AJ35" s="75"/>
-      <c r="AK35" s="76"/>
-      <c r="AL35" s="76"/>
-      <c r="AM35" s="76"/>
-      <c r="AN35" s="76"/>
-      <c r="AO35" s="77"/>
-      <c r="AP35" s="77"/>
-      <c r="AQ35" s="77"/>
-      <c r="AR35" s="77"/>
-      <c r="AS35" s="64"/>
-    </row>
-    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="65"/>
-      <c r="B36" s="78" t="s">
-        <v>35</v>
-      </c>
-      <c r="C36" s="67"/>
-      <c r="D36" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E36" s="68"/>
-      <c r="F36" s="69"/>
-      <c r="G36" s="69"/>
-      <c r="H36" s="69"/>
-      <c r="I36" s="69"/>
-      <c r="J36" s="70"/>
-      <c r="K36" s="70"/>
-      <c r="L36" s="70"/>
-      <c r="M36" s="70"/>
-      <c r="N36" s="70"/>
-      <c r="O36" s="71"/>
-      <c r="P36" s="71"/>
-      <c r="Q36" s="71"/>
-      <c r="R36" s="71"/>
-      <c r="S36" s="72"/>
-      <c r="T36" s="72"/>
-      <c r="U36" s="72"/>
-      <c r="V36" s="72"/>
-      <c r="W36" s="72"/>
-      <c r="X36" s="73"/>
-      <c r="Y36" s="73"/>
-      <c r="Z36" s="73"/>
-      <c r="AA36" s="73"/>
-      <c r="AB36" s="74"/>
-      <c r="AC36" s="74"/>
-      <c r="AD36" s="74"/>
-      <c r="AE36" s="74"/>
-      <c r="AF36" s="75"/>
-      <c r="AG36" s="75"/>
-      <c r="AH36" s="75"/>
-      <c r="AI36" s="75"/>
-      <c r="AJ36" s="75"/>
-      <c r="AK36" s="76"/>
-      <c r="AL36" s="76"/>
-      <c r="AM36" s="76"/>
-      <c r="AN36" s="76"/>
-      <c r="AO36" s="77"/>
-      <c r="AP36" s="77"/>
-      <c r="AQ36" s="77"/>
-      <c r="AR36" s="77"/>
-      <c r="AS36" s="64"/>
-    </row>
-    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="65"/>
-      <c r="B37" s="80"/>
-      <c r="C37" s="67"/>
-      <c r="D37" s="68"/>
-      <c r="E37" s="68"/>
-      <c r="F37" s="69"/>
-      <c r="G37" s="69"/>
-      <c r="H37" s="69"/>
-      <c r="I37" s="69"/>
-      <c r="J37" s="70"/>
-      <c r="K37" s="70"/>
-      <c r="L37" s="70"/>
-      <c r="M37" s="70"/>
-      <c r="N37" s="70"/>
-      <c r="O37" s="71"/>
-      <c r="P37" s="71"/>
-      <c r="Q37" s="71"/>
-      <c r="R37" s="71"/>
-      <c r="S37" s="72"/>
-      <c r="T37" s="72"/>
-      <c r="U37" s="72"/>
-      <c r="V37" s="72"/>
-      <c r="W37" s="72"/>
-      <c r="X37" s="73"/>
-      <c r="Y37" s="73"/>
-      <c r="Z37" s="73"/>
-      <c r="AA37" s="73"/>
-      <c r="AB37" s="74"/>
-      <c r="AC37" s="74"/>
-      <c r="AD37" s="74"/>
-      <c r="AE37" s="74"/>
-      <c r="AF37" s="75"/>
-      <c r="AG37" s="75"/>
-      <c r="AH37" s="75"/>
-      <c r="AI37" s="75"/>
-      <c r="AJ37" s="75"/>
-      <c r="AK37" s="76"/>
-      <c r="AL37" s="76"/>
-      <c r="AM37" s="76"/>
-      <c r="AN37" s="76"/>
-      <c r="AO37" s="77"/>
-      <c r="AP37" s="77"/>
-      <c r="AQ37" s="77"/>
-      <c r="AR37" s="77"/>
-      <c r="AS37" s="64"/>
-    </row>
-    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="65"/>
-      <c r="B38" s="91" t="s">
-        <v>36</v>
-      </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-      <c r="J38" s="70"/>
-      <c r="K38" s="70"/>
-      <c r="L38" s="70"/>
-      <c r="M38" s="70"/>
-      <c r="N38" s="70"/>
-      <c r="O38" s="71"/>
-      <c r="P38" s="71"/>
-      <c r="Q38" s="71"/>
-      <c r="R38" s="71"/>
-      <c r="S38" s="72"/>
-      <c r="T38" s="72"/>
-      <c r="U38" s="72"/>
-      <c r="V38" s="72"/>
-      <c r="W38" s="72"/>
-      <c r="X38" s="73"/>
-      <c r="Y38" s="73"/>
-      <c r="Z38" s="73"/>
-      <c r="AA38" s="73"/>
-      <c r="AB38" s="74"/>
-      <c r="AC38" s="74"/>
-      <c r="AD38" s="74"/>
-      <c r="AE38" s="74"/>
-      <c r="AF38" s="75"/>
-      <c r="AG38" s="75"/>
-      <c r="AH38" s="75"/>
-      <c r="AI38" s="75"/>
-      <c r="AJ38" s="75"/>
-      <c r="AK38" s="76"/>
-      <c r="AL38" s="76"/>
-      <c r="AM38" s="76"/>
-      <c r="AN38" s="76"/>
-      <c r="AO38" s="77"/>
-      <c r="AP38" s="77"/>
-      <c r="AQ38" s="77"/>
-      <c r="AR38" s="77"/>
-      <c r="AS38" s="64"/>
-    </row>
-    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="65"/>
-      <c r="B39" s="78" t="s">
-        <v>17</v>
-      </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E39" s="68"/>
-      <c r="F39" s="69"/>
-      <c r="G39" s="69"/>
-      <c r="H39" s="69"/>
-      <c r="I39" s="69"/>
-      <c r="J39" s="70"/>
-      <c r="K39" s="70"/>
-      <c r="L39" s="70"/>
-      <c r="M39" s="70"/>
-      <c r="N39" s="70"/>
-      <c r="O39" s="71"/>
-      <c r="P39" s="71"/>
-      <c r="Q39" s="71"/>
-      <c r="R39" s="71"/>
-      <c r="S39" s="72"/>
-      <c r="T39" s="72"/>
-      <c r="U39" s="72"/>
-      <c r="V39" s="72"/>
-      <c r="W39" s="72"/>
-      <c r="X39" s="73"/>
-      <c r="Y39" s="73"/>
-      <c r="Z39" s="73"/>
-      <c r="AA39" s="73"/>
-      <c r="AB39" s="74"/>
-      <c r="AC39" s="74"/>
-      <c r="AD39" s="74"/>
-      <c r="AE39" s="74"/>
-      <c r="AF39" s="75"/>
-      <c r="AG39" s="75"/>
-      <c r="AH39" s="75"/>
-      <c r="AI39" s="75"/>
-      <c r="AJ39" s="75"/>
-      <c r="AK39" s="76"/>
-      <c r="AL39" s="76"/>
-      <c r="AM39" s="76"/>
-      <c r="AN39" s="76"/>
-      <c r="AO39" s="77"/>
-      <c r="AP39" s="77"/>
-      <c r="AQ39" s="77"/>
-      <c r="AR39" s="77"/>
-      <c r="AS39" s="64"/>
-    </row>
-    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="65"/>
-      <c r="B40" s="78" t="s">
-        <v>19</v>
-      </c>
-      <c r="C40" s="67"/>
-      <c r="D40" s="79" t="s">
-        <v>18</v>
-      </c>
-      <c r="E40" s="68"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="69"/>
-      <c r="H40" s="69"/>
-      <c r="I40" s="69"/>
-      <c r="J40" s="70"/>
-      <c r="K40" s="70"/>
-      <c r="L40" s="70"/>
-      <c r="M40" s="70"/>
-      <c r="N40" s="70"/>
-      <c r="O40" s="71"/>
-      <c r="P40" s="71"/>
-      <c r="Q40" s="71"/>
-      <c r="R40" s="71"/>
-      <c r="S40" s="72"/>
-      <c r="T40" s="72"/>
-      <c r="U40" s="72"/>
-      <c r="V40" s="72"/>
-      <c r="W40" s="72"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="73"/>
-      <c r="AA40" s="73"/>
-      <c r="AB40" s="74"/>
-      <c r="AC40" s="74"/>
-      <c r="AD40" s="74"/>
-      <c r="AE40" s="74"/>
-      <c r="AF40" s="75"/>
-      <c r="AG40" s="75"/>
-      <c r="AH40" s="75"/>
-      <c r="AI40" s="75"/>
-      <c r="AJ40" s="75"/>
-      <c r="AK40" s="76"/>
-      <c r="AL40" s="76"/>
-      <c r="AM40" s="76"/>
-      <c r="AN40" s="76"/>
-      <c r="AO40" s="77"/>
-      <c r="AP40" s="77"/>
-      <c r="AQ40" s="77"/>
-      <c r="AR40" s="77"/>
-      <c r="AS40" s="64"/>
-    </row>
-    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="65"/>
-      <c r="B41" s="78" t="s">
-        <v>20</v>
-      </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="79" t="s">
-        <v>6</v>
-      </c>
-      <c r="E41" s="68"/>
-      <c r="F41" s="69"/>
-      <c r="G41" s="69"/>
-      <c r="H41" s="69"/>
-      <c r="I41" s="69"/>
-      <c r="J41" s="70"/>
-      <c r="K41" s="70"/>
-      <c r="L41" s="70"/>
-      <c r="M41" s="70"/>
-      <c r="N41" s="70"/>
-      <c r="O41" s="71"/>
-      <c r="P41" s="71"/>
-      <c r="Q41" s="71"/>
-      <c r="R41" s="71"/>
-      <c r="S41" s="72"/>
-      <c r="T41" s="72"/>
-      <c r="U41" s="72"/>
-      <c r="V41" s="72"/>
-      <c r="W41" s="72"/>
-      <c r="X41" s="73"/>
-      <c r="Y41" s="73"/>
-      <c r="Z41" s="73"/>
-      <c r="AA41" s="73"/>
-      <c r="AB41" s="74"/>
-      <c r="AC41" s="74"/>
-      <c r="AD41" s="74"/>
-      <c r="AE41" s="74"/>
-      <c r="AF41" s="75"/>
-      <c r="AG41" s="75"/>
-      <c r="AH41" s="75"/>
-      <c r="AI41" s="75"/>
-      <c r="AJ41" s="75"/>
-      <c r="AK41" s="76"/>
-      <c r="AL41" s="76"/>
-      <c r="AM41" s="76"/>
-      <c r="AN41" s="76"/>
-      <c r="AO41" s="77"/>
-      <c r="AP41" s="77"/>
-      <c r="AQ41" s="77"/>
-      <c r="AR41" s="77"/>
-      <c r="AS41" s="64"/>
-    </row>
-    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="65"/>
-      <c r="B42" s="78" t="s">
-        <v>21</v>
-      </c>
-      <c r="C42" s="67"/>
-      <c r="D42" s="79" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="68"/>
-      <c r="F42" s="69"/>
-      <c r="G42" s="69"/>
-      <c r="H42" s="69"/>
-      <c r="I42" s="69"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="70"/>
-      <c r="O42" s="71"/>
-      <c r="P42" s="71"/>
-      <c r="Q42" s="71"/>
-      <c r="R42" s="71"/>
-      <c r="S42" s="72"/>
-      <c r="T42" s="72"/>
-      <c r="U42" s="72"/>
-      <c r="V42" s="72"/>
-      <c r="W42" s="72"/>
-      <c r="X42" s="73"/>
-      <c r="Y42" s="73"/>
-      <c r="Z42" s="73"/>
-      <c r="AA42" s="73"/>
-      <c r="AB42" s="74"/>
-      <c r="AC42" s="74"/>
-      <c r="AD42" s="74"/>
-      <c r="AE42" s="74"/>
-      <c r="AF42" s="75"/>
-      <c r="AG42" s="75"/>
-      <c r="AH42" s="75"/>
-      <c r="AI42" s="75"/>
-      <c r="AJ42" s="75"/>
-      <c r="AK42" s="76"/>
-      <c r="AL42" s="76"/>
-      <c r="AM42" s="76"/>
-      <c r="AN42" s="76"/>
-      <c r="AO42" s="77"/>
-      <c r="AP42" s="77"/>
-      <c r="AQ42" s="77"/>
-      <c r="AR42" s="77"/>
-      <c r="AS42" s="64"/>
-    </row>
-    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="65"/>
-      <c r="B43" s="78" t="s">
-        <v>37</v>
-      </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="E43" s="68"/>
-      <c r="F43" s="69"/>
-      <c r="G43" s="69"/>
-      <c r="H43" s="69"/>
-      <c r="I43" s="69"/>
-      <c r="J43" s="70"/>
-      <c r="K43" s="70"/>
-      <c r="L43" s="70"/>
-      <c r="M43" s="70"/>
-      <c r="N43" s="70"/>
-      <c r="O43" s="71"/>
-      <c r="P43" s="71"/>
-      <c r="Q43" s="71"/>
-      <c r="R43" s="71"/>
-      <c r="S43" s="72"/>
-      <c r="T43" s="72"/>
-      <c r="U43" s="72"/>
-      <c r="V43" s="72"/>
-      <c r="W43" s="72"/>
-      <c r="X43" s="73"/>
-      <c r="Y43" s="73"/>
-      <c r="Z43" s="73"/>
-      <c r="AA43" s="73"/>
-      <c r="AB43" s="74"/>
-      <c r="AC43" s="74"/>
-      <c r="AD43" s="74"/>
-      <c r="AE43" s="74"/>
-      <c r="AF43" s="75"/>
-      <c r="AG43" s="75"/>
-      <c r="AH43" s="75"/>
-      <c r="AI43" s="75"/>
-      <c r="AJ43" s="75"/>
-      <c r="AK43" s="76"/>
-      <c r="AL43" s="76"/>
-      <c r="AM43" s="76"/>
-      <c r="AN43" s="76"/>
-      <c r="AO43" s="77"/>
-      <c r="AP43" s="77"/>
-      <c r="AQ43" s="77"/>
-      <c r="AR43" s="77"/>
-      <c r="AS43" s="64"/>
-    </row>
-    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="65"/>
-      <c r="B44" s="80"/>
-      <c r="C44" s="67"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="69"/>
-      <c r="G44" s="69"/>
-      <c r="H44" s="69"/>
-      <c r="I44" s="69"/>
-      <c r="J44" s="70"/>
-      <c r="K44" s="70"/>
-      <c r="L44" s="70"/>
-      <c r="M44" s="70"/>
-      <c r="N44" s="70"/>
-      <c r="O44" s="71"/>
-      <c r="P44" s="71"/>
-      <c r="Q44" s="71"/>
-      <c r="R44" s="71"/>
-      <c r="S44" s="72"/>
-      <c r="T44" s="72"/>
-      <c r="U44" s="72"/>
-      <c r="V44" s="72"/>
-      <c r="W44" s="72"/>
-      <c r="X44" s="73"/>
-      <c r="Y44" s="73"/>
-      <c r="Z44" s="73"/>
-      <c r="AA44" s="73"/>
-      <c r="AB44" s="74"/>
-      <c r="AC44" s="74"/>
-      <c r="AD44" s="74"/>
-      <c r="AE44" s="74"/>
-      <c r="AF44" s="75"/>
-      <c r="AG44" s="75"/>
-      <c r="AH44" s="75"/>
-      <c r="AI44" s="75"/>
-      <c r="AJ44" s="75"/>
-      <c r="AK44" s="76"/>
-      <c r="AL44" s="76"/>
-      <c r="AM44" s="76"/>
-      <c r="AN44" s="76"/>
-      <c r="AO44" s="77"/>
-      <c r="AP44" s="77"/>
-      <c r="AQ44" s="77"/>
-      <c r="AR44" s="77"/>
-      <c r="AS44" s="64"/>
-    </row>
-    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="65"/>
-      <c r="B45" s="91" t="s">
-        <v>38</v>
-      </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="68"/>
-      <c r="F45" s="69"/>
-      <c r="G45" s="69"/>
-      <c r="H45" s="69"/>
-      <c r="I45" s="69"/>
-      <c r="J45" s="70"/>
-      <c r="K45" s="70"/>
-      <c r="L45" s="70"/>
-      <c r="M45" s="70"/>
-      <c r="N45" s="70"/>
-      <c r="O45" s="71"/>
-      <c r="P45" s="71"/>
-      <c r="Q45" s="71"/>
-      <c r="R45" s="71"/>
-      <c r="S45" s="72"/>
-      <c r="T45" s="72"/>
-      <c r="U45" s="72"/>
-      <c r="V45" s="72"/>
-      <c r="W45" s="72"/>
-      <c r="X45" s="73"/>
-      <c r="Y45" s="73"/>
-      <c r="Z45" s="73"/>
-      <c r="AA45" s="73"/>
-      <c r="AB45" s="74"/>
-      <c r="AC45" s="74"/>
-      <c r="AD45" s="74"/>
-      <c r="AE45" s="74"/>
-      <c r="AF45" s="75"/>
-      <c r="AG45" s="75"/>
-      <c r="AH45" s="75"/>
-      <c r="AI45" s="75"/>
-      <c r="AJ45" s="75"/>
-      <c r="AK45" s="76"/>
-      <c r="AL45" s="76"/>
-      <c r="AM45" s="76"/>
-      <c r="AN45" s="76"/>
-      <c r="AO45" s="77"/>
-      <c r="AP45" s="77"/>
-      <c r="AQ45" s="77"/>
-      <c r="AR45" s="77"/>
-      <c r="AS45" s="64"/>
-    </row>
-    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="65"/>
-      <c r="B46" s="94" t="s">
-        <v>39</v>
-      </c>
-      <c r="C46" s="67"/>
-      <c r="D46" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="68"/>
-      <c r="F46" s="69"/>
-      <c r="G46" s="69"/>
-      <c r="H46" s="69"/>
-      <c r="I46" s="69"/>
-      <c r="J46" s="70"/>
-      <c r="K46" s="70"/>
-      <c r="L46" s="70"/>
-      <c r="M46" s="70"/>
-      <c r="N46" s="70"/>
-      <c r="O46" s="71"/>
-      <c r="P46" s="71"/>
-      <c r="Q46" s="71"/>
-      <c r="R46" s="71"/>
-      <c r="S46" s="72"/>
-      <c r="T46" s="72"/>
-      <c r="U46" s="72"/>
-      <c r="V46" s="72"/>
-      <c r="W46" s="72"/>
-      <c r="X46" s="73"/>
-      <c r="Y46" s="73"/>
-      <c r="Z46" s="73"/>
-      <c r="AA46" s="73"/>
-      <c r="AB46" s="74"/>
-      <c r="AC46" s="74"/>
-      <c r="AD46" s="74"/>
-      <c r="AE46" s="74"/>
-      <c r="AF46" s="75"/>
-      <c r="AG46" s="75"/>
-      <c r="AH46" s="75"/>
-      <c r="AI46" s="75"/>
-      <c r="AJ46" s="75"/>
-      <c r="AK46" s="76"/>
-      <c r="AL46" s="76"/>
-      <c r="AM46" s="76"/>
-      <c r="AN46" s="76"/>
-      <c r="AO46" s="77"/>
-      <c r="AP46" s="77"/>
-      <c r="AQ46" s="77"/>
-      <c r="AR46" s="77"/>
-      <c r="AS46" s="64"/>
-    </row>
-    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="65"/>
-      <c r="B47" s="80"/>
-      <c r="C47" s="67"/>
-      <c r="D47" s="68"/>
-      <c r="E47" s="68"/>
-      <c r="F47" s="69"/>
-      <c r="G47" s="69"/>
-      <c r="H47" s="69"/>
-      <c r="I47" s="69"/>
-      <c r="J47" s="70"/>
-      <c r="K47" s="70"/>
-      <c r="L47" s="70"/>
-      <c r="M47" s="70"/>
-      <c r="N47" s="70"/>
-      <c r="O47" s="71"/>
-      <c r="P47" s="71"/>
-      <c r="Q47" s="71"/>
-      <c r="R47" s="71"/>
-      <c r="S47" s="72"/>
-      <c r="T47" s="72"/>
-      <c r="U47" s="72"/>
-      <c r="V47" s="72"/>
-      <c r="W47" s="72"/>
-      <c r="X47" s="73"/>
-      <c r="Y47" s="73"/>
-      <c r="Z47" s="73"/>
-      <c r="AA47" s="73"/>
-      <c r="AB47" s="74"/>
-      <c r="AC47" s="74"/>
-      <c r="AD47" s="74"/>
-      <c r="AE47" s="74"/>
-      <c r="AF47" s="75"/>
-      <c r="AG47" s="75"/>
-      <c r="AH47" s="75"/>
-      <c r="AI47" s="75"/>
-      <c r="AJ47" s="75"/>
-      <c r="AK47" s="76"/>
-      <c r="AL47" s="76"/>
-      <c r="AM47" s="76"/>
-      <c r="AN47" s="76"/>
-      <c r="AO47" s="77"/>
-      <c r="AP47" s="77"/>
-      <c r="AQ47" s="77"/>
-      <c r="AR47" s="77"/>
-      <c r="AS47" s="64"/>
-    </row>
-    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="65"/>
-      <c r="B48" s="66" t="s">
-        <v>40</v>
-      </c>
-      <c r="C48" s="67"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="69"/>
-      <c r="G48" s="69"/>
-      <c r="H48" s="69"/>
-      <c r="I48" s="69"/>
-      <c r="J48" s="70"/>
-      <c r="K48" s="70"/>
-      <c r="L48" s="70"/>
-      <c r="M48" s="70"/>
-      <c r="N48" s="70"/>
-      <c r="O48" s="71"/>
-      <c r="P48" s="71"/>
-      <c r="Q48" s="71"/>
-      <c r="R48" s="71"/>
-      <c r="S48" s="72"/>
-      <c r="T48" s="72"/>
-      <c r="U48" s="72"/>
-      <c r="V48" s="72"/>
-      <c r="W48" s="72"/>
-      <c r="X48" s="73"/>
-      <c r="Y48" s="73"/>
-      <c r="Z48" s="73"/>
-      <c r="AA48" s="73"/>
-      <c r="AB48" s="74"/>
-      <c r="AC48" s="74"/>
-      <c r="AD48" s="74"/>
-      <c r="AE48" s="74"/>
-      <c r="AF48" s="75"/>
-      <c r="AG48" s="75"/>
-      <c r="AH48" s="75"/>
-      <c r="AI48" s="75"/>
-      <c r="AJ48" s="75"/>
-      <c r="AK48" s="76"/>
-      <c r="AL48" s="76"/>
-      <c r="AM48" s="76"/>
-      <c r="AN48" s="76"/>
-      <c r="AO48" s="77"/>
-      <c r="AP48" s="77"/>
-      <c r="AQ48" s="77"/>
-      <c r="AR48" s="77"/>
-      <c r="AS48" s="64"/>
-    </row>
-    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="65"/>
-      <c r="B49" s="78" t="s">
-        <v>41</v>
-      </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="68"/>
-      <c r="F49" s="69"/>
-      <c r="G49" s="69"/>
-      <c r="H49" s="69"/>
-      <c r="I49" s="69"/>
-      <c r="J49" s="70"/>
-      <c r="K49" s="70"/>
-      <c r="L49" s="70"/>
-      <c r="M49" s="70"/>
-      <c r="N49" s="70"/>
-      <c r="O49" s="71"/>
-      <c r="P49" s="71"/>
-      <c r="Q49" s="71"/>
-      <c r="R49" s="71"/>
-      <c r="S49" s="72"/>
-      <c r="T49" s="72"/>
-      <c r="U49" s="72"/>
-      <c r="V49" s="72"/>
-      <c r="W49" s="72"/>
-      <c r="X49" s="73"/>
-      <c r="Y49" s="73"/>
-      <c r="Z49" s="73"/>
-      <c r="AA49" s="73"/>
-      <c r="AB49" s="74"/>
-      <c r="AC49" s="74"/>
-      <c r="AD49" s="74"/>
-      <c r="AE49" s="74"/>
-      <c r="AF49" s="75"/>
-      <c r="AG49" s="75"/>
-      <c r="AH49" s="75"/>
-      <c r="AI49" s="75"/>
-      <c r="AJ49" s="75"/>
-      <c r="AK49" s="76"/>
-      <c r="AL49" s="76"/>
-      <c r="AM49" s="76"/>
-      <c r="AN49" s="76"/>
-      <c r="AO49" s="77"/>
-      <c r="AP49" s="77"/>
-      <c r="AQ49" s="77"/>
-      <c r="AR49" s="77"/>
-      <c r="AS49" s="64"/>
-    </row>
-    <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="65"/>
-      <c r="B50" s="78" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="67"/>
-      <c r="D50" s="79" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="68"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-      <c r="J50" s="70"/>
-      <c r="K50" s="70"/>
-      <c r="L50" s="70"/>
-      <c r="M50" s="70"/>
-      <c r="N50" s="70"/>
-      <c r="O50" s="71"/>
-      <c r="P50" s="71"/>
-      <c r="Q50" s="71"/>
-      <c r="R50" s="71"/>
-      <c r="S50" s="72"/>
-      <c r="T50" s="72"/>
-      <c r="U50" s="72"/>
-      <c r="V50" s="72"/>
-      <c r="W50" s="72"/>
-      <c r="X50" s="73"/>
-      <c r="Y50" s="73"/>
-      <c r="Z50" s="73"/>
-      <c r="AA50" s="73"/>
-      <c r="AB50" s="74"/>
-      <c r="AC50" s="74"/>
-      <c r="AD50" s="74"/>
-      <c r="AE50" s="74"/>
-      <c r="AF50" s="75"/>
-      <c r="AG50" s="75"/>
-      <c r="AH50" s="75"/>
-      <c r="AI50" s="75"/>
-      <c r="AJ50" s="75"/>
-      <c r="AK50" s="76"/>
-      <c r="AL50" s="76"/>
-      <c r="AM50" s="76"/>
-      <c r="AN50" s="76"/>
-      <c r="AO50" s="77"/>
-      <c r="AP50" s="77"/>
-      <c r="AQ50" s="77"/>
-      <c r="AR50" s="77"/>
-      <c r="AS50" s="64"/>
-    </row>
-    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="65"/>
-      <c r="B51" s="80"/>
-      <c r="C51" s="67"/>
-      <c r="D51" s="68"/>
-      <c r="E51" s="68"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="69"/>
-      <c r="H51" s="69"/>
-      <c r="I51" s="69"/>
-      <c r="J51" s="70"/>
-      <c r="K51" s="70"/>
-      <c r="L51" s="70"/>
-      <c r="M51" s="70"/>
-      <c r="N51" s="70"/>
-      <c r="O51" s="71"/>
-      <c r="P51" s="71"/>
-      <c r="Q51" s="71"/>
-      <c r="R51" s="71"/>
-      <c r="S51" s="72"/>
-      <c r="T51" s="72"/>
-      <c r="U51" s="72"/>
-      <c r="V51" s="72"/>
-      <c r="W51" s="72"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="74"/>
-      <c r="AC51" s="74"/>
-      <c r="AD51" s="74"/>
-      <c r="AE51" s="74"/>
-      <c r="AF51" s="75"/>
-      <c r="AG51" s="75"/>
-      <c r="AH51" s="75"/>
-      <c r="AI51" s="75"/>
-      <c r="AJ51" s="75"/>
-      <c r="AK51" s="76"/>
-      <c r="AL51" s="76"/>
-      <c r="AM51" s="76"/>
-      <c r="AN51" s="76"/>
-      <c r="AO51" s="77"/>
-      <c r="AP51" s="77"/>
-      <c r="AQ51" s="77"/>
-      <c r="AR51" s="77"/>
-      <c r="AS51" s="64"/>
-    </row>
-    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="65"/>
-      <c r="B52" s="95"/>
-      <c r="C52" s="95"/>
-      <c r="D52" s="95"/>
-      <c r="E52" s="95"/>
-      <c r="F52" s="95"/>
-      <c r="G52" s="95"/>
-      <c r="H52" s="95"/>
-      <c r="I52" s="95"/>
-      <c r="J52" s="95"/>
-      <c r="K52" s="95"/>
-      <c r="L52" s="95"/>
-      <c r="M52" s="95"/>
-      <c r="N52" s="95"/>
-      <c r="O52" s="95"/>
-      <c r="P52" s="95"/>
-      <c r="Q52" s="95"/>
-      <c r="R52" s="95"/>
-      <c r="S52" s="95"/>
-      <c r="T52" s="95"/>
-      <c r="U52" s="95"/>
-      <c r="V52" s="95"/>
-      <c r="W52" s="95"/>
-      <c r="X52" s="95"/>
-      <c r="Y52" s="95"/>
-      <c r="Z52" s="95"/>
-      <c r="AA52" s="95"/>
-      <c r="AB52" s="95"/>
-      <c r="AC52" s="95"/>
-      <c r="AD52" s="95"/>
-      <c r="AE52" s="95"/>
-      <c r="AF52" s="95"/>
-      <c r="AG52" s="95"/>
-      <c r="AH52" s="95"/>
-      <c r="AI52" s="95"/>
-      <c r="AJ52" s="95"/>
-      <c r="AK52" s="95"/>
-      <c r="AL52" s="95"/>
-      <c r="AM52" s="95"/>
-      <c r="AN52" s="95"/>
-      <c r="AO52" s="95"/>
-      <c r="AP52" s="95"/>
-      <c r="AQ52" s="95"/>
-      <c r="AR52" s="95"/>
-      <c r="AS52" s="96"/>
-    </row>
-    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="65"/>
-      <c r="B53" s="97" t="s">
-        <v>43</v>
-      </c>
-      <c r="C53" s="98"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="98"/>
-      <c r="F53" s="98"/>
-      <c r="G53" s="98"/>
-      <c r="H53" s="98"/>
-      <c r="I53" s="98"/>
-      <c r="J53" s="98"/>
-      <c r="K53" s="98"/>
-      <c r="L53" s="98"/>
-      <c r="M53" s="98"/>
-      <c r="N53" s="98"/>
-      <c r="O53" s="98"/>
-      <c r="P53" s="98"/>
-      <c r="Q53" s="98"/>
-      <c r="R53" s="98"/>
-      <c r="S53" s="98"/>
-      <c r="T53" s="98"/>
-      <c r="U53" s="98"/>
-      <c r="V53" s="98"/>
-      <c r="W53" s="98"/>
-      <c r="X53" s="98"/>
-      <c r="Y53" s="98"/>
-      <c r="Z53" s="98"/>
-      <c r="AA53" s="98"/>
-      <c r="AB53" s="98"/>
-      <c r="AC53" s="98"/>
-      <c r="AD53" s="98"/>
-      <c r="AE53" s="98"/>
-      <c r="AF53" s="99"/>
-      <c r="AG53" s="99"/>
-      <c r="AH53" s="99"/>
-      <c r="AI53" s="99"/>
-      <c r="AJ53" s="99"/>
-      <c r="AK53" s="99"/>
-      <c r="AL53" s="99"/>
-      <c r="AM53" s="99"/>
-      <c r="AN53" s="99"/>
-      <c r="AO53" s="99"/>
-      <c r="AP53" s="99"/>
-      <c r="AQ53" s="99"/>
-      <c r="AR53" s="99"/>
-      <c r="AS53" s="100"/>
-    </row>
-    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="101"/>
-      <c r="B54" s="102" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="102" t="s">
-        <v>45</v>
-      </c>
-      <c r="D54" s="115" t="s">
-        <v>46</v>
-      </c>
-      <c r="E54" s="116"/>
-      <c r="F54" s="117"/>
-      <c r="G54" s="117"/>
-      <c r="H54" s="117"/>
-      <c r="I54" s="117"/>
-      <c r="J54" s="117"/>
-      <c r="K54" s="117"/>
-      <c r="L54" s="117"/>
-      <c r="M54" s="117"/>
-      <c r="N54" s="117"/>
-      <c r="O54" s="117"/>
-      <c r="P54" s="116"/>
-      <c r="Q54" s="116"/>
-      <c r="R54" s="116"/>
-      <c r="S54" s="116"/>
-      <c r="T54" s="116"/>
-      <c r="U54" s="116"/>
-      <c r="V54" s="116"/>
-      <c r="W54" s="116"/>
-      <c r="X54" s="116"/>
-      <c r="Y54" s="116"/>
-      <c r="Z54" s="116"/>
-      <c r="AA54" s="116"/>
-      <c r="AB54" s="116"/>
-      <c r="AC54" s="116"/>
-      <c r="AD54" s="116"/>
-      <c r="AE54" s="118"/>
-      <c r="AF54" s="103"/>
-      <c r="AG54" s="99"/>
-      <c r="AH54" s="99"/>
-      <c r="AI54" s="99"/>
-      <c r="AJ54" s="99"/>
-      <c r="AK54" s="99"/>
-      <c r="AL54" s="99"/>
-      <c r="AM54" s="99"/>
-      <c r="AN54" s="99"/>
-      <c r="AO54" s="99"/>
-      <c r="AP54" s="99"/>
-      <c r="AQ54" s="99"/>
-      <c r="AR54" s="99"/>
-      <c r="AS54" s="100"/>
-    </row>
-    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="104"/>
-      <c r="B55" s="105">
-        <v>43267</v>
-      </c>
-      <c r="C55" s="106"/>
-      <c r="D55" s="119" t="s">
-        <v>47</v>
-      </c>
-      <c r="E55" s="120"/>
-      <c r="F55" s="120"/>
-      <c r="G55" s="120"/>
-      <c r="H55" s="120"/>
-      <c r="I55" s="120"/>
-      <c r="J55" s="120"/>
-      <c r="K55" s="120"/>
-      <c r="L55" s="120"/>
-      <c r="M55" s="120"/>
-      <c r="N55" s="120"/>
-      <c r="O55" s="120"/>
-      <c r="P55" s="120"/>
-      <c r="Q55" s="120"/>
-      <c r="R55" s="120"/>
-      <c r="S55" s="120"/>
-      <c r="T55" s="120"/>
-      <c r="U55" s="120"/>
-      <c r="V55" s="120"/>
-      <c r="W55" s="120"/>
-      <c r="X55" s="120"/>
-      <c r="Y55" s="120"/>
-      <c r="Z55" s="120"/>
-      <c r="AA55" s="120"/>
-      <c r="AB55" s="120"/>
-      <c r="AC55" s="120"/>
-      <c r="AD55" s="120"/>
-      <c r="AE55" s="121"/>
-      <c r="AF55" s="103"/>
-      <c r="AG55" s="99"/>
-      <c r="AH55" s="99"/>
-      <c r="AI55" s="99"/>
-      <c r="AJ55" s="99"/>
-      <c r="AK55" s="99"/>
-      <c r="AL55" s="99"/>
-      <c r="AM55" s="99"/>
-      <c r="AN55" s="99"/>
-      <c r="AO55" s="99"/>
-      <c r="AP55" s="99"/>
-      <c r="AQ55" s="99"/>
-      <c r="AR55" s="99"/>
-      <c r="AS55" s="100"/>
-    </row>
-    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="107"/>
-      <c r="B56" s="105">
-        <v>43280</v>
-      </c>
-      <c r="C56" s="108" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56" s="119" t="s">
-        <v>49</v>
-      </c>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="120"/>
-      <c r="H56" s="120"/>
-      <c r="I56" s="120"/>
-      <c r="J56" s="120"/>
-      <c r="K56" s="120"/>
-      <c r="L56" s="120"/>
-      <c r="M56" s="120"/>
-      <c r="N56" s="120"/>
-      <c r="O56" s="120"/>
-      <c r="P56" s="120"/>
-      <c r="Q56" s="120"/>
-      <c r="R56" s="120"/>
-      <c r="S56" s="120"/>
-      <c r="T56" s="120"/>
-      <c r="U56" s="120"/>
-      <c r="V56" s="120"/>
-      <c r="W56" s="120"/>
-      <c r="X56" s="120"/>
-      <c r="Y56" s="120"/>
-      <c r="Z56" s="120"/>
-      <c r="AA56" s="120"/>
-      <c r="AB56" s="120"/>
-      <c r="AC56" s="120"/>
-      <c r="AD56" s="120"/>
-      <c r="AE56" s="121"/>
-      <c r="AF56" s="103"/>
-      <c r="AG56" s="99"/>
-      <c r="AH56" s="99"/>
-      <c r="AI56" s="99"/>
-      <c r="AJ56" s="99"/>
-      <c r="AK56" s="99"/>
-      <c r="AL56" s="99"/>
-      <c r="AM56" s="99"/>
-      <c r="AN56" s="99"/>
-      <c r="AO56" s="99"/>
-      <c r="AP56" s="99"/>
-      <c r="AQ56" s="99"/>
-      <c r="AR56" s="99"/>
-      <c r="AS56" s="100"/>
-    </row>
-    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="107"/>
-      <c r="B57" s="106"/>
-      <c r="C57" s="106"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="120"/>
-      <c r="H57" s="120"/>
-      <c r="I57" s="120"/>
-      <c r="J57" s="120"/>
-      <c r="K57" s="120"/>
-      <c r="L57" s="120"/>
-      <c r="M57" s="120"/>
-      <c r="N57" s="120"/>
-      <c r="O57" s="120"/>
-      <c r="P57" s="120"/>
-      <c r="Q57" s="120"/>
-      <c r="R57" s="120"/>
-      <c r="S57" s="120"/>
-      <c r="T57" s="120"/>
-      <c r="U57" s="120"/>
-      <c r="V57" s="120"/>
-      <c r="W57" s="120"/>
-      <c r="X57" s="120"/>
-      <c r="Y57" s="120"/>
-      <c r="Z57" s="120"/>
-      <c r="AA57" s="120"/>
-      <c r="AB57" s="120"/>
-      <c r="AC57" s="120"/>
-      <c r="AD57" s="120"/>
-      <c r="AE57" s="121"/>
-      <c r="AF57" s="103"/>
-      <c r="AG57" s="99"/>
-      <c r="AH57" s="99"/>
-      <c r="AI57" s="99"/>
-      <c r="AJ57" s="99"/>
-      <c r="AK57" s="99"/>
-      <c r="AL57" s="99"/>
-      <c r="AM57" s="99"/>
-      <c r="AN57" s="99"/>
-      <c r="AO57" s="99"/>
-      <c r="AP57" s="99"/>
-      <c r="AQ57" s="99"/>
-      <c r="AR57" s="99"/>
-      <c r="AS57" s="100"/>
-    </row>
-    <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="107"/>
-      <c r="B58" s="106"/>
-      <c r="C58" s="106"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="120"/>
-      <c r="H58" s="120"/>
-      <c r="I58" s="120"/>
-      <c r="J58" s="120"/>
-      <c r="K58" s="120"/>
-      <c r="L58" s="120"/>
-      <c r="M58" s="120"/>
-      <c r="N58" s="120"/>
-      <c r="O58" s="120"/>
-      <c r="P58" s="120"/>
-      <c r="Q58" s="120"/>
-      <c r="R58" s="120"/>
-      <c r="S58" s="120"/>
-      <c r="T58" s="120"/>
-      <c r="U58" s="120"/>
-      <c r="V58" s="120"/>
-      <c r="W58" s="120"/>
-      <c r="X58" s="120"/>
-      <c r="Y58" s="120"/>
-      <c r="Z58" s="120"/>
-      <c r="AA58" s="120"/>
-      <c r="AB58" s="120"/>
-      <c r="AC58" s="120"/>
-      <c r="AD58" s="120"/>
-      <c r="AE58" s="121"/>
-      <c r="AF58" s="103"/>
-      <c r="AG58" s="99"/>
-      <c r="AH58" s="99"/>
-      <c r="AI58" s="99"/>
-      <c r="AJ58" s="99"/>
-      <c r="AK58" s="99"/>
-      <c r="AL58" s="99"/>
-      <c r="AM58" s="99"/>
-      <c r="AN58" s="99"/>
-      <c r="AO58" s="99"/>
-      <c r="AP58" s="99"/>
-      <c r="AQ58" s="99"/>
-      <c r="AR58" s="99"/>
-      <c r="AS58" s="100"/>
-    </row>
-    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="107"/>
-      <c r="B59" s="106"/>
-      <c r="C59" s="106"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="120"/>
-      <c r="H59" s="120"/>
-      <c r="I59" s="120"/>
-      <c r="J59" s="120"/>
-      <c r="K59" s="120"/>
-      <c r="L59" s="120"/>
-      <c r="M59" s="120"/>
-      <c r="N59" s="120"/>
-      <c r="O59" s="120"/>
-      <c r="P59" s="120"/>
-      <c r="Q59" s="120"/>
-      <c r="R59" s="120"/>
-      <c r="S59" s="120"/>
-      <c r="T59" s="120"/>
-      <c r="U59" s="120"/>
-      <c r="V59" s="120"/>
-      <c r="W59" s="120"/>
-      <c r="X59" s="120"/>
-      <c r="Y59" s="120"/>
-      <c r="Z59" s="120"/>
-      <c r="AA59" s="120"/>
-      <c r="AB59" s="120"/>
-      <c r="AC59" s="120"/>
-      <c r="AD59" s="120"/>
-      <c r="AE59" s="121"/>
-      <c r="AF59" s="103"/>
-      <c r="AG59" s="99"/>
-      <c r="AH59" s="99"/>
-      <c r="AI59" s="99"/>
-      <c r="AJ59" s="99"/>
-      <c r="AK59" s="99"/>
-      <c r="AL59" s="99"/>
-      <c r="AM59" s="99"/>
-      <c r="AN59" s="99"/>
-      <c r="AO59" s="99"/>
-      <c r="AP59" s="99"/>
-      <c r="AQ59" s="99"/>
-      <c r="AR59" s="99"/>
-      <c r="AS59" s="100"/>
-    </row>
-    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="107"/>
-      <c r="B60" s="109"/>
-      <c r="C60" s="109"/>
-      <c r="D60" s="124"/>
-      <c r="E60" s="125"/>
-      <c r="F60" s="125"/>
-      <c r="G60" s="125"/>
-      <c r="H60" s="125"/>
-      <c r="I60" s="125"/>
-      <c r="J60" s="125"/>
-      <c r="K60" s="125"/>
-      <c r="L60" s="125"/>
-      <c r="M60" s="125"/>
-      <c r="N60" s="125"/>
-      <c r="O60" s="125"/>
-      <c r="P60" s="125"/>
-      <c r="Q60" s="125"/>
-      <c r="R60" s="125"/>
-      <c r="S60" s="125"/>
-      <c r="T60" s="125"/>
-      <c r="U60" s="125"/>
-      <c r="V60" s="125"/>
-      <c r="W60" s="125"/>
-      <c r="X60" s="125"/>
-      <c r="Y60" s="125"/>
-      <c r="Z60" s="125"/>
-      <c r="AA60" s="125"/>
-      <c r="AB60" s="125"/>
-      <c r="AC60" s="125"/>
-      <c r="AD60" s="125"/>
-      <c r="AE60" s="126"/>
-      <c r="AF60" s="103"/>
-      <c r="AG60" s="99"/>
-      <c r="AH60" s="99"/>
-      <c r="AI60" s="99"/>
-      <c r="AJ60" s="99"/>
-      <c r="AK60" s="99"/>
-      <c r="AL60" s="99"/>
-      <c r="AM60" s="99"/>
-      <c r="AN60" s="99"/>
-      <c r="AO60" s="99"/>
-      <c r="AP60" s="99"/>
-      <c r="AQ60" s="99"/>
-      <c r="AR60" s="99"/>
-      <c r="AS60" s="100"/>
-    </row>
-    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="110"/>
-      <c r="B61" s="111"/>
-      <c r="C61" s="111"/>
-      <c r="D61" s="122"/>
-      <c r="E61" s="122"/>
-      <c r="F61" s="123"/>
-      <c r="G61" s="123"/>
-      <c r="H61" s="123"/>
-      <c r="I61" s="123"/>
-      <c r="J61" s="123"/>
-      <c r="K61" s="123"/>
-      <c r="L61" s="123"/>
-      <c r="M61" s="123"/>
-      <c r="N61" s="123"/>
-      <c r="O61" s="123"/>
-      <c r="P61" s="122"/>
-      <c r="Q61" s="122"/>
-      <c r="R61" s="122"/>
-      <c r="S61" s="122"/>
-      <c r="T61" s="122"/>
-      <c r="U61" s="122"/>
-      <c r="V61" s="122"/>
-      <c r="W61" s="122"/>
-      <c r="X61" s="122"/>
-      <c r="Y61" s="122"/>
-      <c r="Z61" s="122"/>
-      <c r="AA61" s="122"/>
-      <c r="AB61" s="122"/>
-      <c r="AC61" s="122"/>
-      <c r="AD61" s="122"/>
-      <c r="AE61" s="122"/>
-      <c r="AF61" s="112"/>
-      <c r="AG61" s="112"/>
-      <c r="AH61" s="112"/>
-      <c r="AI61" s="112"/>
-      <c r="AJ61" s="112"/>
-      <c r="AK61" s="112"/>
-      <c r="AL61" s="112"/>
-      <c r="AM61" s="112"/>
-      <c r="AN61" s="112"/>
-      <c r="AO61" s="112"/>
-      <c r="AP61" s="112"/>
-      <c r="AQ61" s="112"/>
-      <c r="AR61" s="112"/>
-      <c r="AS61" s="113"/>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="116"/>
+      <c r="B61" s="117"/>
+      <c r="C61" s="117"/>
+      <c r="D61" s="118"/>
+      <c r="E61" s="118"/>
+      <c r="F61" s="117"/>
+      <c r="G61" s="117"/>
+      <c r="H61" s="117"/>
+      <c r="I61" s="117"/>
+      <c r="J61" s="117"/>
+      <c r="K61" s="117"/>
+      <c r="L61" s="117"/>
+      <c r="M61" s="117"/>
+      <c r="N61" s="117"/>
+      <c r="O61" s="117"/>
+      <c r="P61" s="118"/>
+      <c r="Q61" s="118"/>
+      <c r="R61" s="118"/>
+      <c r="S61" s="118"/>
+      <c r="T61" s="118"/>
+      <c r="U61" s="118"/>
+      <c r="V61" s="118"/>
+      <c r="W61" s="118"/>
+      <c r="X61" s="118"/>
+      <c r="Y61" s="118"/>
+      <c r="Z61" s="118"/>
+      <c r="AA61" s="118"/>
+      <c r="AB61" s="118"/>
+      <c r="AC61" s="118"/>
+      <c r="AD61" s="118"/>
+      <c r="AE61" s="118"/>
+      <c r="AF61" s="119"/>
+      <c r="AG61" s="119"/>
+      <c r="AH61" s="119"/>
+      <c r="AI61" s="119"/>
+      <c r="AJ61" s="119"/>
+      <c r="AK61" s="119"/>
+      <c r="AL61" s="119"/>
+      <c r="AM61" s="119"/>
+      <c r="AN61" s="119"/>
+      <c r="AO61" s="119"/>
+      <c r="AP61" s="119"/>
+      <c r="AQ61" s="119"/>
+      <c r="AR61" s="119"/>
+      <c r="AS61" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D55:AE55"/>
+    <mergeCell ref="D57:AE57"/>
+    <mergeCell ref="D58:AE58"/>
+    <mergeCell ref="D60:AE60"/>
+    <mergeCell ref="D61:AE61"/>
+    <mergeCell ref="D56:AE56"/>
+    <mergeCell ref="D59:AE59"/>
     <mergeCell ref="D54:AE54"/>
-    <mergeCell ref="D56:AE56"/>
-    <mergeCell ref="D61:AE61"/>
-    <mergeCell ref="D60:AE60"/>
-    <mergeCell ref="D59:AE59"/>
-    <mergeCell ref="D58:AE58"/>
-    <mergeCell ref="D57:AE57"/>
-    <mergeCell ref="D55:AE55"/>
   </mergeCells>
-  <phoneticPr fontId="5"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/「ちぃーず」ガントチャート.xlsx
+++ b/「ちぃーず」ガントチャート.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="16440"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId4"/>
+    <sheet name="シート1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="53">
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>ガントチャート</t>
     </r>
@@ -26,6 +31,7 @@
         <sz val="10"/>
         <color indexed="9"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>.xlsx</t>
     </r>
@@ -150,6 +156,7 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="Arial"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -158,6 +165,8 @@
         <sz val="10"/>
         <color indexed="8"/>
         <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
       </rPr>
       <t>総合テスト</t>
     </r>
@@ -205,25 +214,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="60" formatCode="yy/m/d"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="177" formatCode="yy/m/d"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="ヒラギノ角ゴ ProN W3"/>
-    </font>
-    <font>
-      <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
     </font>
@@ -231,21 +229,39 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="23"/>
       <color indexed="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1052,422 +1068,243 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="122">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="121">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="4" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="14" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="59" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="4" fillId="15" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="19" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="21" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="14" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="15" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="35" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="38" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="45" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="49" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff20124d"/>
-      <rgbColor rgb="ffd9d9d9"/>
-      <rgbColor rgb="fff79646"/>
-      <rgbColor rgb="ff3c899e"/>
-      <rgbColor rgb="ffcc4125"/>
-      <rgbColor rgb="ffffd966"/>
-      <rgbColor rgb="ff76a5af"/>
-      <rgbColor rgb="ff6fa8dc"/>
-      <rgbColor rgb="ff8e7cc3"/>
-      <rgbColor rgb="ff93c47d"/>
-      <rgbColor rgb="ffc27ba0"/>
-      <rgbColor rgb="ffcccccc"/>
-      <rgbColor rgb="ffefefef"/>
-      <rgbColor rgb="fffbcaa2"/>
-      <rgbColor rgb="ffa5d5e2"/>
-      <rgbColor rgb="ffe6b8af"/>
-      <rgbColor rgb="fffff2cc"/>
-      <rgbColor rgb="ffd0e0e3"/>
-      <rgbColor rgb="ffcfe2f3"/>
-      <rgbColor rgb="ffd9d2e9"/>
-      <rgbColor rgb="ffd9ead3"/>
-      <rgbColor rgb="ffead1dc"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF20124D"/>
+      <rgbColor rgb="FFD9D9D9"/>
+      <rgbColor rgb="FFF79646"/>
+      <rgbColor rgb="FF3C899E"/>
+      <rgbColor rgb="FFCC4125"/>
+      <rgbColor rgb="FFFFD966"/>
+      <rgbColor rgb="FF76A5AF"/>
+      <rgbColor rgb="FF6FA8DC"/>
+      <rgbColor rgb="FF8E7CC3"/>
+      <rgbColor rgb="FF93C47D"/>
+      <rgbColor rgb="FFC27BA0"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FFEFEFEF"/>
+      <rgbColor rgb="FFFBCAA2"/>
+      <rgbColor rgb="FFA5D5E2"/>
+      <rgbColor rgb="FFE6B8AF"/>
+      <rgbColor rgb="FFFFF2CC"/>
+      <rgbColor rgb="FFD0E0E3"/>
+      <rgbColor rgb="FFCFE2F3"/>
+      <rgbColor rgb="FFD9D2E9"/>
+      <rgbColor rgb="FFD9EAD3"/>
+      <rgbColor rgb="FFEAD1DC"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
@@ -1481,7 +1318,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="Shape 2"/>
         <xdr:cNvSpPr/>
@@ -1507,7 +1344,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1526,7 +1363,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>83249</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Shape 3"/>
         <xdr:cNvSpPr/>
@@ -1552,7 +1389,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1571,7 +1408,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>83244</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Shape 4"/>
         <xdr:cNvSpPr/>
@@ -1597,7 +1434,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1616,7 +1453,7 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>146748</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Shape 5"/>
         <xdr:cNvSpPr/>
@@ -1642,7 +1479,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1661,7 +1498,7 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>149222</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Shape 6"/>
         <xdr:cNvSpPr/>
@@ -1687,7 +1524,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1706,7 +1543,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="7" name="Shape 7"/>
         <xdr:cNvSpPr/>
@@ -1732,7 +1569,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1751,7 +1588,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="8" name="Shape 8"/>
         <xdr:cNvSpPr/>
@@ -1777,7 +1614,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1796,7 +1633,7 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="9" name="Shape 9"/>
         <xdr:cNvSpPr/>
@@ -1822,7 +1659,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1841,7 +1678,7 @@
       <xdr:row>24</xdr:row>
       <xdr:rowOff>100010</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="10" name="Shape 10"/>
         <xdr:cNvSpPr/>
@@ -1867,7 +1704,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1886,7 +1723,7 @@
       <xdr:row>25</xdr:row>
       <xdr:rowOff>94456</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="11" name="Shape 11"/>
         <xdr:cNvSpPr/>
@@ -1912,7 +1749,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1931,7 +1768,7 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>82799</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="12" name="Shape 12"/>
         <xdr:cNvSpPr/>
@@ -1957,7 +1794,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1976,7 +1813,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>60838</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="13" name="Shape 13"/>
         <xdr:cNvSpPr/>
@@ -2002,7 +1839,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2021,7 +1858,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>83251</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="14" name="Shape 14"/>
         <xdr:cNvSpPr/>
@@ -2047,7 +1884,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2066,7 +1903,7 @@
       <xdr:row>21</xdr:row>
       <xdr:rowOff>92321</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="15" name="Shape 15"/>
         <xdr:cNvSpPr/>
@@ -2092,7 +1929,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2111,7 +1948,7 @@
       <xdr:row>49</xdr:row>
       <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="16" name="Shape 16"/>
         <xdr:cNvSpPr/>
@@ -2137,7 +1974,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2156,7 +1993,7 @@
       <xdr:row>48</xdr:row>
       <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="17" name="Shape 17"/>
         <xdr:cNvSpPr/>
@@ -2182,7 +2019,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2201,7 +2038,7 @@
       <xdr:row>35</xdr:row>
       <xdr:rowOff>82796</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="18" name="Shape 18"/>
         <xdr:cNvSpPr/>
@@ -2227,7 +2064,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2246,7 +2083,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>82798</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="19" name="Shape 19"/>
         <xdr:cNvSpPr/>
@@ -2272,7 +2109,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2291,7 +2128,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>102300</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="20" name="Shape 20"/>
         <xdr:cNvSpPr/>
@@ -2317,7 +2154,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2336,7 +2173,7 @@
       <xdr:row>39</xdr:row>
       <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="21" name="Shape 21"/>
         <xdr:cNvSpPr/>
@@ -2362,7 +2199,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2381,7 +2218,7 @@
       <xdr:row>38</xdr:row>
       <xdr:rowOff>83247</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="22" name="Shape 22"/>
         <xdr:cNvSpPr/>
@@ -2407,7 +2244,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2426,7 +2263,7 @@
       <xdr:row>40</xdr:row>
       <xdr:rowOff>83248</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="23" name="Shape 23"/>
         <xdr:cNvSpPr/>
@@ -2452,7 +2289,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2471,7 +2308,7 @@
       <xdr:row>41</xdr:row>
       <xdr:rowOff>102298</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="24" name="Shape 24"/>
         <xdr:cNvSpPr/>
@@ -2497,7 +2334,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2516,7 +2353,7 @@
       <xdr:row>42</xdr:row>
       <xdr:rowOff>92323</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="25" name="Shape 25"/>
         <xdr:cNvSpPr/>
@@ -2542,7 +2379,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2561,7 +2398,7 @@
       <xdr:row>45</xdr:row>
       <xdr:rowOff>92322</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="26" name="Shape 26"/>
         <xdr:cNvSpPr/>
@@ -2587,7 +2424,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2606,7 +2443,7 @@
       <xdr:row>13</xdr:row>
       <xdr:rowOff>177160</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="27" name="Shape 27"/>
         <xdr:cNvSpPr/>
@@ -2632,7 +2469,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2651,7 +2488,7 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>182810</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="28" name="Shape 28"/>
         <xdr:cNvSpPr/>
@@ -2677,7 +2514,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2696,7 +2533,7 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="29" name="Shape 29"/>
         <xdr:cNvSpPr/>
@@ -2722,7 +2559,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2741,7 +2578,7 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>200023</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="30" name="Shape 30"/>
         <xdr:cNvSpPr/>
@@ -2767,7 +2604,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2781,20 +2618,20 @@
       <xdr:rowOff>106736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>189535</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="31" name="Shape 31"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7623734" y="5148001"/>
-          <a:ext cx="5338484" cy="82800"/>
+          <a:off x="6706159" y="5145461"/>
+          <a:ext cx="5000066" cy="82799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2812,7 +2649,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2826,20 +2663,20 @@
       <xdr:rowOff>95529</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>178328</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="32" name="Shape 32"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7623734" y="5336819"/>
-          <a:ext cx="5338484" cy="82800"/>
+          <a:off x="6706159" y="5334279"/>
+          <a:ext cx="5000066" cy="82799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2857,7 +2694,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2871,20 +2708,20 @@
       <xdr:rowOff>106736</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>32</xdr:col>
-      <xdr:colOff>33617</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>26</xdr:row>
       <xdr:rowOff>189535</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="33" name="Shape 33"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7623734" y="5548051"/>
-          <a:ext cx="5338484" cy="82800"/>
+          <a:off x="6706159" y="5545511"/>
+          <a:ext cx="5000066" cy="82799"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2902,7 +2739,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2921,7 +2758,7 @@
       <xdr:row>29</xdr:row>
       <xdr:rowOff>179294</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="34" name="Shape 34"/>
         <xdr:cNvSpPr/>
@@ -2947,7 +2784,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -2966,7 +2803,7 @@
       <xdr:row>30</xdr:row>
       <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="35" name="Shape 35"/>
         <xdr:cNvSpPr/>
@@ -2992,7 +2829,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3011,7 +2848,7 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="36" name="Shape 36"/>
         <xdr:cNvSpPr/>
@@ -3037,7 +2874,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3056,7 +2893,7 @@
       <xdr:row>31</xdr:row>
       <xdr:rowOff>152399</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="37" name="Shape 37"/>
         <xdr:cNvSpPr/>
@@ -3082,7 +2919,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3101,7 +2938,7 @@
       <xdr:row>20</xdr:row>
       <xdr:rowOff>180856</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="38" name="Shape 38"/>
         <xdr:cNvSpPr/>
@@ -3127,7 +2964,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3146,7 +2983,7 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>6526</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="39" name="Shape 39"/>
         <xdr:cNvSpPr/>
@@ -3172,7 +3009,7 @@
         <a:bodyPr/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr/>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3182,7 +3019,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -3384,7 +3221,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3403,7 +3240,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3433,7 +3270,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3459,7 +3296,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3485,7 +3322,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3511,7 +3348,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3537,7 +3374,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3563,7 +3400,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3589,7 +3426,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3615,7 +3452,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3641,7 +3478,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3654,9 +3491,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -3673,7 +3516,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3692,7 +3535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3718,7 +3561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3744,7 +3587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3770,7 +3613,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3796,7 +3639,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3822,7 +3665,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3848,7 +3691,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3874,7 +3717,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3900,7 +3743,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3926,7 +3769,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3939,9 +3782,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -3955,7 +3804,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3974,7 +3823,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4004,7 +3853,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4030,7 +3879,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4056,7 +3905,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4082,7 +3931,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4108,7 +3957,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4134,7 +3983,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4160,7 +4009,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4186,7 +4035,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4212,7 +4061,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -4225,80 +4074,51 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AS61"/>
+  <dimension ref="A1:IV61"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="AL24" sqref="AL24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.85156" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" style="1" customWidth="1"/>
     <col min="4" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="4.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="4.67188" style="1" customWidth="1"/>
-    <col min="7" max="7" width="4.67188" style="1" customWidth="1"/>
-    <col min="8" max="8" width="4.67188" style="1" customWidth="1"/>
-    <col min="9" max="9" width="4.67188" style="1" customWidth="1"/>
-    <col min="10" max="10" width="4.67188" style="1" customWidth="1"/>
-    <col min="11" max="11" width="4.67188" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.67188" style="1" customWidth="1"/>
-    <col min="13" max="13" width="4.67188" style="1" customWidth="1"/>
-    <col min="14" max="14" width="4.67188" style="1" customWidth="1"/>
-    <col min="15" max="15" width="4.67188" style="1" customWidth="1"/>
-    <col min="16" max="16" width="4.67188" style="1" customWidth="1"/>
-    <col min="17" max="17" width="4.67188" style="1" customWidth="1"/>
-    <col min="18" max="18" width="4.67188" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.67188" style="1" customWidth="1"/>
-    <col min="20" max="20" width="4.67188" style="1" customWidth="1"/>
-    <col min="21" max="21" width="4.67188" style="1" customWidth="1"/>
-    <col min="22" max="22" width="4.67188" style="1" customWidth="1"/>
-    <col min="23" max="23" width="4.67188" style="1" customWidth="1"/>
-    <col min="24" max="24" width="4.67188" style="1" customWidth="1"/>
-    <col min="25" max="25" width="4.67188" style="1" customWidth="1"/>
-    <col min="26" max="26" width="4.67188" style="1" customWidth="1"/>
-    <col min="27" max="27" width="4.67188" style="1" customWidth="1"/>
-    <col min="28" max="28" width="4.67188" style="1" customWidth="1"/>
-    <col min="29" max="29" width="4.67188" style="1" customWidth="1"/>
-    <col min="30" max="30" width="4.67188" style="1" customWidth="1"/>
-    <col min="31" max="31" width="4.67188" style="1" customWidth="1"/>
-    <col min="32" max="32" width="4.67188" style="1" customWidth="1"/>
-    <col min="33" max="33" width="4.67188" style="1" customWidth="1"/>
-    <col min="34" max="34" width="4.67188" style="1" customWidth="1"/>
-    <col min="35" max="35" width="4.67188" style="1" customWidth="1"/>
-    <col min="36" max="36" width="4.67188" style="1" customWidth="1"/>
-    <col min="37" max="37" width="4.67188" style="1" customWidth="1"/>
-    <col min="38" max="38" width="4.67188" style="1" customWidth="1"/>
-    <col min="39" max="39" width="4.67188" style="1" customWidth="1"/>
-    <col min="40" max="40" width="4.67188" style="1" customWidth="1"/>
-    <col min="41" max="41" width="4.67188" style="1" customWidth="1"/>
-    <col min="42" max="42" width="4.67188" style="1" customWidth="1"/>
-    <col min="43" max="43" width="4.67188" style="1" customWidth="1"/>
-    <col min="44" max="44" width="4.67188" style="1" customWidth="1"/>
-    <col min="45" max="45" width="5.5" style="1" customWidth="1"/>
-    <col min="46" max="256" width="14.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="4.85546875" style="1" customWidth="1"/>
+    <col min="6" max="44" width="4.7109375" style="1" customWidth="1"/>
+    <col min="45" max="45" width="5.42578125" style="1" customWidth="1"/>
+    <col min="46" max="256" width="14.42578125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.75" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
@@ -4345,7 +4165,7 @@
       <c r="AR1" s="6"/>
       <c r="AS1" s="7"/>
     </row>
-    <row r="2" ht="15.75" customHeight="1">
+    <row r="2" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8"/>
       <c r="B2" s="9">
         <v>43412</v>
@@ -4394,9 +4214,9 @@
       <c r="AR2" s="12"/>
       <c r="AS2" s="13"/>
     </row>
-    <row r="3" ht="34.7" customHeight="1">
+    <row r="3" spans="1:45" ht="34.700000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8"/>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="14" t="s">
         <v>2</v>
       </c>
       <c r="C3" s="10"/>
@@ -4443,7 +4263,7 @@
       <c r="AR3" s="12"/>
       <c r="AS3" s="13"/>
     </row>
-    <row r="4" ht="15.75" customHeight="1">
+    <row r="4" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8"/>
       <c r="B4" s="12"/>
       <c r="C4" s="10"/>
@@ -4490,7 +4310,7 @@
       <c r="AR4" s="12"/>
       <c r="AS4" s="13"/>
     </row>
-    <row r="5" ht="15.75" customHeight="1">
+    <row r="5" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8"/>
       <c r="B5" s="12"/>
       <c r="C5" s="10"/>
@@ -4537,10 +4357,10 @@
       <c r="AR5" s="12"/>
       <c r="AS5" s="13"/>
     </row>
-    <row r="6" ht="15.75" customHeight="1">
+    <row r="6" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="10"/>
-      <c r="C6" t="s" s="15">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="11"/>
@@ -4586,12 +4406,12 @@
       <c r="AR6" s="12"/>
       <c r="AS6" s="13"/>
     </row>
-    <row r="7" ht="15.75" customHeight="1">
+    <row r="7" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
-      <c r="B7" t="s" s="15">
+      <c r="B7" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C7" t="s" s="15">
+      <c r="C7" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D7" s="11"/>
@@ -4637,12 +4457,12 @@
       <c r="AR7" s="12"/>
       <c r="AS7" s="13"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
+    <row r="8" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
-      <c r="B8" t="s" s="15">
+      <c r="B8" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s" s="15">
+      <c r="C8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="11"/>
@@ -4656,7 +4476,7 @@
       <c r="L8" s="12"/>
       <c r="M8" s="12"/>
       <c r="N8" s="12"/>
-      <c r="O8" t="s" s="16">
+      <c r="O8" s="16" t="s">
         <v>8</v>
       </c>
       <c r="P8" s="12"/>
@@ -4690,12 +4510,12 @@
       <c r="AR8" s="12"/>
       <c r="AS8" s="13"/>
     </row>
-    <row r="9" ht="15.75" customHeight="1">
+    <row r="9" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
-      <c r="B9" t="s" s="15">
+      <c r="B9" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s" s="15">
+      <c r="C9" s="15" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="11"/>
@@ -4709,7 +4529,7 @@
       <c r="L9" s="12"/>
       <c r="M9" s="12"/>
       <c r="N9" s="12"/>
-      <c r="O9" t="s" s="16">
+      <c r="O9" s="16" t="s">
         <v>11</v>
       </c>
       <c r="P9" s="12"/>
@@ -4743,7 +4563,7 @@
       <c r="AR9" s="12"/>
       <c r="AS9" s="13"/>
     </row>
-    <row r="10" ht="15.75" customHeight="1">
+    <row r="10" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="17"/>
       <c r="B10" s="18"/>
       <c r="C10" s="18"/>
@@ -4790,12 +4610,12 @@
       <c r="AR10" s="20"/>
       <c r="AS10" s="21"/>
     </row>
-    <row r="11" ht="15.75" customHeight="1">
+    <row r="11" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="22"/>
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="25"/>
-      <c r="E11" t="s" s="26">
+      <c r="E11" s="26" t="s">
         <v>12</v>
       </c>
       <c r="F11" s="27">
@@ -4857,18 +4677,18 @@
       <c r="AR11" s="35"/>
       <c r="AS11" s="36"/>
     </row>
-    <row r="12" ht="15.75" customHeight="1">
+    <row r="12" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="22"/>
-      <c r="B12" t="s" s="37">
+      <c r="B12" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="C12" t="s" s="38">
+      <c r="C12" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D12" t="s" s="39">
+      <c r="D12" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E12" t="s" s="39">
+      <c r="E12" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="40">
@@ -4990,9 +4810,9 @@
       </c>
       <c r="AS12" s="55"/>
     </row>
-    <row r="13" ht="15.75" customHeight="1">
+    <row r="13" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56"/>
-      <c r="B13" t="s" s="57">
+      <c r="B13" s="57" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="58"/>
@@ -5039,15 +4859,15 @@
       <c r="AR13" s="68"/>
       <c r="AS13" s="55"/>
     </row>
-    <row r="14" ht="15.75" customHeight="1">
+    <row r="14" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56"/>
-      <c r="B14" t="s" s="69">
+      <c r="B14" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="70">
         <v>0.85</v>
       </c>
-      <c r="D14" t="s" s="71">
+      <c r="D14" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="59"/>
@@ -5092,15 +4912,15 @@
       <c r="AR14" s="68"/>
       <c r="AS14" s="55"/>
     </row>
-    <row r="15" ht="15.75" customHeight="1">
+    <row r="15" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56"/>
-      <c r="B15" t="s" s="69">
+      <c r="B15" s="69" t="s">
         <v>20</v>
       </c>
       <c r="C15" s="70">
         <v>0.95</v>
       </c>
-      <c r="D15" t="s" s="71">
+      <c r="D15" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E15" s="59"/>
@@ -5145,13 +4965,13 @@
       <c r="AR15" s="68"/>
       <c r="AS15" s="55"/>
     </row>
-    <row r="16" ht="15.75" customHeight="1">
+    <row r="16" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56"/>
-      <c r="B16" t="s" s="69">
+      <c r="B16" s="69" t="s">
         <v>21</v>
       </c>
       <c r="C16" s="58"/>
-      <c r="D16" t="s" s="71">
+      <c r="D16" s="71" t="s">
         <v>7</v>
       </c>
       <c r="E16" s="59"/>
@@ -5196,13 +5016,13 @@
       <c r="AR16" s="68"/>
       <c r="AS16" s="55"/>
     </row>
-    <row r="17" ht="15.75" customHeight="1">
+    <row r="17" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56"/>
-      <c r="B17" t="s" s="69">
+      <c r="B17" s="69" t="s">
         <v>22</v>
       </c>
       <c r="C17" s="58"/>
-      <c r="D17" t="s" s="71">
+      <c r="D17" s="71" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="59"/>
@@ -5247,7 +5067,7 @@
       <c r="AR17" s="68"/>
       <c r="AS17" s="55"/>
     </row>
-    <row r="18" ht="15.75" customHeight="1">
+    <row r="18" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56"/>
       <c r="B18" s="72"/>
       <c r="C18" s="58"/>
@@ -5294,9 +5114,9 @@
       <c r="AR18" s="68"/>
       <c r="AS18" s="55"/>
     </row>
-    <row r="19" ht="15.75" customHeight="1">
+    <row r="19" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="56"/>
-      <c r="B19" t="s" s="57">
+      <c r="B19" s="57" t="s">
         <v>24</v>
       </c>
       <c r="C19" s="58"/>
@@ -5343,15 +5163,15 @@
       <c r="AR19" s="68"/>
       <c r="AS19" s="55"/>
     </row>
-    <row r="20" ht="15.75" customHeight="1">
+    <row r="20" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="56"/>
-      <c r="B20" t="s" s="69">
+      <c r="B20" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="70">
         <v>1</v>
       </c>
-      <c r="D20" t="s" s="71">
+      <c r="D20" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E20" s="59"/>
@@ -5396,15 +5216,15 @@
       <c r="AR20" s="68"/>
       <c r="AS20" s="55"/>
     </row>
-    <row r="21" ht="15.75" customHeight="1">
+    <row r="21" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="56"/>
-      <c r="B21" t="s" s="69">
+      <c r="B21" s="69" t="s">
         <v>26</v>
       </c>
       <c r="C21" s="70">
         <v>1</v>
       </c>
-      <c r="D21" t="s" s="71">
+      <c r="D21" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E21" s="59"/>
@@ -5449,15 +5269,15 @@
       <c r="AR21" s="68"/>
       <c r="AS21" s="55"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1">
+    <row r="22" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56"/>
-      <c r="B22" t="s" s="69">
+      <c r="B22" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C22" s="70">
         <v>0.8</v>
       </c>
-      <c r="D22" t="s" s="71">
+      <c r="D22" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="59"/>
@@ -5502,7 +5322,7 @@
       <c r="AR22" s="68"/>
       <c r="AS22" s="55"/>
     </row>
-    <row r="23" ht="15.75" customHeight="1">
+    <row r="23" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="56"/>
       <c r="B23" s="72"/>
       <c r="C23" s="58"/>
@@ -5549,9 +5369,9 @@
       <c r="AR23" s="68"/>
       <c r="AS23" s="55"/>
     </row>
-    <row r="24" ht="15.75" customHeight="1">
+    <row r="24" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="56"/>
-      <c r="B24" t="s" s="57">
+      <c r="B24" s="57" t="s">
         <v>28</v>
       </c>
       <c r="C24" s="58"/>
@@ -5598,15 +5418,15 @@
       <c r="AR24" s="68"/>
       <c r="AS24" s="55"/>
     </row>
-    <row r="25" ht="15.75" customHeight="1">
+    <row r="25" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="56"/>
-      <c r="B25" t="s" s="69">
+      <c r="B25" s="69" t="s">
         <v>25</v>
       </c>
       <c r="C25" s="70">
         <v>0.95</v>
       </c>
-      <c r="D25" t="s" s="71">
+      <c r="D25" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E25" s="59"/>
@@ -5651,15 +5471,15 @@
       <c r="AR25" s="68"/>
       <c r="AS25" s="55"/>
     </row>
-    <row r="26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="56"/>
-      <c r="B26" t="s" s="69">
+      <c r="B26" s="69" t="s">
         <v>29</v>
       </c>
       <c r="C26" s="70">
         <v>0.9</v>
       </c>
-      <c r="D26" t="s" s="71">
+      <c r="D26" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="59"/>
@@ -5704,15 +5524,15 @@
       <c r="AR26" s="68"/>
       <c r="AS26" s="55"/>
     </row>
-    <row r="27" ht="15.75" customHeight="1">
+    <row r="27" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="56"/>
-      <c r="B27" t="s" s="69">
+      <c r="B27" s="69" t="s">
         <v>27</v>
       </c>
       <c r="C27" s="70">
         <v>0.95</v>
       </c>
-      <c r="D27" t="s" s="71">
+      <c r="D27" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E27" s="59"/>
@@ -5757,7 +5577,7 @@
       <c r="AR27" s="68"/>
       <c r="AS27" s="55"/>
     </row>
-    <row r="28" ht="15.75" customHeight="1">
+    <row r="28" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56"/>
       <c r="B28" s="72"/>
       <c r="C28" s="58"/>
@@ -5804,9 +5624,9 @@
       <c r="AR28" s="68"/>
       <c r="AS28" s="55"/>
     </row>
-    <row r="29" ht="15.75" customHeight="1">
+    <row r="29" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56"/>
-      <c r="B29" t="s" s="57">
+      <c r="B29" s="57" t="s">
         <v>30</v>
       </c>
       <c r="C29" s="58"/>
@@ -5853,13 +5673,13 @@
       <c r="AR29" s="68"/>
       <c r="AS29" s="55"/>
     </row>
-    <row r="30" ht="15.75" customHeight="1">
+    <row r="30" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="56"/>
-      <c r="B30" t="s" s="69">
+      <c r="B30" s="69" t="s">
         <v>31</v>
       </c>
       <c r="C30" s="58"/>
-      <c r="D30" t="s" s="71">
+      <c r="D30" s="71" t="s">
         <v>7</v>
       </c>
       <c r="E30" s="59"/>
@@ -5904,13 +5724,13 @@
       <c r="AR30" s="68"/>
       <c r="AS30" s="55"/>
     </row>
-    <row r="31" ht="15.75" customHeight="1">
+    <row r="31" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="56"/>
-      <c r="B31" t="s" s="69">
+      <c r="B31" s="69" t="s">
         <v>32</v>
       </c>
       <c r="C31" s="58"/>
-      <c r="D31" t="s" s="71">
+      <c r="D31" s="71" t="s">
         <v>7</v>
       </c>
       <c r="E31" s="59"/>
@@ -5955,13 +5775,13 @@
       <c r="AR31" s="68"/>
       <c r="AS31" s="55"/>
     </row>
-    <row r="32" ht="15.75" customHeight="1">
+    <row r="32" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="56"/>
-      <c r="B32" t="s" s="69">
+      <c r="B32" s="69" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="58"/>
-      <c r="D32" t="s" s="71">
+      <c r="D32" s="71" t="s">
         <v>7</v>
       </c>
       <c r="E32" s="59"/>
@@ -6006,7 +5826,7 @@
       <c r="AR32" s="68"/>
       <c r="AS32" s="55"/>
     </row>
-    <row r="33" ht="15.75" customHeight="1">
+    <row r="33" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="56"/>
       <c r="B33" s="72"/>
       <c r="C33" s="58"/>
@@ -6053,9 +5873,9 @@
       <c r="AR33" s="68"/>
       <c r="AS33" s="55"/>
     </row>
-    <row r="34" ht="15.75" customHeight="1">
+    <row r="34" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="56"/>
-      <c r="B34" t="s" s="57">
+      <c r="B34" s="57" t="s">
         <v>34</v>
       </c>
       <c r="C34" s="58"/>
@@ -6102,13 +5922,13 @@
       <c r="AR34" s="68"/>
       <c r="AS34" s="55"/>
     </row>
-    <row r="35" ht="15.75" customHeight="1">
+    <row r="35" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="56"/>
-      <c r="B35" t="s" s="69">
+      <c r="B35" s="69" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="58"/>
-      <c r="D35" t="s" s="71">
+      <c r="D35" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E35" s="59"/>
@@ -6153,13 +5973,13 @@
       <c r="AR35" s="68"/>
       <c r="AS35" s="55"/>
     </row>
-    <row r="36" ht="15.75" customHeight="1">
+    <row r="36" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="56"/>
-      <c r="B36" t="s" s="69">
+      <c r="B36" s="69" t="s">
         <v>37</v>
       </c>
       <c r="C36" s="58"/>
-      <c r="D36" t="s" s="71">
+      <c r="D36" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E36" s="59"/>
@@ -6204,7 +6024,7 @@
       <c r="AR36" s="68"/>
       <c r="AS36" s="55"/>
     </row>
-    <row r="37" ht="15.75" customHeight="1">
+    <row r="37" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="56"/>
       <c r="B37" s="72"/>
       <c r="C37" s="58"/>
@@ -6251,9 +6071,9 @@
       <c r="AR37" s="68"/>
       <c r="AS37" s="55"/>
     </row>
-    <row r="38" ht="15.75" customHeight="1">
+    <row r="38" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="56"/>
-      <c r="B38" t="s" s="83">
+      <c r="B38" s="83" t="s">
         <v>38</v>
       </c>
       <c r="C38" s="58"/>
@@ -6300,13 +6120,13 @@
       <c r="AR38" s="68"/>
       <c r="AS38" s="55"/>
     </row>
-    <row r="39" ht="15.75" customHeight="1">
+    <row r="39" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="56"/>
-      <c r="B39" t="s" s="69">
+      <c r="B39" s="69" t="s">
         <v>18</v>
       </c>
       <c r="C39" s="58"/>
-      <c r="D39" t="s" s="71">
+      <c r="D39" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E39" s="59"/>
@@ -6351,13 +6171,13 @@
       <c r="AR39" s="68"/>
       <c r="AS39" s="55"/>
     </row>
-    <row r="40" ht="15.75" customHeight="1">
+    <row r="40" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="56"/>
-      <c r="B40" t="s" s="69">
+      <c r="B40" s="69" t="s">
         <v>20</v>
       </c>
       <c r="C40" s="58"/>
-      <c r="D40" t="s" s="71">
+      <c r="D40" s="71" t="s">
         <v>19</v>
       </c>
       <c r="E40" s="59"/>
@@ -6402,13 +6222,13 @@
       <c r="AR40" s="68"/>
       <c r="AS40" s="55"/>
     </row>
-    <row r="41" ht="15.75" customHeight="1">
+    <row r="41" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="56"/>
-      <c r="B41" t="s" s="69">
+      <c r="B41" s="69" t="s">
         <v>21</v>
       </c>
       <c r="C41" s="58"/>
-      <c r="D41" t="s" s="71">
+      <c r="D41" s="71" t="s">
         <v>7</v>
       </c>
       <c r="E41" s="59"/>
@@ -6453,13 +6273,13 @@
       <c r="AR41" s="68"/>
       <c r="AS41" s="55"/>
     </row>
-    <row r="42" ht="15.75" customHeight="1">
+    <row r="42" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="56"/>
-      <c r="B42" t="s" s="69">
+      <c r="B42" s="69" t="s">
         <v>22</v>
       </c>
       <c r="C42" s="58"/>
-      <c r="D42" t="s" s="71">
+      <c r="D42" s="71" t="s">
         <v>36</v>
       </c>
       <c r="E42" s="59"/>
@@ -6504,13 +6324,13 @@
       <c r="AR42" s="68"/>
       <c r="AS42" s="55"/>
     </row>
-    <row r="43" ht="15.75" customHeight="1">
+    <row r="43" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="56"/>
-      <c r="B43" t="s" s="69">
+      <c r="B43" s="69" t="s">
         <v>39</v>
       </c>
       <c r="C43" s="58"/>
-      <c r="D43" t="s" s="84">
+      <c r="D43" s="84" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="59"/>
@@ -6555,7 +6375,7 @@
       <c r="AR43" s="68"/>
       <c r="AS43" s="55"/>
     </row>
-    <row r="44" ht="15.75" customHeight="1">
+    <row r="44" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="56"/>
       <c r="B44" s="72"/>
       <c r="C44" s="58"/>
@@ -6602,9 +6422,9 @@
       <c r="AR44" s="68"/>
       <c r="AS44" s="55"/>
     </row>
-    <row r="45" ht="15.75" customHeight="1">
+    <row r="45" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="56"/>
-      <c r="B45" t="s" s="83">
+      <c r="B45" s="83" t="s">
         <v>40</v>
       </c>
       <c r="C45" s="58"/>
@@ -6651,13 +6471,13 @@
       <c r="AR45" s="68"/>
       <c r="AS45" s="55"/>
     </row>
-    <row r="46" ht="15.75" customHeight="1">
+    <row r="46" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="56"/>
-      <c r="B46" t="s" s="86">
+      <c r="B46" s="86" t="s">
         <v>41</v>
       </c>
       <c r="C46" s="58"/>
-      <c r="D46" t="s" s="84">
+      <c r="D46" s="84" t="s">
         <v>23</v>
       </c>
       <c r="E46" s="59"/>
@@ -6702,7 +6522,7 @@
       <c r="AR46" s="68"/>
       <c r="AS46" s="55"/>
     </row>
-    <row r="47" ht="15.75" customHeight="1">
+    <row r="47" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="56"/>
       <c r="B47" s="72"/>
       <c r="C47" s="58"/>
@@ -6749,9 +6569,9 @@
       <c r="AR47" s="68"/>
       <c r="AS47" s="55"/>
     </row>
-    <row r="48" ht="15.75" customHeight="1">
+    <row r="48" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="56"/>
-      <c r="B48" t="s" s="57">
+      <c r="B48" s="57" t="s">
         <v>42</v>
       </c>
       <c r="C48" s="58"/>
@@ -6798,13 +6618,13 @@
       <c r="AR48" s="68"/>
       <c r="AS48" s="55"/>
     </row>
-    <row r="49" ht="15.75" customHeight="1">
+    <row r="49" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="56"/>
-      <c r="B49" t="s" s="69">
+      <c r="B49" s="69" t="s">
         <v>43</v>
       </c>
       <c r="C49" s="58"/>
-      <c r="D49" t="s" s="71">
+      <c r="D49" s="71" t="s">
         <v>23</v>
       </c>
       <c r="E49" s="59"/>
@@ -6849,13 +6669,13 @@
       <c r="AR49" s="68"/>
       <c r="AS49" s="55"/>
     </row>
-    <row r="50" ht="15.75" customHeight="1">
+    <row r="50" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="56"/>
-      <c r="B50" t="s" s="69">
+      <c r="B50" s="69" t="s">
         <v>44</v>
       </c>
       <c r="C50" s="58"/>
-      <c r="D50" t="s" s="71">
+      <c r="D50" s="71" t="s">
         <v>23</v>
       </c>
       <c r="E50" s="59"/>
@@ -6900,7 +6720,7 @@
       <c r="AR50" s="68"/>
       <c r="AS50" s="55"/>
     </row>
-    <row r="51" ht="15.75" customHeight="1">
+    <row r="51" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="56"/>
       <c r="B51" s="72"/>
       <c r="C51" s="58"/>
@@ -6947,7 +6767,7 @@
       <c r="AR51" s="68"/>
       <c r="AS51" s="55"/>
     </row>
-    <row r="52" ht="15.75" customHeight="1">
+    <row r="52" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="56"/>
       <c r="B52" s="87"/>
       <c r="C52" s="87"/>
@@ -6994,9 +6814,9 @@
       <c r="AR52" s="87"/>
       <c r="AS52" s="88"/>
     </row>
-    <row r="53" ht="15.75" customHeight="1">
+    <row r="53" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="56"/>
-      <c r="B53" t="s" s="89">
+      <c r="B53" s="89" t="s">
         <v>45</v>
       </c>
       <c r="C53" s="90"/>
@@ -7043,45 +6863,45 @@
       <c r="AR53" s="91"/>
       <c r="AS53" s="92"/>
     </row>
-    <row r="54" ht="15.75" customHeight="1">
+    <row r="54" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="93"/>
-      <c r="B54" t="s" s="94">
+      <c r="B54" s="94" t="s">
         <v>46</v>
       </c>
-      <c r="C54" t="s" s="94">
+      <c r="C54" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="D54" t="s" s="95">
+      <c r="D54" s="118" t="s">
         <v>48</v>
       </c>
-      <c r="E54" s="96"/>
-      <c r="F54" s="97"/>
-      <c r="G54" s="97"/>
-      <c r="H54" s="97"/>
-      <c r="I54" s="97"/>
-      <c r="J54" s="97"/>
-      <c r="K54" s="97"/>
-      <c r="L54" s="97"/>
-      <c r="M54" s="97"/>
-      <c r="N54" s="97"/>
-      <c r="O54" s="97"/>
-      <c r="P54" s="96"/>
-      <c r="Q54" s="96"/>
-      <c r="R54" s="96"/>
-      <c r="S54" s="96"/>
-      <c r="T54" s="96"/>
-      <c r="U54" s="96"/>
-      <c r="V54" s="96"/>
-      <c r="W54" s="96"/>
-      <c r="X54" s="96"/>
-      <c r="Y54" s="96"/>
-      <c r="Z54" s="96"/>
-      <c r="AA54" s="96"/>
-      <c r="AB54" s="96"/>
-      <c r="AC54" s="96"/>
-      <c r="AD54" s="96"/>
-      <c r="AE54" s="98"/>
-      <c r="AF54" s="99"/>
+      <c r="E54" s="119"/>
+      <c r="F54" s="120"/>
+      <c r="G54" s="120"/>
+      <c r="H54" s="120"/>
+      <c r="I54" s="120"/>
+      <c r="J54" s="120"/>
+      <c r="K54" s="120"/>
+      <c r="L54" s="120"/>
+      <c r="M54" s="120"/>
+      <c r="N54" s="120"/>
+      <c r="O54" s="120"/>
+      <c r="P54" s="119"/>
+      <c r="Q54" s="119"/>
+      <c r="R54" s="119"/>
+      <c r="S54" s="119"/>
+      <c r="T54" s="119"/>
+      <c r="U54" s="119"/>
+      <c r="V54" s="119"/>
+      <c r="W54" s="119"/>
+      <c r="X54" s="119"/>
+      <c r="Y54" s="119"/>
+      <c r="Z54" s="119"/>
+      <c r="AA54" s="119"/>
+      <c r="AB54" s="119"/>
+      <c r="AC54" s="119"/>
+      <c r="AD54" s="119"/>
+      <c r="AE54" s="121"/>
+      <c r="AF54" s="95"/>
       <c r="AG54" s="91"/>
       <c r="AH54" s="91"/>
       <c r="AI54" s="91"/>
@@ -7096,43 +6916,43 @@
       <c r="AR54" s="91"/>
       <c r="AS54" s="92"/>
     </row>
-    <row r="55" ht="15.75" customHeight="1">
-      <c r="A55" s="100"/>
-      <c r="B55" s="101">
+    <row r="55" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="96"/>
+      <c r="B55" s="97">
         <v>43267</v>
       </c>
-      <c r="C55" s="102"/>
-      <c r="D55" t="s" s="103">
+      <c r="C55" s="98"/>
+      <c r="D55" s="108" t="s">
         <v>49</v>
       </c>
-      <c r="E55" s="104"/>
-      <c r="F55" s="104"/>
-      <c r="G55" s="104"/>
-      <c r="H55" s="104"/>
-      <c r="I55" s="104"/>
-      <c r="J55" s="104"/>
-      <c r="K55" s="104"/>
-      <c r="L55" s="104"/>
-      <c r="M55" s="104"/>
-      <c r="N55" s="104"/>
-      <c r="O55" s="104"/>
-      <c r="P55" s="104"/>
-      <c r="Q55" s="104"/>
-      <c r="R55" s="104"/>
-      <c r="S55" s="104"/>
-      <c r="T55" s="104"/>
-      <c r="U55" s="104"/>
-      <c r="V55" s="104"/>
-      <c r="W55" s="104"/>
-      <c r="X55" s="104"/>
-      <c r="Y55" s="104"/>
-      <c r="Z55" s="104"/>
-      <c r="AA55" s="104"/>
-      <c r="AB55" s="104"/>
-      <c r="AC55" s="104"/>
-      <c r="AD55" s="104"/>
-      <c r="AE55" s="105"/>
-      <c r="AF55" s="99"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
+      <c r="J55" s="109"/>
+      <c r="K55" s="109"/>
+      <c r="L55" s="109"/>
+      <c r="M55" s="109"/>
+      <c r="N55" s="109"/>
+      <c r="O55" s="109"/>
+      <c r="P55" s="109"/>
+      <c r="Q55" s="109"/>
+      <c r="R55" s="109"/>
+      <c r="S55" s="109"/>
+      <c r="T55" s="109"/>
+      <c r="U55" s="109"/>
+      <c r="V55" s="109"/>
+      <c r="W55" s="109"/>
+      <c r="X55" s="109"/>
+      <c r="Y55" s="109"/>
+      <c r="Z55" s="109"/>
+      <c r="AA55" s="109"/>
+      <c r="AB55" s="109"/>
+      <c r="AC55" s="109"/>
+      <c r="AD55" s="109"/>
+      <c r="AE55" s="110"/>
+      <c r="AF55" s="95"/>
       <c r="AG55" s="91"/>
       <c r="AH55" s="91"/>
       <c r="AI55" s="91"/>
@@ -7147,45 +6967,45 @@
       <c r="AR55" s="91"/>
       <c r="AS55" s="92"/>
     </row>
-    <row r="56" ht="15.75" customHeight="1">
-      <c r="A56" s="106"/>
-      <c r="B56" s="101">
+    <row r="56" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="99"/>
+      <c r="B56" s="97">
         <v>43280</v>
       </c>
-      <c r="C56" t="s" s="107">
+      <c r="C56" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="D56" t="s" s="103">
+      <c r="D56" s="108" t="s">
         <v>51</v>
       </c>
-      <c r="E56" s="104"/>
-      <c r="F56" s="104"/>
-      <c r="G56" s="104"/>
-      <c r="H56" s="104"/>
-      <c r="I56" s="104"/>
-      <c r="J56" s="104"/>
-      <c r="K56" s="104"/>
-      <c r="L56" s="104"/>
-      <c r="M56" s="104"/>
-      <c r="N56" s="104"/>
-      <c r="O56" s="104"/>
-      <c r="P56" s="104"/>
-      <c r="Q56" s="104"/>
-      <c r="R56" s="104"/>
-      <c r="S56" s="104"/>
-      <c r="T56" s="104"/>
-      <c r="U56" s="104"/>
-      <c r="V56" s="104"/>
-      <c r="W56" s="104"/>
-      <c r="X56" s="104"/>
-      <c r="Y56" s="104"/>
-      <c r="Z56" s="104"/>
-      <c r="AA56" s="104"/>
-      <c r="AB56" s="104"/>
-      <c r="AC56" s="104"/>
-      <c r="AD56" s="104"/>
-      <c r="AE56" s="105"/>
-      <c r="AF56" s="99"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
+      <c r="J56" s="109"/>
+      <c r="K56" s="109"/>
+      <c r="L56" s="109"/>
+      <c r="M56" s="109"/>
+      <c r="N56" s="109"/>
+      <c r="O56" s="109"/>
+      <c r="P56" s="109"/>
+      <c r="Q56" s="109"/>
+      <c r="R56" s="109"/>
+      <c r="S56" s="109"/>
+      <c r="T56" s="109"/>
+      <c r="U56" s="109"/>
+      <c r="V56" s="109"/>
+      <c r="W56" s="109"/>
+      <c r="X56" s="109"/>
+      <c r="Y56" s="109"/>
+      <c r="Z56" s="109"/>
+      <c r="AA56" s="109"/>
+      <c r="AB56" s="109"/>
+      <c r="AC56" s="109"/>
+      <c r="AD56" s="109"/>
+      <c r="AE56" s="110"/>
+      <c r="AF56" s="95"/>
       <c r="AG56" s="91"/>
       <c r="AH56" s="91"/>
       <c r="AI56" s="91"/>
@@ -7200,45 +7020,45 @@
       <c r="AR56" s="91"/>
       <c r="AS56" s="92"/>
     </row>
-    <row r="57" ht="15.75" customHeight="1">
-      <c r="A57" s="106"/>
-      <c r="B57" s="108">
+    <row r="57" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="99"/>
+      <c r="B57" s="101">
         <v>40804</v>
       </c>
-      <c r="C57" t="s" s="109">
+      <c r="C57" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="D57" t="s" s="110">
+      <c r="D57" s="111" t="s">
         <v>52</v>
       </c>
-      <c r="E57" s="104"/>
-      <c r="F57" s="104"/>
-      <c r="G57" s="104"/>
-      <c r="H57" s="104"/>
-      <c r="I57" s="104"/>
-      <c r="J57" s="104"/>
-      <c r="K57" s="104"/>
-      <c r="L57" s="104"/>
-      <c r="M57" s="104"/>
-      <c r="N57" s="104"/>
-      <c r="O57" s="104"/>
-      <c r="P57" s="104"/>
-      <c r="Q57" s="104"/>
-      <c r="R57" s="104"/>
-      <c r="S57" s="104"/>
-      <c r="T57" s="104"/>
-      <c r="U57" s="104"/>
-      <c r="V57" s="104"/>
-      <c r="W57" s="104"/>
-      <c r="X57" s="104"/>
-      <c r="Y57" s="104"/>
-      <c r="Z57" s="104"/>
-      <c r="AA57" s="104"/>
-      <c r="AB57" s="104"/>
-      <c r="AC57" s="104"/>
-      <c r="AD57" s="104"/>
-      <c r="AE57" s="105"/>
-      <c r="AF57" s="99"/>
+      <c r="E57" s="109"/>
+      <c r="F57" s="109"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
+      <c r="J57" s="109"/>
+      <c r="K57" s="109"/>
+      <c r="L57" s="109"/>
+      <c r="M57" s="109"/>
+      <c r="N57" s="109"/>
+      <c r="O57" s="109"/>
+      <c r="P57" s="109"/>
+      <c r="Q57" s="109"/>
+      <c r="R57" s="109"/>
+      <c r="S57" s="109"/>
+      <c r="T57" s="109"/>
+      <c r="U57" s="109"/>
+      <c r="V57" s="109"/>
+      <c r="W57" s="109"/>
+      <c r="X57" s="109"/>
+      <c r="Y57" s="109"/>
+      <c r="Z57" s="109"/>
+      <c r="AA57" s="109"/>
+      <c r="AB57" s="109"/>
+      <c r="AC57" s="109"/>
+      <c r="AD57" s="109"/>
+      <c r="AE57" s="110"/>
+      <c r="AF57" s="95"/>
       <c r="AG57" s="91"/>
       <c r="AH57" s="91"/>
       <c r="AI57" s="91"/>
@@ -7253,39 +7073,39 @@
       <c r="AR57" s="91"/>
       <c r="AS57" s="92"/>
     </row>
-    <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="106"/>
-      <c r="B58" s="102"/>
-      <c r="C58" s="102"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="104"/>
-      <c r="F58" s="104"/>
-      <c r="G58" s="104"/>
-      <c r="H58" s="104"/>
-      <c r="I58" s="104"/>
-      <c r="J58" s="104"/>
-      <c r="K58" s="104"/>
-      <c r="L58" s="104"/>
-      <c r="M58" s="104"/>
-      <c r="N58" s="104"/>
-      <c r="O58" s="104"/>
-      <c r="P58" s="104"/>
-      <c r="Q58" s="104"/>
-      <c r="R58" s="104"/>
-      <c r="S58" s="104"/>
-      <c r="T58" s="104"/>
-      <c r="U58" s="104"/>
-      <c r="V58" s="104"/>
-      <c r="W58" s="104"/>
-      <c r="X58" s="104"/>
-      <c r="Y58" s="104"/>
-      <c r="Z58" s="104"/>
-      <c r="AA58" s="104"/>
-      <c r="AB58" s="104"/>
-      <c r="AC58" s="104"/>
-      <c r="AD58" s="104"/>
-      <c r="AE58" s="105"/>
-      <c r="AF58" s="99"/>
+    <row r="58" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="99"/>
+      <c r="B58" s="98"/>
+      <c r="C58" s="98"/>
+      <c r="D58" s="112"/>
+      <c r="E58" s="109"/>
+      <c r="F58" s="109"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
+      <c r="J58" s="109"/>
+      <c r="K58" s="109"/>
+      <c r="L58" s="109"/>
+      <c r="M58" s="109"/>
+      <c r="N58" s="109"/>
+      <c r="O58" s="109"/>
+      <c r="P58" s="109"/>
+      <c r="Q58" s="109"/>
+      <c r="R58" s="109"/>
+      <c r="S58" s="109"/>
+      <c r="T58" s="109"/>
+      <c r="U58" s="109"/>
+      <c r="V58" s="109"/>
+      <c r="W58" s="109"/>
+      <c r="X58" s="109"/>
+      <c r="Y58" s="109"/>
+      <c r="Z58" s="109"/>
+      <c r="AA58" s="109"/>
+      <c r="AB58" s="109"/>
+      <c r="AC58" s="109"/>
+      <c r="AD58" s="109"/>
+      <c r="AE58" s="110"/>
+      <c r="AF58" s="95"/>
       <c r="AG58" s="91"/>
       <c r="AH58" s="91"/>
       <c r="AI58" s="91"/>
@@ -7300,39 +7120,39 @@
       <c r="AR58" s="91"/>
       <c r="AS58" s="92"/>
     </row>
-    <row r="59" ht="15.75" customHeight="1">
-      <c r="A59" s="106"/>
-      <c r="B59" s="102"/>
-      <c r="C59" s="102"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="104"/>
-      <c r="F59" s="104"/>
-      <c r="G59" s="104"/>
-      <c r="H59" s="104"/>
-      <c r="I59" s="104"/>
-      <c r="J59" s="104"/>
-      <c r="K59" s="104"/>
-      <c r="L59" s="104"/>
-      <c r="M59" s="104"/>
-      <c r="N59" s="104"/>
-      <c r="O59" s="104"/>
-      <c r="P59" s="104"/>
-      <c r="Q59" s="104"/>
-      <c r="R59" s="104"/>
-      <c r="S59" s="104"/>
-      <c r="T59" s="104"/>
-      <c r="U59" s="104"/>
-      <c r="V59" s="104"/>
-      <c r="W59" s="104"/>
-      <c r="X59" s="104"/>
-      <c r="Y59" s="104"/>
-      <c r="Z59" s="104"/>
-      <c r="AA59" s="104"/>
-      <c r="AB59" s="104"/>
-      <c r="AC59" s="104"/>
-      <c r="AD59" s="104"/>
-      <c r="AE59" s="105"/>
-      <c r="AF59" s="99"/>
+    <row r="59" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="99"/>
+      <c r="B59" s="98"/>
+      <c r="C59" s="98"/>
+      <c r="D59" s="112"/>
+      <c r="E59" s="109"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="109"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
+      <c r="J59" s="109"/>
+      <c r="K59" s="109"/>
+      <c r="L59" s="109"/>
+      <c r="M59" s="109"/>
+      <c r="N59" s="109"/>
+      <c r="O59" s="109"/>
+      <c r="P59" s="109"/>
+      <c r="Q59" s="109"/>
+      <c r="R59" s="109"/>
+      <c r="S59" s="109"/>
+      <c r="T59" s="109"/>
+      <c r="U59" s="109"/>
+      <c r="V59" s="109"/>
+      <c r="W59" s="109"/>
+      <c r="X59" s="109"/>
+      <c r="Y59" s="109"/>
+      <c r="Z59" s="109"/>
+      <c r="AA59" s="109"/>
+      <c r="AB59" s="109"/>
+      <c r="AC59" s="109"/>
+      <c r="AD59" s="109"/>
+      <c r="AE59" s="110"/>
+      <c r="AF59" s="95"/>
       <c r="AG59" s="91"/>
       <c r="AH59" s="91"/>
       <c r="AI59" s="91"/>
@@ -7347,10 +7167,10 @@
       <c r="AR59" s="91"/>
       <c r="AS59" s="92"/>
     </row>
-    <row r="60" ht="15.75" customHeight="1">
-      <c r="A60" s="106"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="112"/>
+    <row r="60" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="99"/>
+      <c r="B60" s="103"/>
+      <c r="C60" s="103"/>
       <c r="D60" s="113"/>
       <c r="E60" s="114"/>
       <c r="F60" s="114"/>
@@ -7379,7 +7199,7 @@
       <c r="AC60" s="114"/>
       <c r="AD60" s="114"/>
       <c r="AE60" s="115"/>
-      <c r="AF60" s="99"/>
+      <c r="AF60" s="95"/>
       <c r="AG60" s="91"/>
       <c r="AH60" s="91"/>
       <c r="AI60" s="91"/>
@@ -7394,12 +7214,12 @@
       <c r="AR60" s="91"/>
       <c r="AS60" s="92"/>
     </row>
-    <row r="61" ht="15.75" customHeight="1">
-      <c r="A61" s="116"/>
-      <c r="B61" s="117"/>
-      <c r="C61" s="117"/>
-      <c r="D61" s="118"/>
-      <c r="E61" s="118"/>
+    <row r="61" spans="1:45" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="104"/>
+      <c r="B61" s="105"/>
+      <c r="C61" s="105"/>
+      <c r="D61" s="116"/>
+      <c r="E61" s="116"/>
       <c r="F61" s="117"/>
       <c r="G61" s="117"/>
       <c r="H61" s="117"/>
@@ -7410,39 +7230,40 @@
       <c r="M61" s="117"/>
       <c r="N61" s="117"/>
       <c r="O61" s="117"/>
-      <c r="P61" s="118"/>
-      <c r="Q61" s="118"/>
-      <c r="R61" s="118"/>
-      <c r="S61" s="118"/>
-      <c r="T61" s="118"/>
-      <c r="U61" s="118"/>
-      <c r="V61" s="118"/>
-      <c r="W61" s="118"/>
-      <c r="X61" s="118"/>
-      <c r="Y61" s="118"/>
-      <c r="Z61" s="118"/>
-      <c r="AA61" s="118"/>
-      <c r="AB61" s="118"/>
-      <c r="AC61" s="118"/>
-      <c r="AD61" s="118"/>
-      <c r="AE61" s="118"/>
-      <c r="AF61" s="119"/>
-      <c r="AG61" s="119"/>
-      <c r="AH61" s="119"/>
-      <c r="AI61" s="119"/>
-      <c r="AJ61" s="119"/>
-      <c r="AK61" s="119"/>
-      <c r="AL61" s="119"/>
-      <c r="AM61" s="119"/>
-      <c r="AN61" s="119"/>
-      <c r="AO61" s="119"/>
-      <c r="AP61" s="119"/>
-      <c r="AQ61" s="119"/>
-      <c r="AR61" s="119"/>
-      <c r="AS61" s="120"/>
+      <c r="P61" s="116"/>
+      <c r="Q61" s="116"/>
+      <c r="R61" s="116"/>
+      <c r="S61" s="116"/>
+      <c r="T61" s="116"/>
+      <c r="U61" s="116"/>
+      <c r="V61" s="116"/>
+      <c r="W61" s="116"/>
+      <c r="X61" s="116"/>
+      <c r="Y61" s="116"/>
+      <c r="Z61" s="116"/>
+      <c r="AA61" s="116"/>
+      <c r="AB61" s="116"/>
+      <c r="AC61" s="116"/>
+      <c r="AD61" s="116"/>
+      <c r="AE61" s="116"/>
+      <c r="AF61" s="106"/>
+      <c r="AG61" s="106"/>
+      <c r="AH61" s="106"/>
+      <c r="AI61" s="106"/>
+      <c r="AJ61" s="106"/>
+      <c r="AK61" s="106"/>
+      <c r="AL61" s="106"/>
+      <c r="AM61" s="106"/>
+      <c r="AN61" s="106"/>
+      <c r="AO61" s="106"/>
+      <c r="AP61" s="106"/>
+      <c r="AQ61" s="106"/>
+      <c r="AR61" s="106"/>
+      <c r="AS61" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D54:AE54"/>
     <mergeCell ref="D55:AE55"/>
     <mergeCell ref="D57:AE57"/>
     <mergeCell ref="D58:AE58"/>
@@ -7450,13 +7271,13 @@
     <mergeCell ref="D61:AE61"/>
     <mergeCell ref="D56:AE56"/>
     <mergeCell ref="D59:AE59"/>
-    <mergeCell ref="D54:AE54"/>
   </mergeCells>
+  <phoneticPr fontId="6"/>
   <pageMargins left="1" right="1" top="1" bottom="1" header="0.25" footer="0.25"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"ヒラギノ角ゴ ProN W3,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>